--- a/data/02_intermediate/cleaned_Beendo_Z_songs.xlsx
+++ b/data/02_intermediate/cleaned_Beendo_Z_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>T'as vu, Beendo, il est pas bête, hun Isma, Isma, Isma Beendo Pour écrire, il m'faut d'l'inspi', pour voyager, j'ai pas besoin d'un billet Pour voyager, il m'faut un spliff, j'suis pas l'Diable mais en Prada, j'suis habillé Tu sais, de mes mains, j'suis habile, on choisi pas sa famille, gros Demande au fils de Nabilla, j'fais du rap pour v'-esqui la famine, gros J'te dis qu'ça va mais en vrai, j'fais mine, jamais satisfait comme une Femen Pas besoin d'aller en prison, quand t'es pauvre, t'es comme dans une cellule Quand t'as rien, ça t'calcule as-p, quand t'as ça, ça t'calcule grave Numéro dix comme Kakuta, la prod', j'vais la percuter La rue, j'l'ai pas trompé mais j'veux la quitter, j'veux l'élastique sur la kichta Check pas d'l'épaule, je sais pas qui tu es, ça s'trouve, c'est toi qui veut m'tuer Ou ça s'trouve, c'est toi qui va m'tirer d'un sacré bourbier, sa mère Têtu comme Nasri Samir mais pétri d'talent, sur l'terrain, il s'amuse Pour donner des coups, faut pas avoir peur d'en recevoir, j'te dirais pas Au revoir Ni Adieu d'ailleurs, toi, t'iras en enfer, j'le dis à haute voix Pour dépasser les autres, j'ai dû changer de voie, y a pas qu'les trans' qui peuvent changer de voix Pour naviguer, j'ai dû changer de voile, branles-toi en secret mais saches que Dieu te voit J'suis Parisien mais j'suis un peu Genevois, je ne vois qu'des hypocrites dans la musique Et ça, je me dois de l'écrire et de retranscrire tout ça par des jeux de voix J'vais plus en cours mais c'est envers ma famille que j'ai des devoirs J'vais pas l'répéter deux fois, nan, j'vais pas l'répéter deux fois Il m'reste deux joints, j'vais péter deux feuilles Moi, j'vais pas t'offrir de fleurs parce qu'elles sont vouées à faner J'ai pas envie que notre amour fasse pareil, le shit fait ressortir c'que j'veux pas faire paraître Donc j'ai fini par être celui qu'j'voulais pas être, hun T'as vu, Beendo, il est pas bête, hun You might also like T'as-t'as vu, Beendo, il est pas bête, hun, j'fais du bénéf' sur une plaquette, hun Sur le terrain, c'est la Seleção, j'touche plus de ballon que Paquetá Paquetá Elle est gée-char, c'est un paquet, hun Elle pensait m'la mettre, elle est pas prête, hun, t'as vu, Beendo, il est pas bête, hun T'as vu, Beendo, il est pas bête, hun, j'fais du bénéf' sur une plaquette, hun Sur le terrain, c'est la Seleção, j'touche plus de ballon que Paquetá Paquetá Elle est gée-char, c'est un paquet, hun Elle pensait m'la mettre, elle est pas prête, hun, t'as vu, Beendo, il est pas bête, hun Grr T'as vu, Beendo, il est pas bête, hun Hun-hun, hun-hun Seleção</t>
+          <t>T'as vu, Beendo, il est pas bête, hun Isma, Isma, Isma Beendo Pour écrire, il m'faut d'l'inspi', pour voyager, j'ai pas besoin d'un billet Pour voyager, il m'faut un spliff, j'suis pas l'Diable mais en Prada, j'suis habillé Tu sais, de mes mains, j'suis habile, on choisi pas sa famille, gros Demande au fils de Nabilla, j'fais du rap pour v'-esqui la famine, gros J'te dis qu'ça va mais en vrai, j'fais mine, jamais satisfait comme une Femen Pas besoin d'aller en prison, quand t'es pauvre, t'es comme dans une cellule Quand t'as rien, ça t'calcule as-p, quand t'as ça, ça t'calcule grave Numéro dix comme Kakuta, la prod', j'vais la percuter La rue, j'l'ai pas trompé mais j'veux la quitter, j'veux l'élastique sur la kichta Check pas d'l'épaule, je sais pas qui tu es, ça s'trouve, c'est toi qui veut m'tuer Ou ça s'trouve, c'est toi qui va m'tirer d'un sacré bourbier, sa mère Têtu comme Nasri Samir mais pétri d'talent, sur l'terrain, il s'amuse Pour donner des coups, faut pas avoir peur d'en recevoir, j'te dirais pas Au revoir Ni Adieu d'ailleurs, toi, t'iras en enfer, j'le dis à haute voix Pour dépasser les autres, j'ai dû changer de voie, y a pas qu'les trans' qui peuvent changer de voix Pour naviguer, j'ai dû changer de voile, branles-toi en secret mais saches que Dieu te voit J'suis Parisien mais j'suis un peu Genevois, je ne vois qu'des hypocrites dans la musique Et ça, je me dois de l'écrire et de retranscrire tout ça par des jeux de voix J'vais plus en cours mais c'est envers ma famille que j'ai des devoirs J'vais pas l'répéter deux fois, nan, j'vais pas l'répéter deux fois Il m'reste deux joints, j'vais péter deux feuilles Moi, j'vais pas t'offrir de fleurs parce qu'elles sont vouées à faner J'ai pas envie que notre amour fasse pareil, le shit fait ressortir c'que j'veux pas faire paraître Donc j'ai fini par être celui qu'j'voulais pas être, hun T'as vu, Beendo, il est pas bête, hun T'as-t'as vu, Beendo, il est pas bête, hun, j'fais du bénéf' sur une plaquette, hun Sur le terrain, c'est la Seleção, j'touche plus de ballon que Paquetá Paquetá Elle est gée-char, c'est un paquet, hun Elle pensait m'la mettre, elle est pas prête, hun, t'as vu, Beendo, il est pas bête, hun T'as vu, Beendo, il est pas bête, hun, j'fais du bénéf' sur une plaquette, hun Sur le terrain, c'est la Seleção, j'touche plus de ballon que Paquetá Paquetá Elle est gée-char, c'est un paquet, hun Elle pensait m'la mettre, elle est pas prête, hun, t'as vu, Beendo, il est pas bête, hun Grr T'as vu, Beendo, il est pas bête, hun Hun-hun, hun-hun Seleção</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Okay, Elessi Beendo Mets des ambiances Kosmow Pah, pah, pah J'arrive avec une tonne de punch' comme si j'venais d'rentrer de la pêche Shoo Le taulard, faut pas lui dire Garde la pêche, faut qu'il r'tienne son numéro d'écrou dans la tête Parce qu'il a fait un trou dans la tête d'un p'tit Pah qui a fait un trou dans la caisse Pah Lundi, j'dois faire plus de mapess qu'lundi Cash, cash de la semaine dernière Eh Tu vois c'buisson ? Bah l'produit est caché derrière, t'es con Han, en embrouille, tu te cachais derrièr tes grands T'es grand que drrière l'écran, le cran d'sûreté caresse les gants Grr Habitué aux égratignures donc quand on s'blesse, on en fait pas des tonnes On en fait pas des tonnes Si tu baises le premier soir et que tu penses que j'vais te marier bah t'es conne Ah-ah Fais pas l'con, oublie pas tes gants Hein ?, si t'es noir, oublie pas t'es qui Hein ? Oublie pas qu'on vient des pays pauvres, faut pas claquer ton biff pour une Patek Oublie pas t'es qui, hein La vie, c'est pas Taken Nan, nan, si on t'pourchasse, on va t'niquer Bah ouais J't'envoie pas mes sons, c'est sûr tu vas leaker Hein ?, j'ai baissé mon caleçon et elle m'a lick Ah Ta racli a des maillots d'joueurs de Ligue 1, j'achète un boîtier et j'ai te-j' ma Lyca' Brr Ça revend l'produit qui vient d'Alicante Brr pour s'acheter les derniers survêt' alligator La bécane comme à Compton Vrem, vrem, si j't'aime, j'vais pas compter Si j't'aime, j'vais pas compter Si j't'aime pas, c'est qu't'es un condé Pah, pah J'ai déballé l'produit et j'ai des souvenirs en train d'détaille dans la cave J'ai pas mangé l'argent du foot mais celui du rap et pas celui de la CAF Pah J'ai l'ADN comme Deulofeu, il a un 13 Pro Max, obligé d'le fouiller Shoo, shoo Dès qu'il m'a dit Le plavon, on l'fait où ?, j'me suis pointé avec une lame dans la fouille Ton avis, j'en ai rien à foutre, j'rappe comme personne, t'es obligé d'l'avouer Bah ouais De ton avis, j'vais passer outre, j'écris comme un nageur, le rap, c'est ma bouée Bouh Elle, c'est ma pute, c'est pas ma bohème Nan, nan, nan, j'fais ça pour l'argent Comme un Parisien qui joue sous le maillot d'l'OM Han-han, une femme, c'est une fée si t'enlèves le M Han-han Un homme, c'est une hoe si t'enlèves la même lettre Ouais, ils font pas de sous, on vend pas la même verte J'te baise ta mère si on est dans la même pièce Eh, eh, l'argent, c'est une hlel qui te donne de l'herpès Eh, eh Dans l'tamien, j'en ai pas mis un zeste, j'ai failli ber-tom, la juge m'a mis un geste Ah Elle veut pas baiser, elle a mis une lingette, elle fait bleh, t'as juste pas une voiture qui en jette On sait pour qui on saute, on sait pour qui on jette les colis, si t'es mon reuf, j'le fais en jet Décolle mais fais attention à la chute, j'la touche pas, elle a des boutons dans la chatte Ah-ah-ah Faire des sous, c'est faire un saut en parachute, tu montes mais tu peux faire l'inverse par la suite Elle m'suit pour que j'la fasse suer dans la suite, elle fait ça car j'suis pas un mec de sa cité You might also like J'oublie pas mes rêves, tous les jours, j'vis avec, y a des meufs qui mouillent pour pas être à sec Ah ouais ? J'ai des qualités intrinsèques, si ton pote fait la pute, c'est qu'c'est un trans' J'fais pas de sous pour m'poser sur un transat Grr, j'peux prendre deux ans juste pour deux secondes de transac' Eh J'suis direct, j'fais pas de transit Nan, nan, j'passe pas par quatre chemins, j'ai la flemme ces temps-ci Le ient-cli vient pper-cho pour calmer ses tension, j'peux péter dans l'son, eux, ils s'font péter leurs fions Boum Si j'sors un truc, c'est pas pour la to-ph', ils m'ont saoulé, leur rap, c'est comme la Poliakov Boum Eux, c'est Valbuena, moi, c'est Benzema, signer pour 10K, c'est comme dire Baisez-moi Baisez-moi J'prenais l'école pour de l'eczéma, j'ai passé l'bac sans réviser l'examen Eux, c'est Valbuena, moi, c'est Benzema Grr, signer pour 10K, c'est comme dire Baisez-moi Grr J'prenais l'école pour de l'eczéma, j'ai passé l'bac sans réviser l'examen Grr Sans-sans réviser l'examen mais quand j'écris, j'suis sérieux comme les Allemands Eh, eh J'fais du pe-ra pour vivre décemment, j'me suis fait juger, j'dois payer des amendes Des amendes, des amendes</t>
+          <t>Okay, Elessi Beendo Mets des ambiances Kosmow Pah, pah, pah J'arrive avec une tonne de punch' comme si j'venais d'rentrer de la pêche Shoo Le taulard, faut pas lui dire Garde la pêche, faut qu'il r'tienne son numéro d'écrou dans la tête Parce qu'il a fait un trou dans la tête d'un p'tit Pah qui a fait un trou dans la caisse Pah Lundi, j'dois faire plus de mapess qu'lundi Cash, cash de la semaine dernière Eh Tu vois c'buisson ? Bah l'produit est caché derrière, t'es con Han, en embrouille, tu te cachais derrièr tes grands T'es grand que drrière l'écran, le cran d'sûreté caresse les gants Grr Habitué aux égratignures donc quand on s'blesse, on en fait pas des tonnes On en fait pas des tonnes Si tu baises le premier soir et que tu penses que j'vais te marier bah t'es conne Ah-ah Fais pas l'con, oublie pas tes gants Hein ?, si t'es noir, oublie pas t'es qui Hein ? Oublie pas qu'on vient des pays pauvres, faut pas claquer ton biff pour une Patek Oublie pas t'es qui, hein La vie, c'est pas Taken Nan, nan, si on t'pourchasse, on va t'niquer Bah ouais J't'envoie pas mes sons, c'est sûr tu vas leaker Hein ?, j'ai baissé mon caleçon et elle m'a lick Ah Ta racli a des maillots d'joueurs de Ligue 1, j'achète un boîtier et j'ai te-j' ma Lyca' Brr Ça revend l'produit qui vient d'Alicante Brr pour s'acheter les derniers survêt' alligator La bécane comme à Compton Vrem, vrem, si j't'aime, j'vais pas compter Si j't'aime, j'vais pas compter Si j't'aime pas, c'est qu't'es un condé Pah, pah J'ai déballé l'produit et j'ai des souvenirs en train d'détaille dans la cave J'ai pas mangé l'argent du foot mais celui du rap et pas celui de la CAF Pah J'ai l'ADN comme Deulofeu, il a un 13 Pro Max, obligé d'le fouiller Shoo, shoo Dès qu'il m'a dit Le plavon, on l'fait où ?, j'me suis pointé avec une lame dans la fouille Ton avis, j'en ai rien à foutre, j'rappe comme personne, t'es obligé d'l'avouer Bah ouais De ton avis, j'vais passer outre, j'écris comme un nageur, le rap, c'est ma bouée Bouh Elle, c'est ma pute, c'est pas ma bohème Nan, nan, nan, j'fais ça pour l'argent Comme un Parisien qui joue sous le maillot d'l'OM Han-han, une femme, c'est une fée si t'enlèves le M Han-han Un homme, c'est une hoe si t'enlèves la même lettre Ouais, ils font pas de sous, on vend pas la même verte J'te baise ta mère si on est dans la même pièce Eh, eh, l'argent, c'est une hlel qui te donne de l'herpès Eh, eh Dans l'tamien, j'en ai pas mis un zeste, j'ai failli ber-tom, la juge m'a mis un geste Ah Elle veut pas baiser, elle a mis une lingette, elle fait bleh, t'as juste pas une voiture qui en jette On sait pour qui on saute, on sait pour qui on jette les colis, si t'es mon reuf, j'le fais en jet Décolle mais fais attention à la chute, j'la touche pas, elle a des boutons dans la chatte Ah-ah-ah Faire des sous, c'est faire un saut en parachute, tu montes mais tu peux faire l'inverse par la suite Elle m'suit pour que j'la fasse suer dans la suite, elle fait ça car j'suis pas un mec de sa cité J'oublie pas mes rêves, tous les jours, j'vis avec, y a des meufs qui mouillent pour pas être à sec Ah ouais ? J'ai des qualités intrinsèques, si ton pote fait la pute, c'est qu'c'est un trans' J'fais pas de sous pour m'poser sur un transat Grr, j'peux prendre deux ans juste pour deux secondes de transac' Eh J'suis direct, j'fais pas de transit Nan, nan, j'passe pas par quatre chemins, j'ai la flemme ces temps-ci Le ient-cli vient pper-cho pour calmer ses tension, j'peux péter dans l'son, eux, ils s'font péter leurs fions Boum Si j'sors un truc, c'est pas pour la to-ph', ils m'ont saoulé, leur rap, c'est comme la Poliakov Boum Eux, c'est Valbuena, moi, c'est Benzema, signer pour 10K, c'est comme dire Baisez-moi Baisez-moi J'prenais l'école pour de l'eczéma, j'ai passé l'bac sans réviser l'examen Eux, c'est Valbuena, moi, c'est Benzema Grr, signer pour 10K, c'est comme dire Baisez-moi Grr J'prenais l'école pour de l'eczéma, j'ai passé l'bac sans réviser l'examen Grr Sans-sans réviser l'examen mais quand j'écris, j'suis sérieux comme les Allemands Eh, eh J'fais du pe-ra pour vivre décemment, j'me suis fait juger, j'dois payer des amendes Des amendes, des amendes</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Poh, poh Poh, poh, poh Là, c'est Beendo dans tes écouteurs Poh, poh, poh, même si t'aimes pas, tu vas quand même écouter Grr J'prends soin d'ma matraque, mon extinct' et mes couteaux Grr, j'suis l'vase qui fait déborder la goutte d'eau Poh, poh J'ai beaucoup plus d'abonnés depuis qu'j'suis actif Han, on m'a validé, pourtant, j'suis pas Hatik Ramène mes sous, bâtard, tu crois qu'j'suis un p'tit Han ? Recompter deux fois, pour moi, c'est pas un tic C'est juste que j'aime pas faire des conclusions hâtives, le billet, le billet peut m'donner la trique Le billet, le billet J'fais mes sous, j'me barre en Afrique Ouais, eux, ils font des sous juste pour coller la p'tite J'rappe pas pour la frime, moi, j'rappe pour la kich' Nan, nan, eux, ils achètent des vues, j'les crois as-p, c'est d'la triche Brr 9.5210 des incendies Grr, on m'a poussé cinquante, j'dois ramener deux-cent-dix J'dois ramener deux-cent-dix J'veux-j'veux des billets, j'aime pas les centimes Han, j'peux rapper sans thème Han, j'peux rapper sans shit Si t'es gé-char, c'est mieux d'pas marcher en jean, gros survêt' noir pour vendre la marchandise Ouais J'remercie l'Seigneur pour tout c'qu'il m'a donné Ouais, le ient-cli m'remercie pour c'que j'ai donné Et j'te jure que j's'rai pas étonné Nan, nan si ces rappeurs sont des comiques comme Dieudonné Putain, ces rappeurs arrêtent pas d'mythonner Grr, ces bâtards bandent sur la rue, c'est des commères Toi, j't'ai tapé Wesh, j't'ai mis de côté Han, donc fais pas la hlel, sale pute on te connaît Pute, on te connaît Chez les nazis, y avait les SS SS et près du hazi, y a v'là les hesses Hesses J'rappe pour ceux qui font des livrettes en réserve, pas pour ceux qui sont pas titulaires en réserve Grr You might also like J'tape pas dans la C, j'aime pas le ski Wesh, j'suis pas ton tit-pe tu vas loss qui ? Han Y a de la frappe comme Lewandowski Han, gros, y a de la ppe-f', y a du matos-gui Poh, poh J'suis en santé et j'ai pas d'pass sanitaire Nan, nan, j'te jur, que j'suis pas un sale mytho Nan J'écris pas dans les sanitaires pour pas faire d'la merde au studio Grr T'as-t'as, t'as tiré sur le teh qui t'fais rêver, comme Martin Luther King, j'suis refait, si j'fais un car-jacking à Offset et sa pute de Cardi J't'arrange sur les barrettes de dix que si t'es habitué, moi, j'te ldis J't'arrange sur les barrettes de cinquante, il faut mettre bien les ient-clis, ça compte Tah, tah, tah J'ai séché les cours, j'ai fais mouiller sa schneck, on dit que la drogue tue, moi, la mienne, elle s'achète Grr J'ai tout détaillé, j'ai mis dans des sachets Grr et les keufs veulent me capturer comme Sacha Comme Rico, j'vais arracher ta chaîne, j'cours vite comme Usain mais je parle pas d'Saddam Moi, j'rappais bien avant Validé, ça date Han, han, tu parles de la madre, ça peut t'niquer ta race Poh, poh Quand y a pas qu'les Gunners qui ont un arsenal Grr, poh, j'ai fait mes classes en dix-neuf National Grr, poh Et en troisième National Grr, grr, poh, fuck la BAC, la Nationale Ient-cli me dit S'te plaît, fais ça bien, j'ai d'ja pris l'info, pas besoin d'dire si ça vient J'voulais être sur la pochette de FIFA 20 Ouais, jai pochetonné des dix et des vingt Beendo Z, si il est chaud, c'est parce qu'il veut pas l'compte en banque d'un gilet jaune Poh Beendo Z, si il est chaud, c'est parce qu'il veut pas l'compte en banque d'un gilet jaune Grr, poh Beendo Z, si il est chaud, c'est parce qu'il veut pas l'compte en banque d'un gilet jaune Poh Beendo Z, si il est chaud, c'est parce qu'il veut pas l'compte en banque d'un gilet jaune Compte en banque d'un gilet jaune Beendo Z, connu pour extorsion et vol à main armée Grr2</t>
+          <t>Poh, poh Poh, poh, poh Là, c'est Beendo dans tes écouteurs Poh, poh, poh, même si t'aimes pas, tu vas quand même écouter Grr J'prends soin d'ma matraque, mon extinct' et mes couteaux Grr, j'suis l'vase qui fait déborder la goutte d'eau Poh, poh J'ai beaucoup plus d'abonnés depuis qu'j'suis actif Han, on m'a validé, pourtant, j'suis pas Hatik Ramène mes sous, bâtard, tu crois qu'j'suis un p'tit Han ? Recompter deux fois, pour moi, c'est pas un tic C'est juste que j'aime pas faire des conclusions hâtives, le billet, le billet peut m'donner la trique Le billet, le billet J'fais mes sous, j'me barre en Afrique Ouais, eux, ils font des sous juste pour coller la p'tite J'rappe pas pour la frime, moi, j'rappe pour la kich' Nan, nan, eux, ils achètent des vues, j'les crois as-p, c'est d'la triche Brr 9.5210 des incendies Grr, on m'a poussé cinquante, j'dois ramener deux-cent-dix J'dois ramener deux-cent-dix J'veux-j'veux des billets, j'aime pas les centimes Han, j'peux rapper sans thème Han, j'peux rapper sans shit Si t'es gé-char, c'est mieux d'pas marcher en jean, gros survêt' noir pour vendre la marchandise Ouais J'remercie l'Seigneur pour tout c'qu'il m'a donné Ouais, le ient-cli m'remercie pour c'que j'ai donné Et j'te jure que j's'rai pas étonné Nan, nan si ces rappeurs sont des comiques comme Dieudonné Putain, ces rappeurs arrêtent pas d'mythonner Grr, ces bâtards bandent sur la rue, c'est des commères Toi, j't'ai tapé Wesh, j't'ai mis de côté Han, donc fais pas la hlel, sale pute on te connaît Pute, on te connaît Chez les nazis, y avait les SS SS et près du hazi, y a v'là les hesses Hesses J'rappe pour ceux qui font des livrettes en réserve, pas pour ceux qui sont pas titulaires en réserve Grr J'tape pas dans la C, j'aime pas le ski Wesh, j'suis pas ton tit-pe tu vas loss qui ? Han Y a de la frappe comme Lewandowski Han, gros, y a de la ppe-f', y a du matos-gui Poh, poh J'suis en santé et j'ai pas d'pass sanitaire Nan, nan, j'te jur, que j'suis pas un sale mytho Nan J'écris pas dans les sanitaires pour pas faire d'la merde au studio Grr T'as-t'as, t'as tiré sur le teh qui t'fais rêver, comme Martin Luther King, j'suis refait, si j'fais un car-jacking à Offset et sa pute de Cardi J't'arrange sur les barrettes de dix que si t'es habitué, moi, j'te ldis J't'arrange sur les barrettes de cinquante, il faut mettre bien les ient-clis, ça compte Tah, tah, tah J'ai séché les cours, j'ai fais mouiller sa schneck, on dit que la drogue tue, moi, la mienne, elle s'achète Grr J'ai tout détaillé, j'ai mis dans des sachets Grr et les keufs veulent me capturer comme Sacha Comme Rico, j'vais arracher ta chaîne, j'cours vite comme Usain mais je parle pas d'Saddam Moi, j'rappais bien avant Validé, ça date Han, han, tu parles de la madre, ça peut t'niquer ta race Poh, poh Quand y a pas qu'les Gunners qui ont un arsenal Grr, poh, j'ai fait mes classes en dix-neuf National Grr, poh Et en troisième National Grr, grr, poh, fuck la BAC, la Nationale Ient-cli me dit S'te plaît, fais ça bien, j'ai d'ja pris l'info, pas besoin d'dire si ça vient J'voulais être sur la pochette de FIFA 20 Ouais, jai pochetonné des dix et des vingt Beendo Z, si il est chaud, c'est parce qu'il veut pas l'compte en banque d'un gilet jaune Poh Beendo Z, si il est chaud, c'est parce qu'il veut pas l'compte en banque d'un gilet jaune Grr, poh Beendo Z, si il est chaud, c'est parce qu'il veut pas l'compte en banque d'un gilet jaune Poh Beendo Z, si il est chaud, c'est parce qu'il veut pas l'compte en banque d'un gilet jaune Compte en banque d'un gilet jaune Beendo Z, connu pour extorsion et vol à main armée Grr2</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hextii nell matrice Avant d'gratter un texte, j'ai éclaté un teh, j'prends une cannette à Inter' Hein Ramener mes sous, t'as intérêt Hein, y a des trucs de fou sur Internet Hein J'ai pas d'Samsung, j'suis dans une autre galaxie Ouh, j'm'excuse à tous ceux à qui j'ai fait du mal Hein Si vous montez au paradis, j'espère que vous vous plaindrez pas d'moi auprès du boss Let's go Quand tu dors, y en a qui bossent Qui bossent, j'pète ma tête sur l'bruit des basses Ds basses On fait du sale, il faut qu'on t'éduque, ma l-gueu, il faut qu'on t'explique les bases Yeah J'fume et j'me sens dans l'espace L'espace, matrixé, je pense qu'à l'espèce T'as fauté, tu vas recommencer, pour ça qu'on t'a fait, j't'ai oublié par réflexe Yeah, yeah Par réflexe Hein, j'me mets à réfléchir quand j'suis fait Hein J'aime bien c'qu'elle fait sur ma bite quand j'suis flex Ah J'peux t'visser à deux heures, moi, j'suis flexible Ouh, ah Me parle pas d'jouer en CFA, si ils sont millionnaires, c'est en CFA Ah C'est rapidement que j'me suis effacé, j'vends du te-shi qui t'fait phaser Shoo Mauvais dég' mais si j'te fais un gosse, chérie, j'vais pas l'laisser à l'abandon Pardon, j'reste fidèle au clan, ma le-gu', si y a litige, j'vais pas rayer mon bandeau Eh Un savoir de malade, précis comme ma lame, la gadji, elle m'casse la tête comme mon alarme Mon alarme Avec le B, on prépare un vacarme, j'suis parti à la vallée pour mon premier 20K Yes Ça té-cla une masse, fais un P2 et j'tire une taffe Arigato gozaimas, fais l'fou, j'te jure, nos cousins, ils t'massent Nos coussins, ils t'massent J'suis pas rempli de ciné', de banave, hein, tu m'vois plus dans les parages Ah T'sais qu'on m'a pété pour vol à l'étalage mais on a brassé, j'te parle pas d'la nage, bâtard Et y en avait, ma le-gueu, pourquoi au fond j'me sens plus mauvais qu'hier ? Ton discours change, t'as r'tourné ta veste hier, j'mets les crampons, toi tu r'tournes au vestiaire Ils vont parler sur oi-m, putain, j'crois ces négros sont bons qu'à passer la serpillère Une chienne de life, j'oublie tes conseils, je me lève et je té-cla c'qui reste d'hier Errr Nous, on s'est salis les mains pour de la thune, elle m'dit qu'elle est jeune mais qu'elle est mature T'as fait la star, on va rayer ta 'ture, gros, le négro est doux mais élevé à la dure T'as tiré deux taffes, tu fly comme Aladdin Fly, j'passe par GDN et j'prends la D J'passe par GDN et j'prends la D Si j'sors, c'est pas pour me balader C'est pas pour me balader, c'est pas pour me balader You might also like Hextii nell matrice</t>
+          <t>Hextii nell matrice Avant d'gratter un texte, j'ai éclaté un teh, j'prends une cannette à Inter' Hein Ramener mes sous, t'as intérêt Hein, y a des trucs de fou sur Internet Hein J'ai pas d'Samsung, j'suis dans une autre galaxie Ouh, j'm'excuse à tous ceux à qui j'ai fait du mal Hein Si vous montez au paradis, j'espère que vous vous plaindrez pas d'moi auprès du boss Let's go Quand tu dors, y en a qui bossent Qui bossent, j'pète ma tête sur l'bruit des basses Ds basses On fait du sale, il faut qu'on t'éduque, ma l-gueu, il faut qu'on t'explique les bases Yeah J'fume et j'me sens dans l'espace L'espace, matrixé, je pense qu'à l'espèce T'as fauté, tu vas recommencer, pour ça qu'on t'a fait, j't'ai oublié par réflexe Yeah, yeah Par réflexe Hein, j'me mets à réfléchir quand j'suis fait Hein J'aime bien c'qu'elle fait sur ma bite quand j'suis flex Ah J'peux t'visser à deux heures, moi, j'suis flexible Ouh, ah Me parle pas d'jouer en CFA, si ils sont millionnaires, c'est en CFA Ah C'est rapidement que j'me suis effacé, j'vends du te-shi qui t'fait phaser Shoo Mauvais dég' mais si j'te fais un gosse, chérie, j'vais pas l'laisser à l'abandon Pardon, j'reste fidèle au clan, ma le-gu', si y a litige, j'vais pas rayer mon bandeau Eh Un savoir de malade, précis comme ma lame, la gadji, elle m'casse la tête comme mon alarme Mon alarme Avec le B, on prépare un vacarme, j'suis parti à la vallée pour mon premier 20K Yes Ça té-cla une masse, fais un P2 et j'tire une taffe Arigato gozaimas, fais l'fou, j'te jure, nos cousins, ils t'massent Nos coussins, ils t'massent J'suis pas rempli de ciné', de banave, hein, tu m'vois plus dans les parages Ah T'sais qu'on m'a pété pour vol à l'étalage mais on a brassé, j'te parle pas d'la nage, bâtard Et y en avait, ma le-gueu, pourquoi au fond j'me sens plus mauvais qu'hier ? Ton discours change, t'as r'tourné ta veste hier, j'mets les crampons, toi tu r'tournes au vestiaire Ils vont parler sur oi-m, putain, j'crois ces négros sont bons qu'à passer la serpillère Une chienne de life, j'oublie tes conseils, je me lève et je té-cla c'qui reste d'hier Errr Nous, on s'est salis les mains pour de la thune, elle m'dit qu'elle est jeune mais qu'elle est mature T'as fait la star, on va rayer ta 'ture, gros, le négro est doux mais élevé à la dure T'as tiré deux taffes, tu fly comme Aladdin Fly, j'passe par GDN et j'prends la D J'passe par GDN et j'prends la D Si j'sors, c'est pas pour me balader C'est pas pour me balader, c'est pas pour me balader Hextii nell matrice</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Devant le R comme le Q Eh Là, c'est TIGRI Tu veux que j'te montre c'est quoi un rappeur, enculé ? J'suis pas pédé mais j'vais t'enculer J'ai pas peur de l'dire j'suis l'meilleur du secteur, j'me mélange pas, moi, j'suis sectaire Yes J'te prends pour témoin, t'es comme mon frère, appelle si ça té-mon J'ai un flow d'enfer Yes, c'est pour ça que t'as l'démon Moi, j'suis différent comme Ademo donc j'sais pas si j'fais parti du commun des mortels OATS, j'avais FIFA mais c'était que la démo' Grr Tu vois qu'j'fais des sous avec ma bouche et tu sous-estimes encore le pouvoir des mots Le légiste va au travail pour voir des morts, les jaloux travaillent pour pas me voir ter-mon Han Cagoulé, ganté, personne peut voir ta tête, cagoulé, ganté, personne peut voir tes mains Là, c'est Beendo dans tes écouteurs Han, faut pas m'écouter dans une Mini Cooper T'as tort Faut pas m'écouter dans une Fiat 500, sale pute Sale pute Toi, t'es une fiotte, ça s'sent, sale pute, tu sers à rien comme un bigo sans sa puce Grr Tout l'monde se prend pour Usain Bolt ou pour Kylian Mbappé quand ça pue Escorte de luxe 7.5 sur Instagram, c'est moi j'recrute T'as ouvert ta gueule sur les réseaux, j'sors un truc et c'est toi qui recule Fuck la BAC, la BST, le 17, les poulets, on va leur cuir le cul Moi, j'voulais tellement les écus, j'me suis mis devant le R comme le Q Ouh, oui Escorte de luxe 7.5 sur Instagram, c'est moi je recrute T'as ouvert ta gueule sur les réseaux, j'sors un truc et c'est toi qui recule Fuck la BAC, la BST, le 17, les poulets, on va leur cuir le cul Yes Moi, j'voulais tellement les écus, j'me suis mis devant le R comme le Q Là, c'est TIGRI You might also like Le son va s'reprendre comme une pandémie et si j'balance mes potos, pendez-moi Beendo Le te-shi est mou comme du pain de mie et y a pas de preuves si y a pas de témoins Eh, Beendo J'vais visser en période de confinement, le ient-cli m'parle, il croit que j'suis son confident J'vais visser en période de confinement, le ient-cli m'parle, il croit que j'suis son confident J'veux bien faire un chrome Wesh, t'es con ou quoi ? mais faut être bête pour faire confiance à un drogué Les cailloux, c'est contre de l'argent qu'j'vais les troquer Hein, elle veut trop ken mais elle est trop conne Si y a un plan, j'suis comme le temps en été, ils font la mala en boîte et en étant endettés Hein J'veux une go gée-char, un Audi TT J'me suis fait mêler, vas-y, dis où t'étais J'connais des mecs qui roulent en Merco, j'connais des mecs qui roulent en moins d'deux Des ients-cli pour le shit, des ients-cli pour la beuh, si y a plus rien, j'te dis et tu reviens main-de Viens-là Mais j'veux pas finir comme les Dalton, j'détaille une 'quette, j'te parle pas de Middleton Viens J'vais pas t'courir après, ramène mes tales, toi, j'ai des dix et des vingts donc t'as l'choix Escorte de luxe 7.5 sur Instagram, c'est moi j'recrute Grr T'as ouvert ta gueule sur les réseaux, j'sors un truc et c'est toi qui recule Grr Fuck la BAC, la BST, le 17, les poulets, on va leur cuir le cul Pah Moi, j'voulais tellement les écus, j'me suis mis devant le R comme le Q Ouh, oui Escorte de luxe 7.5 sur Instagram, c'est moi j'recrute T'as ouvert ta gueule sur les réseaux, j'sors un truc et c'est toi qui recule Fuck la BAC, la BST, le 17, les poulets, on va leur cuir le cul Moi, j'voulais tellement les écus, j'me suis mis devant le R comme le Q Grr Beendo</t>
+          <t>Devant le R comme le Q Eh Là, c'est TIGRI Tu veux que j'te montre c'est quoi un rappeur, enculé ? J'suis pas pédé mais j'vais t'enculer J'ai pas peur de l'dire j'suis l'meilleur du secteur, j'me mélange pas, moi, j'suis sectaire Yes J'te prends pour témoin, t'es comme mon frère, appelle si ça té-mon J'ai un flow d'enfer Yes, c'est pour ça que t'as l'démon Moi, j'suis différent comme Ademo donc j'sais pas si j'fais parti du commun des mortels OATS, j'avais FIFA mais c'était que la démo' Grr Tu vois qu'j'fais des sous avec ma bouche et tu sous-estimes encore le pouvoir des mots Le légiste va au travail pour voir des morts, les jaloux travaillent pour pas me voir ter-mon Han Cagoulé, ganté, personne peut voir ta tête, cagoulé, ganté, personne peut voir tes mains Là, c'est Beendo dans tes écouteurs Han, faut pas m'écouter dans une Mini Cooper T'as tort Faut pas m'écouter dans une Fiat 500, sale pute Sale pute Toi, t'es une fiotte, ça s'sent, sale pute, tu sers à rien comme un bigo sans sa puce Grr Tout l'monde se prend pour Usain Bolt ou pour Kylian Mbappé quand ça pue Escorte de luxe 7.5 sur Instagram, c'est moi j'recrute T'as ouvert ta gueule sur les réseaux, j'sors un truc et c'est toi qui recule Fuck la BAC, la BST, le 17, les poulets, on va leur cuir le cul Moi, j'voulais tellement les écus, j'me suis mis devant le R comme le Q Ouh, oui Escorte de luxe 7.5 sur Instagram, c'est moi je recrute T'as ouvert ta gueule sur les réseaux, j'sors un truc et c'est toi qui recule Fuck la BAC, la BST, le 17, les poulets, on va leur cuir le cul Yes Moi, j'voulais tellement les écus, j'me suis mis devant le R comme le Q Là, c'est TIGRI Le son va s'reprendre comme une pandémie et si j'balance mes potos, pendez-moi Beendo Le te-shi est mou comme du pain de mie et y a pas de preuves si y a pas de témoins Eh, Beendo J'vais visser en période de confinement, le ient-cli m'parle, il croit que j'suis son confident J'vais visser en période de confinement, le ient-cli m'parle, il croit que j'suis son confident J'veux bien faire un chrome Wesh, t'es con ou quoi ? mais faut être bête pour faire confiance à un drogué Les cailloux, c'est contre de l'argent qu'j'vais les troquer Hein, elle veut trop ken mais elle est trop conne Si y a un plan, j'suis comme le temps en été, ils font la mala en boîte et en étant endettés Hein J'veux une go gée-char, un Audi TT J'me suis fait mêler, vas-y, dis où t'étais J'connais des mecs qui roulent en Merco, j'connais des mecs qui roulent en moins d'deux Des ients-cli pour le shit, des ients-cli pour la beuh, si y a plus rien, j'te dis et tu reviens main-de Viens-là Mais j'veux pas finir comme les Dalton, j'détaille une 'quette, j'te parle pas de Middleton Viens J'vais pas t'courir après, ramène mes tales, toi, j'ai des dix et des vingts donc t'as l'choix Escorte de luxe 7.5 sur Instagram, c'est moi j'recrute Grr T'as ouvert ta gueule sur les réseaux, j'sors un truc et c'est toi qui recule Grr Fuck la BAC, la BST, le 17, les poulets, on va leur cuir le cul Pah Moi, j'voulais tellement les écus, j'me suis mis devant le R comme le Q Ouh, oui Escorte de luxe 7.5 sur Instagram, c'est moi j'recrute T'as ouvert ta gueule sur les réseaux, j'sors un truc et c'est toi qui recule Fuck la BAC, la BST, le 17, les poulets, on va leur cuir le cul Moi, j'voulais tellement les écus, j'me suis mis devant le R comme le Q Grr Beendo</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Le procureur veut ma détention mais le baveux, il dit qu'j'vais m'en sortir L'enquêtrice sociale veut qu'j'lui raconte ma vie, donc j'suis obligé d'me la farcir Beendo Beendo, Beendo Inspiré d'faits réels Inspiré, inspiré Inspiré d'faits réels, t'as pas cru en moi, de la liste, tu t'fais rayer Beendo On l'fera quand bien même c'est grillé Ouais, tu peux guetter si tu sais crier Akha L'addition salée me laisse un goût amer, j'vais au studio pas pour faire de la merde Ah nan La gue-dro, je sais pas qui l'amène Hein ? mais j'sais très bien à qui je la sers J'ai tout fait partir et j'dis Amen Regarde dans les yeux, regarde dans les yeux que tu m'la serres Regarde dans les yeux Regarde dans les yeux quand tu m'lahsa Regarde, les mêmes yeux quand tu mens à ta mère Sale pute Deux cent trente-sept, j'suis un camer' Ouais, appelle-moi si t'es un camé Appelle Des personnages, ils ont incarné, ma sacoche est remplie comme l'était mon carnet Comme l'était mon carnet Tout l'monde peut acheter des potes-ca Ouais mais c'est pas tout l'monde qui peut baiser Ah nan C'est tout l'monde qui peut faire du pe-ra Bah ouais mais c'est pas tout l'monde qui peut percer Bah nan Donc j'écoute pas leurs sons à trois francs six sous, j'veux que te baiser, c'est français, ça J'mets des reprises de volée comme Zizou et si on t'connaît pas, on peut te prendre tes sapes Tes sapes Et j'sais même pas jouer au tennis mais le ient-cli m'a dit que je sers bien Hey La pétasse, elle est remplie de vices mais j'préfère les grosses liasses plutôt que les gros seins Hey Et j't'ai dis qu'j'connaissais des grossistes Ah ouais, pourtant, ils ont pas d'problèmes de poids Hey J'suis un débrouillard, pas un bandit, négro Han, j'vais pas t'le répéter deux fois Elle-elle est trop contente quand elle vient pper-cho Grr, j'encaisse un billet, j'ai trop la pêche Grr J'veux pas aller en enfer mais c'est chaud parce que pour profiter d'la vie, faut pécher Han, t'as capté, j'ai deux bigos dont un qu'a pas la 4G Han, j'sors un couteau, j'suis pas venu pour catcher Pah Et j'ferai pas d'plan sous si y a pas quatre chiffres Eh, eh You might also like J'ai envie d'la ken mais flemme de la guer-dra, le pe-ra financé par l'argent d'la gue-dro Si t'as un vrai bourbier, dis-moi qui t'aidera ? J'ai faim d'argent, c'est vrai, j'en veux un peu trop Pah, pah Elle fait la sainte, elle est remplie de vices Grr, alors qu'on sait très bien, elle bosse Shee Il m'faut la SACEM de Elvis Hein ?, il m'faut la SACEM de Elton, y a brouillon, j'suis à pied mais j'ai des gants d'motard C'est un peu trop tôt pour dire qu'il est trop tard, j'suis pas très beau mais elle est trop dar, j'espère juste qu'elle fait pas les trottoirs Sale pute Et à chaque fois, j'entends les gyro' Sale pute, j'me demande qu'est-ce qu'ils font là comme Giroud Olivier Faut pas trop parler, faut agir, mon son va s'répandre comme le HIV Eh-eh, arrête de parler mal, négro Han, j'ai pas envie d'sortir une lame Han J'ai pas envie d'me tatouer une larme Han, j'ai pas envie d'me tatouer une larme Han Igo, arrête de parler mal Han, j'ai pas envie d'sortir une lame Han J'ai pas envie d'me tatouer une larme Hein ?, j'ai pas envie d'me tatouer une larme Hein ? Neuf-cinq, deux cent dix, on fait des incendies, j'ai vendu l'savon à un imbécile Pah, pah Dans la sacoche, y a pas d'centimes Grr, quand y a des billets, j'apprécie Pah, pah Vide la bonbonne comme la vessie Han, il m'semble que j'te l'avais dit Charo, j'peux aller jouer en Chine comme Lavezzi, si j'ai un million, j'le dépense pas, j'investis J'me suis lavé avec le sceau accroupi Grr, aujourd'hui, j'fais mouiller des groupies C'est mauvais signe si il sourit le croupier, j'ai demandé un coup d'pouce, j'ai reçu un coup d'pied Pah, pah J'suis pas pyroman mais je brille de mille feux Ouais, re-noi, j'suis pas un deux-milles deux Nan, nan Dans mes DM, y a des MILF, j'les visser comme il faut, j'l'ai visser comme il veut Beendo Zarzis, A.K.A Beendo Z, connu pour extorsions et vols à mains armées J'm'en bats les couilles si t'as pas la réf', ça fait Ta-ta-ta-ta mais c'est pas Polnareff Ça fait Ta-ra-ta-ta, ouais mais c'est pas Nagui Ça fait Ta-ra-ta-ta, ouais mais c'est pas Nagui Pah, pah Beendo</t>
+          <t>Le procureur veut ma détention mais le baveux, il dit qu'j'vais m'en sortir L'enquêtrice sociale veut qu'j'lui raconte ma vie, donc j'suis obligé d'me la farcir Beendo Beendo, Beendo Inspiré d'faits réels Inspiré, inspiré Inspiré d'faits réels, t'as pas cru en moi, de la liste, tu t'fais rayer Beendo On l'fera quand bien même c'est grillé Ouais, tu peux guetter si tu sais crier Akha L'addition salée me laisse un goût amer, j'vais au studio pas pour faire de la merde Ah nan La gue-dro, je sais pas qui l'amène Hein ? mais j'sais très bien à qui je la sers J'ai tout fait partir et j'dis Amen Regarde dans les yeux, regarde dans les yeux que tu m'la serres Regarde dans les yeux Regarde dans les yeux quand tu m'lahsa Regarde, les mêmes yeux quand tu mens à ta mère Sale pute Deux cent trente-sept, j'suis un camer' Ouais, appelle-moi si t'es un camé Appelle Des personnages, ils ont incarné, ma sacoche est remplie comme l'était mon carnet Comme l'était mon carnet Tout l'monde peut acheter des potes-ca Ouais mais c'est pas tout l'monde qui peut baiser Ah nan C'est tout l'monde qui peut faire du pe-ra Bah ouais mais c'est pas tout l'monde qui peut percer Bah nan Donc j'écoute pas leurs sons à trois francs six sous, j'veux que te baiser, c'est français, ça J'mets des reprises de volée comme Zizou et si on t'connaît pas, on peut te prendre tes sapes Tes sapes Et j'sais même pas jouer au tennis mais le ient-cli m'a dit que je sers bien Hey La pétasse, elle est remplie de vices mais j'préfère les grosses liasses plutôt que les gros seins Hey Et j't'ai dis qu'j'connaissais des grossistes Ah ouais, pourtant, ils ont pas d'problèmes de poids Hey J'suis un débrouillard, pas un bandit, négro Han, j'vais pas t'le répéter deux fois Elle-elle est trop contente quand elle vient pper-cho Grr, j'encaisse un billet, j'ai trop la pêche Grr J'veux pas aller en enfer mais c'est chaud parce que pour profiter d'la vie, faut pécher Han, t'as capté, j'ai deux bigos dont un qu'a pas la 4G Han, j'sors un couteau, j'suis pas venu pour catcher Pah Et j'ferai pas d'plan sous si y a pas quatre chiffres Eh, eh J'ai envie d'la ken mais flemme de la guer-dra, le pe-ra financé par l'argent d'la gue-dro Si t'as un vrai bourbier, dis-moi qui t'aidera ? J'ai faim d'argent, c'est vrai, j'en veux un peu trop Pah, pah Elle fait la sainte, elle est remplie de vices Grr, alors qu'on sait très bien, elle bosse Shee Il m'faut la SACEM de Elvis Hein ?, il m'faut la SACEM de Elton, y a brouillon, j'suis à pied mais j'ai des gants d'motard C'est un peu trop tôt pour dire qu'il est trop tard, j'suis pas très beau mais elle est trop dar, j'espère juste qu'elle fait pas les trottoirs Sale pute Et à chaque fois, j'entends les gyro' Sale pute, j'me demande qu'est-ce qu'ils font là comme Giroud Olivier Faut pas trop parler, faut agir, mon son va s'répandre comme le HIV Eh-eh, arrête de parler mal, négro Han, j'ai pas envie d'sortir une lame Han J'ai pas envie d'me tatouer une larme Han, j'ai pas envie d'me tatouer une larme Han Igo, arrête de parler mal Han, j'ai pas envie d'sortir une lame Han J'ai pas envie d'me tatouer une larme Hein ?, j'ai pas envie d'me tatouer une larme Hein ? Neuf-cinq, deux cent dix, on fait des incendies, j'ai vendu l'savon à un imbécile Pah, pah Dans la sacoche, y a pas d'centimes Grr, quand y a des billets, j'apprécie Pah, pah Vide la bonbonne comme la vessie Han, il m'semble que j'te l'avais dit Charo, j'peux aller jouer en Chine comme Lavezzi, si j'ai un million, j'le dépense pas, j'investis J'me suis lavé avec le sceau accroupi Grr, aujourd'hui, j'fais mouiller des groupies C'est mauvais signe si il sourit le croupier, j'ai demandé un coup d'pouce, j'ai reçu un coup d'pied Pah, pah J'suis pas pyroman mais je brille de mille feux Ouais, re-noi, j'suis pas un deux-milles deux Nan, nan Dans mes DM, y a des MILF, j'les visser comme il faut, j'l'ai visser comme il veut Beendo Zarzis, A.K.A Beendo Z, connu pour extorsions et vols à mains armées J'm'en bats les couilles si t'as pas la réf', ça fait Ta-ta-ta-ta mais c'est pas Polnareff Ça fait Ta-ra-ta-ta, ouais mais c'est pas Nagui Ça fait Ta-ra-ta-ta, ouais mais c'est pas Nagui Pah, pah Beendo</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Eh j'veux pas jouer à la CBB, eh j'veux pas vendre de la CBD, W'Allah c'est pété Débrouillard mais pas bandit, j'vais pas t'le repeter Hextii nell matrice J'suis plus Messi que CR, y'a pas trop d'arme dans mes clips parce que j'suis sous CJ donc j'pense j'suis sous CR, ils sont chaud quand ils sont en équipe T'es une chienne tout le monde peut voir ta chatte, j'veux pas de super-pouvoirs, j'veux le pouvoir d'achat Ils peuvent nous voir meme si on nachave, gros, y'a des caméras, j'crois qu'les keufs se prennent pour William Thomas Ils s'prennent pour Real Mrv, ils s'prennent pour Hextii nell matrice, le rap c'est bien ça m'a pas matrixé Il y'en a trop dans la massa igo t'es mal, j'me sens mal quand Rapha nique mes cotés match 20 minimum j'me déplace la con de tes morts, Coup d'télésco tu vas casser la démarche, à coup d'taser tu vas sentir la décharge, j'achete une recharge si y'a une recharge Mes textes sont pas sur google mais j'lai recherche, dans la vente de stups peu de Haschich Tu vends pas mais tu fais crari, ta une dent contre moi comme Didier avec Karim, on fais des ronds ensemble si t'es un mec carré, envoie l'adresse sur Signal pour pas faire cramer, envoie l'adresse sur Signal j'veux pas m'égarer Je souris pas trop j'montre pas mes caries, t'es pas au state arrête de faire l'cainri, moi j'suis Camer donc j'vais te donner aucun lait C'était chaud y'avais pas les tales mais c'est un mal pour un bien, en vrai, donc ça m'est égal La maturité vient avec les galères, les péripatéticiennes veulent mon salaire, pour des sous elles bossent les ein-s à l'air, c'est pas London mais ici ça lime, c'est bresom meme quand le bigo il s'allume Il t'salit dans ton dos et en face il t'salut, ils rajoutent des vues et en plus ils 3in, veut des sommes astronomiques, je vise pas la lune, j'le fais pour la miff pas pour m'acheter un cayenne J'écrit pas dans des cahiers mais j'suis toujours à la page, toi, t'a dansé le coupé décalé devant tes potes tu parlais mal à la base, c'est des iencli à la base, pourquoi il parle de basé, sur le terrain comme à Arabath, j'ai fumé l'instru mais j'suis pas khabat Beendo Là cest Beendo dans tes écouteurs Faut pas m'écouter dans une Mini Cooper Jdécoupe la plaquette avec un cuter J'passerai pas dans Faites Entrer lAccusé Jeune renoi veut un Q7 Donc les rappeurs il boit cul sec Devant la BST je cours plus vite qu'Usain Bolt On fait du papier et tu lsais boy On fait des sous et tu l'sais Tu m'aimes pas, mes sons tu saignes Ça peut tarracher ta chaîne Les ients-cli défilent à la chaîne Jai des billets sales dans mon assiette Sa mère la pute J'veux manger largent de la SACEM Si tu crois qu'ici ça dahek Tu vas tfaire mêler comme Bassem Au studio elles raisonnent les basses Te fais pas rodav quand tu fais la passe J'aime pas les gratteurs, jaime pas les pinces Il propose un tete mais j'vois il est pas seul J'vais vis-ser en période de confinement Le ient-cli mparle il croit que jsuis son confident J'fais partir tout cqu'on ma confié Y a 10 grammes dans mes couilles qui sont confinés Elle trompe son mec et pour per-cho elle est fidèle Si y a une occas' je la mets dans les filets On est dans la bre-ch et jenlève sa ficelle Mais askip c'est pas une facile On évite les contrôles et les délits de faciès J'ai soulevé ta sur jai pas lpermis CACES Si tu gardes trop la balle belek on peut t'casser Jai une case en moins c'est pour ça jveux pas m'case Et jveux pas jouer à l'ACBB Et j'veux pas vendre de la CBD WAllah cest peté Débrouillard mais pas bandit jvais pas t'le répéter Toi tu bades faut doser les sticks Jveux une liasse et 2 élastiques T'es à la rue et tu fais lmec de la street Avant d'caner il faut quje baise AstridYou might also like</t>
+          <t>Eh j'veux pas jouer à la CBB, eh j'veux pas vendre de la CBD, W'Allah c'est pété Débrouillard mais pas bandit, j'vais pas t'le repeter Hextii nell matrice J'suis plus Messi que CR, y'a pas trop d'arme dans mes clips parce que j'suis sous CJ donc j'pense j'suis sous CR, ils sont chaud quand ils sont en équipe T'es une chienne tout le monde peut voir ta chatte, j'veux pas de super-pouvoirs, j'veux le pouvoir d'achat Ils peuvent nous voir meme si on nachave, gros, y'a des caméras, j'crois qu'les keufs se prennent pour William Thomas Ils s'prennent pour Real Mrv, ils s'prennent pour Hextii nell matrice, le rap c'est bien ça m'a pas matrixé Il y'en a trop dans la massa igo t'es mal, j'me sens mal quand Rapha nique mes cotés match 20 minimum j'me déplace la con de tes morts, Coup d'télésco tu vas casser la démarche, à coup d'taser tu vas sentir la décharge, j'achete une recharge si y'a une recharge Mes textes sont pas sur google mais j'lai recherche, dans la vente de stups peu de Haschich Tu vends pas mais tu fais crari, ta une dent contre moi comme Didier avec Karim, on fais des ronds ensemble si t'es un mec carré, envoie l'adresse sur Signal pour pas faire cramer, envoie l'adresse sur Signal j'veux pas m'égarer Je souris pas trop j'montre pas mes caries, t'es pas au state arrête de faire l'cainri, moi j'suis Camer donc j'vais te donner aucun lait C'était chaud y'avais pas les tales mais c'est un mal pour un bien, en vrai, donc ça m'est égal La maturité vient avec les galères, les péripatéticiennes veulent mon salaire, pour des sous elles bossent les ein-s à l'air, c'est pas London mais ici ça lime, c'est bresom meme quand le bigo il s'allume Il t'salit dans ton dos et en face il t'salut, ils rajoutent des vues et en plus ils 3in, veut des sommes astronomiques, je vise pas la lune, j'le fais pour la miff pas pour m'acheter un cayenne J'écrit pas dans des cahiers mais j'suis toujours à la page, toi, t'a dansé le coupé décalé devant tes potes tu parlais mal à la base, c'est des iencli à la base, pourquoi il parle de basé, sur le terrain comme à Arabath, j'ai fumé l'instru mais j'suis pas khabat Beendo Là cest Beendo dans tes écouteurs Faut pas m'écouter dans une Mini Cooper Jdécoupe la plaquette avec un cuter J'passerai pas dans Faites Entrer lAccusé Jeune renoi veut un Q7 Donc les rappeurs il boit cul sec Devant la BST je cours plus vite qu'Usain Bolt On fait du papier et tu lsais boy On fait des sous et tu l'sais Tu m'aimes pas, mes sons tu saignes Ça peut tarracher ta chaîne Les ients-cli défilent à la chaîne Jai des billets sales dans mon assiette Sa mère la pute J'veux manger largent de la SACEM Si tu crois qu'ici ça dahek Tu vas tfaire mêler comme Bassem Au studio elles raisonnent les basses Te fais pas rodav quand tu fais la passe J'aime pas les gratteurs, jaime pas les pinces Il propose un tete mais j'vois il est pas seul J'vais vis-ser en période de confinement Le ient-cli mparle il croit que jsuis son confident J'fais partir tout cqu'on ma confié Y a 10 grammes dans mes couilles qui sont confinés Elle trompe son mec et pour per-cho elle est fidèle Si y a une occas' je la mets dans les filets On est dans la bre-ch et jenlève sa ficelle Mais askip c'est pas une facile On évite les contrôles et les délits de faciès J'ai soulevé ta sur jai pas lpermis CACES Si tu gardes trop la balle belek on peut t'casser Jai une case en moins c'est pour ça jveux pas m'case Et jveux pas jouer à l'ACBB Et j'veux pas vendre de la CBD WAllah cest peté Débrouillard mais pas bandit jvais pas t'le répéter Toi tu bades faut doser les sticks Jveux une liasse et 2 élastiques T'es à la rue et tu fais lmec de la street Avant d'caner il faut quje baise Astrid</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C'est ça qu'on aime Oli, Spider viens ici Lau prends ce micro là Viens, viens Lau, viens Lau Je m'entraine pour être le meilleur Comme un ninja, comme un sniper ouais Comme un trader, comme un rappeur Mais des fois j'me dis à quoi bon ? Vu que c'est subjectif Mais c'est dans mes contradictions que je dessine mes objectifs Propre à ma génération Des écolos qui polluent Des économes qui consomment Des questions pas résolues Un jour j'vais tout plaquer Vivre dans la nature en harmonie Le lendemain je rêve d'un yacht et d'une grosse table en boîte de nuit C'est, c'qui nous rend humains j'crois Les erreurs qu'on commet Les peurs qu'on connait Les regrets qui reviennent plein d'fois Faire mieux que ses parents Mais faire moins bien qu'ses futurs gosses On crash un passé pas si simple dans un futur proche On grandit avec des cicatrices Avec nos vices et nos démons Avant qu'un d'nous deux glisse dans l'autre monde On m'a bourré la tête Avec des rêves qui n'sont même pas les miens Des noms de banque Des putain d'marques Et des préceptes carthésiens On s'est souvent menti faut l'admettre J'ai vu c'reportage ou une fille disait être plus triste une fois sortie de la secte J'essaye de faire le tri Entre l'coeur qui crie, et l'affecte J'applique mes préceptes Et nourris l'esprit de mes adeptes Et on est sûr de rien ici C'est p't'être pour ça qu'on prie Et le plus dur c'est d'comprendre qu'on avait pas compris Je voudrais désapprendre Laver mon cerveau comme un carwash Mais être humain c'est juste prêcher pour sa propre paroisse J'aimerais être généreux mais ouais Je peux pas le renier Que le jour de l'incendie, j'vous pousserai tous pour sortir en premier On perd de l'énergie On veut la justice dans cette routine folle Mais le boxeur ne gagnera jamais contre le punching-ball You might also like C'est pour les gens pas cool C'est pour les gens pas stylés hey J'achète pas des trucs chers j'ai peur de m'y habituer hey J'étais d'jà plus fort que toi quand j'faisais 300 vues Les meufs préfèrent les mecs qui mettent des patates dans l'mur hey Ma vie n'a pas d'sens, affalé dans l'canapé hey J'attends qu'on vienne me dire qu'c'est une caméra cachée hey J'en ai rien à branler d'savoir c'que t'es devenu J'compare plus ma bite maint'nant j'compare mes rev'nus Mon ex faisait des plans à 3 sans moi ah ah Me d'mande pas si j'ai confiance en moi ah ah Ma meuf connait mieux ma famille que moi ah ah Tu m'détestes mais t'as la même vie qu'moi ah ah Mes proches et les livreurs me trouvent absent J'suis un menteur, si j'te dis qu'j'ai pas l'temps ouais J'fais d'la merde et c'est obligé C'est pas grave j'avoue honteusement J'ai pas assez profité j'savais pas qu'c'était l'bon vieux temps hey J'suis bourré mais j'suis plus sobre J'sais même plus trop pourquoi j'suis sorti wouh Est-ce que c'est pour les autres ou pour moi Pourquoi j'ai, toujours l'impression qu'c'est un tournoi Surement qu'j'suis trop dur avec les gens qui m'aiment J'espère qu'ils m'auront pardonnés quand j'm'en irais yeah J'ai toujours autant envie d'faire des trucs sauf quand c'est possible C'est trop triste, tellement peur de gêner j'ai l'air égoïste wouh Il y a plus grand chose qu'j'ambitionne Tu verras pas souvent parler comme si j'étais ventriloque Leurs addictions les définissent Mes addictions m'emprisonnent À quoi bon Dev'nir connu si faut qu'j'précise quand j'rigole hey Les larmes coulent pas dans l'espace Donc j'essaye d'être une étoile Et si jamais j'en reste là Ce s'rait DoMaj comme la gamme Si ça s'trouve j'suis déjà mort Mais tu n'le vois pas encore Alors j'essaye de briller plus fort Laucarré Yeah, han han, yeah, hey J'ai beaucoup trop peur du temps Entouré d'mauvaises graines À la fin du jeu, celui qui perd on l'plante Si t'as un truc à faire on l'tente Le cur infesté d'bonté Me rappelle qu'ici rien est dompté Le meilleur moyen pour réussi dans la vie c'est d'jamais laisser tomber J'suis comme Paulette J'reconnais qu'les mecs honnêtes Soit j'te vire ta tête en miettes Soit j'te r'tire ton pet au bec C'est soit j'finis ce texte Ou j'le rapperais la s'maine pro Ou soit j'fais tout d'un trait Comme les sourcils d'Frida Khalo Gros du cash, j'en ai plus Mais du cash, j'en veux plus Si tu brailles, comme un Tuche On te graille, comme un Tuc J'suis l'plus gentil d'ma cité tu l'as vu Genre si tu m'tires dessus j'te dirais juste bien joué tu m'as eu haha C'est bien visé mon frère Sans rancune, sans décéption Tant qu'à mon enterrement tu mets l'dernier album d'la Sexion La rue m'a charmé Même cupidon est armé L'amour c'est dangereux, tema même cupidon est armé Yeah, j'fume pas de niaks de beuh non non J'viens du 9-2 normal que j'rappe mieux qu'eux ouais ouais On est des vrais de vrai Le rap nous fait rêver Ils font du rap pour faire sur snap des pubs pour du CBD aaah Hey hey, hey hey hey, han Heureusement qu'j'ai pas écouté Les batards qui m'faisaient douter Sur mes potes, sur mes choix Sur mon couple et sur mes couplets Parce que sinon j'aurais sombré Le ciel ce s'rait assombri Quand quelqu'un me diss J'fais comme si j'avais pas compris Parce que franchement j'en ai rien a péter hey Maint'nant j'sors du champagne et puis j'regarde la télé Comme quand j'ai rien à fêter Ça fait des années qu'j'rappe On m'a dit parle de que-tru que tu connais ap Et p't'être que tu l'auras ton planète rap J'ai poussé là où tous les balcons ont des paraboles Là où l'Etat s'affolent Parce que 2-3 scar-las volent L'argent fait pas l'bonheur, j'préfère être triste et riche J't'assure la pauvreté ça peut rendre hystérique Fini d'courir à la poursuite du happiness Fini la hess Les centaines d'aller-retours à Paris Est Il y a qu'des gens qu'je valide dans la pièce J'regrette aucune de toutes mes demandes de feat à part Riles Yo, yo, yo, yo J'ai encore ma ceinture, ma carrière fait que décoller J'ai pris beaucoup de frics, certains voudraient que j'sois désolé Le Davinci Code c'est trop facile moi j'peux le décoder Détester Bigflo et Oli aujourd'hui c'est démodé J'ai ça dans l'sang, you know, hip hop raise me J'suis moche mais j'ai du charisme comme Gainsbourg et Jay-Z Les filles aiment l'humour et la classe S'arrêtent pas qu'à la surface Donc j'suis un vieux corbeau Qui s'tape que des avions d'chasse Mon public me suit je sais qu'sur eux je peux compter Zénith sur zénith j'suis pas surpris quand c'est complet Qui pourra me dompter ? J'suis un fromage de chèvre de charactère Autour de moi j'vois que du comté ah Désolé pour la métaphore pourrie Bigflo et Oli toujours ensemble comme Rox et Roucky À la fin d'mon concert, ta maman m'apporte des cookies J'les arnaque tous avec le sourire comme Marco Mouly Dès qu'elle entend ma voix la prod rougit Ça fait 20 ans qu'je rappe Longtemps que j'suis plus un rookie J'viens d'm'engueuler avec elle j'fais la gueule pendant le shooting Toujours des gars derrière moi comme Sarko pendant son footing J'ai baisé une anglaise, le matin elle m'fait du pudding J'ai baisé une canadienne le soir elle m'a fait d'la poutine J'ai 30 balais mais j'suis encore chaud 4 heure du mat' il est encore tôt J'porte du Visio ouais je reste corpo' J'ai glow up mais j'suis pas encore gosse-beau J'fais pas de sport j's'rai jamais costaud Dans c'game j'suis l'empereur Kuzco J'fais le tour du monde comme le commandant Cousteau J'écoute Ziak dans ma main j'ai un couteau J'suis millionnaire j'gratte un astro Dans c'rap j'suis comme Fidel Castro Ce soir bébé j't'emmène au gastro Les commentaires je les regarde pas trop J'ai la bougie de Gwyneth Paltrow Autour j'vois que des pâles copies Oli est trop chaud passez-lui le cro-mi, matte le niveau Ma meuf dit qu'j'lui manque, aïe J'suis encore débordé Le fruit du travail finira toujours par être récolté 1 million d'album en vrai je crois pas qu'on soit sous-côtés Détester Bigflo et Oli aujourd'hui c'est démodéééééé On s'pose pas avec des putes, il faut quand même dépenser L'argent soigne, mes billets sont des pansements Tu peux m'trouver au studio le week-end ou peut-être en semaine Quand j'avais pas, je volais tout et je voulais tout garder sans dépenser J'peux pas dire les choses sans les penser, j'peux pas sortir du tel-hô sans la casser On rackette, on vend, y a Rafael Nadal sur la cassette La police veut savoir où est la cachette, tout se vend et tout s'achète Fais belek aux paluches, mec, met du ruban adhésif sur la gâchette J'suis pas un talent gâché, j'suis pas un rappeur engagé Mais quand j'rappe, j'opère comme un tueur à gages, tu voulais du sale ? Ok, I got you Si le succès c'est comme le soleil, j'vais m'acheter le bob à Gradur Même si t'es bonne, le shit, c'est pas gratuit, même quand il faut beau, on peut faire sortir la pluie Et c'est sûr si j'le fais sauter mon sursis J'vais aller au shtar et l'argent sera le dernier d'mes soucis J'avoue, j'ai fait des sous sales, j'ai détaillé seul dans le sous-sol La musique c'est bien mais c'est comme l'alcool, des fois ça me saoule, sah La musique c'est bien mais c'est comme l'alcool Beendo Zarzis a.k.a Beendo Z, connu pour extorsion et vol à main armée J'ai pas cité la stup' car j'veux pas alarmer l'oreille des parents, eux, ils pensent pas à leur mère J'ai une séance studio, j'arrive pas à l'heure mais j'mets les pendules à l'heure pour montrer qu'j'suis l'illeur-me On appelle les escortes juste pour soulever leur mac On défonce les portes juste pour chourrer des Mac, quand j'étais dans la merde, j'ai pas dit Aidez-moi Avant d'péter, j'ai mis des semaines et des mois à écrire sur une feuille blanche toutes mes idées noires Lionel Messi est blanc mais l'vrai Messie est noir, j'ai bicrave un peu ici et là J'vois les bleus mais c'est pas l'ciel, ils sont bleus quand ils voient... Tu veux du shit ? On a ça, tu veux d'la beuh ? On a ça Ça vient d'où ? Il est chic ton ensemble... J'peux pas sortir avec une femme qui montre son corps sur les réseaux C'est pas contre elle mais je sais c'que pensent les hommes J'suis pas jaloux tant qu'elle est sincère avec oi-m Et entre nous aujourd'hui y'a très peu de nonnes J'le vois dans mes DMs y'a beaucoup de fans Pourtant pour le moment j'suis encore personne Ils s'mettent sur l'côté pour rentrer sans payer J'arrive pas à croire que j'deviens un produit Que bientôt la France voudra écouter Mais moi j'le promets pour l'humain que je suis Putain, c'est trop tard j'ai lancé la machine Mon démon me prends beaucoup trop d'énergie Quand j'suis fatigué je sais plus qui je suis J'dévoilerais mon secret peu avant ma mort Comme ça il y aura pas de ... Pas de funérailles, pas d'album posthume, rien de tout ça ça J'vais m'éteindre d'un coup, choc thermique j'disparais fissa Pour l'moment c'est vrai qu'c'est dur ça s'voit sur mon visage Si t'es choqué casse toi d'ici, mon cur bat vite j'vais tout péter J'annonce le ton, pas la couleur Tu sais très bien qu'ici tout est noir, j'me tords de douleur, de douleur, de douleur J'ressens d'l'a colère L'humiliation j'aime pas ça J'ai envie d'tout foutre en l'air War Yeah, Lowtso, ouais Bzzzzz, bzzzzz Pour prendre ton envol comme un coléoptère T'es collé au derch' de tes rappeurs préférés Non Dubhe on dit quand on n'aime pas un couplet entre nous, on est austère Pendant qu'Vadez et LÉON sont fonsdés au teh Typex fait des études d'osthéo damn En loucedé on fait des sons boostés au seize qui sont lourds Et on baise la concu Aucune peine Occupez-vous de vos culs, bande de faux-culs Focus sur le pez', il faut qu'le surnom pèse ouais D-U-B-H-E Lowtso bientôt en feat avec L-U-T-H-E-R J'en ai vu des rageux mais eux ils m'verront sur Interlude et Rap Jeu Sur Booska-P Non, pas de pause café dans c'game Y a déjà trop d'tasses Les producteurs me proposent tous des beats ouais J'suis au milieu d'un bukkake ou quoi Ils veulent tous câbler comme Comme des électriciens J'fais du rap de niche eux c'est des p'tits chiens Même si j'meurs, belek mon bel esprit viendra te hanter Il m'faudra des milliers de mains quand je vais les compter les streams eh J'me sentirai libre ouais Comme les éléctrons et l'exprimerai dans mes scènes Ouais j'l'écriras dans mes seizes Encaisser les coups j'le décrirai dans mes sept futurs schémas de rimes Guette cette structure tema le rythme S'il y a une couronne sur ta tête c'est qu'tu viens d'prendre des nuggets au Burger King Lowtso c'est le vilain J'commets des murders Kick, basses 808 et barz Qui font qu'il y a leur cur qui saigne Shoot la poitrine J'couvre ma platine d'un vinyle d'Infinit Car ma vie est un film, nique Infinity War c'est moi qui claque des doigts doigts, doigts Car j'suis la réincarnation de Thanos Toi tu ne vaux rien car ma science est stratosphérique Avant j'écrivais des textes tristes disant que j'coulais sur c'bateau, c'ferry Maint'nant c'est que des barz, on change de strat on s'fait rire Maint'nant c'est que des- Maint'nant- ouais J'écris- ouais J'écirs un seize, issable au sommet J'suis insaisissable On s'demande où j'suis comme Ornicar Mais j'suis dans vos têtes comme Olicard Mes rimes riches vivent, en oligarchie Elles se marient avec Kyo Itachi, Bigflo et Oli, elles sont donc polygames ouais J't'apprends le code de la route du succès, appelle moi Ornikar J'rappe de Pornic à Orly car dans toute la france, Lowto forniqua la concu- -rrence, car elle a un gros cul, j'rentre dedans En rap, tu tremble devant moi, j'te casse tes 32 dents En deux temps trois mouvements, en 16 temps, 4 placement différents j'me renouvelle à chaque mesure Y a pas d'classement le Top Albums j'lui crache dessus ouais</t>
+          <t>C'est ça qu'on aime Oli, Spider viens ici Lau prends ce micro là Viens, viens Lau, viens Lau Je m'entraine pour être le meilleur Comme un ninja, comme un sniper ouais Comme un trader, comme un rappeur Mais des fois j'me dis à quoi bon ? Vu que c'est subjectif Mais c'est dans mes contradictions que je dessine mes objectifs Propre à ma génération Des écolos qui polluent Des économes qui consomment Des questions pas résolues Un jour j'vais tout plaquer Vivre dans la nature en harmonie Le lendemain je rêve d'un yacht et d'une grosse table en boîte de nuit C'est, c'qui nous rend humains j'crois Les erreurs qu'on commet Les peurs qu'on connait Les regrets qui reviennent plein d'fois Faire mieux que ses parents Mais faire moins bien qu'ses futurs gosses On crash un passé pas si simple dans un futur proche On grandit avec des cicatrices Avec nos vices et nos démons Avant qu'un d'nous deux glisse dans l'autre monde On m'a bourré la tête Avec des rêves qui n'sont même pas les miens Des noms de banque Des putain d'marques Et des préceptes carthésiens On s'est souvent menti faut l'admettre J'ai vu c'reportage ou une fille disait être plus triste une fois sortie de la secte J'essaye de faire le tri Entre l'coeur qui crie, et l'affecte J'applique mes préceptes Et nourris l'esprit de mes adeptes Et on est sûr de rien ici C'est p't'être pour ça qu'on prie Et le plus dur c'est d'comprendre qu'on avait pas compris Je voudrais désapprendre Laver mon cerveau comme un carwash Mais être humain c'est juste prêcher pour sa propre paroisse J'aimerais être généreux mais ouais Je peux pas le renier Que le jour de l'incendie, j'vous pousserai tous pour sortir en premier On perd de l'énergie On veut la justice dans cette routine folle Mais le boxeur ne gagnera jamais contre le punching-ball C'est pour les gens pas cool C'est pour les gens pas stylés hey J'achète pas des trucs chers j'ai peur de m'y habituer hey J'étais d'jà plus fort que toi quand j'faisais 300 vues Les meufs préfèrent les mecs qui mettent des patates dans l'mur hey Ma vie n'a pas d'sens, affalé dans l'canapé hey J'attends qu'on vienne me dire qu'c'est une caméra cachée hey J'en ai rien à branler d'savoir c'que t'es devenu J'compare plus ma bite maint'nant j'compare mes rev'nus Mon ex faisait des plans à 3 sans moi ah ah Me d'mande pas si j'ai confiance en moi ah ah Ma meuf connait mieux ma famille que moi ah ah Tu m'détestes mais t'as la même vie qu'moi ah ah Mes proches et les livreurs me trouvent absent J'suis un menteur, si j'te dis qu'j'ai pas l'temps ouais J'fais d'la merde et c'est obligé C'est pas grave j'avoue honteusement J'ai pas assez profité j'savais pas qu'c'était l'bon vieux temps hey J'suis bourré mais j'suis plus sobre J'sais même plus trop pourquoi j'suis sorti wouh Est-ce que c'est pour les autres ou pour moi Pourquoi j'ai, toujours l'impression qu'c'est un tournoi Surement qu'j'suis trop dur avec les gens qui m'aiment J'espère qu'ils m'auront pardonnés quand j'm'en irais yeah J'ai toujours autant envie d'faire des trucs sauf quand c'est possible C'est trop triste, tellement peur de gêner j'ai l'air égoïste wouh Il y a plus grand chose qu'j'ambitionne Tu verras pas souvent parler comme si j'étais ventriloque Leurs addictions les définissent Mes addictions m'emprisonnent À quoi bon Dev'nir connu si faut qu'j'précise quand j'rigole hey Les larmes coulent pas dans l'espace Donc j'essaye d'être une étoile Et si jamais j'en reste là Ce s'rait DoMaj comme la gamme Si ça s'trouve j'suis déjà mort Mais tu n'le vois pas encore Alors j'essaye de briller plus fort Laucarré Yeah, han han, yeah, hey J'ai beaucoup trop peur du temps Entouré d'mauvaises graines À la fin du jeu, celui qui perd on l'plante Si t'as un truc à faire on l'tente Le cur infesté d'bonté Me rappelle qu'ici rien est dompté Le meilleur moyen pour réussi dans la vie c'est d'jamais laisser tomber J'suis comme Paulette J'reconnais qu'les mecs honnêtes Soit j'te vire ta tête en miettes Soit j'te r'tire ton pet au bec C'est soit j'finis ce texte Ou j'le rapperais la s'maine pro Ou soit j'fais tout d'un trait Comme les sourcils d'Frida Khalo Gros du cash, j'en ai plus Mais du cash, j'en veux plus Si tu brailles, comme un Tuche On te graille, comme un Tuc J'suis l'plus gentil d'ma cité tu l'as vu Genre si tu m'tires dessus j'te dirais juste bien joué tu m'as eu haha C'est bien visé mon frère Sans rancune, sans décéption Tant qu'à mon enterrement tu mets l'dernier album d'la Sexion La rue m'a charmé Même cupidon est armé L'amour c'est dangereux, tema même cupidon est armé Yeah, j'fume pas de niaks de beuh non non J'viens du 9-2 normal que j'rappe mieux qu'eux ouais ouais On est des vrais de vrai Le rap nous fait rêver Ils font du rap pour faire sur snap des pubs pour du CBD aaah Hey hey, hey hey hey, han Heureusement qu'j'ai pas écouté Les batards qui m'faisaient douter Sur mes potes, sur mes choix Sur mon couple et sur mes couplets Parce que sinon j'aurais sombré Le ciel ce s'rait assombri Quand quelqu'un me diss J'fais comme si j'avais pas compris Parce que franchement j'en ai rien a péter hey Maint'nant j'sors du champagne et puis j'regarde la télé Comme quand j'ai rien à fêter Ça fait des années qu'j'rappe On m'a dit parle de que-tru que tu connais ap Et p't'être que tu l'auras ton planète rap J'ai poussé là où tous les balcons ont des paraboles Là où l'Etat s'affolent Parce que 2-3 scar-las volent L'argent fait pas l'bonheur, j'préfère être triste et riche J't'assure la pauvreté ça peut rendre hystérique Fini d'courir à la poursuite du happiness Fini la hess Les centaines d'aller-retours à Paris Est Il y a qu'des gens qu'je valide dans la pièce J'regrette aucune de toutes mes demandes de feat à part Riles Yo, yo, yo, yo J'ai encore ma ceinture, ma carrière fait que décoller J'ai pris beaucoup de frics, certains voudraient que j'sois désolé Le Davinci Code c'est trop facile moi j'peux le décoder Détester Bigflo et Oli aujourd'hui c'est démodé J'ai ça dans l'sang, you know, hip hop raise me J'suis moche mais j'ai du charisme comme Gainsbourg et Jay-Z Les filles aiment l'humour et la classe S'arrêtent pas qu'à la surface Donc j'suis un vieux corbeau Qui s'tape que des avions d'chasse Mon public me suit je sais qu'sur eux je peux compter Zénith sur zénith j'suis pas surpris quand c'est complet Qui pourra me dompter ? J'suis un fromage de chèvre de charactère Autour de moi j'vois que du comté ah Désolé pour la métaphore pourrie Bigflo et Oli toujours ensemble comme Rox et Roucky À la fin d'mon concert, ta maman m'apporte des cookies J'les arnaque tous avec le sourire comme Marco Mouly Dès qu'elle entend ma voix la prod rougit Ça fait 20 ans qu'je rappe Longtemps que j'suis plus un rookie J'viens d'm'engueuler avec elle j'fais la gueule pendant le shooting Toujours des gars derrière moi comme Sarko pendant son footing J'ai baisé une anglaise, le matin elle m'fait du pudding J'ai baisé une canadienne le soir elle m'a fait d'la poutine J'ai 30 balais mais j'suis encore chaud 4 heure du mat' il est encore tôt J'porte du Visio ouais je reste corpo' J'ai glow up mais j'suis pas encore gosse-beau J'fais pas de sport j's'rai jamais costaud Dans c'game j'suis l'empereur Kuzco J'fais le tour du monde comme le commandant Cousteau J'écoute Ziak dans ma main j'ai un couteau J'suis millionnaire j'gratte un astro Dans c'rap j'suis comme Fidel Castro Ce soir bébé j't'emmène au gastro Les commentaires je les regarde pas trop J'ai la bougie de Gwyneth Paltrow Autour j'vois que des pâles copies Oli est trop chaud passez-lui le cro-mi, matte le niveau Ma meuf dit qu'j'lui manque, aïe J'suis encore débordé Le fruit du travail finira toujours par être récolté 1 million d'album en vrai je crois pas qu'on soit sous-côtés Détester Bigflo et Oli aujourd'hui c'est démodéééééé On s'pose pas avec des putes, il faut quand même dépenser L'argent soigne, mes billets sont des pansements Tu peux m'trouver au studio le week-end ou peut-être en semaine Quand j'avais pas, je volais tout et je voulais tout garder sans dépenser J'peux pas dire les choses sans les penser, j'peux pas sortir du tel-hô sans la casser On rackette, on vend, y a Rafael Nadal sur la cassette La police veut savoir où est la cachette, tout se vend et tout s'achète Fais belek aux paluches, mec, met du ruban adhésif sur la gâchette J'suis pas un talent gâché, j'suis pas un rappeur engagé Mais quand j'rappe, j'opère comme un tueur à gages, tu voulais du sale ? Ok, I got you Si le succès c'est comme le soleil, j'vais m'acheter le bob à Gradur Même si t'es bonne, le shit, c'est pas gratuit, même quand il faut beau, on peut faire sortir la pluie Et c'est sûr si j'le fais sauter mon sursis J'vais aller au shtar et l'argent sera le dernier d'mes soucis J'avoue, j'ai fait des sous sales, j'ai détaillé seul dans le sous-sol La musique c'est bien mais c'est comme l'alcool, des fois ça me saoule, sah La musique c'est bien mais c'est comme l'alcool Beendo Zarzis a.k.a Beendo Z, connu pour extorsion et vol à main armée J'ai pas cité la stup' car j'veux pas alarmer l'oreille des parents, eux, ils pensent pas à leur mère J'ai une séance studio, j'arrive pas à l'heure mais j'mets les pendules à l'heure pour montrer qu'j'suis l'illeur-me On appelle les escortes juste pour soulever leur mac On défonce les portes juste pour chourrer des Mac, quand j'étais dans la merde, j'ai pas dit Aidez-moi Avant d'péter, j'ai mis des semaines et des mois à écrire sur une feuille blanche toutes mes idées noires Lionel Messi est blanc mais l'vrai Messie est noir, j'ai bicrave un peu ici et là J'vois les bleus mais c'est pas l'ciel, ils sont bleus quand ils voient... Tu veux du shit ? On a ça, tu veux d'la beuh ? On a ça Ça vient d'où ? Il est chic ton ensemble... J'peux pas sortir avec une femme qui montre son corps sur les réseaux C'est pas contre elle mais je sais c'que pensent les hommes J'suis pas jaloux tant qu'elle est sincère avec oi-m Et entre nous aujourd'hui y'a très peu de nonnes J'le vois dans mes DMs y'a beaucoup de fans Pourtant pour le moment j'suis encore personne Ils s'mettent sur l'côté pour rentrer sans payer J'arrive pas à croire que j'deviens un produit Que bientôt la France voudra écouter Mais moi j'le promets pour l'humain que je suis Putain, c'est trop tard j'ai lancé la machine Mon démon me prends beaucoup trop d'énergie Quand j'suis fatigué je sais plus qui je suis J'dévoilerais mon secret peu avant ma mort Comme ça il y aura pas de ... Pas de funérailles, pas d'album posthume, rien de tout ça ça J'vais m'éteindre d'un coup, choc thermique j'disparais fissa Pour l'moment c'est vrai qu'c'est dur ça s'voit sur mon visage Si t'es choqué casse toi d'ici, mon cur bat vite j'vais tout péter J'annonce le ton, pas la couleur Tu sais très bien qu'ici tout est noir, j'me tords de douleur, de douleur, de douleur J'ressens d'l'a colère L'humiliation j'aime pas ça J'ai envie d'tout foutre en l'air War Yeah, Lowtso, ouais Bzzzzz, bzzzzz Pour prendre ton envol comme un coléoptère T'es collé au derch' de tes rappeurs préférés Non Dubhe on dit quand on n'aime pas un couplet entre nous, on est austère Pendant qu'Vadez et LÉON sont fonsdés au teh Typex fait des études d'osthéo damn En loucedé on fait des sons boostés au seize qui sont lourds Et on baise la concu Aucune peine Occupez-vous de vos culs, bande de faux-culs Focus sur le pez', il faut qu'le surnom pèse ouais D-U-B-H-E Lowtso bientôt en feat avec L-U-T-H-E-R J'en ai vu des rageux mais eux ils m'verront sur Interlude et Rap Jeu Sur Booska-P Non, pas de pause café dans c'game Y a déjà trop d'tasses Les producteurs me proposent tous des beats ouais J'suis au milieu d'un bukkake ou quoi Ils veulent tous câbler comme Comme des électriciens J'fais du rap de niche eux c'est des p'tits chiens Même si j'meurs, belek mon bel esprit viendra te hanter Il m'faudra des milliers de mains quand je vais les compter les streams eh J'me sentirai libre ouais Comme les éléctrons et l'exprimerai dans mes scènes Ouais j'l'écriras dans mes seizes Encaisser les coups j'le décrirai dans mes sept futurs schémas de rimes Guette cette structure tema le rythme S'il y a une couronne sur ta tête c'est qu'tu viens d'prendre des nuggets au Burger King Lowtso c'est le vilain J'commets des murders Kick, basses 808 et barz Qui font qu'il y a leur cur qui saigne Shoot la poitrine J'couvre ma platine d'un vinyle d'Infinit Car ma vie est un film, nique Infinity War c'est moi qui claque des doigts doigts, doigts Car j'suis la réincarnation de Thanos Toi tu ne vaux rien car ma science est stratosphérique Avant j'écrivais des textes tristes disant que j'coulais sur c'bateau, c'ferry Maint'nant c'est que des barz, on change de strat on s'fait rire Maint'nant c'est que des- Maint'nant- ouais J'écris- ouais J'écirs un seize, issable au sommet J'suis insaisissable On s'demande où j'suis comme Ornicar Mais j'suis dans vos têtes comme Olicard Mes rimes riches vivent, en oligarchie Elles se marient avec Kyo Itachi, Bigflo et Oli, elles sont donc polygames ouais J't'apprends le code de la route du succès, appelle moi Ornikar J'rappe de Pornic à Orly car dans toute la france, Lowto forniqua la concu- -rrence, car elle a un gros cul, j'rentre dedans En rap, tu tremble devant moi, j'te casse tes 32 dents En deux temps trois mouvements, en 16 temps, 4 placement différents j'me renouvelle à chaque mesure Y a pas d'classement le Top Albums j'lui crache dessus ouais</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>It's TIGRI J'ai fait l'amour, j'ai vendu la mort, j'ai péché, pour se repentir, faut s'dépécher Mais l'ient-cli m'appelle pour du te-shi, la salope, elle m'appelle pour sa tte-cha Plus j'fais des sous et plus j'réfléchis, est-ce que j'fais ça pour m'acheter des sapes ? Tu crois qu'j'suis un p'tit, négro, moi, j'te désape, j'suis pas cramé, quand l'ient-cli monte, je descends Et qui l'aurait cru ? Aujourd'hui, j'ai des fans, sur le terrain, y a l'guetteur qui défend J'ai coffré la moitié des sommes, eux, j'les connais, la moitié sont pas des homms Même les prêtres, la moitié sont pas ds saints Ouais, tout est écrit mais j'te fais pas d'dessin La moitié d'mes potes sont pas des saints, ils préfèrent plus les grosses liasses que les gros seins Ient-cli qui m'appelle, j'suis déjà là et si y a les keufs, j'suis déjà loin Grr Y a la que-ba, y a les Christophe Jallet, y a la que-ba, y a les Christophe Jallet Fallait l'faire, ça sert à rien d'dire J'allais donc si j'ai un plan, j't'appelle pas, t'es qu'une salope Et moi, j'ai toujours donné quand j'avais, j'ai vingt-trois ans, j'compte pas sur les alloc' Tu crois qu'j'rigole mais j'suis sérieux comme les Allemands, malheureusement, j'ai fait d'l'argent illégalement Mais faut qu'j'pense à la mif', faut qu'j'pense au gamin, peut-être que j'me ferais pookie par un gars à moi Ils font la mala en gamos, faut les racketter comme à Roland-Garros Dans ma tête, j'suis à l'ancienne, il m'faut un carrosse, j'suis en manque d'affection, là il m'faut des caresses Beendo Zarzis aka Beendo Z, j'suis connu pour extorsion et vol à main armée J'ai vendu d'la cons' à des étudiants d'droit, première, deuxième, troisième année, première, deuxième, troisième année J'suis sur le côté gauche comme Sadio Mané, c'est moi qui pilote et qui tient les manettes You might also like Beendo Zarzis aka Beendo Z, connu pour extorsion et vol à main armée J'ai vendu d'la cons' à des étudiants d'droit, première, deuxième, troisième année Sur le côté gauche comme Sadio Mané, c'est moi qui pilote, qui tient les manettes Sur le côté gauche comme Sadio Mané, c'est moi qui pilote, qui tient les manettes Tu sais, j'aime pas être pressé Nan donc j'aime pas m'faire pousser S'il faut mettre les sous, on les met, t'as pas l'virus, c'est la frappe qui t'fait tousser Si ils font les fous, on les mêle, à c'qui p', les hommes sont tous les mêmes Fallait pas tous les sucer, la faiblesse ne rime pas avec succès Comme j'suis noir, forcément, j'suis le suspect, on est fiers, forcément, nous on suce pas J'ai plein d'projets en suspens, t'écoutes mes sons, tu bouges tout seul comme Casius Clay J'ai une me-ar donc ça m'sert à quoi d'être musclé en vrai ? Ça sert à rien d'te brusquer J'ai toujours rendu les sous en temps et en heure, tu t'es visser ton shit par un rappeur en herbe J'suis méchant, j'en ai pas l'air, j'suis un 9.8 mais j'en ai pas l'air Y a d'la Dybala comme à Palerme, faut pas trop en mettre, ça va piquer ton palet Tu portes l'il, tu veux qu'mon projet tombe à l'eau, c'est chacun son steak, faut protéger son ballon J'vais m'énerver comme les sons à Ballo, j'vais m'énever comme les sons à Vino Grr J'écris mes textes dans le train qui va à Villier, j'la baise, j'sais pas quoi lui dire quand on a fini J'ai pas de nouveaux potes, j'veux pas m'affilier, j'ai des goûts de luxe, j'suis un négro raffiné J'suis sur la capitale comme Rafinha, j'perds pas mes couilles le jour de la finale J'suis pas trop dans la force, plutôt dans la finesse donc pour détail la 'quette, j'ai chauffé l'Opinel Beendo Zarzis aka Beendo Z, j'suis connu pour extorsion et vol à main armée J'ai vendu d'la cons' à des étudiants d'droit, première, deuxième, troisième année, première, deuxième, troisième année J'suis sur le côté gauche comme Sadio Mané, c'est moi qui pilote et qui tient les manettes Beendo Zarzis aka Beendo Z, connu pour extorsion et vol à main armée J'ai vendu d'la cons' à des étudiants d'droit, première, deuxième, troisième année Sur le côté gauche comme Sadio Mané, c'est moi qui pilote, qui tient les manettes Sur le côté gauche comme Sadio Mané, c'est moi qui pilote, qui tient les manettes Beendo Zarzis aka Beendo Z, connu pour extorsion et vol à main armée J'ai vendu d'la cons' à des étudiants d'droit, première, deuxième, troisième année Sur le côté gauche comme Sadio Mané, c'est moi qui pilote, qui tient les manettes Sur le côté gauche comme Sadio Mané, c'est moi qui pilote, qui tient les manettes</t>
+          <t>It's TIGRI J'ai fait l'amour, j'ai vendu la mort, j'ai péché, pour se repentir, faut s'dépécher Mais l'ient-cli m'appelle pour du te-shi, la salope, elle m'appelle pour sa tte-cha Plus j'fais des sous et plus j'réfléchis, est-ce que j'fais ça pour m'acheter des sapes ? Tu crois qu'j'suis un p'tit, négro, moi, j'te désape, j'suis pas cramé, quand l'ient-cli monte, je descends Et qui l'aurait cru ? Aujourd'hui, j'ai des fans, sur le terrain, y a l'guetteur qui défend J'ai coffré la moitié des sommes, eux, j'les connais, la moitié sont pas des homms Même les prêtres, la moitié sont pas ds saints Ouais, tout est écrit mais j'te fais pas d'dessin La moitié d'mes potes sont pas des saints, ils préfèrent plus les grosses liasses que les gros seins Ient-cli qui m'appelle, j'suis déjà là et si y a les keufs, j'suis déjà loin Grr Y a la que-ba, y a les Christophe Jallet, y a la que-ba, y a les Christophe Jallet Fallait l'faire, ça sert à rien d'dire J'allais donc si j'ai un plan, j't'appelle pas, t'es qu'une salope Et moi, j'ai toujours donné quand j'avais, j'ai vingt-trois ans, j'compte pas sur les alloc' Tu crois qu'j'rigole mais j'suis sérieux comme les Allemands, malheureusement, j'ai fait d'l'argent illégalement Mais faut qu'j'pense à la mif', faut qu'j'pense au gamin, peut-être que j'me ferais pookie par un gars à moi Ils font la mala en gamos, faut les racketter comme à Roland-Garros Dans ma tête, j'suis à l'ancienne, il m'faut un carrosse, j'suis en manque d'affection, là il m'faut des caresses Beendo Zarzis aka Beendo Z, j'suis connu pour extorsion et vol à main armée J'ai vendu d'la cons' à des étudiants d'droit, première, deuxième, troisième année, première, deuxième, troisième année J'suis sur le côté gauche comme Sadio Mané, c'est moi qui pilote et qui tient les manettes Beendo Zarzis aka Beendo Z, connu pour extorsion et vol à main armée J'ai vendu d'la cons' à des étudiants d'droit, première, deuxième, troisième année Sur le côté gauche comme Sadio Mané, c'est moi qui pilote, qui tient les manettes Sur le côté gauche comme Sadio Mané, c'est moi qui pilote, qui tient les manettes Tu sais, j'aime pas être pressé Nan donc j'aime pas m'faire pousser S'il faut mettre les sous, on les met, t'as pas l'virus, c'est la frappe qui t'fait tousser Si ils font les fous, on les mêle, à c'qui p', les hommes sont tous les mêmes Fallait pas tous les sucer, la faiblesse ne rime pas avec succès Comme j'suis noir, forcément, j'suis le suspect, on est fiers, forcément, nous on suce pas J'ai plein d'projets en suspens, t'écoutes mes sons, tu bouges tout seul comme Casius Clay J'ai une me-ar donc ça m'sert à quoi d'être musclé en vrai ? Ça sert à rien d'te brusquer J'ai toujours rendu les sous en temps et en heure, tu t'es visser ton shit par un rappeur en herbe J'suis méchant, j'en ai pas l'air, j'suis un 9.8 mais j'en ai pas l'air Y a d'la Dybala comme à Palerme, faut pas trop en mettre, ça va piquer ton palet Tu portes l'il, tu veux qu'mon projet tombe à l'eau, c'est chacun son steak, faut protéger son ballon J'vais m'énerver comme les sons à Ballo, j'vais m'énever comme les sons à Vino Grr J'écris mes textes dans le train qui va à Villier, j'la baise, j'sais pas quoi lui dire quand on a fini J'ai pas de nouveaux potes, j'veux pas m'affilier, j'ai des goûts de luxe, j'suis un négro raffiné J'suis sur la capitale comme Rafinha, j'perds pas mes couilles le jour de la finale J'suis pas trop dans la force, plutôt dans la finesse donc pour détail la 'quette, j'ai chauffé l'Opinel Beendo Zarzis aka Beendo Z, j'suis connu pour extorsion et vol à main armée J'ai vendu d'la cons' à des étudiants d'droit, première, deuxième, troisième année, première, deuxième, troisième année J'suis sur le côté gauche comme Sadio Mané, c'est moi qui pilote et qui tient les manettes Beendo Zarzis aka Beendo Z, connu pour extorsion et vol à main armée J'ai vendu d'la cons' à des étudiants d'droit, première, deuxième, troisième année Sur le côté gauche comme Sadio Mané, c'est moi qui pilote, qui tient les manettes Sur le côté gauche comme Sadio Mané, c'est moi qui pilote, qui tient les manettes Beendo Zarzis aka Beendo Z, connu pour extorsion et vol à main armée J'ai vendu d'la cons' à des étudiants d'droit, première, deuxième, troisième année Sur le côté gauche comme Sadio Mané, c'est moi qui pilote, qui tient les manettes Sur le côté gauche comme Sadio Mané, c'est moi qui pilote, qui tient les manettes</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Pah, pah, pah C'est carré quand c'est Bloody Beend- Nan Eh, Beendo C'est carré Eh J'ramène pas d'shit à la maison, donc j'ramène pas d'soucis à la maison J'peux percer en f'sant des comparaisons, demande à F.C si j'ai pas raison Les meilleurs ients-cli sont dans Paris Centre, j'les ai r'connu, ils écoutent du Nekfeu Et pour moi, le pe-ra, c'est paraissant, parle pas d'neuf si t'as pas allumé l'feu Grr J'ai pas d'meuf et je veux pas d'une ex Grr, t'es mon reuf, j't'envoie l'son, pas un extrait Pah, pah Par l'argent, mon cerveau est annexé, j'avoue, j'suis dans l'excès Beendo J'ai l'impression, y a plus personne au tieks mais tu connais, quand on s'voit, on s'check Hein ? Bien ou quoi, mon gars ? Ça dit quoi ? Sten ? J'veux des Balenciaga pour plus faire mes lacets Eh mercé comme à la Caste', en tout cas, ça va, j'passais juste à la c'té J'ai pas fini éboueur mais j'fais que ramasser, j'ai pas fini fisio' mais j'fais que les masser Chou-chou Grâce à moi, tu remplis tu remplis tes massas, y a les condés, ils font que de passer Té-ma ça, ils sont trop dépassés parce que ça fait trop d'passes comme au Barça Guette À part ça, j'vois qu'le temps est passé Grr, y en a qui jouent perso' Grr, j'ai pas encore percé Grr À part ça, les jaloux, ils persistent, ils aimeraient savoir combien j'ai perçu Eh, Beendo Quand j'avais rien, des messages, j'en ai pas r'çu, j'te jure Eh, Beendo que j'en ai pas r'd'ssus la casquette Mes buts, j'les mettais solo comme Lacazette Han-han, c'est tout seul que j'ai détaillé la cassette Moi J'ai des sins-cou qui manient l'AK-47, j'connais des mecs à Londres, des mecs à Sarcelles Grr J'ai même pas pété, mon ex, elle m'harcèle Grr, elle pense que j'ai le salaire d'Anthony Martial J'suis plus dans la finition que dans le massage Ah ouais, t'es plus dans la fellation que dans le léchage Ah J't'ai donné mais j'attends rien en r'tour Nan, nan, je veux juste du respect en monnaie d'échange Han J'suis pas une pookie, j'ai jamais donné des gens Han, j'suis pas hypocrite, j'ai jamais aimé Deschamps Nan J'te d'mande un service et tu veux qu'j'mette de l'essence, je sais pas trop c'que ma vie aurait donné sans foot À l'époque de l'adolescence, chouf, tu m'crois pas sur ma date de naissance Ient-cli, mets-toi ça dans l'crâne, pour quinze mmes-g', tu dois m'donner cent You might also like Eh, eh Pah pah Ient-cli, mets-toi ça dans l'crâne, pour quinze mmes-g' Grr, tu dois m'donner cent eu' Grr, eh, tu dois m'donner cent, ah Eh, tu dois m'donner cent Beendo Ient-cli, mets-toi ça dans l'crâne Ah, eh Tu dois m'donner cent Et j'ai pas fini d'rapper, sa mère, tant qu'j'ai pas assez de mapessas, mec J'peux pas concevoir qu'ma vie s'arrête tant qu'j'ai pas un million par an d'salaires T'as pas d'sous, des potes, t'en as moins, j'peux pas refuser un paquet d'argent Mais j'peux refuser si le Diable me tend la main, j'étais dans l'foot, j'connais un paquet d'agents J'ai des contacts dans l'foot, la 'sique et la drogue Grr, j'aimerais t'le dire mais y a qu'Dieu qu'on adore Et y a que les filles biens qu'on aborde, les vrais pirates sont restés à bord J'ai confiance en personne, me propose pas à boire, ici, on fait pas d'mala, donc y a rien à voir Tant qu'tu m'as pas prouvé, j'aurai dû mal à t'croire, j'suis gaucher comme le Diable mais j'suis pas maladroit Une faute avouée est à moitié pardonnée, cette phrase s'applique pas au comico Les rappeurs en carton, il faut les cartonner, ils ont pas one, c'est des gros mythos Une faute avouée est à moitié pardonnée, cette phrase s'applique pas au comico Les rappeurs en carton, il faut les cartonner, ils ont pas one, c'est des gros mythos Brr, han-han Ils ont pas one, c'est des gros mythos Grr, han-han Mythos Beendo Zarsis aka Beendo Z</t>
+          <t>Pah, pah, pah C'est carré quand c'est Bloody Beend- Nan Eh, Beendo C'est carré Eh J'ramène pas d'shit à la maison, donc j'ramène pas d'soucis à la maison J'peux percer en f'sant des comparaisons, demande à F.C si j'ai pas raison Les meilleurs ients-cli sont dans Paris Centre, j'les ai r'connu, ils écoutent du Nekfeu Et pour moi, le pe-ra, c'est paraissant, parle pas d'neuf si t'as pas allumé l'feu Grr J'ai pas d'meuf et je veux pas d'une ex Grr, t'es mon reuf, j't'envoie l'son, pas un extrait Pah, pah Par l'argent, mon cerveau est annexé, j'avoue, j'suis dans l'excès Beendo J'ai l'impression, y a plus personne au tieks mais tu connais, quand on s'voit, on s'check Hein ? Bien ou quoi, mon gars ? Ça dit quoi ? Sten ? J'veux des Balenciaga pour plus faire mes lacets Eh mercé comme à la Caste', en tout cas, ça va, j'passais juste à la c'té J'ai pas fini éboueur mais j'fais que ramasser, j'ai pas fini fisio' mais j'fais que les masser Chou-chou Grâce à moi, tu remplis tu remplis tes massas, y a les condés, ils font que de passer Té-ma ça, ils sont trop dépassés parce que ça fait trop d'passes comme au Barça Guette À part ça, j'vois qu'le temps est passé Grr, y en a qui jouent perso' Grr, j'ai pas encore percé Grr À part ça, les jaloux, ils persistent, ils aimeraient savoir combien j'ai perçu Eh, Beendo Quand j'avais rien, des messages, j'en ai pas r'çu, j'te jure Eh, Beendo que j'en ai pas r'd'ssus la casquette Mes buts, j'les mettais solo comme Lacazette Han-han, c'est tout seul que j'ai détaillé la cassette Moi J'ai des sins-cou qui manient l'AK-47, j'connais des mecs à Londres, des mecs à Sarcelles Grr J'ai même pas pété, mon ex, elle m'harcèle Grr, elle pense que j'ai le salaire d'Anthony Martial J'suis plus dans la finition que dans le massage Ah ouais, t'es plus dans la fellation que dans le léchage Ah J't'ai donné mais j'attends rien en r'tour Nan, nan, je veux juste du respect en monnaie d'échange Han J'suis pas une pookie, j'ai jamais donné des gens Han, j'suis pas hypocrite, j'ai jamais aimé Deschamps Nan J'te d'mande un service et tu veux qu'j'mette de l'essence, je sais pas trop c'que ma vie aurait donné sans foot À l'époque de l'adolescence, chouf, tu m'crois pas sur ma date de naissance Ient-cli, mets-toi ça dans l'crâne, pour quinze mmes-g', tu dois m'donner cent Eh, eh Pah pah Ient-cli, mets-toi ça dans l'crâne, pour quinze mmes-g' Grr, tu dois m'donner cent eu' Grr, eh, tu dois m'donner cent, ah Eh, tu dois m'donner cent Beendo Ient-cli, mets-toi ça dans l'crâne Ah, eh Tu dois m'donner cent Et j'ai pas fini d'rapper, sa mère, tant qu'j'ai pas assez de mapessas, mec J'peux pas concevoir qu'ma vie s'arrête tant qu'j'ai pas un million par an d'salaires T'as pas d'sous, des potes, t'en as moins, j'peux pas refuser un paquet d'argent Mais j'peux refuser si le Diable me tend la main, j'étais dans l'foot, j'connais un paquet d'agents J'ai des contacts dans l'foot, la 'sique et la drogue Grr, j'aimerais t'le dire mais y a qu'Dieu qu'on adore Et y a que les filles biens qu'on aborde, les vrais pirates sont restés à bord J'ai confiance en personne, me propose pas à boire, ici, on fait pas d'mala, donc y a rien à voir Tant qu'tu m'as pas prouvé, j'aurai dû mal à t'croire, j'suis gaucher comme le Diable mais j'suis pas maladroit Une faute avouée est à moitié pardonnée, cette phrase s'applique pas au comico Les rappeurs en carton, il faut les cartonner, ils ont pas one, c'est des gros mythos Une faute avouée est à moitié pardonnée, cette phrase s'applique pas au comico Les rappeurs en carton, il faut les cartonner, ils ont pas one, c'est des gros mythos Brr, han-han Ils ont pas one, c'est des gros mythos Grr, han-han Mythos Beendo Zarsis aka Beendo Z</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Draco dans ta La patience est une vertu, j'suis pas assez patient pour savoir si c'est vrai Ah On t'casse les jambes comme Djibril Cissé, frère Ouais, j'la baise même si elle a six ou sept frères Eh J'la baise même si son père, c'est un terroriste Pouh, la pratique, c'est pas la théorie Nan, nan En principe, tu devais ramener les kilos d'shit, t'as fini au dépôt, t'as fini à Fleury Shoo Une balle de flashball peut venir t'effleurer si tu caillasses les keufs, si tu les fais courir Poh, poh Tu vas t'en rappeler comme quand tu t'es défleuri, j'écris pas à l'asile mais j'écris des folies Poh, poh Une balle de flashball peut venir t'effleurer si tu caillasses les keufs, si tu les fais courir Grr Tu vas t'en rappeler comme quand tu t'es défleuri, j'écris pas à l'asile mais j'écris des folies Hein, hein, j'suis pas J'suis pas un mec de Twitter, moi, c'est dans la ville que les keufs me follow Follow, shoo J'fais rentrer d'l'argent à toutes heures, c'est pour ça qu'j'ai toujours le sourire d'Ngolo Quand t'es dans la merde, personne cala Hein, quand t'es au shtar, ta meuf galoche Oh Quand t'as nada, personne cala, pendant qu't'es au shtar, ta meuf fait la pute en boîte Avant d'venir pécho, dis-moi, qui t'envoie ? Et quand c'est chaud, j'ai soif de liquide en balle Eh J'ai déballé l'produit, j'l'ai visser en balle, il a pas vu ma tête, j'l'ai visser en ziak Tu t'fais ca-carotte mais c'est pas DBZ, j'veux faire des sous, j'ai pas envie de baiser J'veux faire des sous, j'ai pas envie d'faire l'amour, elle lèche ma longue bite, toi, tu lui fais la cour Pétasse, t'as cru qu'j'étais un p'tit Hein ? J'me casse et j'mets les voiles comme un rate-pi Hein Tu demandes qui me produit Grr ? J'me suis produit grâce au produit Grr Pétasse, t'as cru qu'j'étais un p'tit ? J'me casse et j'mets les voiles comme un rate-pi J'me casse Tu demandes qui me produit ? J'me suis produit grâce au produit You might also like Beendo Zarzis aka Beendo Z, connu pour extorsion et vol à main armée Avant d'acheter, vérifie c'qu'on t'a ramené, connu pour extorsion et vol à main armée Beendo Zarzis aka Beendo Z, deux-milles vingt-deux, la che-po est pleine d'oseille Connu pour extorsion et vol à main armée Hey, deux-milles vingt-deux, la che-po est pleine d'oseille Beendo Zarzis aka Beendo Z, connu pour extorsion et vol à main armée Avant d'acheter, vérifie c'qu'on t'a ramené, connu pour extorsion et vol à main armée</t>
+          <t>Draco dans ta La patience est une vertu, j'suis pas assez patient pour savoir si c'est vrai Ah On t'casse les jambes comme Djibril Cissé, frère Ouais, j'la baise même si elle a six ou sept frères Eh J'la baise même si son père, c'est un terroriste Pouh, la pratique, c'est pas la théorie Nan, nan En principe, tu devais ramener les kilos d'shit, t'as fini au dépôt, t'as fini à Fleury Shoo Une balle de flashball peut venir t'effleurer si tu caillasses les keufs, si tu les fais courir Poh, poh Tu vas t'en rappeler comme quand tu t'es défleuri, j'écris pas à l'asile mais j'écris des folies Poh, poh Une balle de flashball peut venir t'effleurer si tu caillasses les keufs, si tu les fais courir Grr Tu vas t'en rappeler comme quand tu t'es défleuri, j'écris pas à l'asile mais j'écris des folies Hein, hein, j'suis pas J'suis pas un mec de Twitter, moi, c'est dans la ville que les keufs me follow Follow, shoo J'fais rentrer d'l'argent à toutes heures, c'est pour ça qu'j'ai toujours le sourire d'Ngolo Quand t'es dans la merde, personne cala Hein, quand t'es au shtar, ta meuf galoche Oh Quand t'as nada, personne cala, pendant qu't'es au shtar, ta meuf fait la pute en boîte Avant d'venir pécho, dis-moi, qui t'envoie ? Et quand c'est chaud, j'ai soif de liquide en balle Eh J'ai déballé l'produit, j'l'ai visser en balle, il a pas vu ma tête, j'l'ai visser en ziak Tu t'fais ca-carotte mais c'est pas DBZ, j'veux faire des sous, j'ai pas envie de baiser J'veux faire des sous, j'ai pas envie d'faire l'amour, elle lèche ma longue bite, toi, tu lui fais la cour Pétasse, t'as cru qu'j'étais un p'tit Hein ? J'me casse et j'mets les voiles comme un rate-pi Hein Tu demandes qui me produit Grr ? J'me suis produit grâce au produit Grr Pétasse, t'as cru qu'j'étais un p'tit ? J'me casse et j'mets les voiles comme un rate-pi J'me casse Tu demandes qui me produit ? J'me suis produit grâce au produit Beendo Zarzis aka Beendo Z, connu pour extorsion et vol à main armée Avant d'acheter, vérifie c'qu'on t'a ramené, connu pour extorsion et vol à main armée Beendo Zarzis aka Beendo Z, deux-milles vingt-deux, la che-po est pleine d'oseille Connu pour extorsion et vol à main armée Hey, deux-milles vingt-deux, la che-po est pleine d'oseille Beendo Zarzis aka Beendo Z, connu pour extorsion et vol à main armée Avant d'acheter, vérifie c'qu'on t'a ramené, connu pour extorsion et vol à main armée</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>La prod' est bonne, l'ingénierie sonore est incroyable Ils m'voient comme un fou, ils m'voient comme un athée, voient un croyant Ça m'dérange comme si dans ma chaussette, y a un caillou Hextii nell matrice La prod' est bonne, l'ingénierie sonore est incroyable Ils m'voient comme un fou, ils m'voient comme un athée, voient un croyant Ça m'dérange comme si dans ma chaussette, y a un caillou Ah, ils racontent de la caille et en plus, ils sont calleux J'écris pas dans des cahiers, ça m'fait penser à l'école et comme j'aime pas les bruits d'chaise, bah j'me suis taillé Et comme j'aime pas trop les sonneries, j'ai dit Allez, j'taille, j'visser comme un buteur, j'suis inarrêtable Pour détailler une 'quette, y a pas besoin d'un rythme et si tu bouges la tête, c'est qu'le son est bien rythmé Hey Si tu bouges la tête, c'est sûr que tu vas replay Hey, quand j'rentre dans la cabine, il s'dit C'est sûr, il va kicker Hey Je sais pas qui est qui, je sais pas qui a fait quoi, j'vous jure, monsieur l'agent, c'est pas moi qui a fait l'doigt Shoo Les apparences sont trompeuses alors rappelle-toi que le sel ressemble au sucre, répète après moi Ça caillassait les keufs, ça caillassait les condés mais que celui qui n'a jamais péché me jette la première pierre J'suis pas très fort en maths, j'sais pas trop sur qui compter mais c'qui est sûr, c'est qu'j'vais pas marier la dernière keh Ça caillassait les keufs, ça caillassait les condés mais que celui qui n'a jamais péché me jette la première pierre J'suis pas très fort en maths, j'sais pas trop sur qui compter mais c'qui est sûr, c'est qu'j'vais pas marier la dernière keh Suis les instructions à la lettre pour faire des chiffres, le foot t'apprend qu'en équipe, faut pas trop être collectif J'vais pas passer ma vie à parler de drogue et d'shit, mentalité italienne pourtant, j'suis pas Joe Pesci J'te baise mais t'es pas ma meuf, t'étais pas ma pote, j'me dis En vrai, l'illicite, qu'est-ce que ça m'apporte ? J'ai dit ça quand j'ai vu qu'elle était à ma porte, si j'baise le pe-ra, ma bite va rentrer comme une lettre à la poste Tu veux ta dose, j'te ravitaille en trottinette, t'es ravi, taille en trottinant Attiré par les gros tignés, c'est tout, j'suis d'bonne humeur donc j't'ai rajouté une lamelle La rue, c'est rasoir, c'est pour ça qu'j'marche toujours avec une lame J'fais crari j'fais mes lacets, j'vais faire un arraché là, en moins d'deux secondes, j'prends ton tél' et j'accélère J'peux faire pas la mala si ma mère habite dans un HLM, j'peux pas acheter d'paires de luxe tant qu'ma mère vit dans un HLM J'peux pas acheter d'paires de luxe tant qu'ma mère vit dans un HLM Si t'as des affaires, t'as des trucs, appelle-moi et j'vais pas chenef J'vais pas finir midi-minuit, regarde ma tête, gros, j'ai passé l'âge J'suis très observateur, c'est pour ça qu'j'ai pas ché-lâ On veut vendre des disques, on veut plus vendre des dix C'est pour ça qu'faut pas céder, dans la bouche, j'ai un chargeur en grande capacité J'la baise lentement comme si j'avais une carapace, et tout Là, y a que des vingts, si t'as pas, t'en auras pas, c'est tout You might also like Ça caillassait les keufs, ça caillassait les condés mais que celui qui n'a jamais péché me jette la première pierre J'suis pas très fort en maths, j'sais pas trop sur qui compter mais c'qui est sûr, c'est qu'j'vais pas marier la dernière keh Ça caillassait les keufs, ça caillassait les condés mais que celui qui n'a jamais péché me jette la première pierre J'suis pas très fort en maths, j'sais pas trop sur qui compter mais c'qui est sûr, c'est qu'j'vais pas marier la dernière keh</t>
+          <t>La prod' est bonne, l'ingénierie sonore est incroyable Ils m'voient comme un fou, ils m'voient comme un athée, voient un croyant Ça m'dérange comme si dans ma chaussette, y a un caillou Hextii nell matrice La prod' est bonne, l'ingénierie sonore est incroyable Ils m'voient comme un fou, ils m'voient comme un athée, voient un croyant Ça m'dérange comme si dans ma chaussette, y a un caillou Ah, ils racontent de la caille et en plus, ils sont calleux J'écris pas dans des cahiers, ça m'fait penser à l'école et comme j'aime pas les bruits d'chaise, bah j'me suis taillé Et comme j'aime pas trop les sonneries, j'ai dit Allez, j'taille, j'visser comme un buteur, j'suis inarrêtable Pour détailler une 'quette, y a pas besoin d'un rythme et si tu bouges la tête, c'est qu'le son est bien rythmé Hey Si tu bouges la tête, c'est sûr que tu vas replay Hey, quand j'rentre dans la cabine, il s'dit C'est sûr, il va kicker Hey Je sais pas qui est qui, je sais pas qui a fait quoi, j'vous jure, monsieur l'agent, c'est pas moi qui a fait l'doigt Shoo Les apparences sont trompeuses alors rappelle-toi que le sel ressemble au sucre, répète après moi Ça caillassait les keufs, ça caillassait les condés mais que celui qui n'a jamais péché me jette la première pierre J'suis pas très fort en maths, j'sais pas trop sur qui compter mais c'qui est sûr, c'est qu'j'vais pas marier la dernière keh Ça caillassait les keufs, ça caillassait les condés mais que celui qui n'a jamais péché me jette la première pierre J'suis pas très fort en maths, j'sais pas trop sur qui compter mais c'qui est sûr, c'est qu'j'vais pas marier la dernière keh Suis les instructions à la lettre pour faire des chiffres, le foot t'apprend qu'en équipe, faut pas trop être collectif J'vais pas passer ma vie à parler de drogue et d'shit, mentalité italienne pourtant, j'suis pas Joe Pesci J'te baise mais t'es pas ma meuf, t'étais pas ma pote, j'me dis En vrai, l'illicite, qu'est-ce que ça m'apporte ? J'ai dit ça quand j'ai vu qu'elle était à ma porte, si j'baise le pe-ra, ma bite va rentrer comme une lettre à la poste Tu veux ta dose, j'te ravitaille en trottinette, t'es ravi, taille en trottinant Attiré par les gros tignés, c'est tout, j'suis d'bonne humeur donc j't'ai rajouté une lamelle La rue, c'est rasoir, c'est pour ça qu'j'marche toujours avec une lame J'fais crari j'fais mes lacets, j'vais faire un arraché là, en moins d'deux secondes, j'prends ton tél' et j'accélère J'peux faire pas la mala si ma mère habite dans un HLM, j'peux pas acheter d'paires de luxe tant qu'ma mère vit dans un HLM J'peux pas acheter d'paires de luxe tant qu'ma mère vit dans un HLM Si t'as des affaires, t'as des trucs, appelle-moi et j'vais pas chenef J'vais pas finir midi-minuit, regarde ma tête, gros, j'ai passé l'âge J'suis très observateur, c'est pour ça qu'j'ai pas ché-lâ On veut vendre des disques, on veut plus vendre des dix C'est pour ça qu'faut pas céder, dans la bouche, j'ai un chargeur en grande capacité J'la baise lentement comme si j'avais une carapace, et tout Là, y a que des vingts, si t'as pas, t'en auras pas, c'est tout Ça caillassait les keufs, ça caillassait les condés mais que celui qui n'a jamais péché me jette la première pierre J'suis pas très fort en maths, j'sais pas trop sur qui compter mais c'qui est sûr, c'est qu'j'vais pas marier la dernière keh Ça caillassait les keufs, ça caillassait les condés mais que celui qui n'a jamais péché me jette la première pierre J'suis pas très fort en maths, j'sais pas trop sur qui compter mais c'qui est sûr, c'est qu'j'vais pas marier la dernière keh</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SL, SL, SL, SL Junior Alaprod, zanmé Tu nous parles de vendetta, j'attend toujours Hein, la mort m'as dit Attends ton jours Hein J'crois en Dieu mais j'tend pas la joue droite Hey, l'amour, c'est comme un shooter Tu l'vois pas quand il te foudroie Poh, poh, t'as fait moins d'vingt-quatre Et c'est là qu'j'ai eu des doutes sur toi Hein, si tu montres pas ta dépôt, ça veut dire que tu te fout d'moi J'ai préféré bicrave plutôt qu'taffer dans un fast-food, moi Shoo, shoo J'ai racketter des mecs mais pourtant, j'ai fait que du foot', moi Brr, brr Mes équipements, c'était l'couteau, la gazeuse et le full black, quand y a des sous, c'est full Nike Eh Il m'faut l'passeport ou une plaque diplomatique Eh, écoute pas les On m'a dit, frérot, c'est c'que Toto m'as dit Eh Il m'faut l'import et un compte en banque en Suisse, évite les sous-entendues, ça pourrait t'soulever comme le Fisc Shoo A-A86, j'la prends à toute vitesse Hey, hey, à quinze, j'vais péter Beendo Z dans sa tess Dans son tieks Remballe ton eau salé, on veut que des ronds, qu'on puisse baigner dans le Rhône, on a trop baigner dans le fond Oh, oh A-A86, j'la prends à toute vitesse Toute vitesse, à quinze, j'vais péter Beendo Z dans sa tess Dans son tieks Du neuf-cinq au quatre-vingt douze, c'est la même, ici, cops, ça sent la merde, on te fout tout ça en lamelle J'mets l'pilon, tabac, massa-gué, donc j'rallume un Cohiba, j'tape la prod', c'est trop des barres, la souris bip quand l'colis part Brr, brr Oublie pas, oublie pas, t'es l'genre de grand qui appelle des grands Donc patate lyricale, dans tous les cas, tu r'crache ta pomme d'Adam Boo Là, c'est Beendo, SL, té-ma l'putain d'guet-apens Boo, fais pas l'fou, on sait très bien qu'tu tire à blanc Grah J'arrive en rap, pas d'mélodie dans tes tympans Skrt, t'sais qu'on passe, tape à la porte, j'ai cagoule, gants, j'suis v'nu tout prendre You might also like Il m'faut l'passeport ou une plaque diplomatique Eh, écoute pas les On m'a dit, frérot, c'est c'que Toto m'as dit Eh Il m'faut l'import et un compte en banque en Suisse, évite les sous-entendues, ça pourrait t'soulever comme le Fisc Shoo A-A86, j'la prends à toute vitesse Hey, hey, à quinze, j'vais péter Beendo Z dans sa tess Dans son tieks Remballe ton eau salé, on veut que des ronds, qu'on puisse baigner dans le Rhône, on a trop baigner dans le fond Oh, oh A-A86, j'la prends à toute vitesse Toute vitesse, à quinze, j'vais péter Beendo Z dans sa tess Dans son tieks Du neuf-cinq au quatre-vingt douze, c'est la même, ici, cops, ça sent la merde, on te fout tout ça en lamelle En lamelle En lamelle, en lamelle, en lamelle En t'fout tout ça en lamelle SL, SL Beendo</t>
+          <t>SL, SL, SL, SL Junior Alaprod, zanmé Tu nous parles de vendetta, j'attend toujours Hein, la mort m'as dit Attends ton jours Hein J'crois en Dieu mais j'tend pas la joue droite Hey, l'amour, c'est comme un shooter Tu l'vois pas quand il te foudroie Poh, poh, t'as fait moins d'vingt-quatre Et c'est là qu'j'ai eu des doutes sur toi Hein, si tu montres pas ta dépôt, ça veut dire que tu te fout d'moi J'ai préféré bicrave plutôt qu'taffer dans un fast-food, moi Shoo, shoo J'ai racketter des mecs mais pourtant, j'ai fait que du foot', moi Brr, brr Mes équipements, c'était l'couteau, la gazeuse et le full black, quand y a des sous, c'est full Nike Eh Il m'faut l'passeport ou une plaque diplomatique Eh, écoute pas les On m'a dit, frérot, c'est c'que Toto m'as dit Eh Il m'faut l'import et un compte en banque en Suisse, évite les sous-entendues, ça pourrait t'soulever comme le Fisc Shoo A-A86, j'la prends à toute vitesse Hey, hey, à quinze, j'vais péter Beendo Z dans sa tess Dans son tieks Remballe ton eau salé, on veut que des ronds, qu'on puisse baigner dans le Rhône, on a trop baigner dans le fond Oh, oh A-A86, j'la prends à toute vitesse Toute vitesse, à quinze, j'vais péter Beendo Z dans sa tess Dans son tieks Du neuf-cinq au quatre-vingt douze, c'est la même, ici, cops, ça sent la merde, on te fout tout ça en lamelle J'mets l'pilon, tabac, massa-gué, donc j'rallume un Cohiba, j'tape la prod', c'est trop des barres, la souris bip quand l'colis part Brr, brr Oublie pas, oublie pas, t'es l'genre de grand qui appelle des grands Donc patate lyricale, dans tous les cas, tu r'crache ta pomme d'Adam Boo Là, c'est Beendo, SL, té-ma l'putain d'guet-apens Boo, fais pas l'fou, on sait très bien qu'tu tire à blanc Grah J'arrive en rap, pas d'mélodie dans tes tympans Skrt, t'sais qu'on passe, tape à la porte, j'ai cagoule, gants, j'suis v'nu tout prendre Il m'faut l'passeport ou une plaque diplomatique Eh, écoute pas les On m'a dit, frérot, c'est c'que Toto m'as dit Eh Il m'faut l'import et un compte en banque en Suisse, évite les sous-entendues, ça pourrait t'soulever comme le Fisc Shoo A-A86, j'la prends à toute vitesse Hey, hey, à quinze, j'vais péter Beendo Z dans sa tess Dans son tieks Remballe ton eau salé, on veut que des ronds, qu'on puisse baigner dans le Rhône, on a trop baigner dans le fond Oh, oh A-A86, j'la prends à toute vitesse Toute vitesse, à quinze, j'vais péter Beendo Z dans sa tess Dans son tieks Du neuf-cinq au quatre-vingt douze, c'est la même, ici, cops, ça sent la merde, on te fout tout ça en lamelle En lamelle En lamelle, en lamelle, en lamelle En t'fout tout ça en lamelle SL, SL Beendo</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fulltrap Fulltrap Hum Beendo, Beendo, Beendo Beendo Zarzis aka Beendo Z, j'ai sorti L'Élu et ça, qui peut l'refaire ? On t'pardonne, après, tu refais, en vrai, tes paroles sont comme c'que tu reflètes Beendo, j'suis pas un tir au flanc Au flanc, si j'te tire dessus, j'te vise le foie Poh Faut pas Faut pas t'sentir offensé si ta meuf, j'lui mets deux doigts Rah Cali weed, ils vendent la frappe de Tanger, deux photos, c'est égale à 200G J'suis la prod', j'fais une promenade de santé Ouh, ouh, y avait qui avec toi quand tu descendais Hein ? J'ai roulé deux joints, ramèns deux cendar, le trrain est sold out, so mes soldats On baisse pas le prix du shit pendant les soldes, j'lai sauté en brr parce que elle est sotte Sotte Si elle t'retourne le crâne, c'est qu'elle est forte Ouais, ça bosse à la chaîne comme si c'était Ford Elle veut un anneau, pourtant, c'est pas Frodon, dans l'Viano, des mélodies, je fredonne J're-j'regarde combien j'ai eu sur DistroKid, j'regarde pas combien j'ai eu sur Pronote Pronote Si tu manques de respect, que j'te dis Tranquille Tranquille, le lendemain, j'reviendrai pour te pull up Brr Si vous êtes des rappeurs, je vous conseillerai d'écouter quand même un peu d'rap, c'est vrai Mais aller chercher d'l'inspiration, d'la folie, artistique qu'il y a dans ailleurs et chez les meilleurs Ailleurs et chez les meilleurs J'ai-j'ai une Clio, j'prends souvent des loc', j'ai la haine quand j'vois un condé avec des locks Yes Ils-ils pensent qu'à l'amour, eux, ils font pas d'lovés, tu fais pas d'sous, tu dors, tu veux pas t'lever J'suis pas très docile, j'ai pas la patte levée, l'alcool, c'est de l'eau, il m'a pas khabat le verre On traine pas ensemble si t'es pas capable de faire des choses quand t'as pas d'armes, quand t'as pas de fers En vrai, c'est dur de rapper quand t'as pas de fame Ouais, si tu sens pas les mauvais coups, t'as pas de flair Non Elle monte dans l'Clio, elle monte pas dans l'gros fer, t'es gentil, tu t'fais graille, la vie, c'est pas gaufrette Quand j'avais pas d'sous, du temps, j'en ai offert, j'ai des billets de cents, j'me suis pas mis au vert T'es over, t'es pas Mandanda mais tes Over, j'suis pas Boob's mais j'arrive comme le Météore J'ai jamais aimé les maths et les théorèmes Ouais, si t'es che-ri, t'es beau, telle est ma théorie Ouais Pour ça qu'j'aime compter le bleu, le jaune, le violet, trafic de stup', tu prends plus cher qu'un voleur Bah ouais Cambu', vol, prends plus cher qu'un violeur Hein, si tu penses que t'as l'temps, c'est que t'as pas vu l'heure Ouais Le shit, il est bon, il fait des bulles à vue d'il, comme dans mon compte en banque au début d'la vida GrrYou might also like</t>
+          <t>Fulltrap Fulltrap Hum Beendo, Beendo, Beendo Beendo Zarzis aka Beendo Z, j'ai sorti L'Élu et ça, qui peut l'refaire ? On t'pardonne, après, tu refais, en vrai, tes paroles sont comme c'que tu reflètes Beendo, j'suis pas un tir au flanc Au flanc, si j'te tire dessus, j'te vise le foie Poh Faut pas Faut pas t'sentir offensé si ta meuf, j'lui mets deux doigts Rah Cali weed, ils vendent la frappe de Tanger, deux photos, c'est égale à 200G J'suis la prod', j'fais une promenade de santé Ouh, ouh, y avait qui avec toi quand tu descendais Hein ? J'ai roulé deux joints, ramèns deux cendar, le trrain est sold out, so mes soldats On baisse pas le prix du shit pendant les soldes, j'lai sauté en brr parce que elle est sotte Sotte Si elle t'retourne le crâne, c'est qu'elle est forte Ouais, ça bosse à la chaîne comme si c'était Ford Elle veut un anneau, pourtant, c'est pas Frodon, dans l'Viano, des mélodies, je fredonne J're-j'regarde combien j'ai eu sur DistroKid, j'regarde pas combien j'ai eu sur Pronote Pronote Si tu manques de respect, que j'te dis Tranquille Tranquille, le lendemain, j'reviendrai pour te pull up Brr Si vous êtes des rappeurs, je vous conseillerai d'écouter quand même un peu d'rap, c'est vrai Mais aller chercher d'l'inspiration, d'la folie, artistique qu'il y a dans ailleurs et chez les meilleurs Ailleurs et chez les meilleurs J'ai-j'ai une Clio, j'prends souvent des loc', j'ai la haine quand j'vois un condé avec des locks Yes Ils-ils pensent qu'à l'amour, eux, ils font pas d'lovés, tu fais pas d'sous, tu dors, tu veux pas t'lever J'suis pas très docile, j'ai pas la patte levée, l'alcool, c'est de l'eau, il m'a pas khabat le verre On traine pas ensemble si t'es pas capable de faire des choses quand t'as pas d'armes, quand t'as pas de fers En vrai, c'est dur de rapper quand t'as pas de fame Ouais, si tu sens pas les mauvais coups, t'as pas de flair Non Elle monte dans l'Clio, elle monte pas dans l'gros fer, t'es gentil, tu t'fais graille, la vie, c'est pas gaufrette Quand j'avais pas d'sous, du temps, j'en ai offert, j'ai des billets de cents, j'me suis pas mis au vert T'es over, t'es pas Mandanda mais tes Over, j'suis pas Boob's mais j'arrive comme le Météore J'ai jamais aimé les maths et les théorèmes Ouais, si t'es che-ri, t'es beau, telle est ma théorie Ouais Pour ça qu'j'aime compter le bleu, le jaune, le violet, trafic de stup', tu prends plus cher qu'un voleur Bah ouais Cambu', vol, prends plus cher qu'un violeur Hein, si tu penses que t'as l'temps, c'est que t'as pas vu l'heure Ouais Le shit, il est bon, il fait des bulles à vue d'il, comme dans mon compte en banque au début d'la vida Grr</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Beendo, Beendo, Beendo Boumi' Beendo Zarzis aka Beendo Z, j'ai sorti L'Élu et ça, qui peut l'refaire ? On pardonne, après tu refais, en vrai, tes paroles sont comme c'que tu reflètes Beendo, j'suis pas un tire-au-flanc, si j'te tire dessus, j'te vise le foie Pah Faut pas s'sentir offensé si ta meuf, j'lui mets deux doigts Brr Et le huit, il vend la frappe de Tanger, deux photos, c'est égal à deux-cent G' J'suis sur la prod', j'fais une promenade de santé, y avait qui avec toi quand tu descendais ? J'ai roulé deux joints, ramène deux cendars, le terrain est sold out, so les soldats On baisse pas l'prix du shit pendant les soldes, j'l'ai sauté en brr parce qu'elle est sotte Elle est sotte Elle t'retourne le crâne, c'est qu'elle est forte, ça bosse à la chaîne comme si c'était Ford Elle veut un anneau pourtant c'est pas Frodon, dans l'Viano, des mélodies je fredonne J'regarde combien j'ai eu sur Distrokid Han, j'regarde pas combien j'ai eu sur Pronote Si tu manques de respect, que j'te dis Tranquille, le lendemain, j'reviendrai pour te pull-up Brr Si vous êtes des rappeurs, j'vous conseillerai d'écouter quand même un peu d'rap, c'est vrai mais allez chercher d'l'inspiration ou d'la folie artistique dans... ailleurs et chez les meilleurs. J'ai une Clio, j'prends souvent des loc', j'ai la haine quand j'vois un condé avec des locks Ils pensent qu'à l'amour, eux, ils font pas d'lovés, tu fais pas d'sous, tu dors, tu veux pas t'lever ? J'suis pas très docile, j'ai pas la patte levée, l'alcool, c'est de l'eau, il m'a pas khabat le verre On traîne pas ensemble si t'es pas capable de faire des choses quand t'as pas d'arme, quand t'as pas de fer En vrai, c'est dur de rapper quand t'as pas de fame, si tu sens pas les mauvais coups, t'as pas de flair Elle monte dans l'Clio, elle monte pas dans l'gros fer, t'es gentil, tu t'fais graille, la vie, c'est pas gaufrette Quand j'avais pas d'sous, du temps j'en ai offert Ah ouais J'ai des billets d'deux-cent, j'me suis pas mis au vert T'es over, t'es pas Mandanda mais t'es over, j'suis pas Boobs mais j'arrive comme le météore J'ai jamais aimé les maths et les théorèmes si t'es che-ri, t'es beau, telle est ma théorie Pour ça qu'j'aime compter le bleu, le jaune, le violet, trafic de stup', tu prends plus cher qu'un violeur Cambu, vol, prends plus cher qu'un violeur, si tu penses que t'as le temps, c'est que t'as pas vu l'heure Le shit, il est bon, il fait des bulles à vu d'il Comme dans mon compte en banque au début d'la vie d'artisteYou might also like</t>
+          <t>Beendo, Beendo, Beendo Boumi' Beendo Zarzis aka Beendo Z, j'ai sorti L'Élu et ça, qui peut l'refaire ? On pardonne, après tu refais, en vrai, tes paroles sont comme c'que tu reflètes Beendo, j'suis pas un tire-au-flanc, si j'te tire dessus, j'te vise le foie Pah Faut pas s'sentir offensé si ta meuf, j'lui mets deux doigts Brr Et le huit, il vend la frappe de Tanger, deux photos, c'est égal à deux-cent G' J'suis sur la prod', j'fais une promenade de santé, y avait qui avec toi quand tu descendais ? J'ai roulé deux joints, ramène deux cendars, le terrain est sold out, so les soldats On baisse pas l'prix du shit pendant les soldes, j'l'ai sauté en brr parce qu'elle est sotte Elle est sotte Elle t'retourne le crâne, c'est qu'elle est forte, ça bosse à la chaîne comme si c'était Ford Elle veut un anneau pourtant c'est pas Frodon, dans l'Viano, des mélodies je fredonne J'regarde combien j'ai eu sur Distrokid Han, j'regarde pas combien j'ai eu sur Pronote Si tu manques de respect, que j'te dis Tranquille, le lendemain, j'reviendrai pour te pull-up Brr Si vous êtes des rappeurs, j'vous conseillerai d'écouter quand même un peu d'rap, c'est vrai mais allez chercher d'l'inspiration ou d'la folie artistique dans... ailleurs et chez les meilleurs. J'ai une Clio, j'prends souvent des loc', j'ai la haine quand j'vois un condé avec des locks Ils pensent qu'à l'amour, eux, ils font pas d'lovés, tu fais pas d'sous, tu dors, tu veux pas t'lever ? J'suis pas très docile, j'ai pas la patte levée, l'alcool, c'est de l'eau, il m'a pas khabat le verre On traîne pas ensemble si t'es pas capable de faire des choses quand t'as pas d'arme, quand t'as pas de fer En vrai, c'est dur de rapper quand t'as pas de fame, si tu sens pas les mauvais coups, t'as pas de flair Elle monte dans l'Clio, elle monte pas dans l'gros fer, t'es gentil, tu t'fais graille, la vie, c'est pas gaufrette Quand j'avais pas d'sous, du temps j'en ai offert Ah ouais J'ai des billets d'deux-cent, j'me suis pas mis au vert T'es over, t'es pas Mandanda mais t'es over, j'suis pas Boobs mais j'arrive comme le météore J'ai jamais aimé les maths et les théorèmes si t'es che-ri, t'es beau, telle est ma théorie Pour ça qu'j'aime compter le bleu, le jaune, le violet, trafic de stup', tu prends plus cher qu'un violeur Cambu, vol, prends plus cher qu'un violeur, si tu penses que t'as le temps, c'est que t'as pas vu l'heure Le shit, il est bon, il fait des bulles à vu d'il Comme dans mon compte en banque au début d'la vie d'artiste</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>HLM résident, ca revend le résidu, au boulot, jamais hésitant, Parler vaut mieux éviter J'ai perdu mania mais bon il a fallu se casser les dents C'est plus pareil dorénavant, que des pirates dans mon navire Avec un bol de riz, tu peux lire ton avenir J'suis sur Paris, un peu paro, le ient-cli met du temps à venir Devant la caméra, j'suis pas l'même que dans la vie Beau sourire dans les clips, mais j'marche avec un gros calibre C'est utile, c'pas un jeu, c'est dangereux, c'est pas exagéré A tout moment j'finis incarcéré derrière les barbelés Baconnets, j'marche avec fichés S, avec bacheliers On sait qui sont les proies, qui sont les braconniers On s'connait pas vraiment tant qu'on s'est pas cognés Peau noire, deux fois plus de chance de s'faire contrôler On peut pas aller contre le vent, une pluie d'billets nous consolerait Drogue, auditif, je vends, les auditeurs aiment consommer Capuché en temps de pluie Même les portes vérouillées, on s'introduit T'sais qu'on est cramés devant la Bac de nuit Parano, j'ai pas dormi, gros, pas dormi Ceux qui parlent sont en bas Tu les entends quand t'es sur le toit Ceux qui parlent sont en bas, en bas, tu les entends quand t'es sur le toit You might also like Tu les entends quand t'es sur le toit T'es pas fiable, j'peux pas compter sur toi Y'a une équipe qui va monter sur toi Un mal pour un bien, on t'apprend a rendre ce que tu dois Tu peux me pointer du doigt, une boîte, une photo, un pocheton, un échant' Toujours plus, toujours plus dans les poches, j'en ai besoin Je le dis haut et fort, je n'suis pas un exemple Je n'suis pas un mec simple, j'suis rappeur, pas médecin Parle nous FR, parle-nous espèce On monte en flèche, ennemis perdent en graisse, à deux doigts d'crier S.O.S C'est cours ou crève, tout ou rien, dans nos coins sombres Le but, c'est d's'arracher d'ici, gros, les laisser bad yomb Sale train de vie, on mène, j'vendais les cailloux mineur Ils m'croyaient éliminé, j'arrive à K-Iminant J'coupe tout dès qu'il est minuit, j'fais défiler les clients Gang est la vie du ciment Capuché en temps de pluie Même les portes vérouillées, on s'introduit T'sais qu'on est cramés devant la Bac de nuit Parano, j'ai pas dormi, gros, pas dormi Ceux qui parlent sont en bas Tu les entends quand t'es sur le toit Ceux qui parlent sont en bas, en bas, tu les entends quand t'es sur le toit Capuché en temps de pluie Même les portes vérouillées, on s'introduit T'sais qu'on est cramés devant la Bac de nuit Parano, j'ai pas dormi, gros, pas dormi Ceux qui parlent sont en bas Tu les entends quand t'es sur le toit Ceux qui parlent sont en bas, en bas, tu les entends quand t'es sur le toit</t>
+          <t>HLM résident, ca revend le résidu, au boulot, jamais hésitant, Parler vaut mieux éviter J'ai perdu mania mais bon il a fallu se casser les dents C'est plus pareil dorénavant, que des pirates dans mon navire Avec un bol de riz, tu peux lire ton avenir J'suis sur Paris, un peu paro, le ient-cli met du temps à venir Devant la caméra, j'suis pas l'même que dans la vie Beau sourire dans les clips, mais j'marche avec un gros calibre C'est utile, c'pas un jeu, c'est dangereux, c'est pas exagéré A tout moment j'finis incarcéré derrière les barbelés Baconnets, j'marche avec fichés S, avec bacheliers On sait qui sont les proies, qui sont les braconniers On s'connait pas vraiment tant qu'on s'est pas cognés Peau noire, deux fois plus de chance de s'faire contrôler On peut pas aller contre le vent, une pluie d'billets nous consolerait Drogue, auditif, je vends, les auditeurs aiment consommer Capuché en temps de pluie Même les portes vérouillées, on s'introduit T'sais qu'on est cramés devant la Bac de nuit Parano, j'ai pas dormi, gros, pas dormi Ceux qui parlent sont en bas Tu les entends quand t'es sur le toit Ceux qui parlent sont en bas, en bas, tu les entends quand t'es sur le toit Tu les entends quand t'es sur le toit T'es pas fiable, j'peux pas compter sur toi Y'a une équipe qui va monter sur toi Un mal pour un bien, on t'apprend a rendre ce que tu dois Tu peux me pointer du doigt, une boîte, une photo, un pocheton, un échant' Toujours plus, toujours plus dans les poches, j'en ai besoin Je le dis haut et fort, je n'suis pas un exemple Je n'suis pas un mec simple, j'suis rappeur, pas médecin Parle nous FR, parle-nous espèce On monte en flèche, ennemis perdent en graisse, à deux doigts d'crier S.O.S C'est cours ou crève, tout ou rien, dans nos coins sombres Le but, c'est d's'arracher d'ici, gros, les laisser bad yomb Sale train de vie, on mène, j'vendais les cailloux mineur Ils m'croyaient éliminé, j'arrive à K-Iminant J'coupe tout dès qu'il est minuit, j'fais défiler les clients Gang est la vie du ciment Capuché en temps de pluie Même les portes vérouillées, on s'introduit T'sais qu'on est cramés devant la Bac de nuit Parano, j'ai pas dormi, gros, pas dormi Ceux qui parlent sont en bas Tu les entends quand t'es sur le toit Ceux qui parlent sont en bas, en bas, tu les entends quand t'es sur le toit Capuché en temps de pluie Même les portes vérouillées, on s'introduit T'sais qu'on est cramés devant la Bac de nuit Parano, j'ai pas dormi, gros, pas dormi Ceux qui parlent sont en bas Tu les entends quand t'es sur le toit Ceux qui parlent sont en bas, en bas, tu les entends quand t'es sur le toit</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Beendo, LE RISQUE LE RISQUE, sur la prod' tu péries Si tu viens dans la zone, à tes risques et périls, y a des rixes, des G.AV, des vérifs' Pourquoi faire le cigarillo ? Pourquoi faire ça ? On sait bien qu't'as rien La police nous voit comme des acariens, à Cali y a c'qui faut pour ma fin d'carrière Gang Quatre anneaux les pleins phares, quatre anneaux la caisse Brr, aller-retour, livraison c'est que pour ma pièce Gang CPPR, toujours à l'affut, j'roule un gros joint d'be-her qui monte à la tête J'me lève tôt l'matin pour faire que ds adresses, quand j'monte l'scalier, c'est l'adré' qui té-mon J'ai crame le filtré, c'est moi devant ton palier C'est moi, fais en de-spee, faut pas qu'les voisins ils té-ma La muerte ressemble à un 125, quand j'rap, je représente le cent moins cinq C'est le sang mon sin-c', il est toujours opé quand faut bicrave, voler ou tout dérober J'marche avec des négros, des reubeus, ils sont tous passés sur l'terrain d'beuh Ah ouais Même si j'suis d'bonne humeur, je n'rajoute pas un peu, j'veux remplir mes poches, je néglige pas un plan Méchant comme Ragnar, méchant comme tata, j'viens reprendre le biff de la C et j'me casse Sapé tout en noir, bonnet Helvetica, ensemble Under Armor, c'est pas pour la drague Jamais on clash, tu parles, on t'efface Jamais, jamais, on va t'apprendre c'est quoi la politesse Jamais on clash, tu oses, on t'attache, CPPR s'implique pas pour des fesses Impliqué depuis gamin, raconte pas des salades, finir devant l'OPJ tout ça, c'est banal Tout ça, c'est banal, tout ça, c'est banal Ils ont pas d'ennemis, ils parlent de gilets pare-balles Impliqué depuis gamin, raconte pas des salades, finir devant l'OPJ tout ça, c'est banal Tout ça, c'est banal, tout ça, c'est banal Ils ont pas d'ennemis, ils parlent de gilets pare-balles Ils ont pas d'ennemis, ils parlent de gilets pare-balles, tout en noir dans la street, j'suis carbo' Fusil à lunette, ça shoot comme à Brooklyn Grr, on éteint, on est deux sur la moto Pah, pah On éteint, on est deux sur la moto, la caille, la caille, tous les jours ça parle Une rafale de balles, sa cours plus vite qu'Mbappé, nique sa mère les opps, on a préféré l'cash Si ça marche pas, c'est Dieu qui décide, bats les couilles, j'ai vendu des grammes de te-shi en bas d'une tour J'suis prêt à tout jeter du balcon, et avant d'rentrer chez moi, j'fais v'là des tours Tu fais la mala or que t'es endetté, mes négros ont l'sang chaud même si c'est pas l'été Ça débite grave Donc j'fais des allers-r'tours, dédicace à tous ceux qui ont alerté Ça débite, ça débite, j'fais des allers-retours, dédicace au guetteur qui assure mes gardes Mes gardes J'tiens pas la te-por, moi, j'tiens l'sac Jamais, tout en noir capuché dans l'sas T'as pas vu mes sapes, j'suis pas là pour drip Non, non, non, j'suis là pour la drill, j'suis là pour le sal Nique ta mère si t'es pas le sang Ta mère, on t'connait déjà, toi, t'es qu'une balance Faut s'dépêcher d'mailler car l'heure tourne, j'suis pas d'ceux qui pensent qu'à leurs têtes J'fais gratter la mi-f' ou des mecs de ma tess, la bicrave, c'était mon job hebdomadaire Mais j'ai pas eu besoin d'un grand frère, l'argent c'est comme l'amour, je sais comment l'faire On est pas dans les Snaps ou les trucs de la fame, quand j'rap, tu t'assoies, t'écoutes et tu t'la ferme You might also like Bang Bang Grr, pah Pah C'est pas pour rien qu'on m'appelle LE RISQUE Quand j'rap tu t'assoies, t'écoutes et tu t'la ferme Grr, pah Gang</t>
+          <t>Beendo, LE RISQUE LE RISQUE, sur la prod' tu péries Si tu viens dans la zone, à tes risques et périls, y a des rixes, des G.AV, des vérifs' Pourquoi faire le cigarillo ? Pourquoi faire ça ? On sait bien qu't'as rien La police nous voit comme des acariens, à Cali y a c'qui faut pour ma fin d'carrière Gang Quatre anneaux les pleins phares, quatre anneaux la caisse Brr, aller-retour, livraison c'est que pour ma pièce Gang CPPR, toujours à l'affut, j'roule un gros joint d'be-her qui monte à la tête J'me lève tôt l'matin pour faire que ds adresses, quand j'monte l'scalier, c'est l'adré' qui té-mon J'ai crame le filtré, c'est moi devant ton palier C'est moi, fais en de-spee, faut pas qu'les voisins ils té-ma La muerte ressemble à un 125, quand j'rap, je représente le cent moins cinq C'est le sang mon sin-c', il est toujours opé quand faut bicrave, voler ou tout dérober J'marche avec des négros, des reubeus, ils sont tous passés sur l'terrain d'beuh Ah ouais Même si j'suis d'bonne humeur, je n'rajoute pas un peu, j'veux remplir mes poches, je néglige pas un plan Méchant comme Ragnar, méchant comme tata, j'viens reprendre le biff de la C et j'me casse Sapé tout en noir, bonnet Helvetica, ensemble Under Armor, c'est pas pour la drague Jamais on clash, tu parles, on t'efface Jamais, jamais, on va t'apprendre c'est quoi la politesse Jamais on clash, tu oses, on t'attache, CPPR s'implique pas pour des fesses Impliqué depuis gamin, raconte pas des salades, finir devant l'OPJ tout ça, c'est banal Tout ça, c'est banal, tout ça, c'est banal Ils ont pas d'ennemis, ils parlent de gilets pare-balles Impliqué depuis gamin, raconte pas des salades, finir devant l'OPJ tout ça, c'est banal Tout ça, c'est banal, tout ça, c'est banal Ils ont pas d'ennemis, ils parlent de gilets pare-balles Ils ont pas d'ennemis, ils parlent de gilets pare-balles, tout en noir dans la street, j'suis carbo' Fusil à lunette, ça shoot comme à Brooklyn Grr, on éteint, on est deux sur la moto Pah, pah On éteint, on est deux sur la moto, la caille, la caille, tous les jours ça parle Une rafale de balles, sa cours plus vite qu'Mbappé, nique sa mère les opps, on a préféré l'cash Si ça marche pas, c'est Dieu qui décide, bats les couilles, j'ai vendu des grammes de te-shi en bas d'une tour J'suis prêt à tout jeter du balcon, et avant d'rentrer chez moi, j'fais v'là des tours Tu fais la mala or que t'es endetté, mes négros ont l'sang chaud même si c'est pas l'été Ça débite grave Donc j'fais des allers-r'tours, dédicace à tous ceux qui ont alerté Ça débite, ça débite, j'fais des allers-retours, dédicace au guetteur qui assure mes gardes Mes gardes J'tiens pas la te-por, moi, j'tiens l'sac Jamais, tout en noir capuché dans l'sas T'as pas vu mes sapes, j'suis pas là pour drip Non, non, non, j'suis là pour la drill, j'suis là pour le sal Nique ta mère si t'es pas le sang Ta mère, on t'connait déjà, toi, t'es qu'une balance Faut s'dépêcher d'mailler car l'heure tourne, j'suis pas d'ceux qui pensent qu'à leurs têtes J'fais gratter la mi-f' ou des mecs de ma tess, la bicrave, c'était mon job hebdomadaire Mais j'ai pas eu besoin d'un grand frère, l'argent c'est comme l'amour, je sais comment l'faire On est pas dans les Snaps ou les trucs de la fame, quand j'rap, tu t'assoies, t'écoutes et tu t'la ferme Bang Bang Grr, pah Pah C'est pas pour rien qu'on m'appelle LE RISQUE Quand j'rap tu t'assoies, t'écoutes et tu t'la ferme Grr, pah Gang</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>J'vais pas au studio, j'enregistre au tél-hô, dans les Airbnb, j'envoie des p'tites mélo' On arrache tous les sacs, on arrache tous les go, on les fait tapiner, on leurs faits donner l'go Go, go, go Eux, ils tapinent avec un p'tit contrat d'artistes, tu prends septs pour cents sur SexeModel, t'es un VIP Ah Mais à quoi bon resté en vie Hein ? T'es une star, tu peux même pas comblé tes envies T'es une star, t'es une star Donc tu fait peur à personnes, à part à tes voisins, ils savent pas qu't'es au sol Tu fait peur à personne On a peur de personne et on sait qu'il faut tomber pour atteindre le sommet Pour bien s'relever La nuit, j'ai pas sommeil, j'pense à ses sommes que j'ai coffrer sur l'sommier Yes T'es la lune et moi, l'soleil Yes, quand tu m'vois, t'es obligé d'te sauver Grr, grr Pas d'happy end quand t'as rasé la ville Rasé la ville, Beendo Z, connu pour extorsion et vol à main armée Armée, armée T'en as marre de bosser ? Tu veux quitter la street, éviter les problèmes Gang Pour mettre des nouvelles sapes Nouvelles sapes, on a tenu le sac, pas tenu nos promesses On a tenu le sac J'aime trop l'football et j'ai v'-esqui le shtar, j'suis comme Quincy Promes J'suis comme Quincy Promes Sur la prod', j'fait du sale, sur la prod', j'me balade Balade, sur la prod', j'me promène Promène On a pas d'sentiments, on peut t'faire la rre-gue juste pour quatre centimes Qua-, quatre centimes Tu peux compter sur oi-m quand faut faire une sse-pa, c'est moi la sentinelle C'est moi la sentinelle La muerte s'achète, aux tabacs, y a des clopes, des Opinel Aux tabacs, y a des clopes J'appelle pas Ma puce, c'est une grosse , j'l'ai déjà piner Déjà piner Ils connaissent rien à la 'sique, ils ont pas l'ce-vi, ils vont finir à l'asile À l'asile Pas d'ADN, faut faire la boule à z sinon, pas d'happy end quand t'as rasé la ville Rasé la ville Ils connaissent rien à la 'sique La 'sique, ils ont pas l'ce-vi, ils vont finir à l'asile À l'asile Pas-pas d'ADN, faut faire la boule à sinon, pas d'happy end quand t'as rasé la ville Rasé la ville You might also like Ils connaissent rien à la 'sique À la 'sique, ils ont pas l'ce-vi, ils vont finir à l'asile À l'asile Pas d'ADN, faut faire la boule à z sinon, pas d'happy end quand t'as rasé la ville Rasé la ville Ils connaissent rien à la 'sique À la 'sique, ils ont pas l'ce-vi, ils vont finir à l'asile À l'asile Pas d'ADN, faut faire la boule à z sinon, pas d'happy end quand t'as rasé la ville Rasé la ville</t>
+          <t>J'vais pas au studio, j'enregistre au tél-hô, dans les Airbnb, j'envoie des p'tites mélo' On arrache tous les sacs, on arrache tous les go, on les fait tapiner, on leurs faits donner l'go Go, go, go Eux, ils tapinent avec un p'tit contrat d'artistes, tu prends septs pour cents sur SexeModel, t'es un VIP Ah Mais à quoi bon resté en vie Hein ? T'es une star, tu peux même pas comblé tes envies T'es une star, t'es une star Donc tu fait peur à personnes, à part à tes voisins, ils savent pas qu't'es au sol Tu fait peur à personne On a peur de personne et on sait qu'il faut tomber pour atteindre le sommet Pour bien s'relever La nuit, j'ai pas sommeil, j'pense à ses sommes que j'ai coffrer sur l'sommier Yes T'es la lune et moi, l'soleil Yes, quand tu m'vois, t'es obligé d'te sauver Grr, grr Pas d'happy end quand t'as rasé la ville Rasé la ville, Beendo Z, connu pour extorsion et vol à main armée Armée, armée T'en as marre de bosser ? Tu veux quitter la street, éviter les problèmes Gang Pour mettre des nouvelles sapes Nouvelles sapes, on a tenu le sac, pas tenu nos promesses On a tenu le sac J'aime trop l'football et j'ai v'-esqui le shtar, j'suis comme Quincy Promes J'suis comme Quincy Promes Sur la prod', j'fait du sale, sur la prod', j'me balade Balade, sur la prod', j'me promène Promène On a pas d'sentiments, on peut t'faire la rre-gue juste pour quatre centimes Qua-, quatre centimes Tu peux compter sur oi-m quand faut faire une sse-pa, c'est moi la sentinelle C'est moi la sentinelle La muerte s'achète, aux tabacs, y a des clopes, des Opinel Aux tabacs, y a des clopes J'appelle pas Ma puce, c'est une grosse , j'l'ai déjà piner Déjà piner Ils connaissent rien à la 'sique, ils ont pas l'ce-vi, ils vont finir à l'asile À l'asile Pas d'ADN, faut faire la boule à z sinon, pas d'happy end quand t'as rasé la ville Rasé la ville Ils connaissent rien à la 'sique La 'sique, ils ont pas l'ce-vi, ils vont finir à l'asile À l'asile Pas-pas d'ADN, faut faire la boule à sinon, pas d'happy end quand t'as rasé la ville Rasé la ville Ils connaissent rien à la 'sique À la 'sique, ils ont pas l'ce-vi, ils vont finir à l'asile À l'asile Pas d'ADN, faut faire la boule à z sinon, pas d'happy end quand t'as rasé la ville Rasé la ville Ils connaissent rien à la 'sique À la 'sique, ils ont pas l'ce-vi, ils vont finir à l'asile À l'asile Pas d'ADN, faut faire la boule à z sinon, pas d'happy end quand t'as rasé la ville Rasé la ville</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Inspiré d'faits réels, t'as pas cru en moi, de la liste, tu t'fais rayer Beendo On l'fera quand bien même c'est grillé Ouais, tu peux guetter si tu sais crier Akha L'addition salée me laisse un goût amer, j'vais au studio pas pour faire de la merde Ah nan La gue-dro, je sais pas qui l'amène Hein ? mais j'sais très bien à qui je la sers J'ai tout fait partir et j'dis Amen Regarde dans les yeux, regarde dans les yeux que tu m'la serres Regard dans les yeux Regard dans les yeux quand tu m'lahsa Regarde, les mêmes yeux quand tu mens à ta mère Sale pute Deux cent trente-sept, j'suis un camer' Ouais, appelle-moi si t'es un camé Appelle Des personnages, ils ont incarné, ma sacoche est remplie comme l'était mon carnet Comme l'était mon carnet Tout l'monde peut acheter des potes-ca Ouais mais c'est pas tout l'monde qui peut baiser Ah nan C'est tout l'monde qui peut faire du pe-ra Bah ouais mais c'est pas tout l'monde qui peut percer Bah nan Donc j'écoute pas leurs sons à trois francs six sous, j'veux que te baiser, c'est français, ça J'mets des reprises de volée comme Zizou et si on t'connaît pas, on peut te prendre tes sapes Tes sapes Et j'sais même pas jouer au tennis mais le ient-cli m'a dit que je sers bien Hey La pétasse, elle est remplie de vices mais j'préfère les grosses liasses plutôt que les gros seins Hey Et j't'ai dis qu'j'connaissais des grossistes Ah ouais, pourtant, ils ont pas d'problèmes de poids Hey J'suis un débrouillard, pas un bandit, négro Han, j'vais pas t'le répéter deux fois Elle-elle est trop contente quand elle vient pper-cho Grr, j'encaisse un billet, j'ai trop la pêche Grr J'vais pas aller en enfer mais c'est chaud parce que pour profiter d'la vie, faut pécher Han, t'as capté, j'ai deux bigos dont un qu'a pas la 4G Han, j'sors un couteau, j'suis pas venu pour catcher Pah Et j'ferai pas d'plan sous si y a pas quatre chiffres Eh, eh J'ai envie d'la ken mais flemme de la guer-dra, le pe-ra financé par l'argent d'la gue-dro Si t'as un vrai bourbier, dis-moi qui t'aidera ? J'ai faim d'argent, c'est vrai, j'en veux un peu trop Pah, pah Elle fait la sainte, elle est remplie de vices Grr, alors qu'on sait très bien, elle bosse Shee Il m'faut la SACEM de Elvis Hein ?, il m'faut la SACEM de Elton, y a brouillon, j'suis à pied mais j'ai des gants d'motard C'est un peu trop tôt pour dire qu'il est trop tard, j'suis pas très beau mais elle est trop dar, j'espère juste qu'elle fait pas les trottoirs Sale pute Et à chaque fois, j'entends les gyro' Sale pute, j'me demande qu'est-ce qu'ils font là comme Giroud Olivier Faut pas trop parler, faut agir, mon son va s'répandre comme le HIV Eh-eh, arrête de parler mal, négro Han, j'ai pas envie d'sortir une lame Han J'ai pas envie d'me tatouer une larme Han, j'ai pas envie d'me tatouer une larme Han Igo, arrête de parler mal Han, j'ai pas envie d'sortir une lame Han J'ai pas envie d'me tatouer une larme Hein ?, j'ai pas envie d'me tatouer une larme Hein ? Neuf-cinq, deux cent dix, on fait des incendies, j'ai vendu l'savon à un imbécile Pah, pah Dans la sacoche, y a pas d'centimes Grr, quand y a des billets, j'apprécie Pah, pah Vide la bonbonne comme la vessie Han, il m'semble que j'te l'avais dit Charo, j'peux aller jouer en Chine comme Lavezzi, si j'ai un million, j'le dépense pas, j'investis J'me suis lavé avec le sceau accroupi Grr, aujourd'hui, j'fais mouiller des groupies C'est mauvais signe si il sourit le croupier, j'ai demandé un coup d'pouce, j'ai reçu un coup d'pied Pah, pah J'suis pas pyroman mais je brille de mille feux Ouais, re-noi, j'suis pas un deux-milles deux Nan, nan Dans mes DM, y a des MILF, j'les visser comme il faut, j'l'ai visser comme il veutYou might also like</t>
+          <t>Inspiré d'faits réels, t'as pas cru en moi, de la liste, tu t'fais rayer Beendo On l'fera quand bien même c'est grillé Ouais, tu peux guetter si tu sais crier Akha L'addition salée me laisse un goût amer, j'vais au studio pas pour faire de la merde Ah nan La gue-dro, je sais pas qui l'amène Hein ? mais j'sais très bien à qui je la sers J'ai tout fait partir et j'dis Amen Regarde dans les yeux, regarde dans les yeux que tu m'la serres Regard dans les yeux Regard dans les yeux quand tu m'lahsa Regarde, les mêmes yeux quand tu mens à ta mère Sale pute Deux cent trente-sept, j'suis un camer' Ouais, appelle-moi si t'es un camé Appelle Des personnages, ils ont incarné, ma sacoche est remplie comme l'était mon carnet Comme l'était mon carnet Tout l'monde peut acheter des potes-ca Ouais mais c'est pas tout l'monde qui peut baiser Ah nan C'est tout l'monde qui peut faire du pe-ra Bah ouais mais c'est pas tout l'monde qui peut percer Bah nan Donc j'écoute pas leurs sons à trois francs six sous, j'veux que te baiser, c'est français, ça J'mets des reprises de volée comme Zizou et si on t'connaît pas, on peut te prendre tes sapes Tes sapes Et j'sais même pas jouer au tennis mais le ient-cli m'a dit que je sers bien Hey La pétasse, elle est remplie de vices mais j'préfère les grosses liasses plutôt que les gros seins Hey Et j't'ai dis qu'j'connaissais des grossistes Ah ouais, pourtant, ils ont pas d'problèmes de poids Hey J'suis un débrouillard, pas un bandit, négro Han, j'vais pas t'le répéter deux fois Elle-elle est trop contente quand elle vient pper-cho Grr, j'encaisse un billet, j'ai trop la pêche Grr J'vais pas aller en enfer mais c'est chaud parce que pour profiter d'la vie, faut pécher Han, t'as capté, j'ai deux bigos dont un qu'a pas la 4G Han, j'sors un couteau, j'suis pas venu pour catcher Pah Et j'ferai pas d'plan sous si y a pas quatre chiffres Eh, eh J'ai envie d'la ken mais flemme de la guer-dra, le pe-ra financé par l'argent d'la gue-dro Si t'as un vrai bourbier, dis-moi qui t'aidera ? J'ai faim d'argent, c'est vrai, j'en veux un peu trop Pah, pah Elle fait la sainte, elle est remplie de vices Grr, alors qu'on sait très bien, elle bosse Shee Il m'faut la SACEM de Elvis Hein ?, il m'faut la SACEM de Elton, y a brouillon, j'suis à pied mais j'ai des gants d'motard C'est un peu trop tôt pour dire qu'il est trop tard, j'suis pas très beau mais elle est trop dar, j'espère juste qu'elle fait pas les trottoirs Sale pute Et à chaque fois, j'entends les gyro' Sale pute, j'me demande qu'est-ce qu'ils font là comme Giroud Olivier Faut pas trop parler, faut agir, mon son va s'répandre comme le HIV Eh-eh, arrête de parler mal, négro Han, j'ai pas envie d'sortir une lame Han J'ai pas envie d'me tatouer une larme Han, j'ai pas envie d'me tatouer une larme Han Igo, arrête de parler mal Han, j'ai pas envie d'sortir une lame Han J'ai pas envie d'me tatouer une larme Hein ?, j'ai pas envie d'me tatouer une larme Hein ? Neuf-cinq, deux cent dix, on fait des incendies, j'ai vendu l'savon à un imbécile Pah, pah Dans la sacoche, y a pas d'centimes Grr, quand y a des billets, j'apprécie Pah, pah Vide la bonbonne comme la vessie Han, il m'semble que j'te l'avais dit Charo, j'peux aller jouer en Chine comme Lavezzi, si j'ai un million, j'le dépense pas, j'investis J'me suis lavé avec le sceau accroupi Grr, aujourd'hui, j'fais mouiller des groupies C'est mauvais signe si il sourit le croupier, j'ai demandé un coup d'pouce, j'ai reçu un coup d'pied Pah, pah J'suis pas pyroman mais je brille de mille feux Ouais, re-noi, j'suis pas un deux-milles deux Nan, nan Dans mes DM, y a des MILF, j'les visser comme il faut, j'l'ai visser comme il veut</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ah-ah-ah Eh, K.E.R Ramène, ramène, ramène Finvy Beendo Eh-eh-eh T'es con ou quoi ? Draco dans ta face K.E.R Eh, ils sont où mes sous ? Ils sont où mes sous ? 2.7 Grr, rah On va t'baffer ta mère si tu nous fais l'impoli Toh, j'ai confiance aux femmes autant qu'en la police To-to-toh Ils disent que j'suis fort, d'autres disent C'est d'la chance Ah bon ? Ils savent pas c'qui s'passe dans les coulisses Bande de cons J'ai des potes skieurs mais ils vont pas à la montagne Nan, nan Y a des choses qu'on fait qu'on doit couper au montage Bah ouais J'fais des sous en posant sur des prods Ah bon ?, pour moi, jamais ça serait un métier Rah Y a un boulot à faire aux alentours d'Épinay Toh, j'suis dans l'véhicule de police, j'me dis Punaise Sale con J'suis assis comme un con, menotté sur l'banc, ça date qu'on m'avait pas puni De ouf Approche-toi, j'vais t'gazer ta tante, il reste un ient-cli à faire, je gratte sur un trente Sur un trente J'suis à Porte de Clichy, il est 1h22, la dernière, j'vais la faire en trot' Rah Si tu m'vois sur la capi', c'est que y a des sous à faire Skalape Passe par demain pour les affaires Affaires, j'ai un couteau, j'sais quoi en faire Tchin, tchin Dis-moi c'qui va s'passer si tu tombes nez à nez avec le fer Dis-moi c'qui va s'passer si tu tombes nez à nez avec le fer Rah You might also like Les bails étaient cachés dans l'appartement L'appartement J'peux plus visser, j'suis connu donc j'envoie des potes à moi Donc j'envoie des potes à moi Mon schlass m'accompagne dans mes déplacements Tchin, tchin Si ça dégénère, on va amocher des potes à toi Rah J'ai trop d'inspi', j'suis pas une bonbonne, j't'ambiance mais j'suis pas une bonbonne J'suis pas une bonbonne Mais j'suis pas une bonbonne, j't'ambiance mais j'suis pas une bonbonne J'suis pas une bonbonne, Beendo J't'ambiance mais j'suis pas une bonbonne, j't'ambiance mais j'suis pas une bonbonne J'suis pas une bonbonne, Beendo Beendo, K.E.R, on t'ambiance mais c'est pas une bonbonne Rah Si j'me fais courser par les keufs, dis pas Tout doux le loup Tout doux le loup, Beendo Ça s'voit à ma plume, j'suis dérangé, un peu che-lou Mais Beendo Approchez-vous, approchez-vous, là, c'est Beendo qui performe Écoutez par les p'tits d'chez vous, j'suis sur les gros culs et les plateformes Grr On n'est pas au centre mais t'inquiète, on va t'former C'que j'fais, c'est d'la magie C'que j'fais, c'est d'la magie mais y a pas d'formule Tu sais pas rapper, essaye pas d'faire mieux Eh, grr, je sais qu't'es en stress, essaye pas d'faire mine Essaye pas d'faire mine J't'ai ouvert mon cur, s'te-plaît, oublie pas d'fermer Il voulait un chrome, j'ai dit Vas t'faire mettre, j'aime bien quand la kichta, elle fait un mètre J'ai un avocat, oui, mais j'ai pas un maître, j'ai besoin d'une instru', j'ai besoin d'un mic' T'as besoin d'une sécu', t'as besoin d'un mac, j'ai b'soin d'me faire sucer sans enlever mes Nike Nous, on ne hait que les pédophiles mais pas Michael Rah Les bails étaient cachés dans l'appartement L'appartement J'peux plus visser, j'suis connu donc j'envoie des potes à moi Donc j'envoie des potes à moi Mon schlass m'accompagne dans mes déplacements Tchin, tchin Et si ça dégénère, on va amocher des potes à toi Rah J'ai trop d'inspi', j'suis pas une bonbonne, j't'ambiance mais j'suis pas une bonbonne J'suis pas une bonbonne Mais j'suis pas une bonbonne, j't'ambiance mais j'suis pas une bonbonne J'suis pas une bonbonne, Beendo J't'ambiance mais j'suis pas une bonbonne, j't'ambiance mais j'suis pas une bonbonne J'suis pas une bonbonne, Beendo Beendo, K.E.R, on t'ambiance mais c'est pas une bonbonne Mais Beendo K.E.R Mais Beendo K.E.R.C</t>
+          <t>Ah-ah-ah Eh, K.E.R Ramène, ramène, ramène Finvy Beendo Eh-eh-eh T'es con ou quoi ? Draco dans ta face K.E.R Eh, ils sont où mes sous ? Ils sont où mes sous ? 2.7 Grr, rah On va t'baffer ta mère si tu nous fais l'impoli Toh, j'ai confiance aux femmes autant qu'en la police To-to-toh Ils disent que j'suis fort, d'autres disent C'est d'la chance Ah bon ? Ils savent pas c'qui s'passe dans les coulisses Bande de cons J'ai des potes skieurs mais ils vont pas à la montagne Nan, nan Y a des choses qu'on fait qu'on doit couper au montage Bah ouais J'fais des sous en posant sur des prods Ah bon ?, pour moi, jamais ça serait un métier Rah Y a un boulot à faire aux alentours d'Épinay Toh, j'suis dans l'véhicule de police, j'me dis Punaise Sale con J'suis assis comme un con, menotté sur l'banc, ça date qu'on m'avait pas puni De ouf Approche-toi, j'vais t'gazer ta tante, il reste un ient-cli à faire, je gratte sur un trente Sur un trente J'suis à Porte de Clichy, il est 1h22, la dernière, j'vais la faire en trot' Rah Si tu m'vois sur la capi', c'est que y a des sous à faire Skalape Passe par demain pour les affaires Affaires, j'ai un couteau, j'sais quoi en faire Tchin, tchin Dis-moi c'qui va s'passer si tu tombes nez à nez avec le fer Dis-moi c'qui va s'passer si tu tombes nez à nez avec le fer Rah Les bails étaient cachés dans l'appartement L'appartement J'peux plus visser, j'suis connu donc j'envoie des potes à moi Donc j'envoie des potes à moi Mon schlass m'accompagne dans mes déplacements Tchin, tchin Si ça dégénère, on va amocher des potes à toi Rah J'ai trop d'inspi', j'suis pas une bonbonne, j't'ambiance mais j'suis pas une bonbonne J'suis pas une bonbonne Mais j'suis pas une bonbonne, j't'ambiance mais j'suis pas une bonbonne J'suis pas une bonbonne, Beendo J't'ambiance mais j'suis pas une bonbonne, j't'ambiance mais j'suis pas une bonbonne J'suis pas une bonbonne, Beendo Beendo, K.E.R, on t'ambiance mais c'est pas une bonbonne Rah Si j'me fais courser par les keufs, dis pas Tout doux le loup Tout doux le loup, Beendo Ça s'voit à ma plume, j'suis dérangé, un peu che-lou Mais Beendo Approchez-vous, approchez-vous, là, c'est Beendo qui performe Écoutez par les p'tits d'chez vous, j'suis sur les gros culs et les plateformes Grr On n'est pas au centre mais t'inquiète, on va t'former C'que j'fais, c'est d'la magie C'que j'fais, c'est d'la magie mais y a pas d'formule Tu sais pas rapper, essaye pas d'faire mieux Eh, grr, je sais qu't'es en stress, essaye pas d'faire mine Essaye pas d'faire mine J't'ai ouvert mon cur, s'te-plaît, oublie pas d'fermer Il voulait un chrome, j'ai dit Vas t'faire mettre, j'aime bien quand la kichta, elle fait un mètre J'ai un avocat, oui, mais j'ai pas un maître, j'ai besoin d'une instru', j'ai besoin d'un mic' T'as besoin d'une sécu', t'as besoin d'un mac, j'ai b'soin d'me faire sucer sans enlever mes Nike Nous, on ne hait que les pédophiles mais pas Michael Rah Les bails étaient cachés dans l'appartement L'appartement J'peux plus visser, j'suis connu donc j'envoie des potes à moi Donc j'envoie des potes à moi Mon schlass m'accompagne dans mes déplacements Tchin, tchin Et si ça dégénère, on va amocher des potes à toi Rah J'ai trop d'inspi', j'suis pas une bonbonne, j't'ambiance mais j'suis pas une bonbonne J'suis pas une bonbonne Mais j'suis pas une bonbonne, j't'ambiance mais j'suis pas une bonbonne J'suis pas une bonbonne, Beendo J't'ambiance mais j'suis pas une bonbonne, j't'ambiance mais j'suis pas une bonbonne J'suis pas une bonbonne, Beendo Beendo, K.E.R, on t'ambiance mais c'est pas une bonbonne Mais Beendo K.E.R Mais Beendo K.E.R.C</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>J't'ai vu sortir par derrière J'espère juste que c'est pas dangereux Eh-eh, eh Prends l'que-tru sur toi Eh-eh, eh Ces gars, j'les sens pas Eh-eh, eh J'ai besoin d'toi encore Te mets pas dans un bourbier Eh-eh, eh Toute façon, on est lié Eh-eh, eh Tes ennemis, j'peux pas aimer Eh-eh, eh Dis-moi qui va m'protéger ? Dis-moi ? Si j'te perds, je perdrai la te-tê Si tu pars, j'protégerai la yaska Tu m'avais promis l'Alaska Viens pas nous faire la morale L'argent sale devient légal J'suis protégée même si t'es pas à-l Et pour qu'on soit bien, faudra faire du mal La calle Je sais qu't'es l'prince de la calle La calle Ils veulent ôter la vie à mon bébé Mon bébé Je sais qu't'es l'prince de la calle La calle Ils veulent ôter la vie à mon bébé Mon bébé Je sais qu't'es l'prince de la calle La calle Ils veulent ôter la vie à mon bébé Mon bébé Je sais qu't'es l'prince de la calle La calle Ils veulent ôter la vie à mon bébé Mon bébé You might also like J'ai tout caché comme le Vatican, j'ai pas une tête de trafiquant Mais moi, j'l'ai fait, toi, t'as fait quoi ? J'avais des sous mais j'savais pas Hey J'suis l'premier qui a fait l'pas parce que j'voulais que ça marche En vrai, j'pensais que t'allais m'attendre avec des p'tits talons en verre Même si j'suis un voleur, c'que j'ai, j'le mérite 'Rrh Quand j'suis bien dans le rythme, pas dur de trouver des rimes Rrh J'ai fait des sous dehors mais j'me suis pas pris pour Mesrine Han Ils ont rien fait et font les anciens juste parce qu'ils ont des rides Hun, hun J'ramène les sous à la maison, comment tu crois qu'j'le paye ton bigo ? Tu t'vois comme du champagne et les autres meufs comme du Tropico J'peux t'ramener dans les tropiques, tellement tu m'as trop piqué Mais y aura pas mille doses, j'crois qu'tu m'as déjà trop piqué Oh-oh-oh Viens pas nous faire la morale L'argent sale devient légal J'suis protégée même si t'es pas à-l Et pour qu'on soit bien, faudra faire du mal La calle Je sais qu't'es l'prince de la calle La calle Ils veulent ôter la vie à mon bébé Mon bébé Je sais qu't'es l'prince de la calle La calle Ils veulent ôter la vie à mon bébé Mon bébé Je sais qu't'es l'prince de la calle La calle Ils veulent ôter la vie à mon bébé Mon bébé Je sais qu't'es l'prince de la calle La calle Ils veulent ôter la vie à mon bébé La calle Oh-oh-oh, mon bébé Oh-oh-oh La calle Oh-oh-oh, mon bébé Oh-oh-oh Viens pas nous faire la morale Viens pas nous faire la morale, crois pas qu'j'vais faire l'amoureux, eh-eh-eh Viens pas nous faire la morale Ils étaient pas là pour oi-m donc je serais pas là pour eux, eh-eh-eh Viens pas nous faire la morale Viens pas nous faire la morale, crois pas qu'j'vais faire l'amoureux, eh-eh-eh Viens pas nous faire la morale Ils étaient pas là pour oi-m donc je serais pas là pour eux, eh-eh-eh Je sais qu't'es l'prince de la calle La calle Ils veulent ôter la vie à mon bébé Mon bébé Je sais qu't'es l'prince de la calle La calle Ils veulent ôter la vie à mon bébé Mon bébé Je sais qu't'es l'prince de la calle La calle Ils veulent ôter la vie à mon bébé Mon bébé Je sais qu't'es l'prince de la calle La calle Ils veulent ôter la vie à mon bébé La calle Oh-oh-oh, mon bébé Oh-oh-oh La calle Oh-oh-oh, calle Oh-oh-oh</t>
+          <t>J't'ai vu sortir par derrière J'espère juste que c'est pas dangereux Eh-eh, eh Prends l'que-tru sur toi Eh-eh, eh Ces gars, j'les sens pas Eh-eh, eh J'ai besoin d'toi encore Te mets pas dans un bourbier Eh-eh, eh Toute façon, on est lié Eh-eh, eh Tes ennemis, j'peux pas aimer Eh-eh, eh Dis-moi qui va m'protéger ? Dis-moi ? Si j'te perds, je perdrai la te-tê Si tu pars, j'protégerai la yaska Tu m'avais promis l'Alaska Viens pas nous faire la morale L'argent sale devient légal J'suis protégée même si t'es pas à-l Et pour qu'on soit bien, faudra faire du mal La calle Je sais qu't'es l'prince de la calle La calle Ils veulent ôter la vie à mon bébé Mon bébé Je sais qu't'es l'prince de la calle La calle Ils veulent ôter la vie à mon bébé Mon bébé Je sais qu't'es l'prince de la calle La calle Ils veulent ôter la vie à mon bébé Mon bébé Je sais qu't'es l'prince de la calle La calle Ils veulent ôter la vie à mon bébé Mon bébé J'ai tout caché comme le Vatican, j'ai pas une tête de trafiquant Mais moi, j'l'ai fait, toi, t'as fait quoi ? J'avais des sous mais j'savais pas Hey J'suis l'premier qui a fait l'pas parce que j'voulais que ça marche En vrai, j'pensais que t'allais m'attendre avec des p'tits talons en verre Même si j'suis un voleur, c'que j'ai, j'le mérite 'Rrh Quand j'suis bien dans le rythme, pas dur de trouver des rimes Rrh J'ai fait des sous dehors mais j'me suis pas pris pour Mesrine Han Ils ont rien fait et font les anciens juste parce qu'ils ont des rides Hun, hun J'ramène les sous à la maison, comment tu crois qu'j'le paye ton bigo ? Tu t'vois comme du champagne et les autres meufs comme du Tropico J'peux t'ramener dans les tropiques, tellement tu m'as trop piqué Mais y aura pas mille doses, j'crois qu'tu m'as déjà trop piqué Oh-oh-oh Viens pas nous faire la morale L'argent sale devient légal J'suis protégée même si t'es pas à-l Et pour qu'on soit bien, faudra faire du mal La calle Je sais qu't'es l'prince de la calle La calle Ils veulent ôter la vie à mon bébé Mon bébé Je sais qu't'es l'prince de la calle La calle Ils veulent ôter la vie à mon bébé Mon bébé Je sais qu't'es l'prince de la calle La calle Ils veulent ôter la vie à mon bébé Mon bébé Je sais qu't'es l'prince de la calle La calle Ils veulent ôter la vie à mon bébé La calle Oh-oh-oh, mon bébé Oh-oh-oh La calle Oh-oh-oh, mon bébé Oh-oh-oh Viens pas nous faire la morale Viens pas nous faire la morale, crois pas qu'j'vais faire l'amoureux, eh-eh-eh Viens pas nous faire la morale Ils étaient pas là pour oi-m donc je serais pas là pour eux, eh-eh-eh Viens pas nous faire la morale Viens pas nous faire la morale, crois pas qu'j'vais faire l'amoureux, eh-eh-eh Viens pas nous faire la morale Ils étaient pas là pour oi-m donc je serais pas là pour eux, eh-eh-eh Je sais qu't'es l'prince de la calle La calle Ils veulent ôter la vie à mon bébé Mon bébé Je sais qu't'es l'prince de la calle La calle Ils veulent ôter la vie à mon bébé Mon bébé Je sais qu't'es l'prince de la calle La calle Ils veulent ôter la vie à mon bébé Mon bébé Je sais qu't'es l'prince de la calle La calle Ils veulent ôter la vie à mon bébé La calle Oh-oh-oh, mon bébé Oh-oh-oh La calle Oh-oh-oh, calle Oh-oh-oh</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Ça rec là Junior Alaprod, zanmé Game Over 3 grrt Avant d'pull up, j'pense à c'qui va s'passer après Bosseur décisif, téma la passe quil a fait Les doigts qui transpirent, y'a un kil à faire J'fais des pompes au dépôt quand j'suis sorti d'affaire Si ça rentre comme il faut, j'peux sortir faire la fête Si ça rentre comme il faut, dans sa schneck, c'est laverse J'ai ma version des faits, la victime dit l'inverse Être hypocrite, c'est pécher puis lire un verset Heureusement qu'maman connaît pas l'odeur du sang Y a des couleurs dans mes poches, y a v'là les chiffres Fais pas d'régime, tu vas manger, v'là les gifles Ma reusse m'a vu menotté devant les chemises LOPJ veut connaître la SACEM de babette Y a deux options, il est jaloux ou il est pas nette J'vais pas t'faire un panel sur le terrain, j'mets panenka T'es pas branché, on t'voit pas au planète rap J'rentre dans la té-bois, c'est pas pour danser dans le carré VIP danser dans le carré VIP J'suis pas à plaindre, les poches sont pleines mais le cur est vide mais le cur est vide Bravo, écho, écho écho, novembre, delta, oscar Ça bosse partout de la bicrave au scam Ça bosse partout de la bicrave au scam You might also like Y a les keufs, j'me donne pas à fond pour les semer L'officier il gagne pas un rond, il est semé Le week-end ça prépare le début d'semaine Faire partir cette moka, faire partir ce merch Y a toujours une épreuve, toujours une marge Même quand on joue à la Simpson, y a toujours une Marge J'vais couper tes bourses, avec une machette Si tu rembourses pas pour le mal que tu m'as fait L'équipe de France, est plus africaine que le mafé J'vais tout baiser, et après j'vais m'barrer Pour rentrer dans un gang ou dans une mafia Multiplier les biens et les papiers Faut contrôler, tous les jours j'me fais palper Ton compte en banque face au mien ne fait pas l'poids C'est c'que j'dis au keuf qui m'a attrapé Bendo, si tu veux j't'apprends à trapper J'rentre dans la té-bois, c'est pas pour danser dans le carré VIP danser dans le carré VIP J'suis pas à plaindre, les poches sont pleines mais le cur est vide mais le cur est vide Bravo, écho, écho, novembre, delta, oscar Ça bosse partout de la bicrave au scam Ça bosse partout de la bicrave au scam J'rentre dans la té-bois, c'est pas pour danser dans le carré VIP danser dans le carré VIP J'suis pas à plaindre, les poches sont pleines mais le cur est vide mais le cur est vide Bravo, écho, écho, novembre, delta, oscar Ça bosse partout de la bicrave au scam Ça bosse partout de la bicrave au scam</t>
+          <t>Ça rec là Junior Alaprod, zanmé Game Over 3 grrt Avant d'pull up, j'pense à c'qui va s'passer après Bosseur décisif, téma la passe quil a fait Les doigts qui transpirent, y'a un kil à faire J'fais des pompes au dépôt quand j'suis sorti d'affaire Si ça rentre comme il faut, j'peux sortir faire la fête Si ça rentre comme il faut, dans sa schneck, c'est laverse J'ai ma version des faits, la victime dit l'inverse Être hypocrite, c'est pécher puis lire un verset Heureusement qu'maman connaît pas l'odeur du sang Y a des couleurs dans mes poches, y a v'là les chiffres Fais pas d'régime, tu vas manger, v'là les gifles Ma reusse m'a vu menotté devant les chemises LOPJ veut connaître la SACEM de babette Y a deux options, il est jaloux ou il est pas nette J'vais pas t'faire un panel sur le terrain, j'mets panenka T'es pas branché, on t'voit pas au planète rap J'rentre dans la té-bois, c'est pas pour danser dans le carré VIP danser dans le carré VIP J'suis pas à plaindre, les poches sont pleines mais le cur est vide mais le cur est vide Bravo, écho, écho écho, novembre, delta, oscar Ça bosse partout de la bicrave au scam Ça bosse partout de la bicrave au scam Y a les keufs, j'me donne pas à fond pour les semer L'officier il gagne pas un rond, il est semé Le week-end ça prépare le début d'semaine Faire partir cette moka, faire partir ce merch Y a toujours une épreuve, toujours une marge Même quand on joue à la Simpson, y a toujours une Marge J'vais couper tes bourses, avec une machette Si tu rembourses pas pour le mal que tu m'as fait L'équipe de France, est plus africaine que le mafé J'vais tout baiser, et après j'vais m'barrer Pour rentrer dans un gang ou dans une mafia Multiplier les biens et les papiers Faut contrôler, tous les jours j'me fais palper Ton compte en banque face au mien ne fait pas l'poids C'est c'que j'dis au keuf qui m'a attrapé Bendo, si tu veux j't'apprends à trapper J'rentre dans la té-bois, c'est pas pour danser dans le carré VIP danser dans le carré VIP J'suis pas à plaindre, les poches sont pleines mais le cur est vide mais le cur est vide Bravo, écho, écho, novembre, delta, oscar Ça bosse partout de la bicrave au scam Ça bosse partout de la bicrave au scam J'rentre dans la té-bois, c'est pas pour danser dans le carré VIP danser dans le carré VIP J'suis pas à plaindre, les poches sont pleines mais le cur est vide mais le cur est vide Bravo, écho, écho, novembre, delta, oscar Ça bosse partout de la bicrave au scam Ça bosse partout de la bicrave au scam</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>J'suis posé au fond d'la classe, à l'écart comme si j'étais un cas contact Pah, pah Le prof me demande c'que j'veux faire plus tard, j'veux faire du chiffre, j'veux pas être un comptable Pour la beuh, c'est moi qu'on contacte, pour le shit, c'est moi qu'on contacte Allô ? J'suis pas dispo' entre dix-neuf et vingt-et-un, là j'suis au foot, j'mets des double contact À Barbès, y a v'là les cas contacts, Château d'Eau, Château Rouge, que des cas contacts Ils tiennent les murs comme les dessins qu'on tague, ils chiffrnt tellement qu'ils puvent faire de la compta' Faire de la compta' Et quand j'vais chez les vaccinés, c'est pour visser une dose, moi, j'fais pas d'ciné' J'serais jamais comme eux même si j'ai signé Nan, on sera jamais pareil donc j'suis résigné Nan, nan J'enlève le cellophane de la résine Ouais, j'découpe dans l'escalier de la résidence Han Le voisin veut descendre mais je bloque la porte, personne va passer comme si j'étais Laporte Les cas contacts, ils font des apports, les vaccinés achètent comptant On t'pousse et tu fermes ta gueule, tu rentres dans les délais ou bien, t'achètes en cash Et ça fait vingt-trois ans que j'suis cas contact, vingt-trois ans que j'suis cas contact Et les policiers veulent m'enfermer comme si j'étais un cas contact Crois-moi, c'est difficile de faire mieux, j'ai pas la balle mais c'est toujours moi qu'on tacle Ils nous ont mis dans des HLM comme si on était cas contact J'suis pas une victime, j'suis pas BLM, j'suis cas contact mais les p'tites babtous, elles aiment Les p'tits babtous, elles aiment On récolte c'que l'on sème On récolte c'que l'on sème J'ai semé d'la beuh, j'ai récolté du biff avec un GSM, arrête le rap si tu vois qu'l'ingé' a l'seum Ouais J'connaissais l'free Wi-Fi par cur au cas où on payait pas l'ADSL Grr, pah Inspiré d'faits réels, c'est pas une fiction, j'te raconte ma vie C'est pas une émission Han, Dieu merci, j'ai traversé l'désert, au début, j'ai cru qu'c'était une malédiction Han J'ai vendu du shit mais j'suis pas mal éduqué Nan, j'voulais juste les dernières limited édition Ouais On était à deux doigts de l'arrêt du cur, heureusement qu'un ange a protégé la maison Han J'ai pas vraiment taffé dans ma vie mais j'ai fait du ffre-chi grâce à l'amnésia Hein Le premier conseil que j'donnerais à ma fille c'est de rendre fiers ceux qui étaient là à sa naissance Hein Et j'découpe la prod' avec aisance comme si j'faisais un feat avec un Congolais RER à Neuilly-Plaisance, j'suis sorti du train pour pas m'faire contrôler You might also like Et ça fait vingt-trois ans que j'suis cas contact, vingt-trois ans que j'suis cas contact Et les policiers veulent m'enfermer comme si j'étais un cas contact Crois-moi, c'est difficile de faire mieux, j'ai pas la balle mais c'est toujours moi qu'on tacle Ils nous ont mis dans des HLM comme si on était cas contact Et ça fait vingt-trois ans que j'suis cas contact, vingt-trois ans que j'suis cas contact Et les policiers veulent m'enfermer comme si j'étais un cas contact Crois-moi, c'est difficile de faire mieux, j'ai pas la balle mais c'est toujours moi qu'on tacle Ils nous ont mis dans des HLM comme si on était cas contact Cas contact, cas contact Yeah, yeah Na-na, na-na Na-na</t>
+          <t>J'suis posé au fond d'la classe, à l'écart comme si j'étais un cas contact Pah, pah Le prof me demande c'que j'veux faire plus tard, j'veux faire du chiffre, j'veux pas être un comptable Pour la beuh, c'est moi qu'on contacte, pour le shit, c'est moi qu'on contacte Allô ? J'suis pas dispo' entre dix-neuf et vingt-et-un, là j'suis au foot, j'mets des double contact À Barbès, y a v'là les cas contacts, Château d'Eau, Château Rouge, que des cas contacts Ils tiennent les murs comme les dessins qu'on tague, ils chiffrnt tellement qu'ils puvent faire de la compta' Faire de la compta' Et quand j'vais chez les vaccinés, c'est pour visser une dose, moi, j'fais pas d'ciné' J'serais jamais comme eux même si j'ai signé Nan, on sera jamais pareil donc j'suis résigné Nan, nan J'enlève le cellophane de la résine Ouais, j'découpe dans l'escalier de la résidence Han Le voisin veut descendre mais je bloque la porte, personne va passer comme si j'étais Laporte Les cas contacts, ils font des apports, les vaccinés achètent comptant On t'pousse et tu fermes ta gueule, tu rentres dans les délais ou bien, t'achètes en cash Et ça fait vingt-trois ans que j'suis cas contact, vingt-trois ans que j'suis cas contact Et les policiers veulent m'enfermer comme si j'étais un cas contact Crois-moi, c'est difficile de faire mieux, j'ai pas la balle mais c'est toujours moi qu'on tacle Ils nous ont mis dans des HLM comme si on était cas contact J'suis pas une victime, j'suis pas BLM, j'suis cas contact mais les p'tites babtous, elles aiment Les p'tits babtous, elles aiment On récolte c'que l'on sème On récolte c'que l'on sème J'ai semé d'la beuh, j'ai récolté du biff avec un GSM, arrête le rap si tu vois qu'l'ingé' a l'seum Ouais J'connaissais l'free Wi-Fi par cur au cas où on payait pas l'ADSL Grr, pah Inspiré d'faits réels, c'est pas une fiction, j'te raconte ma vie C'est pas une émission Han, Dieu merci, j'ai traversé l'désert, au début, j'ai cru qu'c'était une malédiction Han J'ai vendu du shit mais j'suis pas mal éduqué Nan, j'voulais juste les dernières limited édition Ouais On était à deux doigts de l'arrêt du cur, heureusement qu'un ange a protégé la maison Han J'ai pas vraiment taffé dans ma vie mais j'ai fait du ffre-chi grâce à l'amnésia Hein Le premier conseil que j'donnerais à ma fille c'est de rendre fiers ceux qui étaient là à sa naissance Hein Et j'découpe la prod' avec aisance comme si j'faisais un feat avec un Congolais RER à Neuilly-Plaisance, j'suis sorti du train pour pas m'faire contrôler Et ça fait vingt-trois ans que j'suis cas contact, vingt-trois ans que j'suis cas contact Et les policiers veulent m'enfermer comme si j'étais un cas contact Crois-moi, c'est difficile de faire mieux, j'ai pas la balle mais c'est toujours moi qu'on tacle Ils nous ont mis dans des HLM comme si on était cas contact Et ça fait vingt-trois ans que j'suis cas contact, vingt-trois ans que j'suis cas contact Et les policiers veulent m'enfermer comme si j'étais un cas contact Crois-moi, c'est difficile de faire mieux, j'ai pas la balle mais c'est toujours moi qu'on tacle Ils nous ont mis dans des HLM comme si on était cas contact Cas contact, cas contact Yeah, yeah Na-na, na-na Na-na</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Les ambiances, hein, tu connais, comme d'hab', hein, tu mets d'la reverb Ah, ouais Beendo C'est pas mal ça, c'est pas mal, c'est pas mal Ouais J'peux pas envier quelqu'un qui a d'l'argent, j'peux pas envier quelqu'un qui est riche Yes, ça s'trouve, il boit du sang, ça s'trouve, il fait d'la sorcellerie Yes J'veux pas aller, j'veux pas descendre donc j'me contente de manger la sauce et l'riz La sauc Cette conne, j'la sauc et elle rit J'la sauce, j'veux juste cracher la sauce et j'fuis La sauce J'ai planté un mec avec un tournevis, le ciel me r'garde de travers comme la Tour de Pise Bâtard Bâtard, me fais pas la bise, j'oublie pas qu'même à Jésus, on l'a mise Fuck ceux qui mentent pour gérer des raclis, Dieu bénisse ceux qui poussent quand y a pas de wari Fuck les matelots qui s'prennent pour des rates-pi, que Dieu bénisse mon joueur préféré Djouhary Djouhary On fait des sous, on fait pas des crari Nan, nan, un billet qui rentre, on va pas déclarer Brr Une voiture de keuf, on va pas s'décaler Nan, nan, tu peux pas grandir si t'as pas d'galères Brr J'suis pas rassasié si j'ai pas d'cannette, on veut juste te faire mal, on va pas t'caner Quand j'aime, c'est pour de vrai mais j'suis pas l'canard Canard, j'suis né dans l'Pas-d'Calais Boh Mais j'ai jamais perdu le Nord Boh, tu crois qu'je mens mais je dis vrai comme Dinor Malheureusement, j'ai fait des sous en dealant mais la kichta est large, ça en dit long La kich' J'avoue, j'aime pas quand on m'dit Non J'aime pas, j'aime pas quand on m'dit Non J'aime pas Ceux qui tartinent pour trouver le bonheur, finissent par trouver l'bonheur en cantinant Beendo You might also like Drill, drip, eux, pour être dans la drip, ils ont acheté du faux Han, han Drill, drip, c'est triste à dire mais j'me suis lassé du foot J'me suis lassé du foot, han, han Drill, drip, eux, pour être dans la drill, ils ont menti, c'est chaud, ils sont ni dans les vrais trucs Han, ni dans la street Han C'est triste à dire Han, ils ont inventé des choses Han, boh Drill, drip, eux, pour être dans la drip, ils ont acheté du faux Ils ont acheté du faux, han, han Drill, drip, c'est triste à dire mais j'me suis lassé du foot J'me suis lassé du foot, han, han Drill, drip, eux, pour être dans la drill, ils ont menti, c'est chaud, ils sont ni dans les vrais trucs Han, ni dans la street Han C'est triste à dire Han, ils ont inventé des choses Han, boh À part Dieu, j'ai confiance en personne Bullet, le succès, c'est comme le soleil Plus t'es exposé, plus ça t'brûle Beendo, j'ai besoin d'un parasol Mais Beendo T'façon, j'vais bientôt quitter les réseaux, y a que des putes et y a qu'des p'tits Sale pute T'façon, j'vais bientôt péter l'RS grâce à YouTube Vroum et grâce aux streams La SACEM À force de traîner, on s'sali comme des chaussettes, quand on encaisse, on a une fossette Hein Perquise, GÀV, ça fait six mois Ouais, la police veut pas rendre mon iPhone 7 Ouais, ouais La police veut pas rendre le X à Dremsi Ouais, j'raconte des histoires, je rappe des récits Ouais Inspiré d'faits réels, ils sont intéressés, en vrai, mon producteur c'est la résine J'ai jamais pécho mais j'ai toujours d'la cons', les keufs, ils t'embarquent pour un truc à la con Pour un truc à la con J'dormais au salon, j'détaillais sur le balcon J'suis pas fétichiste, sur l'instru', j'prends mon pied Han, han, j'espère qu'c'est un ient-cli quand j'entends mon P Han, han Ils veulent pas nous voir monter, igo, c'est la D, si les portes sont fermées, on va escalader Beendo Drill, drip, eux, pour être dans la drip, ils ont acheté du faux Han, han Drill, drip, c'est triste à dire mais j'me suis lassé du foot J'me suis lassé du foot, han, han Drill, drip, eux, pour être dans la drill, ils ont menti, c'est chaud, ils sont ni dans les vrais trucs Han, ni dans la street Han C'est triste à dire Han, ils ont inventé des choses Han, boh Drill, drip, eux, pour être dans la drip, ils ont acheté du faux Ils ont acheté du faux, han, han Drill, drip, c'est triste à dire mais j'me suis lassé du foot J'me suis lassé du foot, han, han Drill, drip, eux, pour être dans la drill, ils ont menti, c'est chaud, ils sont ni dans les vrais trucs Han, ni dans la street Han C'est triste à dire Han, ils ont inventé des choses Han, boh1</t>
+          <t>Les ambiances, hein, tu connais, comme d'hab', hein, tu mets d'la reverb Ah, ouais Beendo C'est pas mal ça, c'est pas mal, c'est pas mal Ouais J'peux pas envier quelqu'un qui a d'l'argent, j'peux pas envier quelqu'un qui est riche Yes, ça s'trouve, il boit du sang, ça s'trouve, il fait d'la sorcellerie Yes J'veux pas aller, j'veux pas descendre donc j'me contente de manger la sauce et l'riz La sauc Cette conne, j'la sauc et elle rit J'la sauce, j'veux juste cracher la sauce et j'fuis La sauce J'ai planté un mec avec un tournevis, le ciel me r'garde de travers comme la Tour de Pise Bâtard Bâtard, me fais pas la bise, j'oublie pas qu'même à Jésus, on l'a mise Fuck ceux qui mentent pour gérer des raclis, Dieu bénisse ceux qui poussent quand y a pas de wari Fuck les matelots qui s'prennent pour des rates-pi, que Dieu bénisse mon joueur préféré Djouhary Djouhary On fait des sous, on fait pas des crari Nan, nan, un billet qui rentre, on va pas déclarer Brr Une voiture de keuf, on va pas s'décaler Nan, nan, tu peux pas grandir si t'as pas d'galères Brr J'suis pas rassasié si j'ai pas d'cannette, on veut juste te faire mal, on va pas t'caner Quand j'aime, c'est pour de vrai mais j'suis pas l'canard Canard, j'suis né dans l'Pas-d'Calais Boh Mais j'ai jamais perdu le Nord Boh, tu crois qu'je mens mais je dis vrai comme Dinor Malheureusement, j'ai fait des sous en dealant mais la kichta est large, ça en dit long La kich' J'avoue, j'aime pas quand on m'dit Non J'aime pas, j'aime pas quand on m'dit Non J'aime pas Ceux qui tartinent pour trouver le bonheur, finissent par trouver l'bonheur en cantinant Beendo Drill, drip, eux, pour être dans la drip, ils ont acheté du faux Han, han Drill, drip, c'est triste à dire mais j'me suis lassé du foot J'me suis lassé du foot, han, han Drill, drip, eux, pour être dans la drill, ils ont menti, c'est chaud, ils sont ni dans les vrais trucs Han, ni dans la street Han C'est triste à dire Han, ils ont inventé des choses Han, boh Drill, drip, eux, pour être dans la drip, ils ont acheté du faux Ils ont acheté du faux, han, han Drill, drip, c'est triste à dire mais j'me suis lassé du foot J'me suis lassé du foot, han, han Drill, drip, eux, pour être dans la drill, ils ont menti, c'est chaud, ils sont ni dans les vrais trucs Han, ni dans la street Han C'est triste à dire Han, ils ont inventé des choses Han, boh À part Dieu, j'ai confiance en personne Bullet, le succès, c'est comme le soleil Plus t'es exposé, plus ça t'brûle Beendo, j'ai besoin d'un parasol Mais Beendo T'façon, j'vais bientôt quitter les réseaux, y a que des putes et y a qu'des p'tits Sale pute T'façon, j'vais bientôt péter l'RS grâce à YouTube Vroum et grâce aux streams La SACEM À force de traîner, on s'sali comme des chaussettes, quand on encaisse, on a une fossette Hein Perquise, GÀV, ça fait six mois Ouais, la police veut pas rendre mon iPhone 7 Ouais, ouais La police veut pas rendre le X à Dremsi Ouais, j'raconte des histoires, je rappe des récits Ouais Inspiré d'faits réels, ils sont intéressés, en vrai, mon producteur c'est la résine J'ai jamais pécho mais j'ai toujours d'la cons', les keufs, ils t'embarquent pour un truc à la con Pour un truc à la con J'dormais au salon, j'détaillais sur le balcon J'suis pas fétichiste, sur l'instru', j'prends mon pied Han, han, j'espère qu'c'est un ient-cli quand j'entends mon P Han, han Ils veulent pas nous voir monter, igo, c'est la D, si les portes sont fermées, on va escalader Beendo Drill, drip, eux, pour être dans la drip, ils ont acheté du faux Han, han Drill, drip, c'est triste à dire mais j'me suis lassé du foot J'me suis lassé du foot, han, han Drill, drip, eux, pour être dans la drill, ils ont menti, c'est chaud, ils sont ni dans les vrais trucs Han, ni dans la street Han C'est triste à dire Han, ils ont inventé des choses Han, boh Drill, drip, eux, pour être dans la drip, ils ont acheté du faux Ils ont acheté du faux, han, han Drill, drip, c'est triste à dire mais j'me suis lassé du foot J'me suis lassé du foot, han, han Drill, drip, eux, pour être dans la drill, ils ont menti, c'est chaud, ils sont ni dans les vrais trucs Han, ni dans la street Han C'est triste à dire Han, ils ont inventé des choses Han, boh1</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Y a les faux frères, y a les réplicas, on est obligé d'répliquer Rah Obligé d'ré-ti sur les p'tites pipelettes, ceux qui parlent de biz devant les p'tites- Y a-y a les faux frères, y a les réplicas Grr, on est obligé d'répliquer Gang, obligé d'ré-ti sur les p'tites pipelettes Yes Ceux qui parlent de biz devant les p'tites chattes, on est toujours prêt à faire une p'tite G.À.V. Grr Contrat d'artiste, j'le fais sur une jambe, pas rodav, mets l'tracker sur une jant Pas rodave, mets l'tracker, grr On-on s'affole pas, même quand c'est urgent, la logistique est prête pour faire du gent-ar, faire passer la neige sous l'nez des gendarmes Snif Tout droit, j'écoutes pas quand les gens parlent, on fait péter la 'teille de champagne Péter la 'teille J'suis un rat et même pour deux cents balles, j'peux t'faire des coupures et des entailles Ils-ils sont rallier pour faire une guerre, j'suis en train d'faire du khaliss pour faire une guerre Grah La planète m'appartient pas mais j'ai une terre Grr, j'me suis acheté un fer car j'ai trop lutter Grr J'ai fait partir, j'vais m'acheter une paire Eh, j'ai détaillé le rocher, pas tailler une pierre Eh Ça roule en Fe'-Fe' quand tu roules une pelle et on travaille dur pour pas poser une belle fille On arrête pas les balles qui sortent du canon, on arrête pas celles qui vont en lucarne Rah Pour nous, l'papier, c'est un médicament Yes, c'est nous les africains dans les bolides allemands Gang, gang On-on arrête pas les balles qui sortent du canon, on arrête pas celles qui vont en lucarne Rah Pour nous, l'papier, c'est un médicament, c'est nous les africains dans les bolides allemands Dans la street, y a des mecs qui parlent trop comme les meufs, nous, on fait parler l'neuf, on fait parler les métaux Pah La barre, j'l'ai mise trop haute, donc pas d'demi-tour Gang, j'vais plus aller bosser et prendre le métro Le métro Faire de l'argent sale, j'aimais trop J'aimais trop, aujourd'hui, j'en fais trop Et si y a un opps meurt, bah, on fêtera, on allumera les fusées sur la ble-ta On arrête pas les balles qui sortent du canon Grr, on arrête pas celles qui vont en lucarne Poh, poh On t'envoies une p'tite avec des talons, elle fait bien l'boulot, elle veut prendre ses talles Pfiou Tu nous verras pas taffer à Lidl, quand tu veux bosser, j'récup' la clés du teum Quand il faut crosser, on l'fait avec du cur, on vient à ton adresse avec l'adresse du tueur Avec l'adresse du tueur, avec l'agilité, on s'fait plus- On s'fait plus crever par la municipale Pah, ils-ils font des trucs que j'apprécie pas Pah Ils jouent à la roulette russe avec six balles Ils jouent à la roulette russe avex six, pah, pah, pah Ils pensent vivre mais on les laisse vivre, on va leur retourner l'esprit, quitte à passer chez les juges et les SPIP Beendo mais Beendo You might also like On arrête pas les balles qui sortent du canon Pfiou, pah, pah, pah, on arrête pas celles qui vont en lucarne Rah Pour nous, l'papier, c'est un médicament Yes, c'est nous les africains dans les bolides allemands Eh On-on arrête pas les balles qui sortent du canon, on arrête pas celles qui vont en lucarne Rah Pour nous, l'papier, c'est un médicament, c'est nous les africains dans les bolides allemands Brr On arrête pas les balles qui sortent du canon Pfiou, ah, pah, pah, on arrête pas celles qui vont en lucarne Rah Pour nous, l'papier, c'est un médicament Yes, c'est nous les africains dans les bolides allemands Eh On arrête pas les balles qui sortent du canon, on arrête pas celles qui vont en lucarne Rah Pour nous, l'papier, c'est un médicament, c'est nous les africains dans les bolides allemands Brr</t>
+          <t>Y a les faux frères, y a les réplicas, on est obligé d'répliquer Rah Obligé d'ré-ti sur les p'tites pipelettes, ceux qui parlent de biz devant les p'tites- Y a-y a les faux frères, y a les réplicas Grr, on est obligé d'répliquer Gang, obligé d'ré-ti sur les p'tites pipelettes Yes Ceux qui parlent de biz devant les p'tites chattes, on est toujours prêt à faire une p'tite G.À.V. Grr Contrat d'artiste, j'le fais sur une jambe, pas rodav, mets l'tracker sur une jant Pas rodave, mets l'tracker, grr On-on s'affole pas, même quand c'est urgent, la logistique est prête pour faire du gent-ar, faire passer la neige sous l'nez des gendarmes Snif Tout droit, j'écoutes pas quand les gens parlent, on fait péter la 'teille de champagne Péter la 'teille J'suis un rat et même pour deux cents balles, j'peux t'faire des coupures et des entailles Ils-ils sont rallier pour faire une guerre, j'suis en train d'faire du khaliss pour faire une guerre Grah La planète m'appartient pas mais j'ai une terre Grr, j'me suis acheté un fer car j'ai trop lutter Grr J'ai fait partir, j'vais m'acheter une paire Eh, j'ai détaillé le rocher, pas tailler une pierre Eh Ça roule en Fe'-Fe' quand tu roules une pelle et on travaille dur pour pas poser une belle fille On arrête pas les balles qui sortent du canon, on arrête pas celles qui vont en lucarne Rah Pour nous, l'papier, c'est un médicament Yes, c'est nous les africains dans les bolides allemands Gang, gang On-on arrête pas les balles qui sortent du canon, on arrête pas celles qui vont en lucarne Rah Pour nous, l'papier, c'est un médicament, c'est nous les africains dans les bolides allemands Dans la street, y a des mecs qui parlent trop comme les meufs, nous, on fait parler l'neuf, on fait parler les métaux Pah La barre, j'l'ai mise trop haute, donc pas d'demi-tour Gang, j'vais plus aller bosser et prendre le métro Le métro Faire de l'argent sale, j'aimais trop J'aimais trop, aujourd'hui, j'en fais trop Et si y a un opps meurt, bah, on fêtera, on allumera les fusées sur la ble-ta On arrête pas les balles qui sortent du canon Grr, on arrête pas celles qui vont en lucarne Poh, poh On t'envoies une p'tite avec des talons, elle fait bien l'boulot, elle veut prendre ses talles Pfiou Tu nous verras pas taffer à Lidl, quand tu veux bosser, j'récup' la clés du teum Quand il faut crosser, on l'fait avec du cur, on vient à ton adresse avec l'adresse du tueur Avec l'adresse du tueur, avec l'agilité, on s'fait plus- On s'fait plus crever par la municipale Pah, ils-ils font des trucs que j'apprécie pas Pah Ils jouent à la roulette russe avec six balles Ils jouent à la roulette russe avex six, pah, pah, pah Ils pensent vivre mais on les laisse vivre, on va leur retourner l'esprit, quitte à passer chez les juges et les SPIP Beendo mais Beendo On arrête pas les balles qui sortent du canon Pfiou, pah, pah, pah, on arrête pas celles qui vont en lucarne Rah Pour nous, l'papier, c'est un médicament Yes, c'est nous les africains dans les bolides allemands Eh On-on arrête pas les balles qui sortent du canon, on arrête pas celles qui vont en lucarne Rah Pour nous, l'papier, c'est un médicament, c'est nous les africains dans les bolides allemands Brr On arrête pas les balles qui sortent du canon Pfiou, ah, pah, pah, on arrête pas celles qui vont en lucarne Rah Pour nous, l'papier, c'est un médicament Yes, c'est nous les africains dans les bolides allemands Eh On arrête pas les balles qui sortent du canon, on arrête pas celles qui vont en lucarne Rah Pour nous, l'papier, c'est un médicament, c'est nous les africains dans les bolides allemands Brr</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Trizzy, you made this? Eh-eh Nouvelle ère, nouvelle ère, nouvelle ère, nouvelle ère, tous les jours, j'change de puce, tous les jours, jchange de tél' Monter sur une canne-bé, rendre visite à untel Brr, le poto est armé, il m'demande sil y a un thème On va t'faire un boulot, continues d'faire le sénateur et j'vais prendre l'allée simpl Paris-Seattle On roule n classe C, pendant qu'ils roulent en Seat Bouh, j'ai pas croquer dans la pomme mais j'épense chez Apple Bouh Tu veux savoir cque jpense ? Fais-moi écrire, j'pourrais tapprendre des choses que tu n'savais pas sur ta re-m' Envie d'les faire, ces fils de putes rendent paro, ils font les gros mais il y a quelque chose qui tourne pas rond C'est pas carré pour eux, ils sont dans l'triangle, j'suis obligé de me comporter comme un truand J'suis-j'suis obligé d'me comporter comme un tyran, j'suis-j'suis obligé d'me transformer comme un titan Chaque jours est une opportunité d'prendre du cash dans la poche, des gros billets d'banques Le recul te mettra les pieds d'vant, j'dois tout arracher, pendant qu'il est temps On sait qui est faux, on sait qui est d'dans, on sait qui est l'eau, on sait qui est l'sang On sait qui est l'sang Balle dans les ieds-p Balle dans les ieds-p, c'est moi qui mets l'centre Tout-tout dans la facilité, j'dois montrer aucun signes de fragilité Quelques fois, j'ai boxé, quelques fois, j'ai lutté, j'savais que Pas bête allait pété quand j'ai lu l'texte T'as-t'as boisson, ça peut t'causer un ulcère, faut qu'tu payes tes dettes, dans la street, y a des huissiers Y a les dés-c' sur le R, donc j'ai mis les vissés, J'ai rien fait, c'est ma version d'vant les officiers J'fais pas- J'fais pas l'mec officiel Brr, ligotés l'rap game avec une ficelle Ah-ah Tu finis dans l'coffre comme mes courses, petite merde Bouh, j'vais finir premier, j'étais parti pour perdre Yah La vie n'est pas simple, elle est pas hyper drôle, à la recherche du mauve, du violet, du vert, jaune On s'barre dans les pays où il fait hyper chaud, ils vont aux tels-hô avec des vieilles tipères, gros You might also like Nouvelle ère, nouvelle ère, nouvelle ère, nouvelle ère, tous les jours, j'change de puce, tous les jours, j'change de tél' Monter sur une canne-bé, rendre visite à untel, le poto est armé, il m'demande s'il y a un thème Eh On va t'faire un boulot, continues d'faire le sénateur et j'vais prendre l'allée simple Paris-Seattle On roule en classe C Classe C, pendant qu'ils roulent en Seat, j'ai pas croquer dans la pomme mais j'épense chez Apple Chaque jours est une opportunité d'prendre du cash dans la poche, des gros billets d'banques Le recul te mettra les pieds d'vant, j'dois tout arracher, pendant qu'il est temps On sait qui est faux, on sait qui est d'dans, on sait qui est l'eau, on sait qui est l'sang On sait qui est l'sang Balle dans les ieds-p Balle dans les ieds-p, c'est moi qui mets l'centre Centre</t>
+          <t>Trizzy, you made this? Eh-eh Nouvelle ère, nouvelle ère, nouvelle ère, nouvelle ère, tous les jours, j'change de puce, tous les jours, jchange de tél' Monter sur une canne-bé, rendre visite à untel Brr, le poto est armé, il m'demande sil y a un thème On va t'faire un boulot, continues d'faire le sénateur et j'vais prendre l'allée simpl Paris-Seattle On roule n classe C, pendant qu'ils roulent en Seat Bouh, j'ai pas croquer dans la pomme mais j'épense chez Apple Bouh Tu veux savoir cque jpense ? Fais-moi écrire, j'pourrais tapprendre des choses que tu n'savais pas sur ta re-m' Envie d'les faire, ces fils de putes rendent paro, ils font les gros mais il y a quelque chose qui tourne pas rond C'est pas carré pour eux, ils sont dans l'triangle, j'suis obligé de me comporter comme un truand J'suis-j'suis obligé d'me comporter comme un tyran, j'suis-j'suis obligé d'me transformer comme un titan Chaque jours est une opportunité d'prendre du cash dans la poche, des gros billets d'banques Le recul te mettra les pieds d'vant, j'dois tout arracher, pendant qu'il est temps On sait qui est faux, on sait qui est d'dans, on sait qui est l'eau, on sait qui est l'sang On sait qui est l'sang Balle dans les ieds-p Balle dans les ieds-p, c'est moi qui mets l'centre Tout-tout dans la facilité, j'dois montrer aucun signes de fragilité Quelques fois, j'ai boxé, quelques fois, j'ai lutté, j'savais que Pas bête allait pété quand j'ai lu l'texte T'as-t'as boisson, ça peut t'causer un ulcère, faut qu'tu payes tes dettes, dans la street, y a des huissiers Y a les dés-c' sur le R, donc j'ai mis les vissés, J'ai rien fait, c'est ma version d'vant les officiers J'fais pas- J'fais pas l'mec officiel Brr, ligotés l'rap game avec une ficelle Ah-ah Tu finis dans l'coffre comme mes courses, petite merde Bouh, j'vais finir premier, j'étais parti pour perdre Yah La vie n'est pas simple, elle est pas hyper drôle, à la recherche du mauve, du violet, du vert, jaune On s'barre dans les pays où il fait hyper chaud, ils vont aux tels-hô avec des vieilles tipères, gros Nouvelle ère, nouvelle ère, nouvelle ère, nouvelle ère, tous les jours, j'change de puce, tous les jours, j'change de tél' Monter sur une canne-bé, rendre visite à untel, le poto est armé, il m'demande s'il y a un thème Eh On va t'faire un boulot, continues d'faire le sénateur et j'vais prendre l'allée simple Paris-Seattle On roule en classe C Classe C, pendant qu'ils roulent en Seat, j'ai pas croquer dans la pomme mais j'épense chez Apple Chaque jours est une opportunité d'prendre du cash dans la poche, des gros billets d'banques Le recul te mettra les pieds d'vant, j'dois tout arracher, pendant qu'il est temps On sait qui est faux, on sait qui est d'dans, on sait qui est l'eau, on sait qui est l'sang On sait qui est l'sang Balle dans les ieds-p Balle dans les ieds-p, c'est moi qui mets l'centre Centre</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Hxmicide Grr, grr C'que tu dis dans tes sons, c'est faux, j'suis armé et pas comme un intello Pah, pah, pah Mais j'sais qu'faut faire bosser dans l'appart' et pas dans un tel-hô Bats les c' de ta vie, j'surveille mes intérêts, j'me fais contrôler, j'te parle pas d'interro J'envoie des virgules, fais belek à tes reins, j'suis toujours en ACC sur le terrain ACC J'enfile bandana comme en Amérique, dépenses en boîte mais tu taffes à la mairie J'suis tout en noir, j'rentre dans la mêlée, j'peux jouer numéro dix comme Lamela Là, tu vas courir, hein, p'tit p Hein, j'fais des sous et j'me fais pas péter Cours J'adore le répéter Ouais j'fais des sous et j'me fais pas péter J'fais qu'ça pour ma mère J'fais qu'ça pour ma mère, ma sista, mes reufs et puis, basta Basta À la base, c'était qu'un passe-temps mais j'en avais trop marre de manger des pastas Toujours au premier rang quand y avait des bastons, les autres qui étaient derrière demandaient Qué pasa? Donne-moi l'micro, j'vais t'montrer c'est qui l'patron, j'm'en fous d'la vie sur Terre, t'façon, j'suis que d'passage Ta-ta-ta-tah J'suis que d'passage, à l'école, j'étais pas sage J'ai tout détaille, j'ai mis dans des sachets, faut pas qu'ma mère le sâche J'suis plus côté passager, ici, le bonheur s'achète On t'arrache ta mère comme une dent d'sagesse, on s'en bat les couilles que ça t'gêne You might also like Ramène mes sous, ta mère, ramène mes sous, yeah Après tu t'demandes pourquoi j'fais pas d'chrome, tu peux m'trouver près du four Me trouver sur Google Chrome Me trouver sur Safari Belek, un jour, j'suis dans un Merco Belek, un jour, j'suis dans la 'rari J'suis venu, j'ai vu, j'pose mes couilles sur la table, j'avais pas d'contour, elle m'a sucé la tain-p' Quand on t'embrouille, tu parles chinois ou latin, t'as tiré deux taffes, tu fly comme Aladdin Tu fly comme Aladdin J'ai plus l'temps d'jouer à PES, un nouveau plan sous, une nouvelle PCS Nouvelle PCS La vie, c'est pas OCS, elle m'a lahsa, j'ai craché sur ses tresses Dis-dis-dis-moi pourquoi tu stresses ? Pendant l'contrôle, t'as les genoux qui tremblent J'ai vu quatre visages pâles dans une caisse, c'est une banalisée, j'trouve ça inquiétant J'ai pas signé au FC Satan mais j'baise une Sheitana dans des draps en satin Pa-Pa-Parle de la mif', tu sais à quoi t'attendre, tu sais qu'on peut t'niquer ta tante Tu-tu peux payer ou pas ? Parce que j'aime pas rester dans l'attente J'rentre chez toi avec des gants en latex, poing américain, tu t'en prends une dans la tempe Pah Tu peux trouver des terrains d'shit Ouais mais pas trouver un terrain d'entente Ça m'appelle pour un cent balles, j'arrive tout d'suite, j'arrive dix minutes en avance Ouais, ouais, mon gars, j'suis là J'arrive en avance, faut rembourser si on t'avance J'ai pas l'CAP mais j'suis dans la vente, y a les sous mais j'trouve ça navrant Le rap, c'était pas mieux avant, il faut qu'j'me remplisse la pense Charo, j'ai toujours un truc à vendre, il faut que j'remplisse mon ventre Ramène mes sous, ta mère, ramène mes sous Après tu t'demandes pourquoi j'fais pas d'chrome, tu peux m'trouver près du four Me trouver sur Google Chrome Me trouver sur Safari Belek, un jour, j'suis dans un Merco Belek, un jour, j'suis dans la 'rari Ramène mes sous, ta mère, ramène mes sous Après tu t'demandes pourquoi j'fais pas d'chrome, tu peux m'trouver près du four Me trouver sur Google Chrome Me trouver sur Safari Belek, un jour, j'suis dans un Merco Belek, un jour, j'suis dans la 'rari Ramène mes sous, mes sous Ouh-ouh, ouh-ouh Me trouver sur Safari Belek, un jour, j'suis dans la 'rari</t>
+          <t>Hxmicide Grr, grr C'que tu dis dans tes sons, c'est faux, j'suis armé et pas comme un intello Pah, pah, pah Mais j'sais qu'faut faire bosser dans l'appart' et pas dans un tel-hô Bats les c' de ta vie, j'surveille mes intérêts, j'me fais contrôler, j'te parle pas d'interro J'envoie des virgules, fais belek à tes reins, j'suis toujours en ACC sur le terrain ACC J'enfile bandana comme en Amérique, dépenses en boîte mais tu taffes à la mairie J'suis tout en noir, j'rentre dans la mêlée, j'peux jouer numéro dix comme Lamela Là, tu vas courir, hein, p'tit p Hein, j'fais des sous et j'me fais pas péter Cours J'adore le répéter Ouais j'fais des sous et j'me fais pas péter J'fais qu'ça pour ma mère J'fais qu'ça pour ma mère, ma sista, mes reufs et puis, basta Basta À la base, c'était qu'un passe-temps mais j'en avais trop marre de manger des pastas Toujours au premier rang quand y avait des bastons, les autres qui étaient derrière demandaient Qué pasa? Donne-moi l'micro, j'vais t'montrer c'est qui l'patron, j'm'en fous d'la vie sur Terre, t'façon, j'suis que d'passage Ta-ta-ta-tah J'suis que d'passage, à l'école, j'étais pas sage J'ai tout détaille, j'ai mis dans des sachets, faut pas qu'ma mère le sâche J'suis plus côté passager, ici, le bonheur s'achète On t'arrache ta mère comme une dent d'sagesse, on s'en bat les couilles que ça t'gêne Ramène mes sous, ta mère, ramène mes sous, yeah Après tu t'demandes pourquoi j'fais pas d'chrome, tu peux m'trouver près du four Me trouver sur Google Chrome Me trouver sur Safari Belek, un jour, j'suis dans un Merco Belek, un jour, j'suis dans la 'rari J'suis venu, j'ai vu, j'pose mes couilles sur la table, j'avais pas d'contour, elle m'a sucé la tain-p' Quand on t'embrouille, tu parles chinois ou latin, t'as tiré deux taffes, tu fly comme Aladdin Tu fly comme Aladdin J'ai plus l'temps d'jouer à PES, un nouveau plan sous, une nouvelle PCS Nouvelle PCS La vie, c'est pas OCS, elle m'a lahsa, j'ai craché sur ses tresses Dis-dis-dis-moi pourquoi tu stresses ? Pendant l'contrôle, t'as les genoux qui tremblent J'ai vu quatre visages pâles dans une caisse, c'est une banalisée, j'trouve ça inquiétant J'ai pas signé au FC Satan mais j'baise une Sheitana dans des draps en satin Pa-Pa-Parle de la mif', tu sais à quoi t'attendre, tu sais qu'on peut t'niquer ta tante Tu-tu peux payer ou pas ? Parce que j'aime pas rester dans l'attente J'rentre chez toi avec des gants en latex, poing américain, tu t'en prends une dans la tempe Pah Tu peux trouver des terrains d'shit Ouais mais pas trouver un terrain d'entente Ça m'appelle pour un cent balles, j'arrive tout d'suite, j'arrive dix minutes en avance Ouais, ouais, mon gars, j'suis là J'arrive en avance, faut rembourser si on t'avance J'ai pas l'CAP mais j'suis dans la vente, y a les sous mais j'trouve ça navrant Le rap, c'était pas mieux avant, il faut qu'j'me remplisse la pense Charo, j'ai toujours un truc à vendre, il faut que j'remplisse mon ventre Ramène mes sous, ta mère, ramène mes sous Après tu t'demandes pourquoi j'fais pas d'chrome, tu peux m'trouver près du four Me trouver sur Google Chrome Me trouver sur Safari Belek, un jour, j'suis dans un Merco Belek, un jour, j'suis dans la 'rari Ramène mes sous, ta mère, ramène mes sous Après tu t'demandes pourquoi j'fais pas d'chrome, tu peux m'trouver près du four Me trouver sur Google Chrome Me trouver sur Safari Belek, un jour, j'suis dans un Merco Belek, un jour, j'suis dans la 'rari Ramène mes sous, mes sous Ouh-ouh, ouh-ouh Me trouver sur Safari Belek, un jour, j'suis dans la 'rari</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Poh, poh, poh Okay, tu m'passes les affaires, jte parle français, j'aurais pas les tales la s'maine prochaine Poh, poh, poh Ça fait, attends que jgonfle un peu ma puce, s'te-plaît, attends que j'gonfle un peu ma puce, s'te-plaît Attends J'vais là où ça débite, Bastille, Le Marais Eh, Châtelet, République Ouais J'fais pas d'différence, j'visser les racistes, les pédés, les salopes et les alcooliques Salopes Pas très catholique, pas très catholique d vendre aux étudiants dlinstitut catholique Pas très catholiqu, pas très catholique de vendre aux étudiants d'linstitut catholique Allô ? En plus, y a l'commissariat à côté, j'y pense mais y a Universal à côté, j'y pense Mes ancêtres, ils mobservent, je pense mais bon, y a qu'le papier qui m'obsède Je pense que j'dois m'démarquer des autres, j'en suis conscient, des rappeurs, y en a des masses Gros, les hypocrites, les menteurs, les faux-culs, sont un peu plus vrais depuis qu'y a les masques Gros, c'que j'ai fait, ça s'trouve, tu l'as fait en pire, c'est juste que tu sais pas l'raconter Hein J'étais à la r'cherche de sous et pas d'aventure, c'est pour ça qu'j'ai quitté la comté Et j'ai des idées, j'ai des idées et si ça marche pas, c'est Dieu qui a décidé Pour du papier, tu peux décéder, j'ai détail des cassettes, maintenant, j'vends des CD Toi, t'as pas d'4G, moi, j'ai des vraies connexions, détailler dans l'escalier, les vrais connaissent Poh, poh Si tu m'as poussé, j'suis reconnaissant, O.A.T.S des thunes, j'suis heureux qu'on ait ça Là, c'est l'Beendo qu'a pas encore percé, j'fais des teintures mais j'ai pas d'piercing J'suis dans la vente, j'ai pas l'CAP, tu connais, géné' 98 comme Ikoné J'suis attachant comme un bracelet électronique, j'connais le prix du litron, eux, c'est des comiques Hey Si j'te plante, tu vas saigner pour de vrai, la vie, c'est pas les mangas, c'est pas les comics Là, c'est l'Beendo qu'a pas encore percé, j'fais des teintures mais j'ai pas d'piercing J'suis dans la vente, j'ai pas l'CAP, tu connais, géné' 98 comme Ikoné J'suis attachant comme un bracelet électronique, j'connais le prix du litron, eux, c'est des comiques Ta-ta-ta-tah Si j'te plante, tu vas saigner pour de vrai, la vie, c'est pas les mangas, c'est pas les comics You might also like J'ai boxé l'train, j'suis déter', je vais cher-mar et quand j'arriverai, j'serais accueilli en patron Oui J'marche droit sur le mauvais chemin ou j'marche de travers sur le bon, je sais pas trop Hein Ça dépend du point d'vu, j'préfère l'plat du pied Hein, si j'ai pas l'choix, j'mets pointu Hein J'suis un p'tit con mais j'aurais une grosse voiture, ils ont un p'tit compte et ils m'font les grosses pointures Hey À l'école, on t'apprend pas à faire de l'argent, à l'école, on t'apprend à obéir Ouais Sois pas étonné si tes potes te donnent pas la force, on est jamais prophète dans son pays Ouais Toujours en Nike, j'fais rentrer des sous, j'fais comme si d'rien était J'fais comme si d'rien était Faut pas sortir les gants qu'en hiver Pah, faut sortir des cagoules en été et sortir les dés Celui qui parle trop fort, on le baise Hey, celui qui parle trop fort, on l'allume J'suis pas une star Tah mais j'ai des étoiles plein la tête, c'est pas pour autant que j'veux viser la lune La lune Le de-ble, c'est pas comme la ce-Fran, nan, au bled, y a deux façons d'se laver Et tant mieux pour toi si t'as pas capté, tant mieux pour toi si t'as pas pacté Pah, pah Là, c'est l'Beendo qu'a pas encore percé, j'fais des teintures mais j'ai pas d'piercing Tah J'suis dans la vente, j'ai pas l'CAP Pah, tu connais, géné' 98 comme Ikoné J'suis attachant comme un bracelet électronique, j'connais le prix du litron, eux, c'est des comiques Hey Si j'te plante, tu vas saigner pour de vrai, la vie, c'est pas les mangas, c'est pas les comics Là, c'est l'Beendo qu'a pas encore percé, j'fais des teintures mais j'ai pas d'piercing J'suis dans la vente, j'ai pas l'CAP, tu connais, géné' 98 comme Ikoné J'suis attachant comme un bracelet électronique, j'connais le prix du litron, eux, c'est des comiques Ta-ta-ta-tah Si j'te plante, tu vas saigner pour de vrai, la vie, c'est pas les mangas, c'est pas les comics Bullet Bullet</t>
+          <t>Poh, poh, poh Okay, tu m'passes les affaires, jte parle français, j'aurais pas les tales la s'maine prochaine Poh, poh, poh Ça fait, attends que jgonfle un peu ma puce, s'te-plaît, attends que j'gonfle un peu ma puce, s'te-plaît Attends J'vais là où ça débite, Bastille, Le Marais Eh, Châtelet, République Ouais J'fais pas d'différence, j'visser les racistes, les pédés, les salopes et les alcooliques Salopes Pas très catholique, pas très catholique d vendre aux étudiants dlinstitut catholique Pas très catholiqu, pas très catholique de vendre aux étudiants d'linstitut catholique Allô ? En plus, y a l'commissariat à côté, j'y pense mais y a Universal à côté, j'y pense Mes ancêtres, ils mobservent, je pense mais bon, y a qu'le papier qui m'obsède Je pense que j'dois m'démarquer des autres, j'en suis conscient, des rappeurs, y en a des masses Gros, les hypocrites, les menteurs, les faux-culs, sont un peu plus vrais depuis qu'y a les masques Gros, c'que j'ai fait, ça s'trouve, tu l'as fait en pire, c'est juste que tu sais pas l'raconter Hein J'étais à la r'cherche de sous et pas d'aventure, c'est pour ça qu'j'ai quitté la comté Et j'ai des idées, j'ai des idées et si ça marche pas, c'est Dieu qui a décidé Pour du papier, tu peux décéder, j'ai détail des cassettes, maintenant, j'vends des CD Toi, t'as pas d'4G, moi, j'ai des vraies connexions, détailler dans l'escalier, les vrais connaissent Poh, poh Si tu m'as poussé, j'suis reconnaissant, O.A.T.S des thunes, j'suis heureux qu'on ait ça Là, c'est l'Beendo qu'a pas encore percé, j'fais des teintures mais j'ai pas d'piercing J'suis dans la vente, j'ai pas l'CAP, tu connais, géné' 98 comme Ikoné J'suis attachant comme un bracelet électronique, j'connais le prix du litron, eux, c'est des comiques Hey Si j'te plante, tu vas saigner pour de vrai, la vie, c'est pas les mangas, c'est pas les comics Là, c'est l'Beendo qu'a pas encore percé, j'fais des teintures mais j'ai pas d'piercing J'suis dans la vente, j'ai pas l'CAP, tu connais, géné' 98 comme Ikoné J'suis attachant comme un bracelet électronique, j'connais le prix du litron, eux, c'est des comiques Ta-ta-ta-tah Si j'te plante, tu vas saigner pour de vrai, la vie, c'est pas les mangas, c'est pas les comics J'ai boxé l'train, j'suis déter', je vais cher-mar et quand j'arriverai, j'serais accueilli en patron Oui J'marche droit sur le mauvais chemin ou j'marche de travers sur le bon, je sais pas trop Hein Ça dépend du point d'vu, j'préfère l'plat du pied Hein, si j'ai pas l'choix, j'mets pointu Hein J'suis un p'tit con mais j'aurais une grosse voiture, ils ont un p'tit compte et ils m'font les grosses pointures Hey À l'école, on t'apprend pas à faire de l'argent, à l'école, on t'apprend à obéir Ouais Sois pas étonné si tes potes te donnent pas la force, on est jamais prophète dans son pays Ouais Toujours en Nike, j'fais rentrer des sous, j'fais comme si d'rien était J'fais comme si d'rien était Faut pas sortir les gants qu'en hiver Pah, faut sortir des cagoules en été et sortir les dés Celui qui parle trop fort, on le baise Hey, celui qui parle trop fort, on l'allume J'suis pas une star Tah mais j'ai des étoiles plein la tête, c'est pas pour autant que j'veux viser la lune La lune Le de-ble, c'est pas comme la ce-Fran, nan, au bled, y a deux façons d'se laver Et tant mieux pour toi si t'as pas capté, tant mieux pour toi si t'as pas pacté Pah, pah Là, c'est l'Beendo qu'a pas encore percé, j'fais des teintures mais j'ai pas d'piercing Tah J'suis dans la vente, j'ai pas l'CAP Pah, tu connais, géné' 98 comme Ikoné J'suis attachant comme un bracelet électronique, j'connais le prix du litron, eux, c'est des comiques Hey Si j'te plante, tu vas saigner pour de vrai, la vie, c'est pas les mangas, c'est pas les comics Là, c'est l'Beendo qu'a pas encore percé, j'fais des teintures mais j'ai pas d'piercing J'suis dans la vente, j'ai pas l'CAP, tu connais, géné' 98 comme Ikoné J'suis attachant comme un bracelet électronique, j'connais le prix du litron, eux, c'est des comiques Ta-ta-ta-tah Si j'te plante, tu vas saigner pour de vrai, la vie, c'est pas les mangas, c'est pas les comics Bullet Bullet</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fire J'suis pas du genre à prendre des nouvelles mais j'oublie jamais personnes, tout c'qu'ils nous ont volés, on va l'récupérer fois cents Cents On récolte c'que l'ont sèment, on va t'faire couler ton sang Sang, j'suis pas un hypocrite, j'suis pas obligé d'aller dans ton sens Cents Elle s'achète des habits Yeah, pour qu'on la déshabille, c'est des choses que j'arrive pas à comprendre Shit La trahison des amis Yeah, bien choisir ses alliés, tu le sentais qu'ils étaient pas contnts Ils parlent qu'en subliminal, ça joue ls bandits, ça veut jouer les criminals Criminals Ils parlent qu'en subliminal, ça joue les bandits, ça veut jouer les criminals Criminals On était sur la même ligne de départ mais beaucoup n'ont pas bougé Bougé Les coupures de courant, l'eau chaude qui venait pas, on allumait la bougie Ah Quand j'me regarde, je m'inquiète M'inquiète, quand j'me compare, j'me rassure Rassure, ils ont plusieurs facettes Facettes, on a plusieurs voitures On a les même pinceaux mais on fait pas la même peinture Peinture, on connait plein d'façons pour t'faire fumer comme un joint d'pure J't'allume de la main gauche, tu connais pas la droiture, pourquoi tu regardes ma poche Ma poche ? Ma poche, c'est mon gars sûr Gars sûr Écoute pas c'qu'il dit mais regarde c'qu'il fait, on souffre pas assez, ils sont pas satisfait Brr Ma queue et mon gamos Gamos, je sais qu'c'est ça qui t'plaît Plaît, sauver le monde comme Thanos Thanos, on s'est sacrifié Ils parlent qu'en subliminal, ça joue les bandits, ça veut jouer les criminals Brr Tu sais qu'pour être bien, on a fait du mal Du mal, assumer sur le banc du tribunal, criminals You might also like Ils parlent qu'en subliminal, ça joue les bandits, ça veut jouer les criminals Criminals Ils parlent qu'en subliminal, ça joue les bandits, ça veut jouer les criminals Criminals</t>
+          <t>Fire J'suis pas du genre à prendre des nouvelles mais j'oublie jamais personnes, tout c'qu'ils nous ont volés, on va l'récupérer fois cents Cents On récolte c'que l'ont sèment, on va t'faire couler ton sang Sang, j'suis pas un hypocrite, j'suis pas obligé d'aller dans ton sens Cents Elle s'achète des habits Yeah, pour qu'on la déshabille, c'est des choses que j'arrive pas à comprendre Shit La trahison des amis Yeah, bien choisir ses alliés, tu le sentais qu'ils étaient pas contnts Ils parlent qu'en subliminal, ça joue ls bandits, ça veut jouer les criminals Criminals Ils parlent qu'en subliminal, ça joue les bandits, ça veut jouer les criminals Criminals On était sur la même ligne de départ mais beaucoup n'ont pas bougé Bougé Les coupures de courant, l'eau chaude qui venait pas, on allumait la bougie Ah Quand j'me regarde, je m'inquiète M'inquiète, quand j'me compare, j'me rassure Rassure, ils ont plusieurs facettes Facettes, on a plusieurs voitures On a les même pinceaux mais on fait pas la même peinture Peinture, on connait plein d'façons pour t'faire fumer comme un joint d'pure J't'allume de la main gauche, tu connais pas la droiture, pourquoi tu regardes ma poche Ma poche ? Ma poche, c'est mon gars sûr Gars sûr Écoute pas c'qu'il dit mais regarde c'qu'il fait, on souffre pas assez, ils sont pas satisfait Brr Ma queue et mon gamos Gamos, je sais qu'c'est ça qui t'plaît Plaît, sauver le monde comme Thanos Thanos, on s'est sacrifié Ils parlent qu'en subliminal, ça joue les bandits, ça veut jouer les criminals Brr Tu sais qu'pour être bien, on a fait du mal Du mal, assumer sur le banc du tribunal, criminals Ils parlent qu'en subliminal, ça joue les bandits, ça veut jouer les criminals Criminals Ils parlent qu'en subliminal, ça joue les bandits, ça veut jouer les criminals Criminals</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Grrrrt Moi jsuis pas ton petit gros Et jai un pied dans le dine ouais Et puis ta meuf enlève son slim, elle bosse la pte Jai loué lappart jachète la sim, tu captes Et qui ta dis que cétait facile Qui ? Jai même pas le temps dêtre fâché Jai deux semaines pour faire partir un demi kil Jai mit la gomme les keufs je les ai effacé je les ai effacé Moi jsuis impoli ouais Comme Maradona à Napoli ouais Jfais un gros doigt à la police fuck Jfais un gros doigt à la police fuck Jte coupe avec ma lame même si tas la peau liss sheesh Derrière ils parlent mal, dvant ils applaudissent Derrière ils parlent mal devant ils me sucent la bite Jpeux membrouiller pour le numéro 10 gang Jsuis sur le corner pour faire des sous brr Pas pour faire des photos insta Jai tiré sur le pétou, jai volé un instant gang Ient-cli qui mappelle jte mets en attente ouais La police veut des preuves mais cest en instance ouais Ya des CR pas de Cristiano Ronaldo On des montres et tu crois on le temps Les pieds sur terre sauf quand je fais un salto Les keufs savent pas courir et ils ont pas dabdos paw Et jrentre toujours chez moi sain et sauf gang Jai sorti un shlass et il ssauve ouais Je gère pas les meufs en hiver pour quelles me chauffent nan Tas mon tel ou mon snap si tu veux quelque chose ouais Tinquiètes pas on va les quer-cho t'inquiète Tinquiètes pas on va les quer-cho t'inquiète Ya un plavon là qui est chaud Ça fait 3 fois quil passe là le gars qui est chauve Dremsi qui passe un plavon donc tout est carré On peut tenlever tes jantes on sait où tes garé brrr Tas mal parlé au tel, arrêtes de faire crari Donc si tu tfais niquer personne va séparer grrrt Personne va séparer nan Et que tu lveuilles ou pas cest pareil La plaquette jlai transformer en plusieurs barrettes Elle met sa main sur mes abdos elle veut que jarrête la pte Ya le 17 dans le rétro il faut je akha Parler au comico ça il faut jamais Les mecs de la bac ressemblent à Christophe Jallet À Stéphane Ruffier La putain de sa mère Il mfaut un butin il mfaut un salaire Jparle pas pour rien jgaspille pas ma salive Jai déjà pris linfo pas besoin de dire ça arrive Jai de la Dybala comme Mauricio Sari Jaimerai bien quon me traite de sale riche Toi tas jamais vendu de hachich Tas pas dsous tu fais des ronds quavec ta chiche paw Jla kiff parce quelle met pas les dents Elle frotte ma bite comme si ya un génie dedans sale pte Donc je lai cabrer comme un 2 temps la pte Les voisins nous trouvent embêtants brr,brr Débrouillard pas bandit jvais pas tle répéter Cest des faux voyous mais cest des vrais pédés Ya N.A.N.S.O ya H et ya Abdel Jlui ai rien demandé et elle mfait un Lap Dance Débrouillard pas bandit jvais pas tle répéter grrt Cest des faux voyous mais cest des vrais pédés Ya N.A.N.S.O ya H et ya Abdel Jlui ai rien demandé et elle mfait un Lap Dance PétasseYou might also like</t>
+          <t>Grrrrt Moi jsuis pas ton petit gros Et jai un pied dans le dine ouais Et puis ta meuf enlève son slim, elle bosse la pte Jai loué lappart jachète la sim, tu captes Et qui ta dis que cétait facile Qui ? Jai même pas le temps dêtre fâché Jai deux semaines pour faire partir un demi kil Jai mit la gomme les keufs je les ai effacé je les ai effacé Moi jsuis impoli ouais Comme Maradona à Napoli ouais Jfais un gros doigt à la police fuck Jfais un gros doigt à la police fuck Jte coupe avec ma lame même si tas la peau liss sheesh Derrière ils parlent mal, dvant ils applaudissent Derrière ils parlent mal devant ils me sucent la bite Jpeux membrouiller pour le numéro 10 gang Jsuis sur le corner pour faire des sous brr Pas pour faire des photos insta Jai tiré sur le pétou, jai volé un instant gang Ient-cli qui mappelle jte mets en attente ouais La police veut des preuves mais cest en instance ouais Ya des CR pas de Cristiano Ronaldo On des montres et tu crois on le temps Les pieds sur terre sauf quand je fais un salto Les keufs savent pas courir et ils ont pas dabdos paw Et jrentre toujours chez moi sain et sauf gang Jai sorti un shlass et il ssauve ouais Je gère pas les meufs en hiver pour quelles me chauffent nan Tas mon tel ou mon snap si tu veux quelque chose ouais Tinquiètes pas on va les quer-cho t'inquiète Tinquiètes pas on va les quer-cho t'inquiète Ya un plavon là qui est chaud Ça fait 3 fois quil passe là le gars qui est chauve Dremsi qui passe un plavon donc tout est carré On peut tenlever tes jantes on sait où tes garé brrr Tas mal parlé au tel, arrêtes de faire crari Donc si tu tfais niquer personne va séparer grrrt Personne va séparer nan Et que tu lveuilles ou pas cest pareil La plaquette jlai transformer en plusieurs barrettes Elle met sa main sur mes abdos elle veut que jarrête la pte Ya le 17 dans le rétro il faut je akha Parler au comico ça il faut jamais Les mecs de la bac ressemblent à Christophe Jallet À Stéphane Ruffier La putain de sa mère Il mfaut un butin il mfaut un salaire Jparle pas pour rien jgaspille pas ma salive Jai déjà pris linfo pas besoin de dire ça arrive Jai de la Dybala comme Mauricio Sari Jaimerai bien quon me traite de sale riche Toi tas jamais vendu de hachich Tas pas dsous tu fais des ronds quavec ta chiche paw Jla kiff parce quelle met pas les dents Elle frotte ma bite comme si ya un génie dedans sale pte Donc je lai cabrer comme un 2 temps la pte Les voisins nous trouvent embêtants brr,brr Débrouillard pas bandit jvais pas tle répéter Cest des faux voyous mais cest des vrais pédés Ya N.A.N.S.O ya H et ya Abdel Jlui ai rien demandé et elle mfait un Lap Dance Débrouillard pas bandit jvais pas tle répéter grrt Cest des faux voyous mais cest des vrais pédés Ya N.A.N.S.O ya H et ya Abdel Jlui ai rien demandé et elle mfait un Lap Dance Pétasse</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ah, bah ouais, mon gros, wallaye bilay Du platine, de l'or sur tous les murs, dans toutes les baraques Y a d'la beuh, t'inquiète pas qu'on va la remonter Remonter, y a pas d'amour et mes textes ne sont pas romancés J'sors de G.À.V, j'sais que j'vais recommencer, c'est comme si j'avais envie d'voir la prison, comment c'est Il manque des sous, c'est comment ? Me dit pas Comment ça ?, j'écoute plus trop les critiques et les commentaires As-tu u un single de platine pour m dire comment faire ? Comment faire, j'ai une kichta et j'l'aime comme un frère Comme un frère Tous-tous les jours, c'est l'début du mois, j'suis capable du plus et incapable du moins J'avais pas l'permis, j'roulais dans l'4x4 tout noir Noir, maintenant, j'veux volé dans un jet blanc tout là-haut J'ai volé, j'ai dealé, j'ai claqué tout l'argent Nan, le travail est plus long, la kich' est plus large Allez, tiens, j'te visser ton dix et puis, nachave, moi, j'suis pas du genre à payer pour kassav Beendo Zarzis aka Beendo Z connu pour extorsion Grr et vol à main armé Grr J'ai pas cité la stup' car j'veux pas alarmer l'oreille des parents, eux, ils pensent pas à leurs mères Nan J'ai une séance studio, j'arrive pas à l'heure mais j'mets les pendules à l'heure pour montrer qu'j'suis illeur-me J'les aies ken deux-trois fois et elles pensent j'suis leur mec, on appelle les escortes juste pour soulever leur mac On défonce des portes juste pour chourer des Mac, quand j'étais dans la merde, j'ai pas dit Aidez-moi Avant d'péter, j'ai mis des s'maines et des mois à écrire sur une feuille blanche toutes mes idées noires Lionel Messi est blanc mais l'vrai Messi est noir, j'ai bicrave un peu ici et là J'vois les bleus mais c'est pas l'ciel, ils sont bleus quand ils m'voient dans l'CLA You might also like Tous-tous les jours, c'est l'début du mois, j'suis capable du plus et incapable du moins J'avais pas l'permis, j'roulais dans l'4x4 tout noir Noir, maintenant, j'veux volé dans un jet blanc tout là-haut J'ai volé, j'ai dealé, j'ai claqué tout l'argent Nan, le travail est plus long, la kich' est plus large Allez, tiens, j'te visser ton dix et puis, nachave, moi, j'suis pas du genre à payer pour kassav J'vis au jour le jour mais j'pense à demain, j'ai reçu une kichta, il faut j'pense à donner À donner À ceux qui étaient là quand j'avais trente abonnés, ceux avec qui j'enfilais les gants, le bonnet Il m'faut du 3.7.7.1.3.5.0, encaisser des gros de chèques avec plein d'zéros C'est Beendo Zarzis ou Beendo Zoro ? Ils m'appelaient pas quand j'avais à peine deux euros Des euros Au lieu d'dire Libéré, envoyez des mandats, la juge cite les faits, je n'démens pas Pour ça qu'dans mes textes, je ne mens pas, à la recherche du cash, pas à la recherche d'un emploi J'suis dans la musique, merde, j'me suis mis dans quoi ? C'est mieux que d'visser avec du produit dans l'qwer Tu m'la mets à l'envers, je t'attends à un endroit, à c'qui p', t'as voulu mettre un ce-tru dans mon verre Tous-tous les jours, c'est l'début du mois, j'suis capable du plus et incapable du moins J'avais pas l'permis, j'roulais dans l'4x4 tout noir Noir, maintenant, j'veux volé dans un jet blanc tout là-haut J'ai volé, j'ai dealé, j'ai claqué tout l'argent Nan, le travail est plus long, la kich' est plus large Allez, tiens, j'te visser ton dix et puis, nachave, moi, j'suis pas du genre à payer pour kassav Tous les jours, c'est l'début du mois, j'suis capable du plus et incapable du moins J'avais pas l'permis, j'roulais dans l'4x4 tout noir Noir, maintenant, j'veux volé dans un jet blanc tout là-haut J'ai volé, j'ai dealé, j'ai claqué tout l'argent Nan, le travail est plus long, la kich' est plus large Allez, tiens, j'te visser ton dix et puis, nachave, moi, j'suis pas du genre à payer pour kassav</t>
+          <t>Ah, bah ouais, mon gros, wallaye bilay Du platine, de l'or sur tous les murs, dans toutes les baraques Y a d'la beuh, t'inquiète pas qu'on va la remonter Remonter, y a pas d'amour et mes textes ne sont pas romancés J'sors de G.À.V, j'sais que j'vais recommencer, c'est comme si j'avais envie d'voir la prison, comment c'est Il manque des sous, c'est comment ? Me dit pas Comment ça ?, j'écoute plus trop les critiques et les commentaires As-tu u un single de platine pour m dire comment faire ? Comment faire, j'ai une kichta et j'l'aime comme un frère Comme un frère Tous-tous les jours, c'est l'début du mois, j'suis capable du plus et incapable du moins J'avais pas l'permis, j'roulais dans l'4x4 tout noir Noir, maintenant, j'veux volé dans un jet blanc tout là-haut J'ai volé, j'ai dealé, j'ai claqué tout l'argent Nan, le travail est plus long, la kich' est plus large Allez, tiens, j'te visser ton dix et puis, nachave, moi, j'suis pas du genre à payer pour kassav Beendo Zarzis aka Beendo Z connu pour extorsion Grr et vol à main armé Grr J'ai pas cité la stup' car j'veux pas alarmer l'oreille des parents, eux, ils pensent pas à leurs mères Nan J'ai une séance studio, j'arrive pas à l'heure mais j'mets les pendules à l'heure pour montrer qu'j'suis illeur-me J'les aies ken deux-trois fois et elles pensent j'suis leur mec, on appelle les escortes juste pour soulever leur mac On défonce des portes juste pour chourer des Mac, quand j'étais dans la merde, j'ai pas dit Aidez-moi Avant d'péter, j'ai mis des s'maines et des mois à écrire sur une feuille blanche toutes mes idées noires Lionel Messi est blanc mais l'vrai Messi est noir, j'ai bicrave un peu ici et là J'vois les bleus mais c'est pas l'ciel, ils sont bleus quand ils m'voient dans l'CLA Tous-tous les jours, c'est l'début du mois, j'suis capable du plus et incapable du moins J'avais pas l'permis, j'roulais dans l'4x4 tout noir Noir, maintenant, j'veux volé dans un jet blanc tout là-haut J'ai volé, j'ai dealé, j'ai claqué tout l'argent Nan, le travail est plus long, la kich' est plus large Allez, tiens, j'te visser ton dix et puis, nachave, moi, j'suis pas du genre à payer pour kassav J'vis au jour le jour mais j'pense à demain, j'ai reçu une kichta, il faut j'pense à donner À donner À ceux qui étaient là quand j'avais trente abonnés, ceux avec qui j'enfilais les gants, le bonnet Il m'faut du 3.7.7.1.3.5.0, encaisser des gros de chèques avec plein d'zéros C'est Beendo Zarzis ou Beendo Zoro ? Ils m'appelaient pas quand j'avais à peine deux euros Des euros Au lieu d'dire Libéré, envoyez des mandats, la juge cite les faits, je n'démens pas Pour ça qu'dans mes textes, je ne mens pas, à la recherche du cash, pas à la recherche d'un emploi J'suis dans la musique, merde, j'me suis mis dans quoi ? C'est mieux que d'visser avec du produit dans l'qwer Tu m'la mets à l'envers, je t'attends à un endroit, à c'qui p', t'as voulu mettre un ce-tru dans mon verre Tous-tous les jours, c'est l'début du mois, j'suis capable du plus et incapable du moins J'avais pas l'permis, j'roulais dans l'4x4 tout noir Noir, maintenant, j'veux volé dans un jet blanc tout là-haut J'ai volé, j'ai dealé, j'ai claqué tout l'argent Nan, le travail est plus long, la kich' est plus large Allez, tiens, j'te visser ton dix et puis, nachave, moi, j'suis pas du genre à payer pour kassav Tous les jours, c'est l'début du mois, j'suis capable du plus et incapable du moins J'avais pas l'permis, j'roulais dans l'4x4 tout noir Noir, maintenant, j'veux volé dans un jet blanc tout là-haut J'ai volé, j'ai dealé, j'ai claqué tout l'argent Nan, le travail est plus long, la kich' est plus large Allez, tiens, j'te visser ton dix et puis, nachave, moi, j'suis pas du genre à payer pour kassav</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Shadow J'ai misé sur ma voix, sur mes rimes, mes paroles Paroles, j'commence à pe-ra mais j'le cache à mes parents J'câble parce que la musique, c'est pas rentable et que j'perds du temps comme quand j'pars en classe On est bien élevé car nos parents tapent Tapent, pour éviter qu'on parte en cacahuètes J'bicrave en K-Way, y a toujours un billet qui rentre quand j'apparais Cash, cash Chaque semaine, j'dois chercher un salaire, y a toujours un billet qui rentre à chaque Salem Cash Complément budgétaire, j'mets cent eu' sur Salah, obligé qu'un beau jour, on s'ra là-haut Rah Non, j'coupe plus les tomates, salades, oignons, j'ai payé avec le sale pognon On r'connaît un homme à sa poignée, on r'connaît un homme libre à ses poignets Beendo En embrouille, j'étais pas celui qui séparait, en embrouille, j'étais pas celui qui s'est barré Au lycée, j'étais celui qui f'sait marrer les gens, j'faisais semblant d'être bête, j'étais intelligent Maintenant, j'suis dans l'Urus, ça fait grincer des dents, j'm'arrête au feu rouge, ils m'ont maté les gens Vroum, vroum Dix minutes, après, j'ai gratté les jantes, dix minutes, après, j'ai gratté les jantes Non, j'me rappelle du passé quand vierge était le casier Casier, j'ai aperçu le papier d'vant J'suis pas très fort à la nage mais j'ai voulu brasser, quand j'ai vu l'papier passer Passer, j'ai vu passer l'temps Passer l'temps Non, j'me rappelle du passé quand vierge était le casier, j'ai aperçu le papier d'vant J'suis pas très fort à la nage mais j'ai voulu brasser Bou-bou-bouh, quand j'ai vu l'papier passer Passer, j'ai vu passer l'temps Passer l'temps Be-Beendo, le texte fait grave peur, le-le texte fait grave peur Grr On dirait un shooteur casqué comme les Daft Punk Poh, si tu suces, c'est en dernier qu'tu tires une taffe, meuf Dans nos soirées, faut pas trop d'gars mais un tas d'meufs, on écoute pas Last Last, on écoute les exclus Binks, binks J'suis pas très loin des Champs, j'suis sur la rue Marbeuf, maintenant, c'est trop tard pour présenter des excuses Shoo, shoo J'suis pas encore à mon prime Prime, j'conduis d'la main gauche, elle voit c'qu'il y a sur l'poignet Tes plavons, j'les faisais quand toi, t'étais pas née, si tu payes pas à l'heure, si t'es pas carré La somme que tu dois, j'vais la mettre au carré, on tire avec des armes, ils tirent avec carré J'veux rencontrer Macron, j'veux rencontrer Karim, casse pas du sucre sur mon dos, ça donne des caries C'est la Fashion Week Ouais, on va hagar des cains-ri, devant les gens Ouais, j'suis comme devant l'État Si j'ai un billet, j'vais pas l'déclarer, comme un bon français, j'aime pas parler des talles Mais faut parler français quand ça parle de taro Han, elle parle pas chinois quand ça parle de taro Han Elle, c'est plus la langue de Molière que de Mao, j'fume pas à la casa, au studio, j'fais l'Maroc You might also like Non, j'me rappelle du passé quand vierge était le casier Casier, j'ai aperçu le papier d'vant J'suis pas très fort à la nage mais j'ai voulu brasser, quand j'ai vu l'papier passer Passer, j'ai vu passer l'temps Passer l'temps Non, j'me rappelle du passé quand vierge était le casier Le casier, j'ai aperçu le papier d'vant J'suis pas très fort à la nage mais j'ai voulu brasser, quand j'ai vu l'papier passer Passer, j'ai vu passer l'temps Passer l'temps J'ai vu passer l'temps Passer l'temps</t>
+          <t>Shadow J'ai misé sur ma voix, sur mes rimes, mes paroles Paroles, j'commence à pe-ra mais j'le cache à mes parents J'câble parce que la musique, c'est pas rentable et que j'perds du temps comme quand j'pars en classe On est bien élevé car nos parents tapent Tapent, pour éviter qu'on parte en cacahuètes J'bicrave en K-Way, y a toujours un billet qui rentre quand j'apparais Cash, cash Chaque semaine, j'dois chercher un salaire, y a toujours un billet qui rentre à chaque Salem Cash Complément budgétaire, j'mets cent eu' sur Salah, obligé qu'un beau jour, on s'ra là-haut Rah Non, j'coupe plus les tomates, salades, oignons, j'ai payé avec le sale pognon On r'connaît un homme à sa poignée, on r'connaît un homme libre à ses poignets Beendo En embrouille, j'étais pas celui qui séparait, en embrouille, j'étais pas celui qui s'est barré Au lycée, j'étais celui qui f'sait marrer les gens, j'faisais semblant d'être bête, j'étais intelligent Maintenant, j'suis dans l'Urus, ça fait grincer des dents, j'm'arrête au feu rouge, ils m'ont maté les gens Vroum, vroum Dix minutes, après, j'ai gratté les jantes, dix minutes, après, j'ai gratté les jantes Non, j'me rappelle du passé quand vierge était le casier Casier, j'ai aperçu le papier d'vant J'suis pas très fort à la nage mais j'ai voulu brasser, quand j'ai vu l'papier passer Passer, j'ai vu passer l'temps Passer l'temps Non, j'me rappelle du passé quand vierge était le casier, j'ai aperçu le papier d'vant J'suis pas très fort à la nage mais j'ai voulu brasser Bou-bou-bouh, quand j'ai vu l'papier passer Passer, j'ai vu passer l'temps Passer l'temps Be-Beendo, le texte fait grave peur, le-le texte fait grave peur Grr On dirait un shooteur casqué comme les Daft Punk Poh, si tu suces, c'est en dernier qu'tu tires une taffe, meuf Dans nos soirées, faut pas trop d'gars mais un tas d'meufs, on écoute pas Last Last, on écoute les exclus Binks, binks J'suis pas très loin des Champs, j'suis sur la rue Marbeuf, maintenant, c'est trop tard pour présenter des excuses Shoo, shoo J'suis pas encore à mon prime Prime, j'conduis d'la main gauche, elle voit c'qu'il y a sur l'poignet Tes plavons, j'les faisais quand toi, t'étais pas née, si tu payes pas à l'heure, si t'es pas carré La somme que tu dois, j'vais la mettre au carré, on tire avec des armes, ils tirent avec carré J'veux rencontrer Macron, j'veux rencontrer Karim, casse pas du sucre sur mon dos, ça donne des caries C'est la Fashion Week Ouais, on va hagar des cains-ri, devant les gens Ouais, j'suis comme devant l'État Si j'ai un billet, j'vais pas l'déclarer, comme un bon français, j'aime pas parler des talles Mais faut parler français quand ça parle de taro Han, elle parle pas chinois quand ça parle de taro Han Elle, c'est plus la langue de Molière que de Mao, j'fume pas à la casa, au studio, j'fais l'Maroc Non, j'me rappelle du passé quand vierge était le casier Casier, j'ai aperçu le papier d'vant J'suis pas très fort à la nage mais j'ai voulu brasser, quand j'ai vu l'papier passer Passer, j'ai vu passer l'temps Passer l'temps Non, j'me rappelle du passé quand vierge était le casier Le casier, j'ai aperçu le papier d'vant J'suis pas très fort à la nage mais j'ai voulu brasser, quand j'ai vu l'papier passer Passer, j'ai vu passer l'temps Passer l'temps J'ai vu passer l'temps Passer l'temps</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>La bague au doigt, tu l'auras pas, salope La bague au doigt, tu l'auras pas, salope, y a la que-ba, obligé de galoper J'me suis cru dans Grand Galop, mets le pocheton dans un paquet d'garos J'me demande ils en pensent quoi les darons, j'suis pas une lumière mais j't'allume sur le taro Poh J'ai beaucoup appris sur le tas, obligé si j'lui mets une pêche, il est K.O K.O J'marche dans la ville et j'suis carbo, dans ma tête, j'suis dans les rues d'Chicago Chi-Chi T'es le jean slim, j'suis le cargo, t'es le string ficell, j'suis la cagoule Chi-Chi Qu'on enfile quand on rntre chez le tamoul, quand j'pêche, le Sheitan mouille Si tu m'croises, tu vas rentrer chez ta mère sans les billets qu'il y avait dans ta fouille Eh Le but, c'était d'trouver du taf ou d'visser tous les fous qui vont au taf En vrai, j'vais trouver du taf où ? J'suis au quartier, j'tire des taffes T'es un bon si t'as pas dit c'que t'as fait Hein, où sont les sous de tes dix que t'as fait ? Tu rappes mais où sont les disques que t'as fait Hein ? Fais deux-cents ventes et on discute après J'suis différent, j'suis différent, premier en sport et pas premier en chant Brr J'fais plus d'sport mais j'me suis mis à chanter, j'ai v'-esqui les keufs, l'école et le chantier Brr J'suis différent, j'suis différent, elle et mon casier, y a pas trop d'différences Et elle va t'kiffer parce que tu fais rentrer Brr, elle va t'kiffer pour c'que tu fais rentrer Brr J'suis différent, j'suis différent, premier en sport et pas premier en chant J'fais plus d'sport mais j'me suis mis à chanter, j'ai v'-esqui les keufs, l'école et le chantier Poh J'suis différent, j'suis différent, elle et mon casier, y a pas trop d'différences Brr Et elle va t'kiffer parce que tu fais rentrer, elle va t'kiffer pour c'que tu fais rentrer Brr You might also like Elle suce comme si j'étais un morceau de canne, pas besoin d'aller au festival pour qu'on te canne Envoie le compte, le RIB et la te-car, tu crois qu'tu vas être che-ri mais t'es un tocard Tu crois qu'tu vas être che-ri Coup franc de Beckham Beckham, j'ai enlevé la béquille sur la bécane Bécane Ils ont jamais touché un pétard, ils connaissent les mes-ar grâce à la Play' 4 Pa-pah L'appel d'un ient-cli, c'est l'appel du devoir, l'appel du ient-cli, c'est notre Call of Duty Grr Si t'en as marre d'l'école et de faire tes devoirs, tu fais comme au States, tu prends une Kalash' et tu tires AS Roma, Francesco Totti, Beendo Z, meilleur joueur de la TOTY Tout est dans l'attitude, tu fumes, faut pas titube, j'rentre dans un coffee et j'ressors avec dix tubes J'rentre dans la cabine et j'ressors avec dix tubes, t'as vu, Beendo, il est pas bête, il est têtu J'fais les beaux jours de Spotify et de iTunes, j'l'ai jamais vu mais il fait des sous, dit-il Cash, cash Mon joueur préféré s'appelle Didine, on t'a pas sonné, on t'a pas fait Ding-ding Rien à célébrer, y a pas trop de tchin-tchin, ils ont peur de la mort, ils préfèrent le tchi-tchi J'suis différent, j'suis différent, premier en sport et pas premier en chant Brr J'fais plus d'sport mais j'me suis mis à chanter, j'ai v'-esqui les keufs, l'école et le chantier Brr J'suis différent, j'suis différent, elle et mon casier, y a pas trop d'différences Et elle va t'kiffer parce que tu fais rentrer Brr, elle va t'kiffer pour c'que tu fais rentrer Brr J'suis différent, j'suis différent, premier en sport et pas premier en chant Poh J'fais plus d'sport mais j'me suis mis à chanter, j'ai v'-esqui les keufs, l'école et le chantier Poh J'suis différent, j'suis différent, elle et mon casier, y a pas trop d'différences Brr Et elle va t'kiffer parce que tu fais rentrer Brr, elle va t'kiffer pour c'que tu fais rentrer Brr</t>
+          <t>La bague au doigt, tu l'auras pas, salope La bague au doigt, tu l'auras pas, salope, y a la que-ba, obligé de galoper J'me suis cru dans Grand Galop, mets le pocheton dans un paquet d'garos J'me demande ils en pensent quoi les darons, j'suis pas une lumière mais j't'allume sur le taro Poh J'ai beaucoup appris sur le tas, obligé si j'lui mets une pêche, il est K.O K.O J'marche dans la ville et j'suis carbo, dans ma tête, j'suis dans les rues d'Chicago Chi-Chi T'es le jean slim, j'suis le cargo, t'es le string ficell, j'suis la cagoule Chi-Chi Qu'on enfile quand on rntre chez le tamoul, quand j'pêche, le Sheitan mouille Si tu m'croises, tu vas rentrer chez ta mère sans les billets qu'il y avait dans ta fouille Eh Le but, c'était d'trouver du taf ou d'visser tous les fous qui vont au taf En vrai, j'vais trouver du taf où ? J'suis au quartier, j'tire des taffes T'es un bon si t'as pas dit c'que t'as fait Hein, où sont les sous de tes dix que t'as fait ? Tu rappes mais où sont les disques que t'as fait Hein ? Fais deux-cents ventes et on discute après J'suis différent, j'suis différent, premier en sport et pas premier en chant Brr J'fais plus d'sport mais j'me suis mis à chanter, j'ai v'-esqui les keufs, l'école et le chantier Brr J'suis différent, j'suis différent, elle et mon casier, y a pas trop d'différences Et elle va t'kiffer parce que tu fais rentrer Brr, elle va t'kiffer pour c'que tu fais rentrer Brr J'suis différent, j'suis différent, premier en sport et pas premier en chant J'fais plus d'sport mais j'me suis mis à chanter, j'ai v'-esqui les keufs, l'école et le chantier Poh J'suis différent, j'suis différent, elle et mon casier, y a pas trop d'différences Brr Et elle va t'kiffer parce que tu fais rentrer, elle va t'kiffer pour c'que tu fais rentrer Brr Elle suce comme si j'étais un morceau de canne, pas besoin d'aller au festival pour qu'on te canne Envoie le compte, le RIB et la te-car, tu crois qu'tu vas être che-ri mais t'es un tocard Tu crois qu'tu vas être che-ri Coup franc de Beckham Beckham, j'ai enlevé la béquille sur la bécane Bécane Ils ont jamais touché un pétard, ils connaissent les mes-ar grâce à la Play' 4 Pa-pah L'appel d'un ient-cli, c'est l'appel du devoir, l'appel du ient-cli, c'est notre Call of Duty Grr Si t'en as marre d'l'école et de faire tes devoirs, tu fais comme au States, tu prends une Kalash' et tu tires AS Roma, Francesco Totti, Beendo Z, meilleur joueur de la TOTY Tout est dans l'attitude, tu fumes, faut pas titube, j'rentre dans un coffee et j'ressors avec dix tubes J'rentre dans la cabine et j'ressors avec dix tubes, t'as vu, Beendo, il est pas bête, il est têtu J'fais les beaux jours de Spotify et de iTunes, j'l'ai jamais vu mais il fait des sous, dit-il Cash, cash Mon joueur préféré s'appelle Didine, on t'a pas sonné, on t'a pas fait Ding-ding Rien à célébrer, y a pas trop de tchin-tchin, ils ont peur de la mort, ils préfèrent le tchi-tchi J'suis différent, j'suis différent, premier en sport et pas premier en chant Brr J'fais plus d'sport mais j'me suis mis à chanter, j'ai v'-esqui les keufs, l'école et le chantier Brr J'suis différent, j'suis différent, elle et mon casier, y a pas trop d'différences Et elle va t'kiffer parce que tu fais rentrer Brr, elle va t'kiffer pour c'que tu fais rentrer Brr J'suis différent, j'suis différent, premier en sport et pas premier en chant Poh J'fais plus d'sport mais j'me suis mis à chanter, j'ai v'-esqui les keufs, l'école et le chantier Poh J'suis différent, j'suis différent, elle et mon casier, y a pas trop d'différences Brr Et elle va t'kiffer parce que tu fais rentrer Brr, elle va t'kiffer pour c'que tu fais rentrer Brr</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ah Bianca Costa Ah Do Brasil, fai Sous produit, stupéfiant toute l'année, on va chercher largent, on va chercher l'amné' On va chercher largent, on va chercher l'amnésia, chercher l'argent, personne va nous l'amener J'vais pas t'amener au Ritz, tu vas au Bagatelle, j'écoute cette théorie, j'écoute pas la tienne Ah Beaucoup dâmes au ciel, beaucoup dballes à terre Grr, je n'crois pas en la paix, jsuis toujours à la guerre Bianca Beendo, on est posé, phars éteints, en un regard, ils portnt plainte Il veut m'avoir en date, hein mais t'as vu, Bianca, elle est pas bête, hein Ah J'repars en dansant comme Paquetá Ih, tu tinquiétais, t'inquiètes pas Ih J'suis pas l'genre à tter-gra, si j'veux une collec', j'me paye l'intégrale Brr Tu nous fixe Hum, hum, enfoiré, une fois, pas deux Ah Beendo, dis-leurs, quand on sort Sort, ça d'vient dangereux Ah, ah Tu nous fixe Gang, gang, essaye encore Mais Beendo Quand on sort, ça d'vient danger Brr, brr, toujours du Gucci sur mon corps Mais Beendo Ils sont dans la fosse quand on est sur la table, avec une dizaine de bouteilles sur la table Poh, poh Bouteilles sur la table, bouteilles sur la table, Bianca, c'est l'Brésil Gang et Beendo, c'est la CAN Brr Ils sont dans la fosse quand on est sur la table, avec une dizaine de bouteilles sur la table Bouteilles sur la table, bouteilles sur la table, Bianca, c'est l'Brésil et Beendo, c'est la CAN Ah You might also like Bianca, Beendo, Brésil, bingo Bingo, vendeurs de stup', donc il grésille l'bigo Brr Vendeurs de stup', donc on s'réveille plus tôt, on mets le réveil à quatre heures, putain Putain Des fois, j'me fais plaisir mais pas tous l'temps, s'réveiller pour mille-deux cents, c'est insultant Grr S'réveiller pour rien du tout, c'est insultant Oh, c'est comme partager sa meuf, c'est insultant Mais Beendo J'ai fais ma plata, eux, c'est leurs mères qui achètent, t'as vu, lui, il parle mal, pourtant, il m'écoutes en cachette Ih-ih Il est pas prêt, faut qu'il s'entraîne Ah, j'ai pas son niveau, j'ai pas son âge Ah On vise que la renta', donc pour la tendresse, on attendra Tu nous fixe Hum, hum, une fois, pas deux Ah Beendo, dis-leurs, quand on sort, ça d'vient dangereux Ah, ah Tu nous fixe Gang, gang, essaye encore Mais Beendo Quand on sort, ça d'vient danger Brr, brr, toujours du Gucci sur mon corps Mais Beendo Ils sont dans la fosse quand on est sur la table, avec une dizaine de bouteilles sur la table Poh, poh Bouteilles sur la table, bouteilles sur la table, Bianca, c'est l'Brésil Gang et Beendo, c'est la CAN Brr Ils sont dans la fosse quand on est sur la table, avec une dizaine de bouteilles sur la table Bouteilles sur la table, bouteilles sur la table, Bianca, c'est l'Brésil et Beendo, c'est la CAN Ah Ils sont dans la fosse quand on est sur la table, avec une dizaine de bouteilles sur la table Poh, poh Bouteilles sur la table, bouteilles sur la table, Bianca, c'est l'Brésil Gang et Beendo, c'est la CAN Brr Ils sont dans la fosse quand on est sur la table, avec une dizaine de bouteilles sur la table Bouteilles sur la table, bouteilles sur la table, Bianca, c'est l'Brésil et Beendo, c'est la CAN Ah</t>
+          <t>Ah Bianca Costa Ah Do Brasil, fai Sous produit, stupéfiant toute l'année, on va chercher largent, on va chercher l'amné' On va chercher largent, on va chercher l'amnésia, chercher l'argent, personne va nous l'amener J'vais pas t'amener au Ritz, tu vas au Bagatelle, j'écoute cette théorie, j'écoute pas la tienne Ah Beaucoup dâmes au ciel, beaucoup dballes à terre Grr, je n'crois pas en la paix, jsuis toujours à la guerre Bianca Beendo, on est posé, phars éteints, en un regard, ils portnt plainte Il veut m'avoir en date, hein mais t'as vu, Bianca, elle est pas bête, hein Ah J'repars en dansant comme Paquetá Ih, tu tinquiétais, t'inquiètes pas Ih J'suis pas l'genre à tter-gra, si j'veux une collec', j'me paye l'intégrale Brr Tu nous fixe Hum, hum, enfoiré, une fois, pas deux Ah Beendo, dis-leurs, quand on sort Sort, ça d'vient dangereux Ah, ah Tu nous fixe Gang, gang, essaye encore Mais Beendo Quand on sort, ça d'vient danger Brr, brr, toujours du Gucci sur mon corps Mais Beendo Ils sont dans la fosse quand on est sur la table, avec une dizaine de bouteilles sur la table Poh, poh Bouteilles sur la table, bouteilles sur la table, Bianca, c'est l'Brésil Gang et Beendo, c'est la CAN Brr Ils sont dans la fosse quand on est sur la table, avec une dizaine de bouteilles sur la table Bouteilles sur la table, bouteilles sur la table, Bianca, c'est l'Brésil et Beendo, c'est la CAN Ah Bianca, Beendo, Brésil, bingo Bingo, vendeurs de stup', donc il grésille l'bigo Brr Vendeurs de stup', donc on s'réveille plus tôt, on mets le réveil à quatre heures, putain Putain Des fois, j'me fais plaisir mais pas tous l'temps, s'réveiller pour mille-deux cents, c'est insultant Grr S'réveiller pour rien du tout, c'est insultant Oh, c'est comme partager sa meuf, c'est insultant Mais Beendo J'ai fais ma plata, eux, c'est leurs mères qui achètent, t'as vu, lui, il parle mal, pourtant, il m'écoutes en cachette Ih-ih Il est pas prêt, faut qu'il s'entraîne Ah, j'ai pas son niveau, j'ai pas son âge Ah On vise que la renta', donc pour la tendresse, on attendra Tu nous fixe Hum, hum, une fois, pas deux Ah Beendo, dis-leurs, quand on sort, ça d'vient dangereux Ah, ah Tu nous fixe Gang, gang, essaye encore Mais Beendo Quand on sort, ça d'vient danger Brr, brr, toujours du Gucci sur mon corps Mais Beendo Ils sont dans la fosse quand on est sur la table, avec une dizaine de bouteilles sur la table Poh, poh Bouteilles sur la table, bouteilles sur la table, Bianca, c'est l'Brésil Gang et Beendo, c'est la CAN Brr Ils sont dans la fosse quand on est sur la table, avec une dizaine de bouteilles sur la table Bouteilles sur la table, bouteilles sur la table, Bianca, c'est l'Brésil et Beendo, c'est la CAN Ah Ils sont dans la fosse quand on est sur la table, avec une dizaine de bouteilles sur la table Poh, poh Bouteilles sur la table, bouteilles sur la table, Bianca, c'est l'Brésil Gang et Beendo, c'est la CAN Brr Ils sont dans la fosse quand on est sur la table, avec une dizaine de bouteilles sur la table Bouteilles sur la table, bouteilles sur la table, Bianca, c'est l'Brésil et Beendo, c'est la CAN Ah</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Le manque de sous me donne l'appétit, Salpêtrière la Pitié, tu finis là-bas si tu rembourses pas l'liquide T'as cru impressionner une beu-beu d'Paris parce qu'elle t'as appelé Mon bébé, j'parie J'avoue, gentil, j'parais mais j'peux découper ton corps et l'faire disparaitre Le succès c'est comme le soleil, depuis qu'j'ai dis ça, ils disent pareil Nous, on va t'masser, pas à la crème solaire, nous on l'prend, on l'rend pas l'appareil C'est comme ça à Paris, tu sors d'un problèm, y en a d'autres qui réapparaissent L fric, c'est l'ennemi d'la paresse, j'suis l'ennemi des prêtres pédophiles dans les paroisses J'pose même quand la prod', elle fait Bum tcha tcha, en haut, le sheitan, il vient tchacher Le sheitan, il vient direct T'es bizarre, t'hésites entre la mort et l'tchetche, j'vais mourir iconique, un peu comme El Che J'vais mourir super riche, un peu comme Pablo Cash, cash, si t'as des talles, tu plais, même si t'es pas beau Ah-ah Même si j'ai des talles, ils m'voient comme un babouin Rah, si j'te gaze, t'y vois rien comme Laurent Gbagbo Yes, yes, let's go, let's go Toute sa vie, elle a péché, pourquoi cette bitch elle veut un anneau ? Berline, elle est quatre anneaux, j'me sens mieux You might also like</t>
+          <t>Le manque de sous me donne l'appétit, Salpêtrière la Pitié, tu finis là-bas si tu rembourses pas l'liquide T'as cru impressionner une beu-beu d'Paris parce qu'elle t'as appelé Mon bébé, j'parie J'avoue, gentil, j'parais mais j'peux découper ton corps et l'faire disparaitre Le succès c'est comme le soleil, depuis qu'j'ai dis ça, ils disent pareil Nous, on va t'masser, pas à la crème solaire, nous on l'prend, on l'rend pas l'appareil C'est comme ça à Paris, tu sors d'un problèm, y en a d'autres qui réapparaissent L fric, c'est l'ennemi d'la paresse, j'suis l'ennemi des prêtres pédophiles dans les paroisses J'pose même quand la prod', elle fait Bum tcha tcha, en haut, le sheitan, il vient tchacher Le sheitan, il vient direct T'es bizarre, t'hésites entre la mort et l'tchetche, j'vais mourir iconique, un peu comme El Che J'vais mourir super riche, un peu comme Pablo Cash, cash, si t'as des talles, tu plais, même si t'es pas beau Ah-ah Même si j'ai des talles, ils m'voient comme un babouin Rah, si j'te gaze, t'y vois rien comme Laurent Gbagbo Yes, yes, let's go, let's go Toute sa vie, elle a péché, pourquoi cette bitch elle veut un anneau ? Berline, elle est quatre anneaux, j'me sens mieux</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Tes pas le premier tu seras pas le dernier La rue a vu plein de voyou comme toi Jai carotté un petit con sur le bon coin Jai mis le bandana comme à Compton A la fin des comptes je recompte jsuis content Si tu vois quon bouge les épaules cest quon danse Regarde tous les risques quon prend Mais jai trop faim jespère que tu mcomprends Délit de fuite jenlève ma teinture 17 dans l rétro donc je mets ma ceintur Faut mdire si cest nul ou faut mdire si ça tue Comme la beuh qui tenvoie sur Saturne Jfais pas de karaté comme Van Dam Fdp donne moi ton portable On ma arrêté pour vol avec un port darme Les GAV cest insupportable Jai pas tourné la page Jai baisé la fille de mon coach il mfaisait pas jouer Pour arriver au sommet il faut en baver Fuck le 17 on leur lance des pavés La sortie cest sûr pour mon zinc à ry-fleu Ya personne sur la route donc je grille le feu Ça sert à rien de négocier tout est tarifé Tu craches dans le dos que ta meuf a griffé Un cur de Pierre on ma déjà greffer Tu tfais raquetter par un mec en keffieh Jme souviens au lycée javais pas une pièce et Ça ma incité à voler un pc Bavure policière ya déjà assez de décès Jécoute Pantheon jécoute pas ACDC Avant de cher-ra jfais genre jai les lacets défaits On ma fouetté moi jétais pas privé de dessert You might also like Avant de passer à lacte faut pas trop réfléchir Jrap comme à LDN Jme fais carotte mes sous qupar là FDJ Tu tfais raquette par un mec en TN Sale F.D.P, on est plus des gamins Il faut qutenlève ton gant si tu msers la main Jai une ceinture Ferragamo Jsuis dans un putain de fer un putain de gamos Et ya cette éetasse qui veut mfaire un gamin Elle vient dme sucer elle croit jvais la galoche Il me faut le dernier jean Balmain Donc il faut que jremplisse ma sacoche Jsuis modeste comme MBami Me check pas lépaule on est pas ami Cest manger ou être manger Des solutions yen a pas 1000 Jsuis au vert ou jsuis au palmier Les keufs arrivent pas à mattraper Jsuis plutôt endurant et jvais pas lnier En VMA jai fait 20 palier Jsuis au 15eme dans les escaliers Jte nique ta mère si tu veux parier Moi jte nique ta mère sale petit fils de pute Faut toucher du bois pour faire du papier Et si tes pute tes une pute Pas de besoin dun grand frère pour sinterdire des trucs Et si tes pute tes une pute Pas de besoin dun grand frère pour sinterdire des trucs Rajoutes des zéros sur le chiffre, négro La police veux des indices, jpeux jouer sur les côtés igo Mais jpréfère jouer en dix Faut faire partir vite le gérant met la pression Mais ya vla les vils-ci jai limpression Ya plus fort que moi mais personne mimpressionne Quand jdis 1.7, cest pas 1.8 gros cest précis Méfies toi de leau qui dort Dans la ve-ca des los-ki dorment Tu tes fais électrocuter Tas vraiment cru que c'était une torche ? Tu tes mangé un coup de tasser Il faut des sous la putain de ta sur, négro Je veux une liasse entassée Jai pas de bol jen tombe que sur des 'tasses Jvais pas tépargner mon gars jaime pas coffrer Et si jai la capuche je suis pas coiffé Si ya un plan sous jen sais quoi faire Avec les tunes je vais macheter une graine de café Il mfaut la vie dartiste Comme ça je pourrai baiser Astrid Il parle de gue-dro là celui Dans sa sacoche ya même pas un stick Et comme la vie fait pas de cadeau negro Je partage pas ma part du gâteau negro Jétais pas un enfant gâté Si ya des échos ta puce fait la casser Et mercé comme à la Casté Jai mit un but, jai fait une passe d Te fais pas rodav quand tu fais la passe Et si on te propose un tete ne viens pas seul Jvends pas de CC sur le terrain Mais jsuis toujours en ACC sur le terrain Hier elle métait des vus aujourdhui je lai taro Je lui ai mis au fond comme Martínez Lautaro Il faut des sous donc jaugmente le taro Il faut des sous donc je diminue la dose Et cest moi qui visser ta go Je le fais pour largent je le fais pas pour la cause Et je suis pas venu pour te plaire Là je suis venu pour te ken Toujours en survet jai la dégaine Si ils viennent à 7 je prend nimporte lequel Jai fais le tour de la ville Sns Stg et Epinay sur seine Jmen fout de ton avis Jme fais pas che-bran par des ptites pucelles So les impliqués Sur tous les terrains comme Gérard Piqué Ton tel je vais taider à le chercher Même si cest moi qui te la piqué Si jle fais cest pour mhabiller Jpeux ttrouver du teushi et des faux billet Tu pu de la teuch va thabiller Jai compris qupour briller faut prier Faut que jme casse de ce pays Et quand jdonne les ordres faut obéir Côté Sao Polo comme BR Jlai bien baisé elle veut pas jla paye Jsuis pas là pour faire la paix Jveux un appart avenue de la paix La porte ouverte je rentre par la fenêtre Jprends ta play et tout ce qui va avec Écoutes le son dans ta tess Écoutes le son dans ta caisse Écoutes le son dans ta fête Et si taimes pas nique ta mère Jsuis de ceux qui vendent pas de ceux qui vont acheter Au mauvais moment Au mauvais endroit tu tfais couper les couilles demandes à MHD Et cette éetasse elle veut machever Jvois son gros cul qualité HD Là pour brasser pas pour les bracelets Cest moi qui mets les buts et qui fais les passes d Tu mfais rire comme une pute qui renie son passé Jcrois quya une banalisé qui vient de passé Il mfaut 1 million mais cest pas assez Il me faudrait 1 million mais jsais qucest pas assez Jcrois quya une banalisé qui vient de passé Il mfaut 1 million mais cest pas assez Il me faudrait 1 million mais jsais qucest pas assez Bientôt jserai sur scène comme epinay Rahabille toi si tes pas épilé Des coupures de 20 je les ai empilé Ta meuf cest un survêt jlai lenfilé On dirait mon pe-cli cest un vixen Elle voit la gestu elle a envi dken Cest pas du jus de pomme dans la Vittel Jai une boîte auto jpasse pas les vitesses Reprise de Zidane Mes sons se propagent comme le sida Jvais tout prendre aujourdhui cest décidé Jsuis à Château dEau jai pas mon visas Jespère ya pas sans contact sur ta Visa Tu crois jvais te la rendre tema mon visage Tes blanc comme neige tu dis Wallay Bilay Jfais bosser une meuf qui ressemble à Nabila Tas fais tomber ta casquette Gucci Jla mets sur le bon coin parce quelle vaut très chère A lancienne quand jétais petit Yavait pas lentrée, yavait le plat pas le dessert Ya un client qui monte moi je descend Tu sais quon pèse mais mala est légère Jfais du papier de Janvier à décembre Cest pour ça que vos raclis je les gère Déserts les menottes stp Faut pas quils sétonnent On reprend le tiki-taka comme Quique Setíen Mon tel à 1 fait pas quil séteigne Jai pas de crème sur les mains Pour que tu sentes bien la patate Si je be-tom emmenez moi à Alcatraz Jsors un shlass si tes un bonhomme répètes ta phrase Jai pas de crème sur les mains Pour que tu sentes bien la patate Si je be-tom emmenez moi à Alcatraz Jsors un shlass si tes un bonhomme répètes ta phrase</t>
+          <t>Tes pas le premier tu seras pas le dernier La rue a vu plein de voyou comme toi Jai carotté un petit con sur le bon coin Jai mis le bandana comme à Compton A la fin des comptes je recompte jsuis content Si tu vois quon bouge les épaules cest quon danse Regarde tous les risques quon prend Mais jai trop faim jespère que tu mcomprends Délit de fuite jenlève ma teinture 17 dans l rétro donc je mets ma ceintur Faut mdire si cest nul ou faut mdire si ça tue Comme la beuh qui tenvoie sur Saturne Jfais pas de karaté comme Van Dam Fdp donne moi ton portable On ma arrêté pour vol avec un port darme Les GAV cest insupportable Jai pas tourné la page Jai baisé la fille de mon coach il mfaisait pas jouer Pour arriver au sommet il faut en baver Fuck le 17 on leur lance des pavés La sortie cest sûr pour mon zinc à ry-fleu Ya personne sur la route donc je grille le feu Ça sert à rien de négocier tout est tarifé Tu craches dans le dos que ta meuf a griffé Un cur de Pierre on ma déjà greffer Tu tfais raquetter par un mec en keffieh Jme souviens au lycée javais pas une pièce et Ça ma incité à voler un pc Bavure policière ya déjà assez de décès Jécoute Pantheon jécoute pas ACDC Avant de cher-ra jfais genre jai les lacets défaits On ma fouetté moi jétais pas privé de dessert Avant de passer à lacte faut pas trop réfléchir Jrap comme à LDN Jme fais carotte mes sous qupar là FDJ Tu tfais raquette par un mec en TN Sale F.D.P, on est plus des gamins Il faut qutenlève ton gant si tu msers la main Jai une ceinture Ferragamo Jsuis dans un putain de fer un putain de gamos Et ya cette éetasse qui veut mfaire un gamin Elle vient dme sucer elle croit jvais la galoche Il me faut le dernier jean Balmain Donc il faut que jremplisse ma sacoche Jsuis modeste comme MBami Me check pas lépaule on est pas ami Cest manger ou être manger Des solutions yen a pas 1000 Jsuis au vert ou jsuis au palmier Les keufs arrivent pas à mattraper Jsuis plutôt endurant et jvais pas lnier En VMA jai fait 20 palier Jsuis au 15eme dans les escaliers Jte nique ta mère si tu veux parier Moi jte nique ta mère sale petit fils de pute Faut toucher du bois pour faire du papier Et si tes pute tes une pute Pas de besoin dun grand frère pour sinterdire des trucs Et si tes pute tes une pute Pas de besoin dun grand frère pour sinterdire des trucs Rajoutes des zéros sur le chiffre, négro La police veux des indices, jpeux jouer sur les côtés igo Mais jpréfère jouer en dix Faut faire partir vite le gérant met la pression Mais ya vla les vils-ci jai limpression Ya plus fort que moi mais personne mimpressionne Quand jdis 1.7, cest pas 1.8 gros cest précis Méfies toi de leau qui dort Dans la ve-ca des los-ki dorment Tu tes fais électrocuter Tas vraiment cru que c'était une torche ? Tu tes mangé un coup de tasser Il faut des sous la putain de ta sur, négro Je veux une liasse entassée Jai pas de bol jen tombe que sur des 'tasses Jvais pas tépargner mon gars jaime pas coffrer Et si jai la capuche je suis pas coiffé Si ya un plan sous jen sais quoi faire Avec les tunes je vais macheter une graine de café Il mfaut la vie dartiste Comme ça je pourrai baiser Astrid Il parle de gue-dro là celui Dans sa sacoche ya même pas un stick Et comme la vie fait pas de cadeau negro Je partage pas ma part du gâteau negro Jétais pas un enfant gâté Si ya des échos ta puce fait la casser Et mercé comme à la Casté Jai mit un but, jai fait une passe d Te fais pas rodav quand tu fais la passe Et si on te propose un tete ne viens pas seul Jvends pas de CC sur le terrain Mais jsuis toujours en ACC sur le terrain Hier elle métait des vus aujourdhui je lai taro Je lui ai mis au fond comme Martínez Lautaro Il faut des sous donc jaugmente le taro Il faut des sous donc je diminue la dose Et cest moi qui visser ta go Je le fais pour largent je le fais pas pour la cause Et je suis pas venu pour te plaire Là je suis venu pour te ken Toujours en survet jai la dégaine Si ils viennent à 7 je prend nimporte lequel Jai fais le tour de la ville Sns Stg et Epinay sur seine Jmen fout de ton avis Jme fais pas che-bran par des ptites pucelles So les impliqués Sur tous les terrains comme Gérard Piqué Ton tel je vais taider à le chercher Même si cest moi qui te la piqué Si jle fais cest pour mhabiller Jpeux ttrouver du teushi et des faux billet Tu pu de la teuch va thabiller Jai compris qupour briller faut prier Faut que jme casse de ce pays Et quand jdonne les ordres faut obéir Côté Sao Polo comme BR Jlai bien baisé elle veut pas jla paye Jsuis pas là pour faire la paix Jveux un appart avenue de la paix La porte ouverte je rentre par la fenêtre Jprends ta play et tout ce qui va avec Écoutes le son dans ta tess Écoutes le son dans ta caisse Écoutes le son dans ta fête Et si taimes pas nique ta mère Jsuis de ceux qui vendent pas de ceux qui vont acheter Au mauvais moment Au mauvais endroit tu tfais couper les couilles demandes à MHD Et cette éetasse elle veut machever Jvois son gros cul qualité HD Là pour brasser pas pour les bracelets Cest moi qui mets les buts et qui fais les passes d Tu mfais rire comme une pute qui renie son passé Jcrois quya une banalisé qui vient de passé Il mfaut 1 million mais cest pas assez Il me faudrait 1 million mais jsais qucest pas assez Jcrois quya une banalisé qui vient de passé Il mfaut 1 million mais cest pas assez Il me faudrait 1 million mais jsais qucest pas assez Bientôt jserai sur scène comme epinay Rahabille toi si tes pas épilé Des coupures de 20 je les ai empilé Ta meuf cest un survêt jlai lenfilé On dirait mon pe-cli cest un vixen Elle voit la gestu elle a envi dken Cest pas du jus de pomme dans la Vittel Jai une boîte auto jpasse pas les vitesses Reprise de Zidane Mes sons se propagent comme le sida Jvais tout prendre aujourdhui cest décidé Jsuis à Château dEau jai pas mon visas Jespère ya pas sans contact sur ta Visa Tu crois jvais te la rendre tema mon visage Tes blanc comme neige tu dis Wallay Bilay Jfais bosser une meuf qui ressemble à Nabila Tas fais tomber ta casquette Gucci Jla mets sur le bon coin parce quelle vaut très chère A lancienne quand jétais petit Yavait pas lentrée, yavait le plat pas le dessert Ya un client qui monte moi je descend Tu sais quon pèse mais mala est légère Jfais du papier de Janvier à décembre Cest pour ça que vos raclis je les gère Déserts les menottes stp Faut pas quils sétonnent On reprend le tiki-taka comme Quique Setíen Mon tel à 1 fait pas quil séteigne Jai pas de crème sur les mains Pour que tu sentes bien la patate Si je be-tom emmenez moi à Alcatraz Jsors un shlass si tes un bonhomme répètes ta phrase Jai pas de crème sur les mains Pour que tu sentes bien la patate Si je be-tom emmenez moi à Alcatraz Jsors un shlass si tes un bonhomme répètes ta phrase</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>J'ai découpé des galettes avant d'feater avec La Fève, tu crois qu'c'est la fête ? J'vais t'dire c'est laquelle Han, découper des prod', c'est facile à faire J'avoue, il rappe bien, l'frère mais est-ce que c'est vrai tout c'qu'il dit qu'il a fait ? Mais est-ce que c'est vrai tout c'qu'il dit qu'il a vu ? Il est passé où tout l'argent qu'il a fait ? Le shit t'met dans des états pas possibles, j'suis pas Kurt Zouma mais je tape sa pussy Quand y avait pas d'argent, ça poussait, j'te parle pas d'la fonte mais d'c'qui t'fait toussr Je mens si j'dis qu'j'me suis fait tout sul Ouais, j'peux t'racketter la nuit si t'es tout seul Et si t'as tes écouteurs, j'te d'mande de mettre pause avant d't'étouffer Le sage ne parle pas avec les fous Nan mais les fous pensent que le sage lui est fou Ouais J'suis aveugle ou bien c'est l'monde qui est flou ? J'suis une teub ou bien c'est l'monde qui part en couille ? Il pécho sa drogue quand il va en cours, on a l'sens du partage, chaque fois on coupe en deux Beendo, La Fève, c'est vos rappeurs en mieux En mieux, en mieux J'avoue, il rappe bien, l'frère mais est-ce que c'est vrai tout c'qu'il dit qu'il a fait ? Mais est-ce que c'est vrai tout c'qu'il dit qu'il a vu ? Il est passé où tout l'argent qu'il a fait ? Grr Mais est-ce que c'est vrai tout c'qu'il dit qu'il a fait ? Mais est-ce que c'est vrai tout c'qu'il dit qu'il a vu ? Il est passé où tout l'argent qu'il a fait ? Grr Yeah, yeah, est-ce que c'est vrai ou c'est que du bluff ? J'prends ce que tu me dois, j'dis pas S'il-te-plaît Ma le-gu', tu sais, j'suis prêt pour le jour de paie Mmh Yeah, yeah, est-ce que c'est vrai ou c'est que du bluff ? J'prends ce que tu me dois, j'dis pas S'il-te-plaît Yeah Ma le-gu', tu sais, j'suis prêt pour le jour de paie You might also like On arrive, on t'a prévenu, faut qu'tu leur dises Yah, en deuz, fais plus de gouap que deux lers-dea Yes J'grandis, j'crois là, j'suis l'homme de la house De la house, toi, t'es bon qu'à parler derrière l'ordi' J'étais jeune, j'en voulais à la Terre, droite, gauche, crochet, il a fini par terre T'as trahi donc me dis pas À la tienne, t'es en canard mais t'arrives pas à la ken Ken, ken Berrr, gamberge sur une décision à prendre, t'as senti, la saleté qui Viens si t'es dépassée, chérie, je peux t'apprendre Yes J'crois qu'j'suis né avec une envie d'tout prendre, fais que du boucan, c'est pour remplir mon Belly Belly J'sais qu'y a qu'l'euro qui peut m'embellir Yes, poissard, j'crois pas qu'Dieu, il m'a béni Laisse Errr, j'assume les tonneaux, les sorties de route J'sais d'où je viens, j'sais qu'en une heure ou deux, j'traverse la mer et j'suis back in the hood Beendo, La Fève, nouvelle pollution, Kenzo jacket, tu la trouves pas aux puces La santé, c'est qu'un bonus, à trente piges, j'me vois avec 10M ou plus J'avoue, il rappe bien, l'frère mais est-ce que c'est vrai tout c'qu'il dit qu'il a fait ? Mais est-ce que c'est vrai tout c'qu'il dit qu'il a vu ? Il est passé où tout l'argent qu'il a fait ? Grr Mais est-ce que c'est vrai tout c'qu'il dit qu'il a fait ? Mais est-ce que c'est vrai tout c'qu'il dit qu'il a vu ? Il est passé où tout l'argent qu'il a fait ? Grr Yeah, yeah, est-ce que c'est vrai ou c'est que du bluff ? J'prends ce que tu me dois, j'dis pas S'il-te-plaît Ma le-gu', tu sais, j'suis prêt pour le jour de paie Mmh Yeah, yeah, est-ce que c'est vrai ou c'est que du bluff ? J'prends ce que tu me dois, j'dis pas S'il-te-plaît Ma le-gu', tu sais, j'suis prêt pour le jour de paie1</t>
+          <t>J'ai découpé des galettes avant d'feater avec La Fève, tu crois qu'c'est la fête ? J'vais t'dire c'est laquelle Han, découper des prod', c'est facile à faire J'avoue, il rappe bien, l'frère mais est-ce que c'est vrai tout c'qu'il dit qu'il a fait ? Mais est-ce que c'est vrai tout c'qu'il dit qu'il a vu ? Il est passé où tout l'argent qu'il a fait ? Le shit t'met dans des états pas possibles, j'suis pas Kurt Zouma mais je tape sa pussy Quand y avait pas d'argent, ça poussait, j'te parle pas d'la fonte mais d'c'qui t'fait toussr Je mens si j'dis qu'j'me suis fait tout sul Ouais, j'peux t'racketter la nuit si t'es tout seul Et si t'as tes écouteurs, j'te d'mande de mettre pause avant d't'étouffer Le sage ne parle pas avec les fous Nan mais les fous pensent que le sage lui est fou Ouais J'suis aveugle ou bien c'est l'monde qui est flou ? J'suis une teub ou bien c'est l'monde qui part en couille ? Il pécho sa drogue quand il va en cours, on a l'sens du partage, chaque fois on coupe en deux Beendo, La Fève, c'est vos rappeurs en mieux En mieux, en mieux J'avoue, il rappe bien, l'frère mais est-ce que c'est vrai tout c'qu'il dit qu'il a fait ? Mais est-ce que c'est vrai tout c'qu'il dit qu'il a vu ? Il est passé où tout l'argent qu'il a fait ? Grr Mais est-ce que c'est vrai tout c'qu'il dit qu'il a fait ? Mais est-ce que c'est vrai tout c'qu'il dit qu'il a vu ? Il est passé où tout l'argent qu'il a fait ? Grr Yeah, yeah, est-ce que c'est vrai ou c'est que du bluff ? J'prends ce que tu me dois, j'dis pas S'il-te-plaît Ma le-gu', tu sais, j'suis prêt pour le jour de paie Mmh Yeah, yeah, est-ce que c'est vrai ou c'est que du bluff ? J'prends ce que tu me dois, j'dis pas S'il-te-plaît Yeah Ma le-gu', tu sais, j'suis prêt pour le jour de paie On arrive, on t'a prévenu, faut qu'tu leur dises Yah, en deuz, fais plus de gouap que deux lers-dea Yes J'grandis, j'crois là, j'suis l'homme de la house De la house, toi, t'es bon qu'à parler derrière l'ordi' J'étais jeune, j'en voulais à la Terre, droite, gauche, crochet, il a fini par terre T'as trahi donc me dis pas À la tienne, t'es en canard mais t'arrives pas à la ken Ken, ken Berrr, gamberge sur une décision à prendre, t'as senti, la saleté qui Viens si t'es dépassée, chérie, je peux t'apprendre Yes J'crois qu'j'suis né avec une envie d'tout prendre, fais que du boucan, c'est pour remplir mon Belly Belly J'sais qu'y a qu'l'euro qui peut m'embellir Yes, poissard, j'crois pas qu'Dieu, il m'a béni Laisse Errr, j'assume les tonneaux, les sorties de route J'sais d'où je viens, j'sais qu'en une heure ou deux, j'traverse la mer et j'suis back in the hood Beendo, La Fève, nouvelle pollution, Kenzo jacket, tu la trouves pas aux puces La santé, c'est qu'un bonus, à trente piges, j'me vois avec 10M ou plus J'avoue, il rappe bien, l'frère mais est-ce que c'est vrai tout c'qu'il dit qu'il a fait ? Mais est-ce que c'est vrai tout c'qu'il dit qu'il a vu ? Il est passé où tout l'argent qu'il a fait ? Grr Mais est-ce que c'est vrai tout c'qu'il dit qu'il a fait ? Mais est-ce que c'est vrai tout c'qu'il dit qu'il a vu ? Il est passé où tout l'argent qu'il a fait ? Grr Yeah, yeah, est-ce que c'est vrai ou c'est que du bluff ? J'prends ce que tu me dois, j'dis pas S'il-te-plaît Ma le-gu', tu sais, j'suis prêt pour le jour de paie Mmh Yeah, yeah, est-ce que c'est vrai ou c'est que du bluff ? J'prends ce que tu me dois, j'dis pas S'il-te-plaît Ma le-gu', tu sais, j'suis prêt pour le jour de paie1</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Si tu cherches le succès, tu peux toquer à ma porte J'suis descendu du Q7 pour monter dans l'Aventador Pas besoin de sucer l'banquier, y a assez pour un apport T'es rappeurs se sucent entre eux, ils ont trop mal à la gorge Dans l'équipe, j'suis l'plus gentil, derrière moi des assassins J'suis devenu grand, j'suis comme Paris, tu peux demander à Sur un coup d'tête, on monte à 'dam, en RMT, remontada On a les plugs pour prendre la came, tu prends des teums pour qu'elle t'adame On prend des teums pour détaille ça, j'suis dans les ballons, dans les tailles 5 On a l'bras long et l'métal zinc, on en a rien à branler qu't'ai des tas d'sin-c' J'suis pas sous Hennessy, j'suis pas sous absinthe, on prend la place du père quand il est absent La cuillère en argent, on connait pas ça, on connait les menottes, on connait pas ça La cuillère en argent, on connait pas çà, la cuillère en argent, on connait pas ça On connait les menottes, on connait pas ça, on connait les menottes, on connait pas ça La cuillère en argent, on connait pas ça, la cuillère en argent, on connait pas ça On connait les menottes, on connait pas ça, on connait les menottes, on connait pas çaYou might also like</t>
+          <t>Si tu cherches le succès, tu peux toquer à ma porte J'suis descendu du Q7 pour monter dans l'Aventador Pas besoin de sucer l'banquier, y a assez pour un apport T'es rappeurs se sucent entre eux, ils ont trop mal à la gorge Dans l'équipe, j'suis l'plus gentil, derrière moi des assassins J'suis devenu grand, j'suis comme Paris, tu peux demander à Sur un coup d'tête, on monte à 'dam, en RMT, remontada On a les plugs pour prendre la came, tu prends des teums pour qu'elle t'adame On prend des teums pour détaille ça, j'suis dans les ballons, dans les tailles 5 On a l'bras long et l'métal zinc, on en a rien à branler qu't'ai des tas d'sin-c' J'suis pas sous Hennessy, j'suis pas sous absinthe, on prend la place du père quand il est absent La cuillère en argent, on connait pas ça, on connait les menottes, on connait pas ça La cuillère en argent, on connait pas çà, la cuillère en argent, on connait pas ça On connait les menottes, on connait pas ça, on connait les menottes, on connait pas ça La cuillère en argent, on connait pas ça, la cuillère en argent, on connait pas ça On connait les menottes, on connait pas ça, on connait les menottes, on connait pas ça</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Gang, gang Woo-hoo Faut tous les anéantir grrah, ils sont passés devant nous parce qu'on s'est ralenti Ils sont passés devant nous parce qu'on s'est ralenti hey Tu les as cru, ils t'ont bien menti les as cru On assume les conséquences du métier yeah-ier On sort quand même avec un masque avec un masque Quand la BAC tourne faut s'méfier Surtout quand tu sors avec un schlass schlass Faut des 9 milli', des kalash grrah Faut des Cardi B, des Kardash' grrah J'suis dans la gardav', y a la côte, y a l'matelas eh J'sais même pas si c'est l'soir ou si c'est l'matin Beendo Beendo De LaF ah, grrr que elle pense money, ?, dollars gang, gang Dans mon entourage, y a un peu trop d'dollars woo-hoo J'peux pas t'expliquer, c'est beaucoup trop noir On veut faire le bien, on a fait beaucoup trop d'mal On a fait rentrer, on a fait beaucoup trop d'maths yes On a la peau noir, pas la peau mate ok Ils veulent nous voir aller en promenade Ils-, ils veulent nous voir derrière les barreaux Une-, une PCS, bon débarras J'deviens paro', de-devant l'parrain J'ai envie d'les faire, pas envie d'parler parler, parler, parler You might also like Ils sont passés devant nous parce qu'on s'est ralenti Gang, gang Beendo Zarsis A.K.A. Beendo Z, connu pour extorsion et vol à main armée</t>
+          <t>Gang, gang Woo-hoo Faut tous les anéantir grrah, ils sont passés devant nous parce qu'on s'est ralenti Ils sont passés devant nous parce qu'on s'est ralenti hey Tu les as cru, ils t'ont bien menti les as cru On assume les conséquences du métier yeah-ier On sort quand même avec un masque avec un masque Quand la BAC tourne faut s'méfier Surtout quand tu sors avec un schlass schlass Faut des 9 milli', des kalash grrah Faut des Cardi B, des Kardash' grrah J'suis dans la gardav', y a la côte, y a l'matelas eh J'sais même pas si c'est l'soir ou si c'est l'matin Beendo Beendo De LaF ah, grrr que elle pense money, ?, dollars gang, gang Dans mon entourage, y a un peu trop d'dollars woo-hoo J'peux pas t'expliquer, c'est beaucoup trop noir On veut faire le bien, on a fait beaucoup trop d'mal On a fait rentrer, on a fait beaucoup trop d'maths yes On a la peau noir, pas la peau mate ok Ils veulent nous voir aller en promenade Ils-, ils veulent nous voir derrière les barreaux Une-, une PCS, bon débarras J'deviens paro', de-devant l'parrain J'ai envie d'les faire, pas envie d'parler parler, parler, parler Ils sont passés devant nous parce qu'on s'est ralenti Gang, gang Beendo Zarsis A.K.A. Beendo Z, connu pour extorsion et vol à main armée</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>C'qui est dit est dit, c'qui est fait est fait T'as tiré sur l'teu-shi, en dix minutes ça fait l'effet J'ressors du dépôt avec les lacets défaits, j'espère que l'codétenu a pas pris une peine de fou Moi l'avoir vue, elle m'avoir plu, elle m'avoir cru, donc moi l'avoir eue Tire pas trop sur la frappe, tu vas faire un infarctus, j'ai doublé v'là les rappeurs sans passer par la voie d'bus J'fais pas l'ancien, j'rappe à l'ancienne, visser-les plus derrière que l'latéral de Valenciennes Et devant l'OPJ j'te jure que j'ai pas balancé, j'ai pesé mes mots, mais j'te jure que j'ai pas balancé J'ai des vanilles, j'ai un sursis sur la tête, fais belek si elle dit qu'elle est allergique au latex J'ai allumé l'ient-cli, parce qu'il avait trop la deg'z et j'ai pas peur de mourir, parce qu'en vrai j'aime pas trop la Terre On les entend plus pénave quand ça parle en guerre, j'veux pas le monde chico, parce que c'est l'démon à l'envers L'école fait penser à l'enfer, j'préférais être sur l'terrain avec des Mercurial en fer Et si j'pète un gros contrat, elle vient m'sucer la bite Elle m'calculait pas avant, mais la roue tourne, cest la vie Viens pas m'parler d'amour, parce que Beendo se lasse vite, moi j'connais l'tel-hô et si tu viens, tu connais la suiteYou might also like</t>
+          <t>C'qui est dit est dit, c'qui est fait est fait T'as tiré sur l'teu-shi, en dix minutes ça fait l'effet J'ressors du dépôt avec les lacets défaits, j'espère que l'codétenu a pas pris une peine de fou Moi l'avoir vue, elle m'avoir plu, elle m'avoir cru, donc moi l'avoir eue Tire pas trop sur la frappe, tu vas faire un infarctus, j'ai doublé v'là les rappeurs sans passer par la voie d'bus J'fais pas l'ancien, j'rappe à l'ancienne, visser-les plus derrière que l'latéral de Valenciennes Et devant l'OPJ j'te jure que j'ai pas balancé, j'ai pesé mes mots, mais j'te jure que j'ai pas balancé J'ai des vanilles, j'ai un sursis sur la tête, fais belek si elle dit qu'elle est allergique au latex J'ai allumé l'ient-cli, parce qu'il avait trop la deg'z et j'ai pas peur de mourir, parce qu'en vrai j'aime pas trop la Terre On les entend plus pénave quand ça parle en guerre, j'veux pas le monde chico, parce que c'est l'démon à l'envers L'école fait penser à l'enfer, j'préférais être sur l'terrain avec des Mercurial en fer Et si j'pète un gros contrat, elle vient m'sucer la bite Elle m'calculait pas avant, mais la roue tourne, cest la vie Viens pas m'parler d'amour, parce que Beendo se lasse vite, moi j'connais l'tel-hô et si tu viens, tu connais la suite</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>On s'pose pas avec des putes, mais faut quand même dépenser L'argent soigne, mes billets sont des pansements Tu peux m'trouver au studio le week-end ou peut être en semaine Quand j'avais pas je volais tout et je voulais tout garder sans dépenser J'peux pas dire les choses sans les penser, j'peux pas sortir du tel-ho sans la casser On racket on vend, y'a Raphaël Nadal sur la casette La police veut savoir ou est la cachette, tout se vend et tout s'achète Fais belek au paluches mec mets du ruban adhésif sur la gâchette J'suis pas un talent gâché, j'suis pas un rappeur engagé mais quand j'rap j'opère comme un tueur a gage Tu voulais du sale ok I got you Si le succès c'est comme le soleil, j'vais m'acheter le bob a Gradur Même si t'es bonne le shit c'est pas gratuit, même quand il fait beau on peut faire sortir la pluie Et c'est sur si, je fais sauter mon sursis J'vais aller au chtar et l'argent sera le dernier de mes soucis J'avoue j'ai fait des sous sales, j'ai détaillé seul dans le sous-sol La musique c'est bien mais c'est comme l'alcool des fois ça me soule ça Eh Eh Eh La musique c'est bien mais c'est comme l'alcool Eh Eh Beendo Zarzis aka Beendo Z connu pour extorsion et vol a main armé J'vais pas citer la stup car j'veux pas alarmer L'oreille des parents eux ils pensent pas a leurs mères J'ai une séance studio j'arrive pas a l'heure mais j'mets les pendules a l'heure pour montrer qu'jsuis illeurmé Eh On appelle les escortes juste pour soulever leurs mac On défonce les portes juste pour chourrer des mac Quand j'étais dans la merde j'ai pas dis aidez moi Avant d'péter j'ai mis des semaines et des mois A écrire sur une feuille blanche toutes mes idées noires Lionel Messi est blanc mais le vrai messie est noir J'ai bicrave un peu ici et la J'vois les bleu mais c'est pas l'ciel Ils sont bleus, quand ils voient Tu veux du shit on a ça, tu veux dl'a beuh on a ça Ca vient d'où il est chic ton ensemble...You might also like</t>
+          <t>On s'pose pas avec des putes, mais faut quand même dépenser L'argent soigne, mes billets sont des pansements Tu peux m'trouver au studio le week-end ou peut être en semaine Quand j'avais pas je volais tout et je voulais tout garder sans dépenser J'peux pas dire les choses sans les penser, j'peux pas sortir du tel-ho sans la casser On racket on vend, y'a Raphaël Nadal sur la casette La police veut savoir ou est la cachette, tout se vend et tout s'achète Fais belek au paluches mec mets du ruban adhésif sur la gâchette J'suis pas un talent gâché, j'suis pas un rappeur engagé mais quand j'rap j'opère comme un tueur a gage Tu voulais du sale ok I got you Si le succès c'est comme le soleil, j'vais m'acheter le bob a Gradur Même si t'es bonne le shit c'est pas gratuit, même quand il fait beau on peut faire sortir la pluie Et c'est sur si, je fais sauter mon sursis J'vais aller au chtar et l'argent sera le dernier de mes soucis J'avoue j'ai fait des sous sales, j'ai détaillé seul dans le sous-sol La musique c'est bien mais c'est comme l'alcool des fois ça me soule ça Eh Eh Eh La musique c'est bien mais c'est comme l'alcool Eh Eh Beendo Zarzis aka Beendo Z connu pour extorsion et vol a main armé J'vais pas citer la stup car j'veux pas alarmer L'oreille des parents eux ils pensent pas a leurs mères J'ai une séance studio j'arrive pas a l'heure mais j'mets les pendules a l'heure pour montrer qu'jsuis illeurmé Eh On appelle les escortes juste pour soulever leurs mac On défonce les portes juste pour chourrer des mac Quand j'étais dans la merde j'ai pas dis aidez moi Avant d'péter j'ai mis des semaines et des mois A écrire sur une feuille blanche toutes mes idées noires Lionel Messi est blanc mais le vrai messie est noir J'ai bicrave un peu ici et la J'vois les bleu mais c'est pas l'ciel Ils sont bleus, quand ils voient Tu veux du shit on a ça, tu veux dl'a beuh on a ça Ca vient d'où il est chic ton ensemble...</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>T'as vu, j'm'habitue à la garde à vue, l'OPJ a l'seum, il sait comment j'gagne ma vie Il croit que j'barode dans la ville en 4Matic, que j'baise toutes les raclis, même les cadenassées Même les cadenassées Vas-y, vas-y Vas-y Dotinc Les transactions, j'les fais même le dimanche Eh, pour gonfler ma poche, j'ai gonflé l'audimat Wesh Avant d'sortir l'Merco, sortir l'Audi, mec, j'm'assure que nos assiettes soient remplies au dîner J'm'assure qu'en soirée, y a dix meufs, pas dix mecs Hein, le ski, c'est aussi dangereux que la zipette Sale J'enfile mon ensemble, j'remonte le zip pour aller faire autant de sous que possible Quand-quand j'écris, j'suis pas possédé, j'les fais mouiller mais j'suis pas Poséidon Grr Faut une inspi' pour la pochette de CD, faut être mal si un proche est décédé J'arrête de bicrave, ça y est, c'est décidé, faut qu'j'fasse tourner mon son dans toutes les cités J'le fais ni pour la fame, ni pour être félicité Hein, y a peu d'choses bien dans tous les faits qu'j'ai cités Eh T'as vu, j'm'habitue à la garde à vue, l'OPJ a l'seum, il sait comment j'gagne ma vie Eh Il croit que j'barode dans la ville en 4Matic, que j'baise toutes les raclis, même les cadenassées Si on t'fait une finition, c'est qu'on t'a massé Hein, leur punition à eux, c'est d'se faire tabasser Tu t'noies dans les dettes mais tu dis qu't'as brassé Han, même ta racli, elle veut plus t'embrasser Faut-faut rester charismatique Eh, j'l'ai connue hier et elle caresse ma dick Ah Elle s'frotte à moi sur le rythme de la 'sique, elle-elle veut faire de l'électricité statique Y a des terrains où tu bouges, d'autres où t'es statique, pour voir si t'es solide, on te teste un peu Grr Une bonne nouvelle tombe toujours à pic, pour ça qu'dans la Bible, y a certaines règles que j'applique Bouh Mais y a certains pêchés dont j'abuse Ouh, j'cours pas derrière une femme, j'cours pas quand y a l'bus Ouh, ouh J'pine une racli, elle veut qu'j'l'appelle Ma puce, l'argent m'appelle, toi, t'as pas l'num' des mapess' Brr, brr Jamais pour des sous, j'vais retourner ma veste Hein, dans-dans une grosse caisse, j'ai entendu ma voix Les moments durs ont bien testé ma foi, le diable peut t'avoir avec c'que t'aimes avoir Gang En enfer, c'est rouge comme au casino Grr, fais pas l'erreur de t'mettre dans une case, igo Faut fêter ça, j'ai fait partir un kilo, j'vais coffrer ça, j'vais pas acheter un Twingo T'es pas mon frère, t'es pas mon twin, gros, j'peux pas décoffrer pour une petite go' Qui peut même pas s'payer un Citygo Oui, qui a tourné comme à City, gros Manchester City You might also like T'as vu, j'm'habitue à la garde à vue, l'OPJ a l'seum, il sait comment j'gagne ma vie Eh Il croit que j'barode dans la ville en 4Matic, que j'baise toutes les raclis, même les cadenassées Si on t'fait une finition, c'est qu'on t'a massé Hein, leur punition à eux, c'est d'se faire tabasser Tu t'noies dans les dettes mais tu dis qu't'as brassé Han, même ta racli, elle veut plus t'embrasser T'as vu, j'm'habitue à la garde à vue, l'OPJ a l'seum, il sait comment j'gagne ma vie Eh Il croit que j'barode dans la ville en 4Matic, que j'baise toutes les raclis, même les cadenassées Si on t'fait une finition, c'est qu'on t'a massé Hein, leur punition à eux, c'est d'se faire tabasser Tu t'noies dans les dettes mais tu dis qu't'as brassé Han, même ta racli, elle veut plus t'embrasser Beendo Zarsis aka Beendo Z, connu pour extorsion et vols à main armée Moi, j'peux pas aller à l'armée, j'me réveillerai jamais si elle sonne, l'alarme Ah</t>
+          <t>T'as vu, j'm'habitue à la garde à vue, l'OPJ a l'seum, il sait comment j'gagne ma vie Il croit que j'barode dans la ville en 4Matic, que j'baise toutes les raclis, même les cadenassées Même les cadenassées Vas-y, vas-y Vas-y Dotinc Les transactions, j'les fais même le dimanche Eh, pour gonfler ma poche, j'ai gonflé l'audimat Wesh Avant d'sortir l'Merco, sortir l'Audi, mec, j'm'assure que nos assiettes soient remplies au dîner J'm'assure qu'en soirée, y a dix meufs, pas dix mecs Hein, le ski, c'est aussi dangereux que la zipette Sale J'enfile mon ensemble, j'remonte le zip pour aller faire autant de sous que possible Quand-quand j'écris, j'suis pas possédé, j'les fais mouiller mais j'suis pas Poséidon Grr Faut une inspi' pour la pochette de CD, faut être mal si un proche est décédé J'arrête de bicrave, ça y est, c'est décidé, faut qu'j'fasse tourner mon son dans toutes les cités J'le fais ni pour la fame, ni pour être félicité Hein, y a peu d'choses bien dans tous les faits qu'j'ai cités Eh T'as vu, j'm'habitue à la garde à vue, l'OPJ a l'seum, il sait comment j'gagne ma vie Eh Il croit que j'barode dans la ville en 4Matic, que j'baise toutes les raclis, même les cadenassées Si on t'fait une finition, c'est qu'on t'a massé Hein, leur punition à eux, c'est d'se faire tabasser Tu t'noies dans les dettes mais tu dis qu't'as brassé Han, même ta racli, elle veut plus t'embrasser Faut-faut rester charismatique Eh, j'l'ai connue hier et elle caresse ma dick Ah Elle s'frotte à moi sur le rythme de la 'sique, elle-elle veut faire de l'électricité statique Y a des terrains où tu bouges, d'autres où t'es statique, pour voir si t'es solide, on te teste un peu Grr Une bonne nouvelle tombe toujours à pic, pour ça qu'dans la Bible, y a certaines règles que j'applique Bouh Mais y a certains pêchés dont j'abuse Ouh, j'cours pas derrière une femme, j'cours pas quand y a l'bus Ouh, ouh J'pine une racli, elle veut qu'j'l'appelle Ma puce, l'argent m'appelle, toi, t'as pas l'num' des mapess' Brr, brr Jamais pour des sous, j'vais retourner ma veste Hein, dans-dans une grosse caisse, j'ai entendu ma voix Les moments durs ont bien testé ma foi, le diable peut t'avoir avec c'que t'aimes avoir Gang En enfer, c'est rouge comme au casino Grr, fais pas l'erreur de t'mettre dans une case, igo Faut fêter ça, j'ai fait partir un kilo, j'vais coffrer ça, j'vais pas acheter un Twingo T'es pas mon frère, t'es pas mon twin, gros, j'peux pas décoffrer pour une petite go' Qui peut même pas s'payer un Citygo Oui, qui a tourné comme à City, gros Manchester City T'as vu, j'm'habitue à la garde à vue, l'OPJ a l'seum, il sait comment j'gagne ma vie Eh Il croit que j'barode dans la ville en 4Matic, que j'baise toutes les raclis, même les cadenassées Si on t'fait une finition, c'est qu'on t'a massé Hein, leur punition à eux, c'est d'se faire tabasser Tu t'noies dans les dettes mais tu dis qu't'as brassé Han, même ta racli, elle veut plus t'embrasser T'as vu, j'm'habitue à la garde à vue, l'OPJ a l'seum, il sait comment j'gagne ma vie Eh Il croit que j'barode dans la ville en 4Matic, que j'baise toutes les raclis, même les cadenassées Si on t'fait une finition, c'est qu'on t'a massé Hein, leur punition à eux, c'est d'se faire tabasser Tu t'noies dans les dettes mais tu dis qu't'as brassé Han, même ta racli, elle veut plus t'embrasser Beendo Zarsis aka Beendo Z, connu pour extorsion et vols à main armée Moi, j'peux pas aller à l'armée, j'me réveillerai jamais si elle sonne, l'alarme Ah</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>J'fais, jfais plus tour- J'fais plus tourner comme Barça, j'fais tourner comme City Yes, à part ça, personne ma incité Yes Beendo écouté par les mecs d'ta cité Yes, j'suis connu pour être un footeux dans la city Passement d'jambes Bam, coup du foulard, ils savent pas faire des sous solo, ces assistés Me d'mande pas qu'est-ce que j'fous là Fous là, ça s'voit pas qujsuis en train d'vendre du filtré ? Beendo Z et jdécoupe la prod', j'peux rapper sur d'la drill, jpeux rapper sur d'la pop On dirait qu'ça pète, on dirait qu'ça pop, le ient-cli veut s'per-ta s'il a pas eu sa drogue Pah, pah J'peux m'pr-ta si j'ai pas eu ma paye, j'suis jamais sur messagrie quand l'argent m'appelle Brr J'peux m'per-ta si j'ai pas eu ma paye, j'suis jamais sur messagerie quand l'argent m'appelle Beendo J'me repose pas sur mes acquis, y a trop d'fans sur Insta', faut qu'j'reste sur mes appuis Eh, eh Faut pas qu'je ber-tom, faut qu'j'reste sur mes appuis, elle fait la star, j'l'ai supprimé comme une appli' Si j'ai parcouru toute la commune à patte, c'est pour que la fumette endort comme du napalm C'est grave des acteurs, faut leur donner la Palme, là, tu m'fais plus bander, Anderson Pamela Pamela Fans de moi, ils prennent des clichés Beendo, j'suis connu dans tous les fichiers Beendo Sur le mur, ma tête est fichée, l'OPJ fait chier, je sais qu'c'est fichu Garde-à-v', fans de moi, ils prennent des clichés Beendo, j'suis connu dans tous les fichiers Beendo Sur le mur, ma tête est fichée, l'OPJ fait chier, je sais qu'c'est fichu, dépôt Tu bandes toujours, ça sert à rien d'casser ta puce Allô ?, j'voulais t'baiser, j'm'en fous si la soirée t'a plu Sale pu- J'vais jamais snapper la kich' parce que un jour, tu l'as et un jour, tu l'as plus Un dix de moins, c'est un billet en plus, un dix de moins, le ient-cli m'dit À plus J'ai visser un mec qui taffe à Canal, j'peux pas m'faire michetonner par une banale pute J'peux pas m'faire michto par une simple pute Salope, j'suis obligé d'découper quand le sample tue J'tapais que dans l'ballon étant petit Pah, pah, aujourd'hui, j'vois que des ballons dans la pe-stu Pah, pah Dans la perfection, pas dans l'à-peu-près Grr, inspiré d'faits réels, ils sont pas un peu prêts Beendo Te niquer ta mère, là j'suis à propos, j'te salie pour de vrai, moi, j'suis pas pe-pro Beendo You might also like Fans de moi, ils prennent des clichés Beendo, j'suis connu dans tous les fichiers Beendo Sur le mur, ma tête est fichée, l'OPJ fait chier, je sais qu'c'est fichu Garde-à-v', fans de moi, ils prennent des clichés Beendo, j'suis connu dans tous les fichiers C'est chaud Sur le mur, ma tête est fichée, l'OPJ fait chier, je sais qu'c'est fichu, dépôt Tu bandes toujours, ça sert à rien d'casser ta puce, j'voulais t'baiser, j'm'en fous si la soirée t'a plu J'voulais t'baiser, j'm'en fous si la soirée t'a plu Beendo mais Beendo J'vais jamais snapper la kich' parce que un jour, tu l'as et un jour, tu l'as plus Un jour, tu l'as et un jour, tu l'as plus Beendo mais Beendo - Donc tu sais que aujourd'hui, ce que tu fais, c'est juste le début ? - Oui. Je sais qu'tout c'que j'ai fait, c'est juste le début mais après, ça va chauffer</t>
+          <t>J'fais, jfais plus tour- J'fais plus tourner comme Barça, j'fais tourner comme City Yes, à part ça, personne ma incité Yes Beendo écouté par les mecs d'ta cité Yes, j'suis connu pour être un footeux dans la city Passement d'jambes Bam, coup du foulard, ils savent pas faire des sous solo, ces assistés Me d'mande pas qu'est-ce que j'fous là Fous là, ça s'voit pas qujsuis en train d'vendre du filtré ? Beendo Z et jdécoupe la prod', j'peux rapper sur d'la drill, jpeux rapper sur d'la pop On dirait qu'ça pète, on dirait qu'ça pop, le ient-cli veut s'per-ta s'il a pas eu sa drogue Pah, pah J'peux m'pr-ta si j'ai pas eu ma paye, j'suis jamais sur messagrie quand l'argent m'appelle Brr J'peux m'per-ta si j'ai pas eu ma paye, j'suis jamais sur messagerie quand l'argent m'appelle Beendo J'me repose pas sur mes acquis, y a trop d'fans sur Insta', faut qu'j'reste sur mes appuis Eh, eh Faut pas qu'je ber-tom, faut qu'j'reste sur mes appuis, elle fait la star, j'l'ai supprimé comme une appli' Si j'ai parcouru toute la commune à patte, c'est pour que la fumette endort comme du napalm C'est grave des acteurs, faut leur donner la Palme, là, tu m'fais plus bander, Anderson Pamela Pamela Fans de moi, ils prennent des clichés Beendo, j'suis connu dans tous les fichiers Beendo Sur le mur, ma tête est fichée, l'OPJ fait chier, je sais qu'c'est fichu Garde-à-v', fans de moi, ils prennent des clichés Beendo, j'suis connu dans tous les fichiers Beendo Sur le mur, ma tête est fichée, l'OPJ fait chier, je sais qu'c'est fichu, dépôt Tu bandes toujours, ça sert à rien d'casser ta puce Allô ?, j'voulais t'baiser, j'm'en fous si la soirée t'a plu Sale pu- J'vais jamais snapper la kich' parce que un jour, tu l'as et un jour, tu l'as plus Un dix de moins, c'est un billet en plus, un dix de moins, le ient-cli m'dit À plus J'ai visser un mec qui taffe à Canal, j'peux pas m'faire michetonner par une banale pute J'peux pas m'faire michto par une simple pute Salope, j'suis obligé d'découper quand le sample tue J'tapais que dans l'ballon étant petit Pah, pah, aujourd'hui, j'vois que des ballons dans la pe-stu Pah, pah Dans la perfection, pas dans l'à-peu-près Grr, inspiré d'faits réels, ils sont pas un peu prêts Beendo Te niquer ta mère, là j'suis à propos, j'te salie pour de vrai, moi, j'suis pas pe-pro Beendo Fans de moi, ils prennent des clichés Beendo, j'suis connu dans tous les fichiers Beendo Sur le mur, ma tête est fichée, l'OPJ fait chier, je sais qu'c'est fichu Garde-à-v', fans de moi, ils prennent des clichés Beendo, j'suis connu dans tous les fichiers C'est chaud Sur le mur, ma tête est fichée, l'OPJ fait chier, je sais qu'c'est fichu, dépôt Tu bandes toujours, ça sert à rien d'casser ta puce, j'voulais t'baiser, j'm'en fous si la soirée t'a plu J'voulais t'baiser, j'm'en fous si la soirée t'a plu Beendo mais Beendo J'vais jamais snapper la kich' parce que un jour, tu l'as et un jour, tu l'as plus Un jour, tu l'as et un jour, tu l'as plus Beendo mais Beendo - Donc tu sais que aujourd'hui, ce que tu fais, c'est juste le début ? - Oui. Je sais qu'tout c'que j'ai fait, c'est juste le début mais après, ça va chauffer</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SkbBeats J'vois des chats noirs, j'vois des corbeaux Corbeaux, j'vois une femme noire, j'vois un corps beau Beau J'suis pas encore riche, donc j'suis pas encore beau, y a les bleus, j'te parle pas d'un cordon J'remercie mon Dieu de m'avoir donné un don, j'remercie mon pote, il a pas donné un nom Le rap m'a pas changé, j'suis pas étonné, ah non, j'suis désordonné, tu peux pas m'donner un ordre Ma vida, j'fais ça pour ma vida Vida, quitte à finir sur un lit d'hôpital J'suis posé d'puis tout à l'heure, je visser puis, j'taille Puis, j't'aille, quand ça rappelle, j'suis pile à l'heure Pilé à l'heure Et j'mets plus de but que Haller Haller, quand ça rappelle, j'suis pile à l'heure Pile à l'heure Visser la dose et puis, j'taille Puis, j't'aille, yah J'ai donné, j'ai donné mais les gens sont mauvais, ils oublient quand tu donnes Mais j'ai pardonné, pardonné mais je n'oublie pas quand tu changais de te-tê, de veste Quand tu changer J'suis dans un trou noir, igo, faut pas kouma, tu peux t'faire allumer Dis à ta go de pas kouma, on est prêt au coup, man et je l'ai allumé On est très peu dans le cinéma Cinéma, on t'encule d'vant ta go au cinéma Cinéma Ouais, à ces putes, faut pas m'assimiler M'assimiler, faut pas m'assimiler Ouais, j'te souhaite le meilleur, ouais, j'te souhaite la carrière à Neuer, sur le terr'-terr' comme le Bayern J'visser puis, j'taille, hein mais quand ça m'appelle, j'suis pile à l'heure, on met plus de buts que Haller, ah ouais You might also like Ma vida, j'fais ça pour ma vida Vida, quitte à finir sur un lit d'hôpital J'suis posé d'puis tout à l'heure, je visser puis, j'taille Puis, j't'aille, quand ça rappelle, j'suis pile à l'heure Pilé à l'heure Et j'mets plus de but que Haller Haller, quand ça rappelle, j'suis pile à l'heure Pile à l'heure Visser la dose et puis, j'taille J't'aille, j'taille Plus on s'lie, plus on devient bête, puis, on s'écrit plus comme des analphabètes J'suis comme les lettres de l'alphabet, j'les termine tous de A à Z, j'pense à ceux qui n'ont rien, c'est rare que je n'finisse pas lassiette J'vends des bleus et des rouges comme un joueur Crystal Palace et si t'es mon reuf, je t'avance si t'as pas la somme C'est dure de percer dans l'rap si t'as pas lahssa, moi, je n'suis pas dans ça, je n'suis pas d'la sorte J'suis dans un trou noir, igo, faut pas kouma, tu peux t'faire allumer Dis à ta go de pas kouma, on est prêt au coup, man et je l'ai allumé J'suis dans un trou noir, igo, faut pas kouma, tu peux t'faire allumer Dis à ta go de pas kouma, on est prêt au coup, man et je l'ai allumé</t>
+          <t>SkbBeats J'vois des chats noirs, j'vois des corbeaux Corbeaux, j'vois une femme noire, j'vois un corps beau Beau J'suis pas encore riche, donc j'suis pas encore beau, y a les bleus, j'te parle pas d'un cordon J'remercie mon Dieu de m'avoir donné un don, j'remercie mon pote, il a pas donné un nom Le rap m'a pas changé, j'suis pas étonné, ah non, j'suis désordonné, tu peux pas m'donner un ordre Ma vida, j'fais ça pour ma vida Vida, quitte à finir sur un lit d'hôpital J'suis posé d'puis tout à l'heure, je visser puis, j'taille Puis, j't'aille, quand ça rappelle, j'suis pile à l'heure Pilé à l'heure Et j'mets plus de but que Haller Haller, quand ça rappelle, j'suis pile à l'heure Pile à l'heure Visser la dose et puis, j'taille Puis, j't'aille, yah J'ai donné, j'ai donné mais les gens sont mauvais, ils oublient quand tu donnes Mais j'ai pardonné, pardonné mais je n'oublie pas quand tu changais de te-tê, de veste Quand tu changer J'suis dans un trou noir, igo, faut pas kouma, tu peux t'faire allumer Dis à ta go de pas kouma, on est prêt au coup, man et je l'ai allumé On est très peu dans le cinéma Cinéma, on t'encule d'vant ta go au cinéma Cinéma Ouais, à ces putes, faut pas m'assimiler M'assimiler, faut pas m'assimiler Ouais, j'te souhaite le meilleur, ouais, j'te souhaite la carrière à Neuer, sur le terr'-terr' comme le Bayern J'visser puis, j'taille, hein mais quand ça m'appelle, j'suis pile à l'heure, on met plus de buts que Haller, ah ouais Ma vida, j'fais ça pour ma vida Vida, quitte à finir sur un lit d'hôpital J'suis posé d'puis tout à l'heure, je visser puis, j'taille Puis, j't'aille, quand ça rappelle, j'suis pile à l'heure Pilé à l'heure Et j'mets plus de but que Haller Haller, quand ça rappelle, j'suis pile à l'heure Pile à l'heure Visser la dose et puis, j'taille J't'aille, j'taille Plus on s'lie, plus on devient bête, puis, on s'écrit plus comme des analphabètes J'suis comme les lettres de l'alphabet, j'les termine tous de A à Z, j'pense à ceux qui n'ont rien, c'est rare que je n'finisse pas lassiette J'vends des bleus et des rouges comme un joueur Crystal Palace et si t'es mon reuf, je t'avance si t'as pas la somme C'est dure de percer dans l'rap si t'as pas lahssa, moi, je n'suis pas dans ça, je n'suis pas d'la sorte J'suis dans un trou noir, igo, faut pas kouma, tu peux t'faire allumer Dis à ta go de pas kouma, on est prêt au coup, man et je l'ai allumé J'suis dans un trou noir, igo, faut pas kouma, tu peux t'faire allumer Dis à ta go de pas kouma, on est prêt au coup, man et je l'ai allumé</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ah, eh Beendo Eh, Beendo Eh J'suis à deux doigts d'ber-tom, j'prends un avocat sûr Hey, le foot, c'était ma vocation Hey J'sors un couteau, t'as une trace dans l'caleçon Hey, j'reçois des nudes et des convocations Hey J'peux être gentil comme être mauvais garçon, j'ai le sang froid comme un glaçon Ice Tout est noir comme un gale-Sén' Hey, cinq cents cinquant le prix d'la cassette On allume les prix, t'as cru qu'c'était la fête, tu t'es pas mouillé pour moi quand j'étais à sec Viens là Aller dormir au shtar, j'étais à ça, j'ai compris qu'la vie, c'était pas GTA 5 Bah ouais Dans la cllule du dépôt quand j'étais assis, j'broyais tellemnt du noir, j'ai cru qu'j'étais raciste L'objectif, c'est d'faire plus de sous qu'un terrain d'shit Hein, faut qu'j'perce avant la sortie d'GTA 6 Po-poh Le prof faisait l'appel, j'étais noté absent, sur études, j'ai pas mis l'accent On préfère envenimer que crever l'abcès, à force de t'prendre pour un Bloods, tu finis en sang Tu t'prends pour un Crips et tu r'pars avec des bleus, j'bouge pas pour les dix mais j'me déplace pour les bleus Brr, brr Tu t'fous d'ma gueule ou quoi ? Toi, t'es une grosse salope, tu réclames un homme qui est pieu J'la baise et j'disparais comme Houdini, si tu bicraves, j't'inities Zéro perte quand j'ai tenu l'sac, tu m'verras pas mettre des jeans slim J'fais un bénéfice sur une plaque, faut qu'j'me bouche les oreilles quand les djinns sifflent Fuck un insigne et fuck une plaque, faut faire belek, Yaska peut te tchin-tchin J'la baise et j'disparais comme Houdini, si tu bicraves, j't'inities Zéro perte quand j'ai tenu l'sac, tu m'verras pas mettre des jeans slim J'fais un bénéfice sur une plaque, faut qu'j'me bouche les oreilles quand les djinns sifflent Fuck un insigne et fuck une plaque, faut faire belek, Yaska peut te tchin-tchin You might also like Rien n'a changé, toujours ça v'-esqui les bleus, les blancs voient rouge parce que y a trop d'noirs chez les bleus Rien n'a changé, toujours ça v'-esqui les poulets, ta racli fait OnlyFans pour les piller Ah J'utilise pas Google quand j'cherche les billets, en incognito, j'fais des sous dans les dièses En incognito L'ange de gauche et du pe-ra, c'est tout c'qu'on écoute dans les tieks Et ferme ta gueule, toi, on t'a pas sonné, c'est triste parce que pour du papier, elle va s'donner J'crains personne, y a qu'le daron qui m'a bastonné, les rappeurs en carton, il faut les cartonner Mon cur me dit Oui mais l'Seigneur me dit Non, j'ai plus d'temps à perdre avec des midinettes J'suis béni car j'vais plus à la messe le dimanche et mon assiette est toujours remplie au dîner J'la baise et j'disparais comme Houdini, si tu bicraves, j't'inities Zéro perte quand j'ai tenu l'sac, tu m'verras pas mettre des jeans slim J'fais un bénéfice sur une plaque, faut qu'j'me bouche les oreilles quand les djinns sifflent Fuck un insigne et fuck une plaque, faut faire belek, Yaska peut te tchin-tchin J'la baise et j'disparais comme Houdini, si tu bicraves, j't'inities Zéro perte quand j'ai tenu l'sac, tu m'verras pas mettre des jeans slim J'fais un bénéfice sur une plaque, faut qu'j'me bouche les oreilles quand les djinns sifflent Fuck un insigne et fuck une plaque, faut faire belek, Yaska peut te tchin-tchin</t>
+          <t>Ah, eh Beendo Eh, Beendo Eh J'suis à deux doigts d'ber-tom, j'prends un avocat sûr Hey, le foot, c'était ma vocation Hey J'sors un couteau, t'as une trace dans l'caleçon Hey, j'reçois des nudes et des convocations Hey J'peux être gentil comme être mauvais garçon, j'ai le sang froid comme un glaçon Ice Tout est noir comme un gale-Sén' Hey, cinq cents cinquant le prix d'la cassette On allume les prix, t'as cru qu'c'était la fête, tu t'es pas mouillé pour moi quand j'étais à sec Viens là Aller dormir au shtar, j'étais à ça, j'ai compris qu'la vie, c'était pas GTA 5 Bah ouais Dans la cllule du dépôt quand j'étais assis, j'broyais tellemnt du noir, j'ai cru qu'j'étais raciste L'objectif, c'est d'faire plus de sous qu'un terrain d'shit Hein, faut qu'j'perce avant la sortie d'GTA 6 Po-poh Le prof faisait l'appel, j'étais noté absent, sur études, j'ai pas mis l'accent On préfère envenimer que crever l'abcès, à force de t'prendre pour un Bloods, tu finis en sang Tu t'prends pour un Crips et tu r'pars avec des bleus, j'bouge pas pour les dix mais j'me déplace pour les bleus Brr, brr Tu t'fous d'ma gueule ou quoi ? Toi, t'es une grosse salope, tu réclames un homme qui est pieu J'la baise et j'disparais comme Houdini, si tu bicraves, j't'inities Zéro perte quand j'ai tenu l'sac, tu m'verras pas mettre des jeans slim J'fais un bénéfice sur une plaque, faut qu'j'me bouche les oreilles quand les djinns sifflent Fuck un insigne et fuck une plaque, faut faire belek, Yaska peut te tchin-tchin J'la baise et j'disparais comme Houdini, si tu bicraves, j't'inities Zéro perte quand j'ai tenu l'sac, tu m'verras pas mettre des jeans slim J'fais un bénéfice sur une plaque, faut qu'j'me bouche les oreilles quand les djinns sifflent Fuck un insigne et fuck une plaque, faut faire belek, Yaska peut te tchin-tchin Rien n'a changé, toujours ça v'-esqui les bleus, les blancs voient rouge parce que y a trop d'noirs chez les bleus Rien n'a changé, toujours ça v'-esqui les poulets, ta racli fait OnlyFans pour les piller Ah J'utilise pas Google quand j'cherche les billets, en incognito, j'fais des sous dans les dièses En incognito L'ange de gauche et du pe-ra, c'est tout c'qu'on écoute dans les tieks Et ferme ta gueule, toi, on t'a pas sonné, c'est triste parce que pour du papier, elle va s'donner J'crains personne, y a qu'le daron qui m'a bastonné, les rappeurs en carton, il faut les cartonner Mon cur me dit Oui mais l'Seigneur me dit Non, j'ai plus d'temps à perdre avec des midinettes J'suis béni car j'vais plus à la messe le dimanche et mon assiette est toujours remplie au dîner J'la baise et j'disparais comme Houdini, si tu bicraves, j't'inities Zéro perte quand j'ai tenu l'sac, tu m'verras pas mettre des jeans slim J'fais un bénéfice sur une plaque, faut qu'j'me bouche les oreilles quand les djinns sifflent Fuck un insigne et fuck une plaque, faut faire belek, Yaska peut te tchin-tchin J'la baise et j'disparais comme Houdini, si tu bicraves, j't'inities Zéro perte quand j'ai tenu l'sac, tu m'verras pas mettre des jeans slim J'fais un bénéfice sur une plaque, faut qu'j'me bouche les oreilles quand les djinns sifflent Fuck un insigne et fuck une plaque, faut faire belek, Yaska peut te tchin-tchin</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Salut mon vieux, tu m'reconnais ? Écrire un texte, c'est comme détailler, tu déballes la prod' et tu découpes, frère Quand j'avais pas d'argent, j'ai découvert qui était là quand j'étais à découvert On, on mange pas avec les couverts Hein ? et on marche pas avec les kouffars Eh Si tu rentres chez toi et qu'c'est ouvert, jamais d'la vie tu vas retrouver l'coupable Pah Ils s'mettent en couple avant d'avoir coffré et fait des talbins Quand ta meuf te quitte, évidemment qu'tu marches dans la tess, tu cherches des plavons J'la fais, j'la fais bosser à domicile, j'l'accompagne pendant les déplacements J'vais surveiller mes placements, j'rentre dans la surface, j'vais des passements d'jambe 9.5.210 fait les incendies Grr, on a réveillé la ville, je sais qu't'as senti Grr T'écoutes du Beendo dans la tchop, mets ta ceinture, la recharge est pas encore là, faut casse un tour La recharge est pas encore là, faut patienter Pah, quand t'arrives dans les six mètres, il faut pas centrer Eh Ça va jamais passer, gros, lève la tête et fais une passe en retrait Eh J'fais plus de biff qu'une influenceuse, les K sur Insta' influent un peu Tu veux que j'm'éteigne à petit feu mais le retour de flamme peut t'gifler Moi, il m'en faut peu, j'y vais, si t'as une galère ou si t'as un plan Pah Les plus chauds sont les plus givrés, on braque, y a pas d'caméra, c'est pas un prank Pah J'fais plus de biff qu'une influenceuse, les K sur Insta' influent un peu Tu veux que j'm'éteigne à petit feu mais le retour de flamme peut t'gifler Moi, il m'en faut peu, j'y vais, si t'as une galère ou si t'as un plan Les plus chauds sont les plus givrés, on braque, y a pas d'caméra, c'est pas un prank Pah You might also like J'suis BG, j'envie l'visage de personne Personne mais j'envisage de tuer une personne Si il veut doubler ou la jouer perso', j'espère qu'tu sais qu'on naît et qu'on part seul La religion peut être un parasol, il faut qu'on reparte ensemble si on part à six Shoot J'vais demander une babtou en mariage juste pour voir si son père est pas raciste Shoot Un tard-pé, c'est comme le park assist Grr ça recule et ça fait du bruit Grr, pah J'me ferais pas avoir par la barre à mine Nan mais j'vais la scier comme la carabine Carabine J'reçois un DM d'une Karaba Hein ?, sur ses photos, elle fait la kehba C'est sûr, poto, que j'la cala pas, même si elle voulait que j'la colle un peu J'fais plus de biff qu'une influenceuse, les K sur Insta' influent un peu Tu veux que j'm'éteigne à petit feu mais le retour de flamme peut t'gifler Moi, il m'en faut peu, j'y vais, si t'as une galère ou si t'as un plan Les plus chauds sont les plus givrés, on braque, y a pas d'caméra, c'est pas un prank J'fais plus de biff qu'une influenceuse, les K sur Insta' influent un peu Tu veux que j'm'éteigne à petit feu mais le retour de flamme peut t'gifler Moi, il m'en faut peu, j'y vais, si t'as une galère ou si t'as un plan Les plus chauds sont les plus givrés, on braque, y a pas d'caméra, c'est pas un prank Pah</t>
+          <t>Salut mon vieux, tu m'reconnais ? Écrire un texte, c'est comme détailler, tu déballes la prod' et tu découpes, frère Quand j'avais pas d'argent, j'ai découvert qui était là quand j'étais à découvert On, on mange pas avec les couverts Hein ? et on marche pas avec les kouffars Eh Si tu rentres chez toi et qu'c'est ouvert, jamais d'la vie tu vas retrouver l'coupable Pah Ils s'mettent en couple avant d'avoir coffré et fait des talbins Quand ta meuf te quitte, évidemment qu'tu marches dans la tess, tu cherches des plavons J'la fais, j'la fais bosser à domicile, j'l'accompagne pendant les déplacements J'vais surveiller mes placements, j'rentre dans la surface, j'vais des passements d'jambe 9.5.210 fait les incendies Grr, on a réveillé la ville, je sais qu't'as senti Grr T'écoutes du Beendo dans la tchop, mets ta ceinture, la recharge est pas encore là, faut casse un tour La recharge est pas encore là, faut patienter Pah, quand t'arrives dans les six mètres, il faut pas centrer Eh Ça va jamais passer, gros, lève la tête et fais une passe en retrait Eh J'fais plus de biff qu'une influenceuse, les K sur Insta' influent un peu Tu veux que j'm'éteigne à petit feu mais le retour de flamme peut t'gifler Moi, il m'en faut peu, j'y vais, si t'as une galère ou si t'as un plan Pah Les plus chauds sont les plus givrés, on braque, y a pas d'caméra, c'est pas un prank Pah J'fais plus de biff qu'une influenceuse, les K sur Insta' influent un peu Tu veux que j'm'éteigne à petit feu mais le retour de flamme peut t'gifler Moi, il m'en faut peu, j'y vais, si t'as une galère ou si t'as un plan Les plus chauds sont les plus givrés, on braque, y a pas d'caméra, c'est pas un prank Pah J'suis BG, j'envie l'visage de personne Personne mais j'envisage de tuer une personne Si il veut doubler ou la jouer perso', j'espère qu'tu sais qu'on naît et qu'on part seul La religion peut être un parasol, il faut qu'on reparte ensemble si on part à six Shoot J'vais demander une babtou en mariage juste pour voir si son père est pas raciste Shoot Un tard-pé, c'est comme le park assist Grr ça recule et ça fait du bruit Grr, pah J'me ferais pas avoir par la barre à mine Nan mais j'vais la scier comme la carabine Carabine J'reçois un DM d'une Karaba Hein ?, sur ses photos, elle fait la kehba C'est sûr, poto, que j'la cala pas, même si elle voulait que j'la colle un peu J'fais plus de biff qu'une influenceuse, les K sur Insta' influent un peu Tu veux que j'm'éteigne à petit feu mais le retour de flamme peut t'gifler Moi, il m'en faut peu, j'y vais, si t'as une galère ou si t'as un plan Les plus chauds sont les plus givrés, on braque, y a pas d'caméra, c'est pas un prank J'fais plus de biff qu'une influenceuse, les K sur Insta' influent un peu Tu veux que j'm'éteigne à petit feu mais le retour de flamme peut t'gifler Moi, il m'en faut peu, j'y vais, si t'as une galère ou si t'as un plan Les plus chauds sont les plus givrés, on braque, y a pas d'caméra, c'est pas un prank Pah</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>95210 on fait des incendies J't'arrange pas ça va sans dire Sauf si tu m'ramène des ienclis Sauf si tu m'ramène des bon clics J'suis dans la vente mais j'ai pas l'CAP Devant l'OPJ je dis que j'sais ap Elle a vu que j'sais rapper elle veut croquer ma bite comme la pomme de apple J'suis d'ceux qui font les sous pas un Di Caprio J'rentre dans la fête sans la tenue appropriée Si ça marche pour moi c'est parceque j'ai trop prié J'les ai froissé l'instru je l'ai plié J'vissère avant d'allr au foot J'arrive en retard j'n ai rien à foutre Il faut que j'remplisse ma sacoche J'la vissère bien c'est pour ça qu'elle s'accroche J'vois qu'il y'a une banalisée qui s'approche Et la j'fais ma tête d'innocent On a pas grandi ensemble J'sais pas pourquoi tu dis Le sang Apprend à faire des sous pas besoin de 10 leçons Je deal la journée et je deal le soir J'ai pas grandi dans la soie Jpeux te planter même si j'ai la foie Ils sont fou ils savent pas rimer Donne moi mes sous j'suis pressé j'viens d'Paris mec Aujourd'hui j'reçois des prods par email Et j'reçois des nude par Imen Ici c'est réel on fait pas semblant J'traffic la stup et jfais pas semblant T'inquiète que d'ici j'ai un plan Ienclis me demande si j'ai du blanc Et comme il vient souvent j'lui rajoute un demi J'suis à l'hôtel avec une 2000 Et toi tu trouve ça débile Mais si j'fais des ar c'est parceque ca débite Elle veut plus mparler bon débarras J'vais jamais t'appeler ma puce J'en ai déjà une qui s'appelle Lebara J'fais pas d'cinéma comme Canal Donc le premier 10 il est gratis pour fidéliser la clientèle Les 20 j'les fait à 10 dans l'pochtar j'ai glissé mon snap et mon tel Mais j'aurai pas assez pour l'avenue Montaigne Alors faut q'j'essaye de soigner mon texte Si j'te descend ton âme elle va monter Ils font les sourd alors faut leurs montrer Pourquoi elle fait la meuf en place J'l'ai ken c'est vrais oui mais sans plus On dit q'l'argent n'a pas d'odeur C'est vrais quand j'ai une kichta j'me sent plus Et comme la vie ne fait pas d'cadeau J'suis sur le terrain comme Cr7 T'es sûr le terrain comme Lucas Deaux Ma bite dans ta che-bou comme un Mikado Il faut des sous donc j'augmente les tarots Il faut des sous donc je diminue la dose Et c'est moi qui péta ta go J'le fais pour le sexe mais elle veut que j'me pose J'vois un ien-cli dans l'intervalle Donc j'fais la passe avant qules keufs interviennent Ils font les fous donc faut les interner C'est des bandeurs de rue qui par sur internet Et j'vais pas t'mytho j'peux t'offrir la lune C'est paradoxal pour t'éteindre on t'allume Pour atténuer l'odeur je mets le shit dans l'alu Quand j'fais des bouts à 1 j'avoue q'j'suis dans l'abus J'dois trouver lmoyen de sortir un album Pendant que ces négros veulent trouver la bonne Si Ève avait pas croquer dans la pomme j'aurai pas eu à découper la prodYou might also like</t>
+          <t>95210 on fait des incendies J't'arrange pas ça va sans dire Sauf si tu m'ramène des ienclis Sauf si tu m'ramène des bon clics J'suis dans la vente mais j'ai pas l'CAP Devant l'OPJ je dis que j'sais ap Elle a vu que j'sais rapper elle veut croquer ma bite comme la pomme de apple J'suis d'ceux qui font les sous pas un Di Caprio J'rentre dans la fête sans la tenue appropriée Si ça marche pour moi c'est parceque j'ai trop prié J'les ai froissé l'instru je l'ai plié J'vissère avant d'allr au foot J'arrive en retard j'n ai rien à foutre Il faut que j'remplisse ma sacoche J'la vissère bien c'est pour ça qu'elle s'accroche J'vois qu'il y'a une banalisée qui s'approche Et la j'fais ma tête d'innocent On a pas grandi ensemble J'sais pas pourquoi tu dis Le sang Apprend à faire des sous pas besoin de 10 leçons Je deal la journée et je deal le soir J'ai pas grandi dans la soie Jpeux te planter même si j'ai la foie Ils sont fou ils savent pas rimer Donne moi mes sous j'suis pressé j'viens d'Paris mec Aujourd'hui j'reçois des prods par email Et j'reçois des nude par Imen Ici c'est réel on fait pas semblant J'traffic la stup et jfais pas semblant T'inquiète que d'ici j'ai un plan Ienclis me demande si j'ai du blanc Et comme il vient souvent j'lui rajoute un demi J'suis à l'hôtel avec une 2000 Et toi tu trouve ça débile Mais si j'fais des ar c'est parceque ca débite Elle veut plus mparler bon débarras J'vais jamais t'appeler ma puce J'en ai déjà une qui s'appelle Lebara J'fais pas d'cinéma comme Canal Donc le premier 10 il est gratis pour fidéliser la clientèle Les 20 j'les fait à 10 dans l'pochtar j'ai glissé mon snap et mon tel Mais j'aurai pas assez pour l'avenue Montaigne Alors faut q'j'essaye de soigner mon texte Si j'te descend ton âme elle va monter Ils font les sourd alors faut leurs montrer Pourquoi elle fait la meuf en place J'l'ai ken c'est vrais oui mais sans plus On dit q'l'argent n'a pas d'odeur C'est vrais quand j'ai une kichta j'me sent plus Et comme la vie ne fait pas d'cadeau J'suis sur le terrain comme Cr7 T'es sûr le terrain comme Lucas Deaux Ma bite dans ta che-bou comme un Mikado Il faut des sous donc j'augmente les tarots Il faut des sous donc je diminue la dose Et c'est moi qui péta ta go J'le fais pour le sexe mais elle veut que j'me pose J'vois un ien-cli dans l'intervalle Donc j'fais la passe avant qules keufs interviennent Ils font les fous donc faut les interner C'est des bandeurs de rue qui par sur internet Et j'vais pas t'mytho j'peux t'offrir la lune C'est paradoxal pour t'éteindre on t'allume Pour atténuer l'odeur je mets le shit dans l'alu Quand j'fais des bouts à 1 j'avoue q'j'suis dans l'abus J'dois trouver lmoyen de sortir un album Pendant que ces négros veulent trouver la bonne Si Ève avait pas croquer dans la pomme j'aurai pas eu à découper la prod</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cartier Ma vie, j'la vois comme dans les films, des storys dignes de Netflix J'me fais déférer au dépôt d'Créteil, y a Pas Bête qui passe dans la voiture des flics J'ai vu qu'l'être humain tenait à la vie quand on a commencé à m'refuser des feat' Jamais je mets de ketchup sur mes frites, mais j'peux t'mettre du ketchup si j'te mets des patates Quatre-vingt plus quinze, j'suis branché à Paname, tu m'vois pas dans les soirées branchées à Paname À part ça, rien n'a changé sauf le maillot du Barça, ah oui et Toto a enlevé son bracelet J'suis pas très fort à la nage mais j'ai brassé, tu crois qu'ils sortaient d'où les sous que j't'ai passé ? Hein, elle sort d'la chambre si elle montre ses ein-s, j'peux t'faire deux sons par séance Beendo Zarsis, aka Beendo Z, connue pour extorsion et vols à mains armée Moi j'peux pas aller à l'armée, j'me réveillerai jamais si elle sonne l'alarme Le vase peut débordé à cause de la larme, si t'as une pote à toi, oui, tu peux l'a ramené Ils font semblant d't'aider, ils t'apprennent à ramé, ils s'font remarquée comme la moustache à Rami On peut t'envoyer une racli pour te charmer, dès qu'elle donne le go, c'est fini, t'es d'jà charclé J'ai brisé des portes parce que j'avais pas la clé, les keufs aiment me courser mais moi, j'aime pas l'athlé' J'rappe pas normalement mais j'peux faire des classiques ou j'peux t'mettre une patate dans tes sunglasses Eux, c'est des sorciers, ils boivent du sang glacé Si c'est légal, j'fais pas, j'ai pas du sang Galsen Eh Vas-y, augmente Eh On peut parler ensemble, rigoler mais on peut pas rapper ensemble J'rentre dans la te-boî avec un ensemble, tu connais, les raclis sont déjà en sang Quand ça pull up, l'ennemi est déjà en sang, t'as même pas percé, tu fais déjà l'ancien Personne ne m'arrête quand j'suis déjà lancé mais j'ai la haine quand je fais une G.À.V en s'maine, s'maine, semaine Comme au futsal, j'écrase avec la semelle, comme en Premier League, j'ai sorti l'arsenal Comme un bosseur, j'ai sorti la The North, juste parce que j'fais des assonances Elle eut goûter ma bite, goûter ma semence, juste parce que j'fais des assonances Elle veut goûter ma bite, goûter ma semence Beendo, Beendo toujours dans l'haut du tableau On dit de lui qu'il est très redoutable, j'en ai fais de la route à pied mais j'suis toujours à l'heure pour te livrer ta beuh Ta meuf n'est pas véritable, elle te dit des vérités pas vérifiable Ah Beendo de la Fontaine, c'est pas des fables, c'est pas Avatar, c'est pas les femmes bleus J'assumais toutes les fins de mois, ces bâtards de condés avaient faim d'moi Tu vas en G.À.V parce que t'as fais un doigt, c'est cette vie là, igo, t'as fait un choix Me casse pas les couilles, quand t'as finit un sheu', j'avoue j'suis plus trop dans la street On a les mêmes consoles, pas les mêmes jeux, j'me tape une avocate et une journaliste J'prends des PCS chez le buraliste, pour les frérots au shtar, y en a plein sur la liste J'y tiens, donc je jure pas sur ma vie, j'fais c'que j'peux pour mettre les miens à l'abri Le salaire de Sané, le salaire de Gnabry, le salaire d'un joueur du Real de Madrid J'compte sur ma te-tê et sur ma Bible pour avoir l'ancien salaire de Habib Beye On fait pas affaire avec les pipelettes, on les écrase comme les p'tites bêtes Ils rappent encore sur les type beat, INSPIRÉ DE FAITS RÉELS, c'est pas pour les tipère On fait pas affaire avec les pipelettes, on les écrase comme les p'tites bêtes Ils rappent encore sur les type beat, INSPIRÉ DE FAITS RÉELS, c'est pas pour les tipère Baw Beendo Zarsis, aka Beendo Z, connue pour histoires sombres et vols armées Eh T'as vu, j'm'habitue à la garde-à-vue L'OPJ a l'seum il sait comment j'gagne ma vie Beendo BeendoYou might also like</t>
+          <t>Cartier Ma vie, j'la vois comme dans les films, des storys dignes de Netflix J'me fais déférer au dépôt d'Créteil, y a Pas Bête qui passe dans la voiture des flics J'ai vu qu'l'être humain tenait à la vie quand on a commencé à m'refuser des feat' Jamais je mets de ketchup sur mes frites, mais j'peux t'mettre du ketchup si j'te mets des patates Quatre-vingt plus quinze, j'suis branché à Paname, tu m'vois pas dans les soirées branchées à Paname À part ça, rien n'a changé sauf le maillot du Barça, ah oui et Toto a enlevé son bracelet J'suis pas très fort à la nage mais j'ai brassé, tu crois qu'ils sortaient d'où les sous que j't'ai passé ? Hein, elle sort d'la chambre si elle montre ses ein-s, j'peux t'faire deux sons par séance Beendo Zarsis, aka Beendo Z, connue pour extorsion et vols à mains armée Moi j'peux pas aller à l'armée, j'me réveillerai jamais si elle sonne l'alarme Le vase peut débordé à cause de la larme, si t'as une pote à toi, oui, tu peux l'a ramené Ils font semblant d't'aider, ils t'apprennent à ramé, ils s'font remarquée comme la moustache à Rami On peut t'envoyer une racli pour te charmer, dès qu'elle donne le go, c'est fini, t'es d'jà charclé J'ai brisé des portes parce que j'avais pas la clé, les keufs aiment me courser mais moi, j'aime pas l'athlé' J'rappe pas normalement mais j'peux faire des classiques ou j'peux t'mettre une patate dans tes sunglasses Eux, c'est des sorciers, ils boivent du sang glacé Si c'est légal, j'fais pas, j'ai pas du sang Galsen Eh Vas-y, augmente Eh On peut parler ensemble, rigoler mais on peut pas rapper ensemble J'rentre dans la te-boî avec un ensemble, tu connais, les raclis sont déjà en sang Quand ça pull up, l'ennemi est déjà en sang, t'as même pas percé, tu fais déjà l'ancien Personne ne m'arrête quand j'suis déjà lancé mais j'ai la haine quand je fais une G.À.V en s'maine, s'maine, semaine Comme au futsal, j'écrase avec la semelle, comme en Premier League, j'ai sorti l'arsenal Comme un bosseur, j'ai sorti la The North, juste parce que j'fais des assonances Elle eut goûter ma bite, goûter ma semence, juste parce que j'fais des assonances Elle veut goûter ma bite, goûter ma semence Beendo, Beendo toujours dans l'haut du tableau On dit de lui qu'il est très redoutable, j'en ai fais de la route à pied mais j'suis toujours à l'heure pour te livrer ta beuh Ta meuf n'est pas véritable, elle te dit des vérités pas vérifiable Ah Beendo de la Fontaine, c'est pas des fables, c'est pas Avatar, c'est pas les femmes bleus J'assumais toutes les fins de mois, ces bâtards de condés avaient faim d'moi Tu vas en G.À.V parce que t'as fais un doigt, c'est cette vie là, igo, t'as fait un choix Me casse pas les couilles, quand t'as finit un sheu', j'avoue j'suis plus trop dans la street On a les mêmes consoles, pas les mêmes jeux, j'me tape une avocate et une journaliste J'prends des PCS chez le buraliste, pour les frérots au shtar, y en a plein sur la liste J'y tiens, donc je jure pas sur ma vie, j'fais c'que j'peux pour mettre les miens à l'abri Le salaire de Sané, le salaire de Gnabry, le salaire d'un joueur du Real de Madrid J'compte sur ma te-tê et sur ma Bible pour avoir l'ancien salaire de Habib Beye On fait pas affaire avec les pipelettes, on les écrase comme les p'tites bêtes Ils rappent encore sur les type beat, INSPIRÉ DE FAITS RÉELS, c'est pas pour les tipère On fait pas affaire avec les pipelettes, on les écrase comme les p'tites bêtes Ils rappent encore sur les type beat, INSPIRÉ DE FAITS RÉELS, c'est pas pour les tipère Baw Beendo Zarsis, aka Beendo Z, connue pour histoires sombres et vols armées Eh T'as vu, j'm'habitue à la garde-à-vue L'OPJ a l'seum il sait comment j'gagne ma vie Beendo Beendo</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Beendo Zarsis aka Beendo Z Poh, poh, connu pour extorsion et vol à main armée Pour ma sécu', j'ai pris un fer comme à l'armée et au comico, j'ai appris à la fermer Fermer Gang, gang Il faut de l'or et des lingots Lingots, v-'esqui les noirs et le Berlingo Noir Y a qu'un pote ou une pute qui peut m'donner un go, tu veux savoir où j'suis, tu veux des infos Des infos ? J'peux pas m'arrêter comme une nympho Nympho, pour ça qu'le casier n'est pas vierges Juste pour info' Gang, j'suis un vrai, ils m'ont pris pour un fou, ils m'ont pris pour un faux Be-Beendo Zarsis aka Beendo Z, connu pour extorsion et vol à main armée Pour ma sécu', j'ai pris un fer comme à l'armée et au comico, j'ai appris à la fermer J'ai vendu d'la beuh mais je n'suis pas fermier, tu rappes bien mais tu peux pas faire mieux Faire mieux Inspiré d'faits réels Réels, j'peux tous les allumer les yeux fermés Des diamants sur la montre car le temps est précieux, tout vient au bon moment, le destin est précis Gang Quand il voit les keufs, le guetteur est pressé, fuck, fuck le 17, les poulets braisées Po-po-poh Tout-tout l'monde veut dev'nir quelqu'un Tout mais c'est pas donné à n'importe qui J'fais un leasing, j'mets un apport Apport, le concessionnaire me rapporte les clés Les clés Brr, eh You might also like Le single d'or est chez ma mère Hein, ma mère, le platine, chez mon père Chez moi, y a R R, j'ai pas encore tout gagné mais j'ai plus rien à perdre Bouh, bouh Mon talent parle pour moi Shoo, donc j'ai plus rien à dire J'ai plus rien à perdre Donc j'ai plus rien à prouver Plus rien à prouver, donc, donc j'ai plus rien à faire Plus rien rien à faire C'que tu fais, on va t'faire, donc j'relativise quand on m'vole des affaires Grr C'est une course de fond, c'est pas un cent mètres, j'attendrai même dix ans avant d'te la mettre Quand la guerre s'ra finie, on ira voir la mer Eh, si ton quartier saute pas pour toi quand c'est la merde Ça veut dire qu'un pote et une putain, c'est la même, j'ai toujours compté seul le butin des lamelles Bouh, bouh Ils font les voyous dans leurs belles maisons Gang, ma vie, c'est comme un film de Luc Besson Gang Ou une série, là, c'est une nouvelle saison, quand on m'perquis' chez moi, y a pas d'belle saisie Inspiré, inspiré, inspiré d'faits réels six Six dans ta mère Ta mère Faut des sous pour faire la guerre, j'ai branché tout l'IDF pour avoir ta tête Ta tête J'peux pas trouver mon bonheur sur les Champs, j'suis jamais en jeans, j'rentre pas dans les restau' Restau' Mais j'suis dans l'RS3 RS3, tant qu'j'ai ça, bats les couilles du reste Je respecte ceux qui m'ont donné du respect, balle dans la jambe, t'aurais pu y rester Y rester Déballe la 'quette et puis, respire Brr, ça sent les pépètes, ça sent le ness-bi' Eh Tu veux quoi ? On a tout c'qui peut t'mettre en esprit, tu veux quoi ? On a même la drogue de Britney Spears Hein, hein Y a une patrouille de keufs, on a mis une esquive, on a tourné à gauche, on a croisé des civ' Yeah Ils veulent tous me voir sur civière, aujourd'hui, mes darons sont si fiers J'ouvre pas ma boca, j'suis prêt à m'sacrifier Po-poh, toi et la police, à c'qui p', ça a featé Beendo Beendo, B double E, j'mécoutes à fond dans l'BMW Gang Ces négros, ils veulent nous bluffé, ils prennent des bites dans l', ils mènent une double vie Eh Moi, mon salaire, j'l'ai doublé vite fait, beuh, shit, je touche pas la zipette Les temps changent mais on a pas d'mal à s'y faire, tout l'monde s'arrête de joué quand la balle à sifflé Beendo Beendo, B double E, j'mécoutes à fond dans l'BMW Gang Ces négros, ils veulent nous bluffé, ils prennent des bites dans l', ils mènent une double vie Eh Moi, mon salaire, j'l'ai doublé vite fait, beuh, shit, je touche pas la zipette Les temps changent mais on a pas d'mal à s'y faire, tout l'monde s'arrête de joué quand la balle à sifflé Sifflé</t>
+          <t>Beendo Zarsis aka Beendo Z Poh, poh, connu pour extorsion et vol à main armée Pour ma sécu', j'ai pris un fer comme à l'armée et au comico, j'ai appris à la fermer Fermer Gang, gang Il faut de l'or et des lingots Lingots, v-'esqui les noirs et le Berlingo Noir Y a qu'un pote ou une pute qui peut m'donner un go, tu veux savoir où j'suis, tu veux des infos Des infos ? J'peux pas m'arrêter comme une nympho Nympho, pour ça qu'le casier n'est pas vierges Juste pour info' Gang, j'suis un vrai, ils m'ont pris pour un fou, ils m'ont pris pour un faux Be-Beendo Zarsis aka Beendo Z, connu pour extorsion et vol à main armée Pour ma sécu', j'ai pris un fer comme à l'armée et au comico, j'ai appris à la fermer J'ai vendu d'la beuh mais je n'suis pas fermier, tu rappes bien mais tu peux pas faire mieux Faire mieux Inspiré d'faits réels Réels, j'peux tous les allumer les yeux fermés Des diamants sur la montre car le temps est précieux, tout vient au bon moment, le destin est précis Gang Quand il voit les keufs, le guetteur est pressé, fuck, fuck le 17, les poulets braisées Po-po-poh Tout-tout l'monde veut dev'nir quelqu'un Tout mais c'est pas donné à n'importe qui J'fais un leasing, j'mets un apport Apport, le concessionnaire me rapporte les clés Les clés Brr, eh Le single d'or est chez ma mère Hein, ma mère, le platine, chez mon père Chez moi, y a R R, j'ai pas encore tout gagné mais j'ai plus rien à perdre Bouh, bouh Mon talent parle pour moi Shoo, donc j'ai plus rien à dire J'ai plus rien à perdre Donc j'ai plus rien à prouver Plus rien à prouver, donc, donc j'ai plus rien à faire Plus rien rien à faire C'que tu fais, on va t'faire, donc j'relativise quand on m'vole des affaires Grr C'est une course de fond, c'est pas un cent mètres, j'attendrai même dix ans avant d'te la mettre Quand la guerre s'ra finie, on ira voir la mer Eh, si ton quartier saute pas pour toi quand c'est la merde Ça veut dire qu'un pote et une putain, c'est la même, j'ai toujours compté seul le butin des lamelles Bouh, bouh Ils font les voyous dans leurs belles maisons Gang, ma vie, c'est comme un film de Luc Besson Gang Ou une série, là, c'est une nouvelle saison, quand on m'perquis' chez moi, y a pas d'belle saisie Inspiré, inspiré, inspiré d'faits réels six Six dans ta mère Ta mère Faut des sous pour faire la guerre, j'ai branché tout l'IDF pour avoir ta tête Ta tête J'peux pas trouver mon bonheur sur les Champs, j'suis jamais en jeans, j'rentre pas dans les restau' Restau' Mais j'suis dans l'RS3 RS3, tant qu'j'ai ça, bats les couilles du reste Je respecte ceux qui m'ont donné du respect, balle dans la jambe, t'aurais pu y rester Y rester Déballe la 'quette et puis, respire Brr, ça sent les pépètes, ça sent le ness-bi' Eh Tu veux quoi ? On a tout c'qui peut t'mettre en esprit, tu veux quoi ? On a même la drogue de Britney Spears Hein, hein Y a une patrouille de keufs, on a mis une esquive, on a tourné à gauche, on a croisé des civ' Yeah Ils veulent tous me voir sur civière, aujourd'hui, mes darons sont si fiers J'ouvre pas ma boca, j'suis prêt à m'sacrifier Po-poh, toi et la police, à c'qui p', ça a featé Beendo Beendo, B double E, j'mécoutes à fond dans l'BMW Gang Ces négros, ils veulent nous bluffé, ils prennent des bites dans l', ils mènent une double vie Eh Moi, mon salaire, j'l'ai doublé vite fait, beuh, shit, je touche pas la zipette Les temps changent mais on a pas d'mal à s'y faire, tout l'monde s'arrête de joué quand la balle à sifflé Beendo Beendo, B double E, j'mécoutes à fond dans l'BMW Gang Ces négros, ils veulent nous bluffé, ils prennent des bites dans l', ils mènent une double vie Eh Moi, mon salaire, j'l'ai doublé vite fait, beuh, shit, je touche pas la zipette Les temps changent mais on a pas d'mal à s'y faire, tout l'monde s'arrête de joué quand la balle à sifflé Sifflé</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Fire On est branché sur Telegram Telegram, on est branché sur BBM Yes Pour faire rentrer les talles, faut troquer les grammes Brr, pour que la kichta puisse faire une BBL Brr Ils ont des ronds, ils sont pointus Des ronds, j'ai pas pris un chmin différent Moi, j'ai juste pris une nouvelle voiture, quand j'les DM, que elles capture Elles capture Cqui est ganter sur la bécane Sur la bécane, on va t'faire, toi, on sait qu'tas des talles On sait tout, on sait Des fois, une p'tite cale, ça dépanne Grr, sur Paname ou en région, ça dépends Grah Junkie, junkie a pris sa défonce Yes, nous, d'vant la juge, on a pris la défense On a su attaquer et appris à s'défendre Yes, allumer le feu pour ceux qui veulent descendre Grah Allumer le feu jusqu'à qu'il reste des cendres Rah, faire le papier de janvier à décembre Rah On détestait recevoir des ordres Ouais, on préférer recevoir des sommes Yes Y a trop dzéros, rien à foutre des soldes Des soldes, elles font les meufs biens mais cest toutes des folles C'est toutes des folles Jai la clé qui ouvre toutes les portes Yes, pour l'avoir, j'ai du faire le double d'efforts Beendo, grr Beendo, cest l'Isco d'deux-milles-dix-sept, la carrière de Eto'o, de 50 Cent Gang On fait pas les choses à moitié comme les tisses-mé Tisses-mé, on est pluguer comme les Type-C Pah Tu porte l'oeil, toi-même, tu vois, tu porte l'oeil, toi-même, tu sais Gang Une clope, une feuille chez l'épicier Pah, on t'envoie une meuf pour te pister Poh, pah Be-Beendo, c'est l'Isco d'deux-milles-dix-sept Deux-milles-dix-sept, la carrière de Eto'o, de 50 Cent Beendo On fait pas les choses à moitié comme les tisses-mé Tisses-mé, on est pluguer comme les Type-C Boum Tu porte l'oeil, toi-même, tu vois, tu porte l'oeil, toi-même, tu sais Gang Une clope, une feuille chez l'épicier, on t'envoie une meuf pour te pister You might also like On a passer l'âge L'âge d'aller baisser la te-tê chez la juge La juge Ils veulent nous voir couler, on sait nager Gang, joue pas trop, on va t'faire déména- Gang Joue pas trop, on va t'faire déménager, pour fidéliser, on fait des mélanges Le shit et la coke On va t'faire aimer la 'sique, même quand je dors, j'entends des mélo' Grr À deux-cents quarante dans le vaisseau Vaisseau, rah, ils ont pas un pésos Même le talent, ils ont pas un ça Pah, nous, on t'allonge pour c'qu'il y a dans l'ce-sa Pah Et on claque des salaires dans la pe-sa Yes, investir un p'tit peu dans la pe-stu Réel On fait pas d'chromes, j'te fais pas d'dessins Pah, même si t'es bien sapé dans un costume On fait pas d'ciné', on fait pas d'ciné' Rah, la mort, un virus qu'on peut pas vacciner Grah Avant d'sortir le canon, on va l'scié, à c'qui paraît, qu'on on meurts, on voit l'ciel On reposes pas en paix quand on est célèbrement très célèbres Gang On rentre dans ton teum, on fait péter les serrures, on a v'-esqui les menottes et les cellules Fort, Beendo, grr Beendo, c'est l'Isco d'deux-milles-dix-sept, la carrière de Eto'o, de 50 Cent Gang On fait pas les choses à moitié comme les tisses-mé Tisses-mé, on est pluguer comme les Type-C Pah Tu porte l'oeil, toi-même, tu vois, tu porte l'oeil, toi-même, tu sais Gang Une clope, une feuille chez l'épicier Pah, on t'envoie une meuf pour te pister Poh, pah Be-Beendo, c'est l'Isco d'deux-milles-dix-sept Deux-milles-dix-sept, la carrière de Eto'o, de 50 Cent Beendo On fait pas les choses à moitié comme les tisses-mé Tisses-mé, on est pluguer comme les Type-C Boum Tu porte l'oeil, toi-même, tu vois, tu porte l'oeil, toi-même, tu sais Gang Une clope, une feuille chez l'épicier, on t'envoie une meuf pour te pister Pour te pister, pour te pister</t>
+          <t>Fire On est branché sur Telegram Telegram, on est branché sur BBM Yes Pour faire rentrer les talles, faut troquer les grammes Brr, pour que la kichta puisse faire une BBL Brr Ils ont des ronds, ils sont pointus Des ronds, j'ai pas pris un chmin différent Moi, j'ai juste pris une nouvelle voiture, quand j'les DM, que elles capture Elles capture Cqui est ganter sur la bécane Sur la bécane, on va t'faire, toi, on sait qu'tas des talles On sait tout, on sait Des fois, une p'tite cale, ça dépanne Grr, sur Paname ou en région, ça dépends Grah Junkie, junkie a pris sa défonce Yes, nous, d'vant la juge, on a pris la défense On a su attaquer et appris à s'défendre Yes, allumer le feu pour ceux qui veulent descendre Grah Allumer le feu jusqu'à qu'il reste des cendres Rah, faire le papier de janvier à décembre Rah On détestait recevoir des ordres Ouais, on préférer recevoir des sommes Yes Y a trop dzéros, rien à foutre des soldes Des soldes, elles font les meufs biens mais cest toutes des folles C'est toutes des folles Jai la clé qui ouvre toutes les portes Yes, pour l'avoir, j'ai du faire le double d'efforts Beendo, grr Beendo, cest l'Isco d'deux-milles-dix-sept, la carrière de Eto'o, de 50 Cent Gang On fait pas les choses à moitié comme les tisses-mé Tisses-mé, on est pluguer comme les Type-C Pah Tu porte l'oeil, toi-même, tu vois, tu porte l'oeil, toi-même, tu sais Gang Une clope, une feuille chez l'épicier Pah, on t'envoie une meuf pour te pister Poh, pah Be-Beendo, c'est l'Isco d'deux-milles-dix-sept Deux-milles-dix-sept, la carrière de Eto'o, de 50 Cent Beendo On fait pas les choses à moitié comme les tisses-mé Tisses-mé, on est pluguer comme les Type-C Boum Tu porte l'oeil, toi-même, tu vois, tu porte l'oeil, toi-même, tu sais Gang Une clope, une feuille chez l'épicier, on t'envoie une meuf pour te pister On a passer l'âge L'âge d'aller baisser la te-tê chez la juge La juge Ils veulent nous voir couler, on sait nager Gang, joue pas trop, on va t'faire déména- Gang Joue pas trop, on va t'faire déménager, pour fidéliser, on fait des mélanges Le shit et la coke On va t'faire aimer la 'sique, même quand je dors, j'entends des mélo' Grr À deux-cents quarante dans le vaisseau Vaisseau, rah, ils ont pas un pésos Même le talent, ils ont pas un ça Pah, nous, on t'allonge pour c'qu'il y a dans l'ce-sa Pah Et on claque des salaires dans la pe-sa Yes, investir un p'tit peu dans la pe-stu Réel On fait pas d'chromes, j'te fais pas d'dessins Pah, même si t'es bien sapé dans un costume On fait pas d'ciné', on fait pas d'ciné' Rah, la mort, un virus qu'on peut pas vacciner Grah Avant d'sortir le canon, on va l'scié, à c'qui paraît, qu'on on meurts, on voit l'ciel On reposes pas en paix quand on est célèbrement très célèbres Gang On rentre dans ton teum, on fait péter les serrures, on a v'-esqui les menottes et les cellules Fort, Beendo, grr Beendo, c'est l'Isco d'deux-milles-dix-sept, la carrière de Eto'o, de 50 Cent Gang On fait pas les choses à moitié comme les tisses-mé Tisses-mé, on est pluguer comme les Type-C Pah Tu porte l'oeil, toi-même, tu vois, tu porte l'oeil, toi-même, tu sais Gang Une clope, une feuille chez l'épicier Pah, on t'envoie une meuf pour te pister Poh, pah Be-Beendo, c'est l'Isco d'deux-milles-dix-sept Deux-milles-dix-sept, la carrière de Eto'o, de 50 Cent Beendo On fait pas les choses à moitié comme les tisses-mé Tisses-mé, on est pluguer comme les Type-C Boum Tu porte l'oeil, toi-même, tu vois, tu porte l'oeil, toi-même, tu sais Gang Une clope, une feuille chez l'épicier, on t'envoie une meuf pour te pister Pour te pister, pour te pister</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Hum, hum Hum, hum Junior Alaprod, zanmé! Hum, hum Uh, uh Les mecs d'à côté veulent nous ressembler, c'qui est bien dans ma ville, c'est qu'on est tous en ble-' On est tous en ble-' Si tu viens ici, tu r'part avec des bleus, à l'école, j'notais pas c'qu'y avait sur l'tableau Yih-yih Quand j'avais pas d'buzz, des fois, les gows m'laissais en plan une fois après avoir payer la bre-' Payer la bre-' J'ai préféré revendre le shit et la beuh Le shit et la beuh, j'savais qu'un jours, j'f'rais l'million sur YouTube Uh, uh J'fais des millions d'vues, j'roule en Clio 3 Shoo, j'ai des inspirations venues d'autre part Pah La meuf est piqué mais j'ai pas de Audemars, si j'l'a baises, c'est que j'l'ai fait rire comme Omar Sy Hein J'abrège quand j'suis devant la victime, j'ai cassé des têtes, jamais cassé d'vitrines Bang, bang Fuck le dix-sept mais pas Vitinha Fuck, fuck, la mort t'appelles quand la vie t'ignores Je savais qu'j'étais fais pour l'dehors, vingt-quatre ans, j'ai d'l'oseilles mais je traîne encore Hum, hum Les condés sont passées, ça ne-tour encore Hum, hum, j'fais d'la pub' au re-fou pour augmenter l'score Augmenter le score Eh, mettre que des trois points Switch, je baisse les stores quand j'l'amène dans la Troup House Grr Les keufs t'attrape, donc tu passe à la trap Grr, j'peux t'piéger mais j'fais pas d'la trap Uh, uh J'prenais le métro pour que ces gues-shla tapent leurs rails Uh, uh J'fais du pe-ra, pas du Raï Du Raï, la cassette, c'est moi j'la détaille Uh, uh Les meufs me coursent, elle s'mettent à mes trousses Beendo, ta pé-ta des stylos, j'ai pé-ta des trousses Ouh Je compte pas sur la CAF, j'compte pas sur l'CROUS Nan, nan, elle veut m'envouter, je mange pas son couscous Shoo You might also like L'argent m'appelles L'argent m'appelles, toi, t'as pas l'num' des mapessas 'pessas, uh, uh Toi, t'as pas l'num' des mapessas 'pessas, déballé, détaillé, emballé, j'fais ça J'fais ça Déballé, détaillé, emballé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Uh, uh Détaillé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Beendo Recharger le R, fissa, fissa Shoo, shoo, elle a un string mais elle fais la fille sage C'est des salades J'ai des cicatrices qu'on voient pas sur l'visage Savent, une montagne de fric, voilà mon paysage J'ai tiré une taffe, j'm'envoles sans le visa, la police m'as toujours eu dans le viseur Eh J'me dis qu'c'est des shooters sans visière, j'me dis que j'peux tuer un ient-cli quand je visser Brr, brr C'est ma vision, c'est ma vision, j'sais même plus à quel moments, ça a pris l'son Pah Moi, j'sais qu'y a deux-trois mois, certains on pris l'seum, les jaloux, les haineux ont pris l'se-bu C'est ma vision, c'est ma vision, j'sais même plus à quel moments, ça a pris l'son Pah Moi, j'sais qu'y a deux-trois mois, certains on pris l'seum, les jaloux, les haineux ont pris l'se-bu Beendo, uh, uh En amour, j'm'attache pas trop, j'vais la tromper, dans tous les cas Cas J'attire que les les meufs aux gros pétards Pétards, kiffent que les mecs de tess comme moi Comme moi La vie d'artiste, c'est éphémère, j'suis dans mon coin, j'm'y attache pas Nan, nan Tous les soirs, j'suis dans un block Yih-yih, poser avec Rando, Isco et Da' Gang Adrénaline quand j'che-rra' son tél' Tél', j'enlevais la SIM et j'le revendais Vendais J'les visser vers la Rue Vendôme, y en avait à Bastille qui m'attendais Hum Dans le Sud, dans le Nord, neuf-un, neuf-cinq, embrouilles de cités, couteaux, extinct' Hum, hum Ils font la cité, ils portent plaintes, détaillé, emballé pour le butin Hum, hum L'argent m'appelles L'argent m'appelles, toi, t'as pas l'num' des mapessas 'pessas, uh, uh Toi, t'as pas l'num' des mapessas 'pessas, déballé, détaillé, emballé, j'fais ça J'fais ça Déballé, détaillé, emballé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Uh, uh Détaillé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Beendo L'argent m'appelles L'argent m'appelles, toi, t'as pas l'num' des mapessas 'pessas, uh, uh Toi, t'as pas l'num' des mapessas 'pessas, déballé, détaillé, emballé, j'fais ça J'fais ça Déballé, détaillé, emballé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Uh, uh Détaillé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Beendo</t>
+          <t>Hum, hum Hum, hum Junior Alaprod, zanmé! Hum, hum Uh, uh Les mecs d'à côté veulent nous ressembler, c'qui est bien dans ma ville, c'est qu'on est tous en ble-' On est tous en ble-' Si tu viens ici, tu r'part avec des bleus, à l'école, j'notais pas c'qu'y avait sur l'tableau Yih-yih Quand j'avais pas d'buzz, des fois, les gows m'laissais en plan une fois après avoir payer la bre-' Payer la bre-' J'ai préféré revendre le shit et la beuh Le shit et la beuh, j'savais qu'un jours, j'f'rais l'million sur YouTube Uh, uh J'fais des millions d'vues, j'roule en Clio 3 Shoo, j'ai des inspirations venues d'autre part Pah La meuf est piqué mais j'ai pas de Audemars, si j'l'a baises, c'est que j'l'ai fait rire comme Omar Sy Hein J'abrège quand j'suis devant la victime, j'ai cassé des têtes, jamais cassé d'vitrines Bang, bang Fuck le dix-sept mais pas Vitinha Fuck, fuck, la mort t'appelles quand la vie t'ignores Je savais qu'j'étais fais pour l'dehors, vingt-quatre ans, j'ai d'l'oseilles mais je traîne encore Hum, hum Les condés sont passées, ça ne-tour encore Hum, hum, j'fais d'la pub' au re-fou pour augmenter l'score Augmenter le score Eh, mettre que des trois points Switch, je baisse les stores quand j'l'amène dans la Troup House Grr Les keufs t'attrape, donc tu passe à la trap Grr, j'peux t'piéger mais j'fais pas d'la trap Uh, uh J'prenais le métro pour que ces gues-shla tapent leurs rails Uh, uh J'fais du pe-ra, pas du Raï Du Raï, la cassette, c'est moi j'la détaille Uh, uh Les meufs me coursent, elle s'mettent à mes trousses Beendo, ta pé-ta des stylos, j'ai pé-ta des trousses Ouh Je compte pas sur la CAF, j'compte pas sur l'CROUS Nan, nan, elle veut m'envouter, je mange pas son couscous Shoo L'argent m'appelles L'argent m'appelles, toi, t'as pas l'num' des mapessas 'pessas, uh, uh Toi, t'as pas l'num' des mapessas 'pessas, déballé, détaillé, emballé, j'fais ça J'fais ça Déballé, détaillé, emballé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Uh, uh Détaillé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Beendo Recharger le R, fissa, fissa Shoo, shoo, elle a un string mais elle fais la fille sage C'est des salades J'ai des cicatrices qu'on voient pas sur l'visage Savent, une montagne de fric, voilà mon paysage J'ai tiré une taffe, j'm'envoles sans le visa, la police m'as toujours eu dans le viseur Eh J'me dis qu'c'est des shooters sans visière, j'me dis que j'peux tuer un ient-cli quand je visser Brr, brr C'est ma vision, c'est ma vision, j'sais même plus à quel moments, ça a pris l'son Pah Moi, j'sais qu'y a deux-trois mois, certains on pris l'seum, les jaloux, les haineux ont pris l'se-bu C'est ma vision, c'est ma vision, j'sais même plus à quel moments, ça a pris l'son Pah Moi, j'sais qu'y a deux-trois mois, certains on pris l'seum, les jaloux, les haineux ont pris l'se-bu Beendo, uh, uh En amour, j'm'attache pas trop, j'vais la tromper, dans tous les cas Cas J'attire que les les meufs aux gros pétards Pétards, kiffent que les mecs de tess comme moi Comme moi La vie d'artiste, c'est éphémère, j'suis dans mon coin, j'm'y attache pas Nan, nan Tous les soirs, j'suis dans un block Yih-yih, poser avec Rando, Isco et Da' Gang Adrénaline quand j'che-rra' son tél' Tél', j'enlevais la SIM et j'le revendais Vendais J'les visser vers la Rue Vendôme, y en avait à Bastille qui m'attendais Hum Dans le Sud, dans le Nord, neuf-un, neuf-cinq, embrouilles de cités, couteaux, extinct' Hum, hum Ils font la cité, ils portent plaintes, détaillé, emballé pour le butin Hum, hum L'argent m'appelles L'argent m'appelles, toi, t'as pas l'num' des mapessas 'pessas, uh, uh Toi, t'as pas l'num' des mapessas 'pessas, déballé, détaillé, emballé, j'fais ça J'fais ça Déballé, détaillé, emballé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Uh, uh Détaillé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Beendo L'argent m'appelles L'argent m'appelles, toi, t'as pas l'num' des mapessas 'pessas, uh, uh Toi, t'as pas l'num' des mapessas 'pessas, déballé, détaillé, emballé, j'fais ça J'fais ça Déballé, détaillé, emballé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Uh, uh Détaillé, j'fais ça, j'fais ça, détaillé, emballé, j'fais ça Beendo</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Jordy, c'est un camer', il est né en France et ses deux parents camer' sont venus l'année de sa naissance Pas bête, une famille modeste qui laisse rien transparaître Rien transparaître Petit à petit, il grandit, prend du poids, les parents s'débrouillent, y a des têtes sous le toit Avec sa grande sur mais à c'qui p', ils sont trois, bref, il grandit, fait son temps À l'école, les raclis, elles kiffaient son tint, en plus, c'est un footeux, il jou à St-Gratien Il est un peu timide mais il est plaisantins, j'comprends pourquoi aux raclis, il plaisait autant Ouais Son plus grand rêve, c'est d'jouer au Barça mais apparemment, à l'école, c'est pas ça Non, non Les mauvaises notes, les heures de colles, son passé Ah oui mais à la fin d'l'année, il est toujours passé Gang Mais sinon au foot', à c'qui p', c'est pas mal, les entraîneurs disent au daron qu'il a d'la balle Très technique mais ça s'voit qu'il a pas la dalle mais chaque année, il est conservé, c'est banal Il a fait des tests un peu à gauche, à droite, c'est toujours la même réponse, partout, ça passe pas Il a du décevoir maman et papa mais il est renfermé, du coup, il en parle pas Peu d'temps après la première expulsion, il a pris l'seum, ça a réveillé ses pulsions Toujours souriant mais un peu plus sombre, il marche en équipe mais il s'sent un peu plus seul Avec les raclis, il est toujours en phase, il s'est dépucelé dans la cité d'en face C'est bon, là, il est tombé dans ça mais il refuse quand une meuf l'appelle pour danser Il préfère le foot', les paires de Venom mais dans l'football, y a-t-il vraiment d'l'avenir ? Hein Faut s'réveiller, faut faire rentrer des sommes Hein, faut aider à la maison comme font les hommes Il commence à rabattre, il touche pas au produit Non, non, il consomme pas, au foot', il veut être un produit Mais il a pas d'contrat à l'heure d'aujourd'hui, sa famille lui dit Arrête de rêver, Jordy En plus de ça, il va plus à l'école Non, non, il pète son BAC ES et il dit Aller, stop Il veut faire des sous, il a plus l'temps d'aller s'tape, sa vie, c'est un escalier, il est à l'étage Il prend sa première 'quette car il s'dit qu'il est temps, faut qu'il charbonne car souvent, il est dilettant Hein Mais grâce à lui, les ients-cli ont l'il dilaté, à cause de lui, les ients-cli ont claqué des dents Mais quand tu veux plus, il faut toucher à tout Bah ouais, il carotte des PCS un p'tit peu partout Partout Il a pas Snap de faux billets et ça tourne Par mois, le Bitmoji est blanc, zehma, c'est un babtou Ah Il a des atouts, il s'en sert pour pas que dans sa poche, y ait rien Rien Il s'dit qu'en vrai, s'il avait déjà tout, il vivrait ses victoires comme si elles valaient rien De fils en aiguille, il s'intéresse au son, y a des mecs de sa ville, de son quartier qui rap Il commence à écrire des textes assez sombres et il porte ses couilles, il va booker sa session Il croit en Dieu, il s'dit qu'y a pas d'hasard, il enchaîne les séances de studio en bazar et à côté, il fait bosser une meuf de Paname Il sort des freestyles, les gens disent C'est incroyable mais là, faut trouver du cash Hein, donc, il est allé cherché du taff Il vit plus chez sa ru-s', on veut l'caler au bled mais il rentre et il vit chez un pote qui l'héberge, trois mois plus tard, on lui propose un contrat On dit qu'il peut percer Percer, percer mais il a confiance en personne Il prend son avance, il prend son cachet, les gens réapparaissent comme s'il s'était caché Ah Il veut pas être un talent gâché Non, non, c'est pas un enfant gâté Mais Dieu l'a gâté avec un talent caché, il a même plus besoin d'faire des talles en cachette Premier Planète Rap, premier EP, premier single d'or, donc il est opé' Il roule en Audi, il roule pas en Opel Opel, il fait pas la star, le poto est open Il l'fait pas pour la fame ou pour s'amuser Non, non, longue vie à lui, longue vie à sa musique Il l'fait pas pour la fame ou pour s'amuser, longue vie à lui, longue vie à sa musique À sa musiqueYou might also like</t>
+          <t>Jordy, c'est un camer', il est né en France et ses deux parents camer' sont venus l'année de sa naissance Pas bête, une famille modeste qui laisse rien transparaître Rien transparaître Petit à petit, il grandit, prend du poids, les parents s'débrouillent, y a des têtes sous le toit Avec sa grande sur mais à c'qui p', ils sont trois, bref, il grandit, fait son temps À l'école, les raclis, elles kiffaient son tint, en plus, c'est un footeux, il jou à St-Gratien Il est un peu timide mais il est plaisantins, j'comprends pourquoi aux raclis, il plaisait autant Ouais Son plus grand rêve, c'est d'jouer au Barça mais apparemment, à l'école, c'est pas ça Non, non Les mauvaises notes, les heures de colles, son passé Ah oui mais à la fin d'l'année, il est toujours passé Gang Mais sinon au foot', à c'qui p', c'est pas mal, les entraîneurs disent au daron qu'il a d'la balle Très technique mais ça s'voit qu'il a pas la dalle mais chaque année, il est conservé, c'est banal Il a fait des tests un peu à gauche, à droite, c'est toujours la même réponse, partout, ça passe pas Il a du décevoir maman et papa mais il est renfermé, du coup, il en parle pas Peu d'temps après la première expulsion, il a pris l'seum, ça a réveillé ses pulsions Toujours souriant mais un peu plus sombre, il marche en équipe mais il s'sent un peu plus seul Avec les raclis, il est toujours en phase, il s'est dépucelé dans la cité d'en face C'est bon, là, il est tombé dans ça mais il refuse quand une meuf l'appelle pour danser Il préfère le foot', les paires de Venom mais dans l'football, y a-t-il vraiment d'l'avenir ? Hein Faut s'réveiller, faut faire rentrer des sommes Hein, faut aider à la maison comme font les hommes Il commence à rabattre, il touche pas au produit Non, non, il consomme pas, au foot', il veut être un produit Mais il a pas d'contrat à l'heure d'aujourd'hui, sa famille lui dit Arrête de rêver, Jordy En plus de ça, il va plus à l'école Non, non, il pète son BAC ES et il dit Aller, stop Il veut faire des sous, il a plus l'temps d'aller s'tape, sa vie, c'est un escalier, il est à l'étage Il prend sa première 'quette car il s'dit qu'il est temps, faut qu'il charbonne car souvent, il est dilettant Hein Mais grâce à lui, les ients-cli ont l'il dilaté, à cause de lui, les ients-cli ont claqué des dents Mais quand tu veux plus, il faut toucher à tout Bah ouais, il carotte des PCS un p'tit peu partout Partout Il a pas Snap de faux billets et ça tourne Par mois, le Bitmoji est blanc, zehma, c'est un babtou Ah Il a des atouts, il s'en sert pour pas que dans sa poche, y ait rien Rien Il s'dit qu'en vrai, s'il avait déjà tout, il vivrait ses victoires comme si elles valaient rien De fils en aiguille, il s'intéresse au son, y a des mecs de sa ville, de son quartier qui rap Il commence à écrire des textes assez sombres et il porte ses couilles, il va booker sa session Il croit en Dieu, il s'dit qu'y a pas d'hasard, il enchaîne les séances de studio en bazar et à côté, il fait bosser une meuf de Paname Il sort des freestyles, les gens disent C'est incroyable mais là, faut trouver du cash Hein, donc, il est allé cherché du taff Il vit plus chez sa ru-s', on veut l'caler au bled mais il rentre et il vit chez un pote qui l'héberge, trois mois plus tard, on lui propose un contrat On dit qu'il peut percer Percer, percer mais il a confiance en personne Il prend son avance, il prend son cachet, les gens réapparaissent comme s'il s'était caché Ah Il veut pas être un talent gâché Non, non, c'est pas un enfant gâté Mais Dieu l'a gâté avec un talent caché, il a même plus besoin d'faire des talles en cachette Premier Planète Rap, premier EP, premier single d'or, donc il est opé' Il roule en Audi, il roule pas en Opel Opel, il fait pas la star, le poto est open Il l'fait pas pour la fame ou pour s'amuser Non, non, longue vie à lui, longue vie à sa musique Il l'fait pas pour la fame ou pour s'amuser, longue vie à lui, longue vie à sa musique À sa musique</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DJ Wiwi'x going hard for the gang man Gang man Si tes chaud, appelle pour un plan La victime, elle va péter un plomb Jte calcule plus, tas pas été bon Je taimais pour la personne que tétais avant Jaime bien mon contrat, jvoudrais un avenant Jvoudrais que ma voiture ressemble à un avion Je voudrais me mettre en mode avion Comme si javais signé en Moldavie En vrai, japprécie pas mon mode de vie Mais tu me verras pas changer mon mode de vie La prière, c'est comme de leau-de-vie Aide-toi et le ciel taidera, c'est notre devise Lappât du gain, c'est notre vice Pour voler, on va dans les autres villes Tas intérêt à être riche si tes vilain Il parle trop chinois, c'est pas des bilingues Avant de sortir, je prie un peu Sur la plaquette, j'en ai pris un peu Jconnais le prix du shit, jconnais lprix de la beuh Mes résultats sont le fruit dun dur labeur Jveux pas être tête daffiche du label Jveux faire mes projets, jveux faire mon album Même si javais rien à m'mettre sous la dent Jaurai pas croqué dans la pomme You might also like Cest moi qui donne le prix, jencaisse J'fais la mala quand jsuis en caisse Une vie dartiste en vrai cest wouh Un jour, ils mont gratté d'la pièce Et dès quils sont sortis d'la pièce Ils ont tous parlé dans mon dos Cest moi qui donne le prix, jencaisse Jfais la mala quand jsuis en caisse Une vie dartiste en vrai cest wouh Un jour, ils mont gratté d'la pièce Et dès quils sont sortis d'la pièce Ils ont tous parlé dans mon dos Ça me démange, j'ai envie de taper un keuf La fonsdal, j'ai envie de taper un grec Le FN a envie de taper nègre Ils sont vides et leur âme est creuse Jrentre dans lappart et jfais pas mé-cra Elle pète sa tête quand elle voit mes K sur Insta' Quand jsuis pas sur un terrain, jsuis sur un stade Faut que jarrête de fumer, j'suis instable Tu me verras jamais dire J'suis en stage Dix-huit ans, jétais loin de mes parents à cet âge Elle est dorée, mais elle fait flipper la cage Y a ceux qui découpent et y a ceux qui attachent Y a que des gros culs dans la famille Kardash Elles ont enlevé leur string, jeté leur cartable Elles ont donné leur cul à des res-noi capables Le succès, ça rend beau Et la pauvreté, ça rend pieu Elle veut ma bite, m'faire des marmots Mais sur mon travail ça empiète Dis à personne que tu tailles en boîte Ça tenvoie une équipe, ça te taille en pièce Moi jte fais partir, tout ça, envois Jaccepte que les billets, je prends pas en pièce Cest moi qui donne le prix, jencaisse J'fais la mala quand jsuis en caisse Une vie dartiste en vrai cest wouh Un jour, ils mont gratté d'la pièce Et dès quils sont sortis d'la pièce Ils ont tous parlé dans mon dos Cest moi qui donne le prix, jencaisse Jfais la mala quand jsuis en caisse Une vie dartiste en vrai cest wouh Un jour, ils mont gratté d'la pièce Et dès quils sont sortis d'la pièce Ils ont tous parlé dans mon dos</t>
+          <t>DJ Wiwi'x going hard for the gang man Gang man Si tes chaud, appelle pour un plan La victime, elle va péter un plomb Jte calcule plus, tas pas été bon Je taimais pour la personne que tétais avant Jaime bien mon contrat, jvoudrais un avenant Jvoudrais que ma voiture ressemble à un avion Je voudrais me mettre en mode avion Comme si javais signé en Moldavie En vrai, japprécie pas mon mode de vie Mais tu me verras pas changer mon mode de vie La prière, c'est comme de leau-de-vie Aide-toi et le ciel taidera, c'est notre devise Lappât du gain, c'est notre vice Pour voler, on va dans les autres villes Tas intérêt à être riche si tes vilain Il parle trop chinois, c'est pas des bilingues Avant de sortir, je prie un peu Sur la plaquette, j'en ai pris un peu Jconnais le prix du shit, jconnais lprix de la beuh Mes résultats sont le fruit dun dur labeur Jveux pas être tête daffiche du label Jveux faire mes projets, jveux faire mon album Même si javais rien à m'mettre sous la dent Jaurai pas croqué dans la pomme Cest moi qui donne le prix, jencaisse J'fais la mala quand jsuis en caisse Une vie dartiste en vrai cest wouh Un jour, ils mont gratté d'la pièce Et dès quils sont sortis d'la pièce Ils ont tous parlé dans mon dos Cest moi qui donne le prix, jencaisse Jfais la mala quand jsuis en caisse Une vie dartiste en vrai cest wouh Un jour, ils mont gratté d'la pièce Et dès quils sont sortis d'la pièce Ils ont tous parlé dans mon dos Ça me démange, j'ai envie de taper un keuf La fonsdal, j'ai envie de taper un grec Le FN a envie de taper nègre Ils sont vides et leur âme est creuse Jrentre dans lappart et jfais pas mé-cra Elle pète sa tête quand elle voit mes K sur Insta' Quand jsuis pas sur un terrain, jsuis sur un stade Faut que jarrête de fumer, j'suis instable Tu me verras jamais dire J'suis en stage Dix-huit ans, jétais loin de mes parents à cet âge Elle est dorée, mais elle fait flipper la cage Y a ceux qui découpent et y a ceux qui attachent Y a que des gros culs dans la famille Kardash Elles ont enlevé leur string, jeté leur cartable Elles ont donné leur cul à des res-noi capables Le succès, ça rend beau Et la pauvreté, ça rend pieu Elle veut ma bite, m'faire des marmots Mais sur mon travail ça empiète Dis à personne que tu tailles en boîte Ça tenvoie une équipe, ça te taille en pièce Moi jte fais partir, tout ça, envois Jaccepte que les billets, je prends pas en pièce Cest moi qui donne le prix, jencaisse J'fais la mala quand jsuis en caisse Une vie dartiste en vrai cest wouh Un jour, ils mont gratté d'la pièce Et dès quils sont sortis d'la pièce Ils ont tous parlé dans mon dos Cest moi qui donne le prix, jencaisse Jfais la mala quand jsuis en caisse Une vie dartiste en vrai cest wouh Un jour, ils mont gratté d'la pièce Et dès quils sont sortis d'la pièce Ils ont tous parlé dans mon dos</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Voie une, numéro 3635 à destination de Paris Montparnasse va partir. Prenez garde à la fermeture automatique des portes. Nous partons en descente Bouh, bouh, bouh, bouh J'lui fais d'l'effet, elle tombe sous mon charme Oh, y a pas d'magie, on est pas dans Charmed Eh D'vant l'micro, j'suis acharné Oh, d'vant l'micro, j'suis acharné Là, j'suis dans l'métro à Châtelet, si la plaquette est à moins d'quatre, achète-la Si elle s'met à quatre pattes devant oi-t, achève-la Yes, ta-ta-ta-tah Ell m'aime car j'ai v'là les K sur Insta', la salope, on fait sautr ta caution, on t'hagar ta loc' Eh, eh J'parle pas sur les réseaux, donc envoie ta loc', inspiré d'faits réels dans l'back catalogue Brr Dans l'jeu, j'ai les analogues Brr, dis-toi qu'être modeste, c'est pas à la mode Y a les contrôleurs, j'cours, j'les mets à l'amende, y a les contrôleurs, j'cours, j'ai un train d'avance T'es jeunes, t'es noirs. Le système est fait pour t'anéantir, pour te broyer Y a les contrôleurs, j'cours, j'ai un train d'avance, y a un ient-cli qui m'attend, j'suis en train d'avancer J'fais pas les choses à moitié comme une avance, si elle envoie son cul sur Snap', c'est une nympho' Y en a pour le bec, y en a pour les naseaux, j'ai d'la peine pour les feujs et pas pour les nazis Et je vais danser comme Diego Kotazo si je mets deux milles euros sur une cote à mille Eh, eh, eh, eh Le produit est vert Bouh, c'est ça qui contamine, tu t'rappelles très bien d'la hagra qu'on t'a mise Brr On arrache ta tchop, on n'a même pas l'permis mais je veux pas finir en prison comme Pernel Bah ouais C'est moi qui paye le tel-hô, donc je me permets, en embrouille, crois pas que j'enfile le pare-balles Han, han Tu vas rien faire du tout si j'te parle mal Bah ouais, y a les condés, j'suis serein, poto, j'me casse as-p You might also like Poto, j'me casse as-p Nan, nan, même si j'ai une petite à kassav Ah À l'école, tu mets pas d'billets dans ton cartable parce que là-bas, t'apprends pas à faire du plata Cash, cash Beendo, c'est moi le papa Pull up, pull up, pull up, pull up, pull up Ouais, ouais, ouais Vas-y, remets du début, remets du début là Grr, c'est pas mal ça, c'est pas mal Poto, j'me casse as-p Nan, nan, même si j'ai une petite à kassav Ah À l'école, tu mets pas d'billets dans ton cartable parce que là-bas, t'apprends pas à faire du plata Cash, cash Beendo, c'est moi le papa Moi le papa, si mon bigo fait écho, j'fais moins de papier Bouh Contrôle de baqueux mais moi, j'ai pas peur Nan, nan, j'avais pas la cote mais j'ai quand même parié Shoo J'ai-j'ai fumé pour écrire le premier couplet Brr, j'ai baisé la prod', j'lui ai fait des tisses-mé Brr Toto, roule-moi un deuxième couplet Brr, celle-là, j'ai trop envie d'la découper Ça sert à rien d'prier si tu plaides coupable, si on t'a battu, c'est parce que t'es tuba De-devant la kichta du gérant, tu baves, tu crois qu'tu r'partiras avec mais tu blagues Ah-ah-ah-ah Ça sert à rien d'prier si tu plaides coupable Tu crois qu'tu r'partiras avec mais tu blagues Ça sert à rien d'prier si tu plaides coupable, si on t'a battu, c'est parce que t'es tuba De-devant la kichta du gérant, tu baves, tu crois qu'tu r'partiras avec mais tu blagues Beendo Zarzis aka Beendo Z, connue pour extorsion et vol à main armée</t>
+          <t>Voie une, numéro 3635 à destination de Paris Montparnasse va partir. Prenez garde à la fermeture automatique des portes. Nous partons en descente Bouh, bouh, bouh, bouh J'lui fais d'l'effet, elle tombe sous mon charme Oh, y a pas d'magie, on est pas dans Charmed Eh D'vant l'micro, j'suis acharné Oh, d'vant l'micro, j'suis acharné Là, j'suis dans l'métro à Châtelet, si la plaquette est à moins d'quatre, achète-la Si elle s'met à quatre pattes devant oi-t, achève-la Yes, ta-ta-ta-tah Ell m'aime car j'ai v'là les K sur Insta', la salope, on fait sautr ta caution, on t'hagar ta loc' Eh, eh J'parle pas sur les réseaux, donc envoie ta loc', inspiré d'faits réels dans l'back catalogue Brr Dans l'jeu, j'ai les analogues Brr, dis-toi qu'être modeste, c'est pas à la mode Y a les contrôleurs, j'cours, j'les mets à l'amende, y a les contrôleurs, j'cours, j'ai un train d'avance T'es jeunes, t'es noirs. Le système est fait pour t'anéantir, pour te broyer Y a les contrôleurs, j'cours, j'ai un train d'avance, y a un ient-cli qui m'attend, j'suis en train d'avancer J'fais pas les choses à moitié comme une avance, si elle envoie son cul sur Snap', c'est une nympho' Y en a pour le bec, y en a pour les naseaux, j'ai d'la peine pour les feujs et pas pour les nazis Et je vais danser comme Diego Kotazo si je mets deux milles euros sur une cote à mille Eh, eh, eh, eh Le produit est vert Bouh, c'est ça qui contamine, tu t'rappelles très bien d'la hagra qu'on t'a mise Brr On arrache ta tchop, on n'a même pas l'permis mais je veux pas finir en prison comme Pernel Bah ouais C'est moi qui paye le tel-hô, donc je me permets, en embrouille, crois pas que j'enfile le pare-balles Han, han Tu vas rien faire du tout si j'te parle mal Bah ouais, y a les condés, j'suis serein, poto, j'me casse as-p Poto, j'me casse as-p Nan, nan, même si j'ai une petite à kassav Ah À l'école, tu mets pas d'billets dans ton cartable parce que là-bas, t'apprends pas à faire du plata Cash, cash Beendo, c'est moi le papa Pull up, pull up, pull up, pull up, pull up Ouais, ouais, ouais Vas-y, remets du début, remets du début là Grr, c'est pas mal ça, c'est pas mal Poto, j'me casse as-p Nan, nan, même si j'ai une petite à kassav Ah À l'école, tu mets pas d'billets dans ton cartable parce que là-bas, t'apprends pas à faire du plata Cash, cash Beendo, c'est moi le papa Moi le papa, si mon bigo fait écho, j'fais moins de papier Bouh Contrôle de baqueux mais moi, j'ai pas peur Nan, nan, j'avais pas la cote mais j'ai quand même parié Shoo J'ai-j'ai fumé pour écrire le premier couplet Brr, j'ai baisé la prod', j'lui ai fait des tisses-mé Brr Toto, roule-moi un deuxième couplet Brr, celle-là, j'ai trop envie d'la découper Ça sert à rien d'prier si tu plaides coupable, si on t'a battu, c'est parce que t'es tuba De-devant la kichta du gérant, tu baves, tu crois qu'tu r'partiras avec mais tu blagues Ah-ah-ah-ah Ça sert à rien d'prier si tu plaides coupable Tu crois qu'tu r'partiras avec mais tu blagues Ça sert à rien d'prier si tu plaides coupable, si on t'a battu, c'est parce que t'es tuba De-devant la kichta du gérant, tu baves, tu crois qu'tu r'partiras avec mais tu blagues Beendo Zarzis aka Beendo Z, connue pour extorsion et vol à main armée</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Y a beaucoup de re-fré qui ne se serrent plus la main Oh oui, en effet, tranquille, on verra demain Ils sont d'venus fous comme Kanye, ils veulent pas m'voir gagner Oh, fou comme Kanye, oh, ils veulent pas m'voir gagner, oh Yo, yo, wesh, wesh, bon, alors qu'est-ce qu'il s'passe ? Faut arrêter les calculs, la vie c'est du freestyle Dis-nous avec qui tu traînes qu'on te juge Les murs ont des AirPods, mon ami, faut qu'tu chuchotes Si j'suis dans la sauce, applle-moi le piment La vngeance est un thiéb' qui se mange sans sentiment La jalousie m'agresse, elle veut avoir mon adresse Je déménage le jour où elle se pointe, elle me dit labès ? Je veux porter plainte, on me dit Non, porte tes couilles On s'connait pas, je sors de chez Vuitton et vous, vous sortez d'où ? La morale de tout ça, c'est les ffre-chi qui font tousser Refrain, la légende black m'appelle, faut qu'tu secoues ça Y a beaucoup de re-fré qui ne se serrent plus la main Oh oui, en effet, tranquille, on verra demain Ils sont d'venus fous comme Kanye, ils veulent pas m'voir gagner Oh, fou comme Kanye, oh, ils veulent pas m'voir gagner, oh You might also like J'dois faire des sous comme un rappeur américain J'suis sur les plateformes, j'suis plus sur Amerigo J'peux pas sortir sans ma sacoche et sans mes Requin Que j'sois dans mon 9-5 ou que j'sois à Mejico Ils veulent pas m'voir gagner comme le PSG en LDC La fin du repas c'est l'dessert et la fin d'la vie c'est l'décès J'aime bien trainer dans les banques, c'est mon côté HSBC Quand j'vois l'salaire à Jeff Bezos, j'peux pas marcher la tête baissée Ça vend du te-chi, de la beuh Un bon fruit ne peut sortir que d'un bon arbre C'est Beendo et Black M, c'est pas Burna Boy J'suis sélectif sur les prod' et sur les meufs que j'aborde Y a beaucoup de re-fré qui ne se serrent plus la main Oh oui, en effet, tranquille, on verra demain Ils sont d'venus fous comme Kanye, ils veulent pas m'voir gagner Oh, fou comme Kanye, oh, ils veulent pas m'voir gagner, oh Continue la soirée même si la chemise est mouillée Continue la soirée même si la chemise est mouillée Shimmy, shimmy, ya, shimmy, yo, shimmy, yeah Shimmy, shimmy, ya, shimmy, yo, shimmy, yeah Continue la soirée même si la chemise est mouillée Continue la soirée même si la chemise est mouillée Shimmy, shimmy, ya, shimmy, yo, shimmy, yeah Shimmy, shimmy, ya, shimmy, yo, shimmy, yeah rires Eh garde les rires, garde les rires J'les ai pas, j'avais cut déjà Et garde quand il dit garde les rires</t>
+          <t>Y a beaucoup de re-fré qui ne se serrent plus la main Oh oui, en effet, tranquille, on verra demain Ils sont d'venus fous comme Kanye, ils veulent pas m'voir gagner Oh, fou comme Kanye, oh, ils veulent pas m'voir gagner, oh Yo, yo, wesh, wesh, bon, alors qu'est-ce qu'il s'passe ? Faut arrêter les calculs, la vie c'est du freestyle Dis-nous avec qui tu traînes qu'on te juge Les murs ont des AirPods, mon ami, faut qu'tu chuchotes Si j'suis dans la sauce, applle-moi le piment La vngeance est un thiéb' qui se mange sans sentiment La jalousie m'agresse, elle veut avoir mon adresse Je déménage le jour où elle se pointe, elle me dit labès ? Je veux porter plainte, on me dit Non, porte tes couilles On s'connait pas, je sors de chez Vuitton et vous, vous sortez d'où ? La morale de tout ça, c'est les ffre-chi qui font tousser Refrain, la légende black m'appelle, faut qu'tu secoues ça Y a beaucoup de re-fré qui ne se serrent plus la main Oh oui, en effet, tranquille, on verra demain Ils sont d'venus fous comme Kanye, ils veulent pas m'voir gagner Oh, fou comme Kanye, oh, ils veulent pas m'voir gagner, oh J'dois faire des sous comme un rappeur américain J'suis sur les plateformes, j'suis plus sur Amerigo J'peux pas sortir sans ma sacoche et sans mes Requin Que j'sois dans mon 9-5 ou que j'sois à Mejico Ils veulent pas m'voir gagner comme le PSG en LDC La fin du repas c'est l'dessert et la fin d'la vie c'est l'décès J'aime bien trainer dans les banques, c'est mon côté HSBC Quand j'vois l'salaire à Jeff Bezos, j'peux pas marcher la tête baissée Ça vend du te-chi, de la beuh Un bon fruit ne peut sortir que d'un bon arbre C'est Beendo et Black M, c'est pas Burna Boy J'suis sélectif sur les prod' et sur les meufs que j'aborde Y a beaucoup de re-fré qui ne se serrent plus la main Oh oui, en effet, tranquille, on verra demain Ils sont d'venus fous comme Kanye, ils veulent pas m'voir gagner Oh, fou comme Kanye, oh, ils veulent pas m'voir gagner, oh Continue la soirée même si la chemise est mouillée Continue la soirée même si la chemise est mouillée Shimmy, shimmy, ya, shimmy, yo, shimmy, yeah Shimmy, shimmy, ya, shimmy, yo, shimmy, yeah Continue la soirée même si la chemise est mouillée Continue la soirée même si la chemise est mouillée Shimmy, shimmy, ya, shimmy, yo, shimmy, yeah Shimmy, shimmy, ya, shimmy, yo, shimmy, yeah rires Eh garde les rires, garde les rires J'les ai pas, j'avais cut déjà Et garde quand il dit garde les rires</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>J'ai les mains faites pour l'or L'or et elles sont dans la de-mer Ah, de-mer J'remets pas tout au lendemain Non, non, c'est aujourd'hui que j'vais t'trouer l'abdomen Grr Il faut qu'dans l'rap, je domine, pas comme ces clochards, pas comme ces thos-my J'te mets un coup d'crosse et tu crois qu'c'est Toni Toni Kroos, donner, c'est donner Donner, donner Reprendre, c'est voler mais moi, j'ai volé parce qu'on m'a pas donné Donné, donné Si t'as pas l'argent, bah, t'auras pas l'doré, ces acteurs, donnz-leur la Palme Dorée T'aims ma musique mais faut pas m'adorer Non, non, en descente, obligé d'se matosser Crick, crick Ça tire comme dans Djamal de Dosseh Pah, pah, donne un billet ou on sort tous les dossiers Sort tous les dossiers J'suis un bon mais j'me fais pas avoir Non, non, je crois en une chose que je n'peux pas voir Ta racli ne vient plus te voir au parloir, quand elle t'appelle, elle te met sous haut-parleur J'vais au studio et j'suis pas à l'heure Non, non, pas les mêmes principes et les mêmes valeurs Valeurs Y a showcase, on s'enfume dans le van, c'est vingt-trois qui me passe le vingt-deux Grr Quand je sais qu'j'ai tort, j'me fais une raison Eh, appelle si tu fais une rée-soi, j'me déplace le matin, le midi et l'soir Le matin, le midi et l'soir, j'me déplace le matin, le midi et l'soir Han J'me déplace pour des billets d'cent, appelle-moi le matin, le midi et l'soir Quand je sais qu'j'ai tort, j'me fais une raison Quand je sais qu'j'ai tort, j'me fais une raison, appelle si tu fais une rée-soi, j'me déplace le matin, le midi et l'soir Le matin, le midi et l'soir, j'me déplace le matin, le midi et l'soir Han J'me déplace pour des billets d'cent, appelle-moi le matin, le midi et l'soir You might also like L'argent, c'est un hameçon qui te force à pêcher Eh, on s'connaît mais on n'est pas forcé d's'apprécier Oh Moi, j'gardais la balle quand ça pressait Pressait, après, j'étais yomb quand ça m'blessait Oh Ma voix et la prod' vont en ble-sem, en vrai, j'pense que j'suis bless Dans l'clip de L'Élu, j'ai mis l'ensemble bleu ciel, viens si tu veux bosser, ça peut s'faire Je crée d'la matière dans l'atmosphère, dégage de la chambre si t'as pas d'grosses fesses Rah, rah Tu s'ras en remis si t'as pas une grosse caisse, si t'as pas une grosse baraque aux States La patrouille vient d'arriver, j'suis plus là Han, à la longue, j'ai vu plus large Plus large, large J'ai vu plus lourd en sueur devant plus lég', quand on sort un jou'-jou', y a plus d'âge Brr Sur la file de gauche, j'mets un coup de gaz, à la station essence, j'mets un coup d'carte J'vais braquer la SACEM sans goule-ca Goule-ca, le pe-ra, ça marche bien, en tous cas Tous cas J'suis rentré dans l'game, j'ai pas toqué Toqué, j'vais pas mentir, j'ai pas un Toka' Tocard Mais mon rêve, c'est d'allumer ces tocards Crick et de tous le fumer au ton-car Ton-car Quand je sais qu'j'ai tort, j'me fais une raison Eh, appelle si tu fais une rée-soi, j'me déplace le matin, le midi et l'soir Le matin, le midi et l'soir, j'me déplace le matin, le midi et l'soir Han J'me déplace pour des billets d'cent, appelle-moi le matin, le midi et l'soir Quand je sais qu'j'ai tort, j'me fais une raison Quand je sais qu'j'ai tort, j'me fais une raison, appelle si tu fais une rée-soi, j'me déplace le matin, le midi et l'soir Le matin, le midi et l'soir, j'me déplace le matin, le midi et l'soir Han J'me déplace pour des billets d'cent, appelle-moi le matin, le midi et l'soir</t>
+          <t>J'ai les mains faites pour l'or L'or et elles sont dans la de-mer Ah, de-mer J'remets pas tout au lendemain Non, non, c'est aujourd'hui que j'vais t'trouer l'abdomen Grr Il faut qu'dans l'rap, je domine, pas comme ces clochards, pas comme ces thos-my J'te mets un coup d'crosse et tu crois qu'c'est Toni Toni Kroos, donner, c'est donner Donner, donner Reprendre, c'est voler mais moi, j'ai volé parce qu'on m'a pas donné Donné, donné Si t'as pas l'argent, bah, t'auras pas l'doré, ces acteurs, donnz-leur la Palme Dorée T'aims ma musique mais faut pas m'adorer Non, non, en descente, obligé d'se matosser Crick, crick Ça tire comme dans Djamal de Dosseh Pah, pah, donne un billet ou on sort tous les dossiers Sort tous les dossiers J'suis un bon mais j'me fais pas avoir Non, non, je crois en une chose que je n'peux pas voir Ta racli ne vient plus te voir au parloir, quand elle t'appelle, elle te met sous haut-parleur J'vais au studio et j'suis pas à l'heure Non, non, pas les mêmes principes et les mêmes valeurs Valeurs Y a showcase, on s'enfume dans le van, c'est vingt-trois qui me passe le vingt-deux Grr Quand je sais qu'j'ai tort, j'me fais une raison Eh, appelle si tu fais une rée-soi, j'me déplace le matin, le midi et l'soir Le matin, le midi et l'soir, j'me déplace le matin, le midi et l'soir Han J'me déplace pour des billets d'cent, appelle-moi le matin, le midi et l'soir Quand je sais qu'j'ai tort, j'me fais une raison Quand je sais qu'j'ai tort, j'me fais une raison, appelle si tu fais une rée-soi, j'me déplace le matin, le midi et l'soir Le matin, le midi et l'soir, j'me déplace le matin, le midi et l'soir Han J'me déplace pour des billets d'cent, appelle-moi le matin, le midi et l'soir L'argent, c'est un hameçon qui te force à pêcher Eh, on s'connaît mais on n'est pas forcé d's'apprécier Oh Moi, j'gardais la balle quand ça pressait Pressait, après, j'étais yomb quand ça m'blessait Oh Ma voix et la prod' vont en ble-sem, en vrai, j'pense que j'suis bless Dans l'clip de L'Élu, j'ai mis l'ensemble bleu ciel, viens si tu veux bosser, ça peut s'faire Je crée d'la matière dans l'atmosphère, dégage de la chambre si t'as pas d'grosses fesses Rah, rah Tu s'ras en remis si t'as pas une grosse caisse, si t'as pas une grosse baraque aux States La patrouille vient d'arriver, j'suis plus là Han, à la longue, j'ai vu plus large Plus large, large J'ai vu plus lourd en sueur devant plus lég', quand on sort un jou'-jou', y a plus d'âge Brr Sur la file de gauche, j'mets un coup de gaz, à la station essence, j'mets un coup d'carte J'vais braquer la SACEM sans goule-ca Goule-ca, le pe-ra, ça marche bien, en tous cas Tous cas J'suis rentré dans l'game, j'ai pas toqué Toqué, j'vais pas mentir, j'ai pas un Toka' Tocard Mais mon rêve, c'est d'allumer ces tocards Crick et de tous le fumer au ton-car Ton-car Quand je sais qu'j'ai tort, j'me fais une raison Eh, appelle si tu fais une rée-soi, j'me déplace le matin, le midi et l'soir Le matin, le midi et l'soir, j'me déplace le matin, le midi et l'soir Han J'me déplace pour des billets d'cent, appelle-moi le matin, le midi et l'soir Quand je sais qu'j'ai tort, j'me fais une raison Quand je sais qu'j'ai tort, j'me fais une raison, appelle si tu fais une rée-soi, j'me déplace le matin, le midi et l'soir Le matin, le midi et l'soir, j'me déplace le matin, le midi et l'soir Han J'me déplace pour des billets d'cent, appelle-moi le matin, le midi et l'soir</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>H.LD et Beendo H.LD et Beendo Ray Da Prince Ça s'allume pour quelques notes de piano Piano, ça s'allume comme le joint qui tourne dans l'Viano Grah J'ai fait dans l'foot, dans la stup' comme Adriano Gang, j'ai vu l'chemin d'la hess, donc j'en ai pris un autre Poh Le-le ient-cli abonné, il a repris un autre Yes, malveillant comme Sauron qui a repris l'anneau Han On souhaite la mort des opps et une longue vie à nous Nous, on souhaite la mort des cops et a ceux qui avouent Bouh J'suis-j'suis v'nu en France pour voler tout c'qui était à nous, une moto d'vant chez toi juste pour t'pousser à bout Gang Ces salopes, ils galèrent à faire partir un bout, j'prends les feuilles chez l'pakat et les clopes, chez l'indou Yes Le vol ou la stup', on a toucher à tout Tout, on a même des bastos qui peuvent t'laisser à terre Pah Faut baiser l'pe-ra et attendre qu'il accouche et prendre la kichta une fois arrivé à terme Pah, pah H.LD et Beendo H.LD, H.LD et Beendo Grah Mauvais mélange comme le shit et la coke, je sais qui a des humains qu'ils veulent ma peau Pah Je sais qui a des humains qu'ils veulent me faire à cause du Extorsion et vol à main armée Brr Eux, ils sortent en boîte, ils ont en jamais ramener Ah nan, jamais vendre la puce, jamais fumer le taille-dé H.LD et Beendo H.LD, H.LD et Beendo Grah Mauvais mélange comme le shit et la coke, je sais qui a des humains qu'ils veulent ma peau Pah Je sais qui a des humains qu'ils veulent me faire à cause du Extorsion et vol à main armée Brr Eux, ils sortent en boîte, ils ont en jamais ramener Ah nan, jamais vendre la puce, jamais fumer le taille-dé You might also like Ça parle de terrain, t'as jamais gérer Grah, brolique, j'fais les tits-pe, ils vont t'sérer Brah J'ai pas besoin d'alliés pour aller t'effrayer Non, dans la bi'-bi' depuis qu'on est bébé Rah On sait qui est qui, toi, t'es bon qu'à chanter Ouh, H-24, défoncer sur l'chantier Grah Rentre dans la baraque, on est tous ganté Pah, j'suis concentré, j'vais pas tombé Pah La be-her fait trop des ravages, remontada, ça fuck les radars Pah J'ai calé huit balles dans l'appart' Ouh, tu comprend pourquoi j'ai la barre ? Grah J'élabore toujours, j'ai la dalle Rah, j'la fais crié, pourtant, j'suis pas au max Rah Sur l'terrain, en full black Rah, j'suis dans ma zone et j'encule toute la baque Pah H.LD et Beendo H.LD, grah, H.LD et Beendo Grah Mauvais mélange comme le shit et la coke, je sais qui a des humains qu'ils veulent ma peau Pah Je sais qui a des humains qu'ils veulent me faire à cause du Extorsion et vol à main armée Brr Eux, ils sortent en boîte, ils ont en jamais ramener Ah nan, jamais vendre la puce, jamais fumer le taille-dé Rah H.LD et Beendo Ouh, H.LD et Beendo Grah Mauvais mélange comme le shit et la coke Pah, je sais qui a des humains qu'ils veulent ma peau Pah Je sais qui a des humains qu'ils veulent me faire à cause du Extorsion et vol à main armée Brr Eux, ils sortent en boîte, ils ont en jamais ramener Rah, jamais vendre la puce, jamais fumer le taille-dé Rah</t>
+          <t>H.LD et Beendo H.LD et Beendo Ray Da Prince Ça s'allume pour quelques notes de piano Piano, ça s'allume comme le joint qui tourne dans l'Viano Grah J'ai fait dans l'foot, dans la stup' comme Adriano Gang, j'ai vu l'chemin d'la hess, donc j'en ai pris un autre Poh Le-le ient-cli abonné, il a repris un autre Yes, malveillant comme Sauron qui a repris l'anneau Han On souhaite la mort des opps et une longue vie à nous Nous, on souhaite la mort des cops et a ceux qui avouent Bouh J'suis-j'suis v'nu en France pour voler tout c'qui était à nous, une moto d'vant chez toi juste pour t'pousser à bout Gang Ces salopes, ils galèrent à faire partir un bout, j'prends les feuilles chez l'pakat et les clopes, chez l'indou Yes Le vol ou la stup', on a toucher à tout Tout, on a même des bastos qui peuvent t'laisser à terre Pah Faut baiser l'pe-ra et attendre qu'il accouche et prendre la kichta une fois arrivé à terme Pah, pah H.LD et Beendo H.LD, H.LD et Beendo Grah Mauvais mélange comme le shit et la coke, je sais qui a des humains qu'ils veulent ma peau Pah Je sais qui a des humains qu'ils veulent me faire à cause du Extorsion et vol à main armée Brr Eux, ils sortent en boîte, ils ont en jamais ramener Ah nan, jamais vendre la puce, jamais fumer le taille-dé H.LD et Beendo H.LD, H.LD et Beendo Grah Mauvais mélange comme le shit et la coke, je sais qui a des humains qu'ils veulent ma peau Pah Je sais qui a des humains qu'ils veulent me faire à cause du Extorsion et vol à main armée Brr Eux, ils sortent en boîte, ils ont en jamais ramener Ah nan, jamais vendre la puce, jamais fumer le taille-dé Ça parle de terrain, t'as jamais gérer Grah, brolique, j'fais les tits-pe, ils vont t'sérer Brah J'ai pas besoin d'alliés pour aller t'effrayer Non, dans la bi'-bi' depuis qu'on est bébé Rah On sait qui est qui, toi, t'es bon qu'à chanter Ouh, H-24, défoncer sur l'chantier Grah Rentre dans la baraque, on est tous ganté Pah, j'suis concentré, j'vais pas tombé Pah La be-her fait trop des ravages, remontada, ça fuck les radars Pah J'ai calé huit balles dans l'appart' Ouh, tu comprend pourquoi j'ai la barre ? Grah J'élabore toujours, j'ai la dalle Rah, j'la fais crié, pourtant, j'suis pas au max Rah Sur l'terrain, en full black Rah, j'suis dans ma zone et j'encule toute la baque Pah H.LD et Beendo H.LD, grah, H.LD et Beendo Grah Mauvais mélange comme le shit et la coke, je sais qui a des humains qu'ils veulent ma peau Pah Je sais qui a des humains qu'ils veulent me faire à cause du Extorsion et vol à main armée Brr Eux, ils sortent en boîte, ils ont en jamais ramener Ah nan, jamais vendre la puce, jamais fumer le taille-dé Rah H.LD et Beendo Ouh, H.LD et Beendo Grah Mauvais mélange comme le shit et la coke Pah, je sais qui a des humains qu'ils veulent ma peau Pah Je sais qui a des humains qu'ils veulent me faire à cause du Extorsion et vol à main armée Brr Eux, ils sortent en boîte, ils ont en jamais ramener Rah, jamais vendre la puce, jamais fumer le taille-dé Rah</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>H.LD et Beendo H.LD et Beendo Ray Da Prince Ça s'allume pour quelques notes de piano Piano, ça s'allume comme le joint qui tourne dans l'Viano Grah J'ai fait dans l'foot, dans la stup' comme Adriano Gang, j'ai vu l'chemin d'la hess, donc j'en ai pris un autre Poh Le-le ient-cli abonné, il a repris un autre Yes, malveillant comme Sauron qui a repris l'anneau Han On souhaite la mort des opps et une longue vie à nous Nous, on souhaite la mort des cops et a ceux qui avouent Bouh J'suis-j'suis v'nu en France pour voler tout c'qui était à nous, une moto d'vant chez toi juste pour t'pousser à bout Gang Ces salopes, ils galèrent à faire partir un bout, j'prends les feuilles chez l'pakat et les clopes, chez l'indou Yes Le vol ou la stup', on a toucher à tout Tout, on a même des bastos qui peuvent t'laisser à terre Pah Faut baiser l'pe-ra et attendre qu'il accouche et prendre la kichta une fois arrivé à terme Pah, pah H.LD et Beendo H.LD, H.LD et Beendo Grah Mauvais mélange comme le shit et la coke, je sais qui a des humains qu'ils veulent ma peau Pah Je sais qui a des humains qu'ils veulent me faire à cause du Extorsion et vol à main armée Brr Eux, ils sortent en boîte, ils ont en jamais ramener Ah nan, jamais vendre la puce, jamais fumer le taille-dé H.LD et Beendo H.LD, H.LD et Beendo Grah Mauvais mélange comme le shit et la coke, je sais qui a des humains qu'ils veulent ma peau Pah Je sais qui a des humains qu'ils veulent me faire à cause du Extorsion et vol à main armée Brr Eux, ils sortent en boîte, ils ont en jamais ramener Ah nan, jamais vendre la puce, jamais fumer le taille-dé You might also like Ça parle de terrain, t'as jamais gérer Grah, brolique, j'fais les tits-pe, ils vont t'sérer Brah J'ai pas besoin d'alliés pour aller t'effrayer Non, dans la bi'-bi' depuis qu'on est bébé Rah On sait qui est qui, toi, t'es bon qu'à chanter Ouh, H-24, défoncer sur l'chantier Grah Rentre dans la baraque, on est tous ganté Pah, j'suis concentré, j'vais pas tombé Pah La be-her fait trop des ravages, remontada, ça fuck les radars Pah J'ai calé huit balles dans l'appart' Ouh, tu comprend pourquoi j'ai la barre ? Grah J'élabore toujours, j'ai la dalle Rah, j'la fais crié, pourtant, j'suis pas au max Rah Sur l'terrain, en full black Rah, j'suis dans ma zone et j'encule toute la baque Pah H.LD et Beendo H.LD, grah, H.LD et Beendo Grah Mauvais mélange comme le shit et la coke, je sais qui a des humains qu'ils veulent ma peau Pah Je sais qui a des humains qu'ils veulent me faire à cause du Extorsion et vol à main armée Brr Eux, ils sortent en boîte, ils ont en jamais ramener Ah nan, jamais vendre la puce, jamais fumer le taille-dé Rah H.LD et Beendo Ouh, H.LD et Beendo Grah Mauvais mélange comme le shit et la coke Pah, je sais qui a des humains qu'ils veulent ma peau Pah Je sais qui a des humains qu'ils veulent me faire à cause du Extorsion et vol à main armée Brr Eux, ils sortent en boîte, ils ont en jamais ramener Rah, jamais vendre la puce, jamais fumer le taille-dé Rah</t>
+          <t>H.LD et Beendo H.LD et Beendo Ray Da Prince Ça s'allume pour quelques notes de piano Piano, ça s'allume comme le joint qui tourne dans l'Viano Grah J'ai fait dans l'foot, dans la stup' comme Adriano Gang, j'ai vu l'chemin d'la hess, donc j'en ai pris un autre Poh Le-le ient-cli abonné, il a repris un autre Yes, malveillant comme Sauron qui a repris l'anneau Han On souhaite la mort des opps et une longue vie à nous Nous, on souhaite la mort des cops et a ceux qui avouent Bouh J'suis-j'suis v'nu en France pour voler tout c'qui était à nous, une moto d'vant chez toi juste pour t'pousser à bout Gang Ces salopes, ils galèrent à faire partir un bout, j'prends les feuilles chez l'pakat et les clopes, chez l'indou Yes Le vol ou la stup', on a toucher à tout Tout, on a même des bastos qui peuvent t'laisser à terre Pah Faut baiser l'pe-ra et attendre qu'il accouche et prendre la kichta une fois arrivé à terme Pah, pah H.LD et Beendo H.LD, H.LD et Beendo Grah Mauvais mélange comme le shit et la coke, je sais qui a des humains qu'ils veulent ma peau Pah Je sais qui a des humains qu'ils veulent me faire à cause du Extorsion et vol à main armée Brr Eux, ils sortent en boîte, ils ont en jamais ramener Ah nan, jamais vendre la puce, jamais fumer le taille-dé H.LD et Beendo H.LD, H.LD et Beendo Grah Mauvais mélange comme le shit et la coke, je sais qui a des humains qu'ils veulent ma peau Pah Je sais qui a des humains qu'ils veulent me faire à cause du Extorsion et vol à main armée Brr Eux, ils sortent en boîte, ils ont en jamais ramener Ah nan, jamais vendre la puce, jamais fumer le taille-dé Ça parle de terrain, t'as jamais gérer Grah, brolique, j'fais les tits-pe, ils vont t'sérer Brah J'ai pas besoin d'alliés pour aller t'effrayer Non, dans la bi'-bi' depuis qu'on est bébé Rah On sait qui est qui, toi, t'es bon qu'à chanter Ouh, H-24, défoncer sur l'chantier Grah Rentre dans la baraque, on est tous ganté Pah, j'suis concentré, j'vais pas tombé Pah La be-her fait trop des ravages, remontada, ça fuck les radars Pah J'ai calé huit balles dans l'appart' Ouh, tu comprend pourquoi j'ai la barre ? Grah J'élabore toujours, j'ai la dalle Rah, j'la fais crié, pourtant, j'suis pas au max Rah Sur l'terrain, en full black Rah, j'suis dans ma zone et j'encule toute la baque Pah H.LD et Beendo H.LD, grah, H.LD et Beendo Grah Mauvais mélange comme le shit et la coke, je sais qui a des humains qu'ils veulent ma peau Pah Je sais qui a des humains qu'ils veulent me faire à cause du Extorsion et vol à main armée Brr Eux, ils sortent en boîte, ils ont en jamais ramener Ah nan, jamais vendre la puce, jamais fumer le taille-dé Rah H.LD et Beendo Ouh, H.LD et Beendo Grah Mauvais mélange comme le shit et la coke Pah, je sais qui a des humains qu'ils veulent ma peau Pah Je sais qui a des humains qu'ils veulent me faire à cause du Extorsion et vol à main armée Brr Eux, ils sortent en boîte, ils ont en jamais ramener Rah, jamais vendre la puce, jamais fumer le taille-dé Rah</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Isma, Isma, Isma Dix balles la puce, quinze la PCS Pfiou, quand tu t'énerves, tu montres toutes tes faiblesses Faiblesses J'ai jamais fait bleh' Fait bleh' parce que j'suis fort et qu'j'suis pas un faiblard En c'moment, en c'moment En c'moment, que j'rentre tard, j'suis avec une racli, j'suis pas un fêtard Han Fais ça bien si tu sort un pétard, il roule, il tasse, il tire sur un pétou Dehors, c'est la maison, j'suis serein partout, j'ai toucher l'gros lot si j'baise la fille d'un Partouche J'mets que des scores, y a pas d un partout, l'argent, c'est dur à donner comm un Pardon On s'sent pas bien ici, alors, partons Eh, j'me mélange pas trop dans leur partouze Nan, nan J'vais sucer personnes, c'est moi l'patron, tu tiens à ta vie, c'est moi qui tiens l'bâton Brr J'vais pas arrêter l'rap quand on va t'pister, j'te baise as-p, salope, va t'tester T'arrête pas les balles comme Valdes, il parle mal, bah, on va l'ter-sau Mon caleçon, elle va l'descendre et mes rimes, elles valent des sommes Pour ça qu'j'fais du papier de janvier à décembre, en chantant sur des instrument' et sur des samples Écrire, pour moi, c'est pas si simple mais j'peux niquer l'pe-ra si ça m'plaît Brr Tu payes pas, tu vas servir d'exemple Poh, on va l'niquer et on prend aussi sa Play' J'suis comme Kylian Mbappé, j'aime le papier, j'aime palper Ils pensent qu'ils sont trop loin, en vrai, ils sont pas prêt, ils sont dans la maxence comme Caqueret Beendo Zarsis aka Beendo Z Beendo Z, de long en large On en a besoins, rends nous l'argent Rends nous l'argent, elle connaît la suite quand elle rentre dans la chambre J'ai que l'BAC mais les profs peuvent pas écrire mes textes Nan, nan, si ils essayent, j'leur mets les mêmes notes qu'ils m'mettaient Ah-ah J'vais chercher mes bébés, j'vais chercher mes tales, pour après, aller investir sur mes terres Le truc marron cellophané, c'est pas d'la terre, c'que tu fait, j'l'ai d'jà fait, donc essaye pas d'la faire, s'te plaît Pour ton ex, t'existe plus, j'peux pas m'empêcher d'vendre, j'résiste plus On mélange pas l'perso et l'professionnel Nan, nan, comme Kylian, j'voulais être joueur professionnel Mais-mais là, j'vais au studio chaque semaines Chaque semaines et à chaque fin d'séances, on m'dit C'est quoi ce miel ? You might also like J'vais pas arrêter l'rap quand on va t'pister, j'te baise as-p, salope, va t'tester T'arrête pas les balles comme Valdes, il parle mal, bah, on va l'ter-sau Mon caleçon, elle va l'descendre et mes rimes, elles valent des sommes Pour ça qu'j'fais du papier de janvier à décembre, en chantant sur des instrument' et sur des samples Écrire, pour moi, c'est pas si simple mais j'peux niquer l'pe-ra si ça m'plaît Brr Tu payes pas, tu vas servir d'exemple Poh, on va l'niquer et on prend aussi sa Play' J'suis comme Kylian Mbappé, j'aime le papier, j'aime palper Ils pensent qu'ils sont trop loin, en vrai, ils sont pas prêt, ils sont dans la maxence comme Caqueret J'vais pas arrêter l'rap quand on va t'pister, j'te baise as-p, salope, va t'tester T'arrête pas les balles comme Valdes, il parle mal, bah, on va l'ter-sau Mon caleçon, elle va l'descendre et mes rimes, elles valent des sommes Pour ça qu'j'fais du papier de janvier à décembre, en chantant sur des instrument' et sur des samples Écrire, pour moi, c'est pas si simple mais j'peux niquer l'pe-ra si ça m'plaît Brr Tu payes pas, tu vas servir d'exemple Poh, on va l'niquer et on prend aussi sa Play' J'suis comme Kylian Mbappé, j'aime le papier, j'aime palper Ils pensent qu'ils sont trop loin, en vrai, ils sont pas prêt, ils sont dans la maxence comme Caqueret2</t>
+          <t>Isma, Isma, Isma Dix balles la puce, quinze la PCS Pfiou, quand tu t'énerves, tu montres toutes tes faiblesses Faiblesses J'ai jamais fait bleh' Fait bleh' parce que j'suis fort et qu'j'suis pas un faiblard En c'moment, en c'moment En c'moment, que j'rentre tard, j'suis avec une racli, j'suis pas un fêtard Han Fais ça bien si tu sort un pétard, il roule, il tasse, il tire sur un pétou Dehors, c'est la maison, j'suis serein partout, j'ai toucher l'gros lot si j'baise la fille d'un Partouche J'mets que des scores, y a pas d un partout, l'argent, c'est dur à donner comm un Pardon On s'sent pas bien ici, alors, partons Eh, j'me mélange pas trop dans leur partouze Nan, nan J'vais sucer personnes, c'est moi l'patron, tu tiens à ta vie, c'est moi qui tiens l'bâton Brr J'vais pas arrêter l'rap quand on va t'pister, j'te baise as-p, salope, va t'tester T'arrête pas les balles comme Valdes, il parle mal, bah, on va l'ter-sau Mon caleçon, elle va l'descendre et mes rimes, elles valent des sommes Pour ça qu'j'fais du papier de janvier à décembre, en chantant sur des instrument' et sur des samples Écrire, pour moi, c'est pas si simple mais j'peux niquer l'pe-ra si ça m'plaît Brr Tu payes pas, tu vas servir d'exemple Poh, on va l'niquer et on prend aussi sa Play' J'suis comme Kylian Mbappé, j'aime le papier, j'aime palper Ils pensent qu'ils sont trop loin, en vrai, ils sont pas prêt, ils sont dans la maxence comme Caqueret Beendo Zarsis aka Beendo Z Beendo Z, de long en large On en a besoins, rends nous l'argent Rends nous l'argent, elle connaît la suite quand elle rentre dans la chambre J'ai que l'BAC mais les profs peuvent pas écrire mes textes Nan, nan, si ils essayent, j'leur mets les mêmes notes qu'ils m'mettaient Ah-ah J'vais chercher mes bébés, j'vais chercher mes tales, pour après, aller investir sur mes terres Le truc marron cellophané, c'est pas d'la terre, c'que tu fait, j'l'ai d'jà fait, donc essaye pas d'la faire, s'te plaît Pour ton ex, t'existe plus, j'peux pas m'empêcher d'vendre, j'résiste plus On mélange pas l'perso et l'professionnel Nan, nan, comme Kylian, j'voulais être joueur professionnel Mais-mais là, j'vais au studio chaque semaines Chaque semaines et à chaque fin d'séances, on m'dit C'est quoi ce miel ? J'vais pas arrêter l'rap quand on va t'pister, j'te baise as-p, salope, va t'tester T'arrête pas les balles comme Valdes, il parle mal, bah, on va l'ter-sau Mon caleçon, elle va l'descendre et mes rimes, elles valent des sommes Pour ça qu'j'fais du papier de janvier à décembre, en chantant sur des instrument' et sur des samples Écrire, pour moi, c'est pas si simple mais j'peux niquer l'pe-ra si ça m'plaît Brr Tu payes pas, tu vas servir d'exemple Poh, on va l'niquer et on prend aussi sa Play' J'suis comme Kylian Mbappé, j'aime le papier, j'aime palper Ils pensent qu'ils sont trop loin, en vrai, ils sont pas prêt, ils sont dans la maxence comme Caqueret J'vais pas arrêter l'rap quand on va t'pister, j'te baise as-p, salope, va t'tester T'arrête pas les balles comme Valdes, il parle mal, bah, on va l'ter-sau Mon caleçon, elle va l'descendre et mes rimes, elles valent des sommes Pour ça qu'j'fais du papier de janvier à décembre, en chantant sur des instrument' et sur des samples Écrire, pour moi, c'est pas si simple mais j'peux niquer l'pe-ra si ça m'plaît Brr Tu payes pas, tu vas servir d'exemple Poh, on va l'niquer et on prend aussi sa Play' J'suis comme Kylian Mbappé, j'aime le papier, j'aime palper Ils pensent qu'ils sont trop loin, en vrai, ils sont pas prêt, ils sont dans la maxence comme Caqueret2</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Fulltrap Fulltrap Poh, poh, poh J'suis pas, jsuis pas une table de boîte mais j'suis réservé Bouh, j'ai tiré une taffe et la fumée monte au cerveau Jsuis pas écervelé mais je sais qu'vous saviez déjà, j'vais réussir parce que je m'en fout de l'avis des gens J'jure pas sur ma mère, je jure pas sur la vie des gens Nan, nan, j'ai sorti un truc et sur ton cou, t'as mis tes jambes Bouh Tas baisé vla les meufs, y en a une qui t'a pris tes chances Ah-ah, Kasma qui mappelle, vas-y, j'prends un Capri, j'dscends Tu meurs incinéré mais tu sais pas qui a pris tes cndres Brr, j'ai souvent gagné mais javoue que j'ai appris, des fois C'est la pénurie, on au-, on augmente le prix, des fois, j'ai pris des pêchés mais j'me console parce que j'ai pris des talles Cash Quand j'rentre dans la cabine, je fais des hits, malgré moi, ramène-moi mes sous ou j'te mets des kicks, McGregor McGregor J'ai des images noires mais j'fais pas d'magie noire Poh, j'veux faire des sous de toutes les façons possible et inimaginable J'rentre-j'rentre dans la cabine, j'fais des hits, malgré moi Malgré moi, ramène-moi mes sous ou j'te kick, McGregor McGregor McGregor, j'fais des hits, malgré moi Malgré moi, ramène-moi mes sous ou j'te kick, McGregor J'rentre dans la cabine, j'fais des hits, malgré moi Malgré moi, ramène-moi mes sous ou j'te kick, McGregor McGregor McGregor, j'fais des hits, malgré moi Malgré moi, ramène-moi mes sous ou j'te kick, McGregor J'me nique la santé au studio en fumant des teh Brr, on s'est endurci dans la calle en faisant des dettes En faisant des dettes Je roule un joint, moi, je fais pas tête, combien tu m'dois ? J'peux calculer ça de tête Faut plus de bénéf' que de perte, donc ça vend en gros comme si c'était à Auber' Eh J'visser dans la capi', j'prends le RER A ou B, j'connais des meufs de Paris qui vont bosser à Roubaix Ouh J'avoue, les keufs de Paris, ils sont chauds, ils veulent shooter, Porte de la Chapelle, y a pas de Chapelle, y a que des shootés Eh J'fais des pubs, des collab', des photos, des shootings, j'vais la ken mais je l'emmènerai pas faire du shopping Nan, nan J'suis avec le Neuf, Majuscule et Gueule d'Ange Brr, j'marche avec ceux qui peuvent flairer le danger Brr Dans le rap, si t'es tranquille, c'est que t'as pas mangé Cash, cash, j'veux le salaire à Mendy, moi, j'veux pas mendier You might also like J'rentre-j'rentre dans la cabine, j'fais des hits, malgré moi Malgré moi, ramène-moi mes sous ou j'te kick, McGregor McGregor McGregor, j'fais des hits, malgré moi Malgré moi, ramène-moi mes sous ou j'te kick, McGregor J'rentre dans la cabine, j'fais des hits, malgré moi Malgré moi, ramène-moi mes sous ou j'te kick, McGregor McGregor McGregor, j'fais des hits, malgré moi Malgré moi, ramène-moi mes sous ou j'te kick, McGregor Who's the fuck is that guy? Who's the fuck is this guy? Now, I know who I am, who's the fuck is that guy? Ah-ah, oh my God Beendo, brr Carré</t>
+          <t>Fulltrap Fulltrap Poh, poh, poh J'suis pas, jsuis pas une table de boîte mais j'suis réservé Bouh, j'ai tiré une taffe et la fumée monte au cerveau Jsuis pas écervelé mais je sais qu'vous saviez déjà, j'vais réussir parce que je m'en fout de l'avis des gens J'jure pas sur ma mère, je jure pas sur la vie des gens Nan, nan, j'ai sorti un truc et sur ton cou, t'as mis tes jambes Bouh Tas baisé vla les meufs, y en a une qui t'a pris tes chances Ah-ah, Kasma qui mappelle, vas-y, j'prends un Capri, j'dscends Tu meurs incinéré mais tu sais pas qui a pris tes cndres Brr, j'ai souvent gagné mais javoue que j'ai appris, des fois C'est la pénurie, on au-, on augmente le prix, des fois, j'ai pris des pêchés mais j'me console parce que j'ai pris des talles Cash Quand j'rentre dans la cabine, je fais des hits, malgré moi, ramène-moi mes sous ou j'te mets des kicks, McGregor McGregor J'ai des images noires mais j'fais pas d'magie noire Poh, j'veux faire des sous de toutes les façons possible et inimaginable J'rentre-j'rentre dans la cabine, j'fais des hits, malgré moi Malgré moi, ramène-moi mes sous ou j'te kick, McGregor McGregor McGregor, j'fais des hits, malgré moi Malgré moi, ramène-moi mes sous ou j'te kick, McGregor J'rentre dans la cabine, j'fais des hits, malgré moi Malgré moi, ramène-moi mes sous ou j'te kick, McGregor McGregor McGregor, j'fais des hits, malgré moi Malgré moi, ramène-moi mes sous ou j'te kick, McGregor J'me nique la santé au studio en fumant des teh Brr, on s'est endurci dans la calle en faisant des dettes En faisant des dettes Je roule un joint, moi, je fais pas tête, combien tu m'dois ? J'peux calculer ça de tête Faut plus de bénéf' que de perte, donc ça vend en gros comme si c'était à Auber' Eh J'visser dans la capi', j'prends le RER A ou B, j'connais des meufs de Paris qui vont bosser à Roubaix Ouh J'avoue, les keufs de Paris, ils sont chauds, ils veulent shooter, Porte de la Chapelle, y a pas de Chapelle, y a que des shootés Eh J'fais des pubs, des collab', des photos, des shootings, j'vais la ken mais je l'emmènerai pas faire du shopping Nan, nan J'suis avec le Neuf, Majuscule et Gueule d'Ange Brr, j'marche avec ceux qui peuvent flairer le danger Brr Dans le rap, si t'es tranquille, c'est que t'as pas mangé Cash, cash, j'veux le salaire à Mendy, moi, j'veux pas mendier J'rentre-j'rentre dans la cabine, j'fais des hits, malgré moi Malgré moi, ramène-moi mes sous ou j'te kick, McGregor McGregor McGregor, j'fais des hits, malgré moi Malgré moi, ramène-moi mes sous ou j'te kick, McGregor J'rentre dans la cabine, j'fais des hits, malgré moi Malgré moi, ramène-moi mes sous ou j'te kick, McGregor McGregor McGregor, j'fais des hits, malgré moi Malgré moi, ramène-moi mes sous ou j'te kick, McGregor Who's the fuck is that guy? Who's the fuck is this guy? Now, I know who I am, who's the fuck is that guy? Ah-ah, oh my God Beendo, brr Carré</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Couplet unique Beendo Z,Tiago le durYou might also like</t>
+          <t>Couplet unique Beendo Z,Tiago le dur</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>La bouche qui mange ne parle pas, eux ils parlent beaucoup, j'crois qu'ils ont pas d'argent On m'a dit tu peux pas percer si t'as pas d'agent J'veux des sous sans donner mon cul comme Kardashian, comme un bracelet électronique, j'suis attachant Faudra pas rater l'occas' quand t'auras ta chance, sale pute, j'viendrai chez toi quand t'auras ta chambre J'cours après les sous, j'ai perdu du poids, j'ai prié mon Dieu j'ai pas touché du bois Si t'es pas chez toi fais belek à c'que tu bois, si t'es dans les bails, faut pas dire tout c'que tu vois C'est comme ça la vi, t'auras pas tout c'que tu veux, j'vais m'éloigner d l'enfer à petit feu C'est comme ça la vie, t'auras pas tout c'que tu veux, j'vais m'éloigner de l'enfer à petit feu Ça toque à la maison, j'aime pas ce genre de scène, j'me suis fait fouiller à la station George V Jtire une taffe sur lpétou, j'ai la gorge sèche, j'suis pas à fond pour me faire encore, je sais J'ai jamais dit plus tôt tout c'que j'ai eu plus tard, j'ai détaille au couteau c'qui t'envoie sur Pluton Des raclos comme toi, j'en ai déjà vu plus d'un, j'ai caché l'détail comme si c'était mon bulletin La plaquette à moins d'cinq, j'fais partir en moins d'deux, j'ai d'jà vu des athées qui disaient oh, mon Dieu Dis-toi même les athées, ils disent Dieu merci, j'veux être intouchable comme Omar Sy Et j'vais pas rapper que sur d'la drill Mais j'veux toujours baiser Astrid Dans les enceintes, ça tabasse, t'es pas fumeur mais on passe à tabac Beendo Zarzis a.k.a Beendo Z, connu pour extorsion et vol à main armée J'étais dans l'foot, là j'suis dans la chanson, j'la veux vraiment cette baraque à Miami Pour profiter d'la vie, il faut d'la maille à mort, pour profiter d'la vie, malheureusement faut pêcher Pour profiter, le ient-cli vient pécho, toi tu perds ton sang froid et tu fais l'chaud Beendo Zarzis a.k.a Beendo Z, connu pour extorsion et vol à main armée J'étais dans l'foot, là j'suis dans la chanson, j'la veux vraiment cette baraque à Miami Pour profiter d'la vie, il faut d'la maille à mort, pour profiter d'la vie, malheureusement faut pêcher Pour profiter, le ient-cli vient pécho, toi tu perds ton sang froid et tu fais l'chaud You might also like Le temps c'est d'l'argent, y a pas la notion du temps en cellule Fuck, fuck monsieur l'agent, j'suis pas médecin mais j'fais une radio à ta serrure Des des vrais amis, c'est rare, bicrave à perte, c'est nul Perquis' menottée, c'est 3aal , ils voient qu'ça va péter, ils veulent cé-su Ne m'sers pas la main, j'suis pas ton pote en fait, j'suis un artiste, pour mes finances, faut pas t'en faire J'rappe de ouf mais ma daronne c'est pas qu'j'en fais, j'rappe de ouf mais ma daronne c'est pas qu'j'suis chaud Pour faire du blé, j'ai tué mon cur d'artichaut, j'étais dans l'rouge mais j'ai pas joué à Dijon Là, j'suis dans le vert, mais je joue pas à Sainté, en une journée, j'fais c'que tu fais en dix jours Beendo Zarzis a.k.a Beendo Z, connu pour extorsion et vol à main armée J'étais dans l'foot, là j'suis dans la chanson, j'la veux vraiment cette baraque à Miami Pour profiter d'la vie, il faut d'la maille à mort, pour profiter d'la vie, malheureusement faut pêcher Pour profiter, le ient-cli vient pécho, toi tu perds ton sang froid et tu fais l'chaud Zarzis a.k.a Beendo Z, connu pour extorsion et vol à main armée J'étais dans l'foot, là j'suis dans la chanson, j'la veux vraiment cette baraque à Miami Pour profiter d'la vie, il faut d'la maille à mort, pour profiter d'la vie, malheureusement faut pêcher Pour profiter, le ient-cli vient pécho, toi tu perds ton sang froid et tu fais l'chaud Zarzis a.k.a Beendo Z, connu pour extorsion et vol à main armée J'étais dans l'foot, là j'suis dans la chanson, j'la veux vraiment cette baraque à Miami Pour profiter d'la vie, il faut d'la maille à mort, pour profiter d'la vie, malheureusement faut pêcher Pour profiter, le ient-cli vient pécho, toi tu perds ton sang froid et tu fais l'chaud Zarzis a.k.a Beendo Z, connu pour extorsion et vol à main armée J'étais dans l'foot, là j'suis dans la chanson, j'la veux vraiment cette baraque à Miami Pour profiter d'la vie, il faut d'la maille à mort, pour profiter d'la vie, malheureusement faut pêcher Pour profiter, le ient-cli vient pécho, toi tu perds ton sang froid et tu fais l'chaud</t>
+          <t>La bouche qui mange ne parle pas, eux ils parlent beaucoup, j'crois qu'ils ont pas d'argent On m'a dit tu peux pas percer si t'as pas d'agent J'veux des sous sans donner mon cul comme Kardashian, comme un bracelet électronique, j'suis attachant Faudra pas rater l'occas' quand t'auras ta chance, sale pute, j'viendrai chez toi quand t'auras ta chambre J'cours après les sous, j'ai perdu du poids, j'ai prié mon Dieu j'ai pas touché du bois Si t'es pas chez toi fais belek à c'que tu bois, si t'es dans les bails, faut pas dire tout c'que tu vois C'est comme ça la vi, t'auras pas tout c'que tu veux, j'vais m'éloigner d l'enfer à petit feu C'est comme ça la vie, t'auras pas tout c'que tu veux, j'vais m'éloigner de l'enfer à petit feu Ça toque à la maison, j'aime pas ce genre de scène, j'me suis fait fouiller à la station George V Jtire une taffe sur lpétou, j'ai la gorge sèche, j'suis pas à fond pour me faire encore, je sais J'ai jamais dit plus tôt tout c'que j'ai eu plus tard, j'ai détaille au couteau c'qui t'envoie sur Pluton Des raclos comme toi, j'en ai déjà vu plus d'un, j'ai caché l'détail comme si c'était mon bulletin La plaquette à moins d'cinq, j'fais partir en moins d'deux, j'ai d'jà vu des athées qui disaient oh, mon Dieu Dis-toi même les athées, ils disent Dieu merci, j'veux être intouchable comme Omar Sy Et j'vais pas rapper que sur d'la drill Mais j'veux toujours baiser Astrid Dans les enceintes, ça tabasse, t'es pas fumeur mais on passe à tabac Beendo Zarzis a.k.a Beendo Z, connu pour extorsion et vol à main armée J'étais dans l'foot, là j'suis dans la chanson, j'la veux vraiment cette baraque à Miami Pour profiter d'la vie, il faut d'la maille à mort, pour profiter d'la vie, malheureusement faut pêcher Pour profiter, le ient-cli vient pécho, toi tu perds ton sang froid et tu fais l'chaud Beendo Zarzis a.k.a Beendo Z, connu pour extorsion et vol à main armée J'étais dans l'foot, là j'suis dans la chanson, j'la veux vraiment cette baraque à Miami Pour profiter d'la vie, il faut d'la maille à mort, pour profiter d'la vie, malheureusement faut pêcher Pour profiter, le ient-cli vient pécho, toi tu perds ton sang froid et tu fais l'chaud Le temps c'est d'l'argent, y a pas la notion du temps en cellule Fuck, fuck monsieur l'agent, j'suis pas médecin mais j'fais une radio à ta serrure Des des vrais amis, c'est rare, bicrave à perte, c'est nul Perquis' menottée, c'est 3aal , ils voient qu'ça va péter, ils veulent cé-su Ne m'sers pas la main, j'suis pas ton pote en fait, j'suis un artiste, pour mes finances, faut pas t'en faire J'rappe de ouf mais ma daronne c'est pas qu'j'en fais, j'rappe de ouf mais ma daronne c'est pas qu'j'suis chaud Pour faire du blé, j'ai tué mon cur d'artichaut, j'étais dans l'rouge mais j'ai pas joué à Dijon Là, j'suis dans le vert, mais je joue pas à Sainté, en une journée, j'fais c'que tu fais en dix jours Beendo Zarzis a.k.a Beendo Z, connu pour extorsion et vol à main armée J'étais dans l'foot, là j'suis dans la chanson, j'la veux vraiment cette baraque à Miami Pour profiter d'la vie, il faut d'la maille à mort, pour profiter d'la vie, malheureusement faut pêcher Pour profiter, le ient-cli vient pécho, toi tu perds ton sang froid et tu fais l'chaud Zarzis a.k.a Beendo Z, connu pour extorsion et vol à main armée J'étais dans l'foot, là j'suis dans la chanson, j'la veux vraiment cette baraque à Miami Pour profiter d'la vie, il faut d'la maille à mort, pour profiter d'la vie, malheureusement faut pêcher Pour profiter, le ient-cli vient pécho, toi tu perds ton sang froid et tu fais l'chaud Zarzis a.k.a Beendo Z, connu pour extorsion et vol à main armée J'étais dans l'foot, là j'suis dans la chanson, j'la veux vraiment cette baraque à Miami Pour profiter d'la vie, il faut d'la maille à mort, pour profiter d'la vie, malheureusement faut pêcher Pour profiter, le ient-cli vient pécho, toi tu perds ton sang froid et tu fais l'chaud Zarzis a.k.a Beendo Z, connu pour extorsion et vol à main armée J'étais dans l'foot, là j'suis dans la chanson, j'la veux vraiment cette baraque à Miami Pour profiter d'la vie, il faut d'la maille à mort, pour profiter d'la vie, malheureusement faut pêcher Pour profiter, le ient-cli vient pécho, toi tu perds ton sang froid et tu fais l'chaud</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>À mort, à mort, à mort Tou-tou-tou-tou-touh Skuna Maman, bobo, les autres, ils parlent sur moi Je sais qu'ils veulent me voir six pieds sous terre Hein, hein, j'te me-fu comme mon teh Opps C'est ta tête en d'ssous d'ma paire, réussite et jalousie font la paire La paire On traîne dehors avec le seum Okay, j'fini la 'teille, j'parle tout seul Ouh De tolérance, j'atteins l'seuil, boom, tu vas rejoindre les cieux Boom C'est sûr que demain, j'fais mieux, seulement, si Dieu le veut Si Dieu le veut Ice, on dirait qu'j'vis dans l'océan Océan, maman dit qu'mon cur est géant Han, han J'récupère ça comme le gérant Han, han, ils sont bizarres quand y a d'l'argent J'récupère ça comme le bosseur Les boloss défilent en bas, gangsta depuis mes premiers pas, pah, pah, pah, c'est les balles qui pleuvent, c'est ta mille-fa qu'on laisse en deuil En deuil Les boloss défilent en bas, gangsta depuis mes premiers pas Gangsta, pah, pah, pah, c'est les balles qui pleuvent, c'est ta mille-fa qu'on laisse en deuil Five Si y a rien à gratter, j'suis pas à l'abri de m'faire allumer Maman prie pour moi, les autres, ils parlent sur moi Il m'faut d'la money à mort, à mort, à mort, un lingot passe par le feu avant d'devenir de l'or Il m'faut d'la money à mort, à mort, à mort, pour ce papier, pour ce cash, nous, on a traîné dehors Faut faire d'la money à mort, si y a rien à gratter, j'suis pas à l'abri de m'faire allumer Maman prie pour moi, les autres, ils parlent sur moi, en bas du bâtiment, on a connu tellement d'drames Hum, hum You might also like Je n'raconte pas la vie d'mes grands frères parce que j'en n'ai pas et quand j'fais une erreur, j'essaye de réparer, 9.5, 7.5, ici, c'est Paris Ici, c'est Paris J'arrêterai l'rap quand j'aurai un million et plus grand-chose à dire, à c'qui p', chez toi, c'est chaud, ça tire Y a que sur Ultimate qu'elle est chaude sa team, on connaît le job, on connaît le boulot On fait des billes et on s'fait des gros boulards, on visser dans les rues, avenues et boulevards, un peu plus de money, un peu plus de pouvoir Plus de livrettes, plus de pourboires, les pourboires, j'les utilisais pour manger, pas pour boire Non mais là, j'ai envie d'me ranger, il faut l'croire pour l'voir Eh C'est Beendo dans tes écouteurs et Leto, empiler les briques comme les Legos Quand ça parle en chiffres, ça part en négo', faut six chiffres, pour ma famille et mon égo Gang J'pense au bled et aux MoneyGram Gram, faut rester au top et pas être relégable Brr Quand ça sort un grr, ils parlent plus trop les gars, j'me salis plus les mains, je me mets plus trop les gants Si y a rien à gratter, j'suis pas à l'abri de m'faire allumer Maman prie pour moi, les autres, ils parlent sur moi Il m'faut d'la money à mort, à mort, à mort, un lingot passe par le feu avant d'devenir de l'or Il m'faut d'la money à mort, à mort, à mort, pour ce papier, pour ce cash, nous, on a traîné dehors Faut faire d'la money à mort, si y a rien à gratter, j'suis pas à l'abri de m'faire allumer Maman prie pour moi, les autres, ils parlent sur moi, en bas du bâtiment, on a connu tellement d'drames Hum, hum À mort, à mort, à mort C'est Beendo Tou-tou-tou-tou-tou À mort À mort À mort, à mort, les autres, ils parlent sur moi Le soleil dehors Dehors</t>
+          <t>À mort, à mort, à mort Tou-tou-tou-tou-touh Skuna Maman, bobo, les autres, ils parlent sur moi Je sais qu'ils veulent me voir six pieds sous terre Hein, hein, j'te me-fu comme mon teh Opps C'est ta tête en d'ssous d'ma paire, réussite et jalousie font la paire La paire On traîne dehors avec le seum Okay, j'fini la 'teille, j'parle tout seul Ouh De tolérance, j'atteins l'seuil, boom, tu vas rejoindre les cieux Boom C'est sûr que demain, j'fais mieux, seulement, si Dieu le veut Si Dieu le veut Ice, on dirait qu'j'vis dans l'océan Océan, maman dit qu'mon cur est géant Han, han J'récupère ça comme le gérant Han, han, ils sont bizarres quand y a d'l'argent J'récupère ça comme le bosseur Les boloss défilent en bas, gangsta depuis mes premiers pas, pah, pah, pah, c'est les balles qui pleuvent, c'est ta mille-fa qu'on laisse en deuil En deuil Les boloss défilent en bas, gangsta depuis mes premiers pas Gangsta, pah, pah, pah, c'est les balles qui pleuvent, c'est ta mille-fa qu'on laisse en deuil Five Si y a rien à gratter, j'suis pas à l'abri de m'faire allumer Maman prie pour moi, les autres, ils parlent sur moi Il m'faut d'la money à mort, à mort, à mort, un lingot passe par le feu avant d'devenir de l'or Il m'faut d'la money à mort, à mort, à mort, pour ce papier, pour ce cash, nous, on a traîné dehors Faut faire d'la money à mort, si y a rien à gratter, j'suis pas à l'abri de m'faire allumer Maman prie pour moi, les autres, ils parlent sur moi, en bas du bâtiment, on a connu tellement d'drames Hum, hum Je n'raconte pas la vie d'mes grands frères parce que j'en n'ai pas et quand j'fais une erreur, j'essaye de réparer, 9.5, 7.5, ici, c'est Paris Ici, c'est Paris J'arrêterai l'rap quand j'aurai un million et plus grand-chose à dire, à c'qui p', chez toi, c'est chaud, ça tire Y a que sur Ultimate qu'elle est chaude sa team, on connaît le job, on connaît le boulot On fait des billes et on s'fait des gros boulards, on visser dans les rues, avenues et boulevards, un peu plus de money, un peu plus de pouvoir Plus de livrettes, plus de pourboires, les pourboires, j'les utilisais pour manger, pas pour boire Non mais là, j'ai envie d'me ranger, il faut l'croire pour l'voir Eh C'est Beendo dans tes écouteurs et Leto, empiler les briques comme les Legos Quand ça parle en chiffres, ça part en négo', faut six chiffres, pour ma famille et mon égo Gang J'pense au bled et aux MoneyGram Gram, faut rester au top et pas être relégable Brr Quand ça sort un grr, ils parlent plus trop les gars, j'me salis plus les mains, je me mets plus trop les gants Si y a rien à gratter, j'suis pas à l'abri de m'faire allumer Maman prie pour moi, les autres, ils parlent sur moi Il m'faut d'la money à mort, à mort, à mort, un lingot passe par le feu avant d'devenir de l'or Il m'faut d'la money à mort, à mort, à mort, pour ce papier, pour ce cash, nous, on a traîné dehors Faut faire d'la money à mort, si y a rien à gratter, j'suis pas à l'abri de m'faire allumer Maman prie pour moi, les autres, ils parlent sur moi, en bas du bâtiment, on a connu tellement d'drames Hum, hum À mort, à mort, à mort C'est Beendo Tou-tou-tou-tou-tou À mort À mort À mort, à mort, les autres, ils parlent sur moi Le soleil dehors Dehors</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Ouais Moi, j'suis au studio, là, carrément, là On s'enregistre un p'tit son, là J'arrive pas à finir mon dessert, j'pense à c'que s'ra ma vie après mon décès Mon décès f'ra v'nir au cimetière ceux qui me maudissait Han, maudit rap, maudit sons, maudit scènes J'connais l'début, pas le fin mot d'l'histoire, j'pense à des fins, j'en ai au moins une dizaine Je perce et j'pense à c'que les gens disaient, j'suis dans l'carré d'en haut, pas dans l'carré d'en bas On fait toujours des ronds, donc c'est carré dans l'axe, j'me noie dans des problèms aussi grand qu'un lac Nous, on fait single d'or, même quand ça leak Ouais, commnt convaincre quelqu'un que tu n'ment pas ? Quand tu n'ment pas Han, j'ressens tes problèmes quand tu m'en parles et j'retiens toutes les promesses que tu n'tiens pas T'inquiète, c'est bien rentré dans mes tympans J'ai v'-esqui le bureau, j'ai v'-esqui la fac, première G.A.V, j'me fait péter à la Fnac J'ai appris que quand tu mets tes mains dans l'sale, ça arrive de s'faire péter la main dans l'sac Ouais J'ai adouci mes textes pour ne pas choquer, mon son passe en boîtes mais y a pas d'showcases Et non Tu veux ma confiance ? J'te la passe, okay mais j'vais pas ouvrir mon cur, donc faut pas toquer Faut pas sonner, tu peux pas réussir si t'es pas passionné, j'peux la ken même si j'connais pas son name J'suis un rappeur, donc elle me passe son number, même si j'connais bien son mec J'fais des millions d'vues comme RASKA Brr, j'peux rapper ou faire la mélo' comme R.S.K.O Elle monte pas dans l'RS si elle est K.O, même si j'suis vénère, j'ai l'sourire de Leão Beendo Zarsis, aka Beendo Z, deux-mille vingt-trois, la che-po est pleine d'oseille Brr, brr Qui dit plus d'oseille dit plus de taff De taff, qui dit plus de taff dit plus de cernes De cernes J'envoie des punch' tah les bulldozer, quand ça parle argent, j'suis plutôt sah J'suis pour les relations plus tôt saines mais j'dis pas Non à un plan plus toxique You might also like Beendo Zarsis, aka Beendo Z, deux-mille vingt-trois, la che-po est pleine d'oseille Qui dit plus d'oseille dit plus de taff De taff, qui dit plus de taff dit plus de cernes De cernes J'envoie des punch' tah les bulldozer, quand ça parle argent, j'suis plutôt sah Plus tôt sah J'suis pour les relations plus tôt saines mais j'dis pas Non à un plan plus toxique Beendo Zarsis, aka Beendo Z, deux-mille vingt-trois, la che-po est pleine d'oseille D'oseille Qui dit plus d'oseille dit plus de taff De taff, qui dit plus de taff dit plus de cernes De cernes J'envoie des punch' tah les bulldozer, quand ça parle argent, j'suis plutôt sah Plus tôt sah J'suis pour les relations plus tôt saines mais j'dis pas Non à un plan plus toxique</t>
+          <t>Ouais Moi, j'suis au studio, là, carrément, là On s'enregistre un p'tit son, là J'arrive pas à finir mon dessert, j'pense à c'que s'ra ma vie après mon décès Mon décès f'ra v'nir au cimetière ceux qui me maudissait Han, maudit rap, maudit sons, maudit scènes J'connais l'début, pas le fin mot d'l'histoire, j'pense à des fins, j'en ai au moins une dizaine Je perce et j'pense à c'que les gens disaient, j'suis dans l'carré d'en haut, pas dans l'carré d'en bas On fait toujours des ronds, donc c'est carré dans l'axe, j'me noie dans des problèms aussi grand qu'un lac Nous, on fait single d'or, même quand ça leak Ouais, commnt convaincre quelqu'un que tu n'ment pas ? Quand tu n'ment pas Han, j'ressens tes problèmes quand tu m'en parles et j'retiens toutes les promesses que tu n'tiens pas T'inquiète, c'est bien rentré dans mes tympans J'ai v'-esqui le bureau, j'ai v'-esqui la fac, première G.A.V, j'me fait péter à la Fnac J'ai appris que quand tu mets tes mains dans l'sale, ça arrive de s'faire péter la main dans l'sac Ouais J'ai adouci mes textes pour ne pas choquer, mon son passe en boîtes mais y a pas d'showcases Et non Tu veux ma confiance ? J'te la passe, okay mais j'vais pas ouvrir mon cur, donc faut pas toquer Faut pas sonner, tu peux pas réussir si t'es pas passionné, j'peux la ken même si j'connais pas son name J'suis un rappeur, donc elle me passe son number, même si j'connais bien son mec J'fais des millions d'vues comme RASKA Brr, j'peux rapper ou faire la mélo' comme R.S.K.O Elle monte pas dans l'RS si elle est K.O, même si j'suis vénère, j'ai l'sourire de Leão Beendo Zarsis, aka Beendo Z, deux-mille vingt-trois, la che-po est pleine d'oseille Brr, brr Qui dit plus d'oseille dit plus de taff De taff, qui dit plus de taff dit plus de cernes De cernes J'envoie des punch' tah les bulldozer, quand ça parle argent, j'suis plutôt sah J'suis pour les relations plus tôt saines mais j'dis pas Non à un plan plus toxique Beendo Zarsis, aka Beendo Z, deux-mille vingt-trois, la che-po est pleine d'oseille Qui dit plus d'oseille dit plus de taff De taff, qui dit plus de taff dit plus de cernes De cernes J'envoie des punch' tah les bulldozer, quand ça parle argent, j'suis plutôt sah Plus tôt sah J'suis pour les relations plus tôt saines mais j'dis pas Non à un plan plus toxique Beendo Zarsis, aka Beendo Z, deux-mille vingt-trois, la che-po est pleine d'oseille D'oseille Qui dit plus d'oseille dit plus de taff De taff, qui dit plus de taff dit plus de cernes De cernes J'envoie des punch' tah les bulldozer, quand ça parle argent, j'suis plutôt sah Plus tôt sah J'suis pour les relations plus tôt saines mais j'dis pas Non à un plan plus toxique</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Ma petite est charmante et attentionnée J'ai atteint son cur donc j'ai atteint son âme Elle me passe son nom, elle me passe son number C'est comme si elle m'donnait la lune et son arc Je fais pas des sons love d'habitude Mais j'me dis qu'il faut qu'je change mes habitudes Et même si je flingue, que mes habits tuent Mon cur, lui, d'amour il n'est pas vêtu La séduction c'est tout un art Même si ma confianc grandi aussi vite qu'un arbre J'vais t'emmner aux States, j'vais t'emmener en Arabie Par c'qu'en toi j'vois un amour et une amie Toutes les parties de ton corps sont unanimes C'est bon signe, ça veut dire que tu m'animes On finit, on regarde les dessins-animés Faut pas oublier d'rendre la chambre à midi J'attendais d'te présenter au daron Leur montrer mon trophée, ma médaille Pour ta dot, c'est quoi le taro ? C'est pas un soucis les talles J'attendais d'te présenter au daron Leur montrer mon trophée, ma médaille Pour ta dot, c'est quoi le taro ? Tu sais bien qu'c'est pas un soucis les talles You might also like Tu sais bien qu'c'est pas un soucis les talles, nan D'te présenter au daron Pour la dot, ne dis pas non S'il te plait, ne dis pas non Tu sais bien qu'c'est pas un soucis les talles, nan D'te présenter au daron Pour la dot, ne dis pas non S'il te plait, ne dis pas non J'aime les blanches, les rebeus, les noires, les 'ricaines Elles m'aiment par c'que j'suis un tueur lyricale J'leur fais des p'tites blagues pour qu'elles ricanent Car femme qui rit, à moitié dans ton lit, tu captes ? J'suis pas très grand mais en bas j'ai du cable J'attends qu'mon ex revienne, j'attends l'retour du dab J'attends un SMS qui dit Tu dates J'ai dit J'veux reconstruire quelque chose de durable Elle s'en fout d'qui j'suis, elle s'en fout qu'j'fais du rap Elle dit qu'elle m'aimerai même si j'faisais du Raï J'aime quand elle s'la donne, j'aime quand elle fait durer J'aime la voir dans la cuisine quand elle fait du riz Merci d'avoir toujours eu foi en moi Une partie d'toi est encore en moi J'remonte les jours, les semaines et les mois J'espere que tu penses encore à moi J'attendais d'te présenter au daron Leur montrer mon trophée, ma médaille Pour ta dot, c'est quoi le taro ? C'est pas un soucis les talles J'attendais d'te présenter au daron Leur montrer mon trophée, ma médaille Pour ta dot, c'est quoi le taro ? Tu sais bien qu'c'est pas un soucis les talles Tu sais bien qu'c'est pas un soucis les talles, nan D'te présenter au daron Pour la dot, ne dis pas non S'il te plait, ne dis pas non Tu sais bien qu'c'est pas un soucis les talles, nan D'te présenter au daron Pour la dot, ne dis pas non S'il te plait, ne dis pas non Beendo Zarsis, aka Beendo Z J'ai volé ton... et j'suis parti avec Viens le chercher J'attendais d'te présenter au daron Leur montrer mon trophée, ma médaille Pour ta dot, c'est quoi le taro ? C'est pas un soucis les talles J'attendais d'te présenter au daron Leur montrer mon trophée, ma médaille Pour ta dot, c'est quoi le taro ? Tu sais bien qu'c'est pas un soucis les talles</t>
+          <t>Ma petite est charmante et attentionnée J'ai atteint son cur donc j'ai atteint son âme Elle me passe son nom, elle me passe son number C'est comme si elle m'donnait la lune et son arc Je fais pas des sons love d'habitude Mais j'me dis qu'il faut qu'je change mes habitudes Et même si je flingue, que mes habits tuent Mon cur, lui, d'amour il n'est pas vêtu La séduction c'est tout un art Même si ma confianc grandi aussi vite qu'un arbre J'vais t'emmner aux States, j'vais t'emmener en Arabie Par c'qu'en toi j'vois un amour et une amie Toutes les parties de ton corps sont unanimes C'est bon signe, ça veut dire que tu m'animes On finit, on regarde les dessins-animés Faut pas oublier d'rendre la chambre à midi J'attendais d'te présenter au daron Leur montrer mon trophée, ma médaille Pour ta dot, c'est quoi le taro ? C'est pas un soucis les talles J'attendais d'te présenter au daron Leur montrer mon trophée, ma médaille Pour ta dot, c'est quoi le taro ? Tu sais bien qu'c'est pas un soucis les talles Tu sais bien qu'c'est pas un soucis les talles, nan D'te présenter au daron Pour la dot, ne dis pas non S'il te plait, ne dis pas non Tu sais bien qu'c'est pas un soucis les talles, nan D'te présenter au daron Pour la dot, ne dis pas non S'il te plait, ne dis pas non J'aime les blanches, les rebeus, les noires, les 'ricaines Elles m'aiment par c'que j'suis un tueur lyricale J'leur fais des p'tites blagues pour qu'elles ricanent Car femme qui rit, à moitié dans ton lit, tu captes ? J'suis pas très grand mais en bas j'ai du cable J'attends qu'mon ex revienne, j'attends l'retour du dab J'attends un SMS qui dit Tu dates J'ai dit J'veux reconstruire quelque chose de durable Elle s'en fout d'qui j'suis, elle s'en fout qu'j'fais du rap Elle dit qu'elle m'aimerai même si j'faisais du Raï J'aime quand elle s'la donne, j'aime quand elle fait durer J'aime la voir dans la cuisine quand elle fait du riz Merci d'avoir toujours eu foi en moi Une partie d'toi est encore en moi J'remonte les jours, les semaines et les mois J'espere que tu penses encore à moi J'attendais d'te présenter au daron Leur montrer mon trophée, ma médaille Pour ta dot, c'est quoi le taro ? C'est pas un soucis les talles J'attendais d'te présenter au daron Leur montrer mon trophée, ma médaille Pour ta dot, c'est quoi le taro ? Tu sais bien qu'c'est pas un soucis les talles Tu sais bien qu'c'est pas un soucis les talles, nan D'te présenter au daron Pour la dot, ne dis pas non S'il te plait, ne dis pas non Tu sais bien qu'c'est pas un soucis les talles, nan D'te présenter au daron Pour la dot, ne dis pas non S'il te plait, ne dis pas non Beendo Zarsis, aka Beendo Z J'ai volé ton... et j'suis parti avec Viens le chercher J'attendais d'te présenter au daron Leur montrer mon trophée, ma médaille Pour ta dot, c'est quoi le taro ? C'est pas un soucis les talles J'attendais d'te présenter au daron Leur montrer mon trophée, ma médaille Pour ta dot, c'est quoi le taro ? Tu sais bien qu'c'est pas un soucis les talles</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Bobby des Bobby des Bobards Les sites porno', c'est gratuit mais en fait, nan, tu payes avec ton âme, igo Y en a plein qui veulent qu'on soit amigo parce qu'on m'a validé comme la Navigo Tu réponds pas à l'appel d'la prière mais tu pries pour qu'elle réponde à ton appel Au bled, l'eau, c'est plus cher que la bière, comment tu veux qu'j'sois de bonne humeur après ? J'ai snappé la loc', elle répond à la vitesse lumière Vroum C'est v'là la salope, j'la prends, j'la casse t elle repart n Uber J'la prends, j'la casse et elle repart en Hitch, j'ai visser d'la gue-dro dans les quartiers huppés On vend du hasch', on met des bécanes en i, crois-moi, j'suis moins un voleur qu'Alain Jupé, écoute Eh J'aime quand sa jupe, elle est courte, j'parle pas avec les cons J'rappe avec les poings et avec les coudes, tu peux t'faire trouer parce que t'as fait des trous Pah J'apprécie l'idée d'être riche, j'l'ai mis dans ma liste de choses à faire Te plains pas d'ta vie si tu prends pas les risques, te plains pas d'ta vie, pense à la Palestine J'découpe des prod' pour vivre, c'est ça que j'fais comme profession J'ai pas tout fait, pas tout vu mais j'vois que j'gagne plus que mes anciens professeurs J'découpe des prod' pour vivre, c'est ça que j'fais comme profession Sur la détente, j'ai juste besoin d'presser, j'ai pas l'temps d'parler ou d'te mettre une pression J'suis plutôt individualiste mais j'coupe toujours la part en deux Dans mes amis, j'ai fait un tri parce que dans l'U, on peut pas monter à quatre J'suis passé en cinq, j'ai pas redoublé la six, cette pute veut tirer sur ma ppe-f' J'rappe à l'infini comme si j'faisais un huit, j'finis comme un neuf, j'fais des passes comme un dix Hey T'aurais dû faire ci, t'aurais dû faire ça, t'es pas à ma place, si j'fais un choix, faut respecter Okay T'aurais dû faire ça, bah fais-le toi, personne va t'empêcher Nan J'ai un schlass dans mon sabot, eux, ils m'aiment pas, ils veulent me saboter Elle, c'est une salope, elle fait des sous avec sa beauté Même si elle est en manque de fric, elle retombe sur ses pattes comme le Chat Botté Ça m'dé-, ça m'démange, ça m'pique, j'réfléchis à un plan à échafauder J'suis devant, j'suis devant la porte du succès, j'vais passer, j'vais pas frauder Elle a l'feu au cul mais j'l'ai pas frotté, la juge, c'est l'arbitre donc faut pas fauter You might also like J'découpe des prod' pour vivre, c'est ça que j'fais comme profession J'ai pas tout fait, pas tout vu mais j'vois que j'gagne plus que mes anciens professeurs J'découpe des prod' pour vivre, c'est ça que j'fais comme profession Sur la détente, j'ai juste besoin d'presser, j'ai pas l'temps d'parler ou d'te mettre une pression J'découpe des prod' pour vivre, c'est ça que j'fais comme profession J'ai pas tout fait, pas tout vu mais j'vois que j'gagne plus que mes anciens professeurs J'découpe des prod' pour vivre, c'est ça que j'fais comme profession Sur la détente, j'ai juste besoin d'presser, j'ai pas l'temps d'parler ou d'te mettre une pression J'découpe des prod' pour vivre, c'est ça que j'fais comme profession J'ai pas tout fait, pas tout vu mais j'vois que j'gagne plus que mes anciens professeurs J'découpe des prod' pour vivre, c'est ça que j'fais comme profession Sur la détente, j'ai juste besoin d'presser, j'ai pas l'temps d'parler ou d'te mettre une pression J'éteins des gens pour vivre, c'est ça que je fais comme profession</t>
+          <t>Bobby des Bobby des Bobards Les sites porno', c'est gratuit mais en fait, nan, tu payes avec ton âme, igo Y en a plein qui veulent qu'on soit amigo parce qu'on m'a validé comme la Navigo Tu réponds pas à l'appel d'la prière mais tu pries pour qu'elle réponde à ton appel Au bled, l'eau, c'est plus cher que la bière, comment tu veux qu'j'sois de bonne humeur après ? J'ai snappé la loc', elle répond à la vitesse lumière Vroum C'est v'là la salope, j'la prends, j'la casse t elle repart n Uber J'la prends, j'la casse et elle repart en Hitch, j'ai visser d'la gue-dro dans les quartiers huppés On vend du hasch', on met des bécanes en i, crois-moi, j'suis moins un voleur qu'Alain Jupé, écoute Eh J'aime quand sa jupe, elle est courte, j'parle pas avec les cons J'rappe avec les poings et avec les coudes, tu peux t'faire trouer parce que t'as fait des trous Pah J'apprécie l'idée d'être riche, j'l'ai mis dans ma liste de choses à faire Te plains pas d'ta vie si tu prends pas les risques, te plains pas d'ta vie, pense à la Palestine J'découpe des prod' pour vivre, c'est ça que j'fais comme profession J'ai pas tout fait, pas tout vu mais j'vois que j'gagne plus que mes anciens professeurs J'découpe des prod' pour vivre, c'est ça que j'fais comme profession Sur la détente, j'ai juste besoin d'presser, j'ai pas l'temps d'parler ou d'te mettre une pression J'suis plutôt individualiste mais j'coupe toujours la part en deux Dans mes amis, j'ai fait un tri parce que dans l'U, on peut pas monter à quatre J'suis passé en cinq, j'ai pas redoublé la six, cette pute veut tirer sur ma ppe-f' J'rappe à l'infini comme si j'faisais un huit, j'finis comme un neuf, j'fais des passes comme un dix Hey T'aurais dû faire ci, t'aurais dû faire ça, t'es pas à ma place, si j'fais un choix, faut respecter Okay T'aurais dû faire ça, bah fais-le toi, personne va t'empêcher Nan J'ai un schlass dans mon sabot, eux, ils m'aiment pas, ils veulent me saboter Elle, c'est une salope, elle fait des sous avec sa beauté Même si elle est en manque de fric, elle retombe sur ses pattes comme le Chat Botté Ça m'dé-, ça m'démange, ça m'pique, j'réfléchis à un plan à échafauder J'suis devant, j'suis devant la porte du succès, j'vais passer, j'vais pas frauder Elle a l'feu au cul mais j'l'ai pas frotté, la juge, c'est l'arbitre donc faut pas fauter J'découpe des prod' pour vivre, c'est ça que j'fais comme profession J'ai pas tout fait, pas tout vu mais j'vois que j'gagne plus que mes anciens professeurs J'découpe des prod' pour vivre, c'est ça que j'fais comme profession Sur la détente, j'ai juste besoin d'presser, j'ai pas l'temps d'parler ou d'te mettre une pression J'découpe des prod' pour vivre, c'est ça que j'fais comme profession J'ai pas tout fait, pas tout vu mais j'vois que j'gagne plus que mes anciens professeurs J'découpe des prod' pour vivre, c'est ça que j'fais comme profession Sur la détente, j'ai juste besoin d'presser, j'ai pas l'temps d'parler ou d'te mettre une pression J'découpe des prod' pour vivre, c'est ça que j'fais comme profession J'ai pas tout fait, pas tout vu mais j'vois que j'gagne plus que mes anciens professeurs J'découpe des prod' pour vivre, c'est ça que j'fais comme profession Sur la détente, j'ai juste besoin d'presser, j'ai pas l'temps d'parler ou d'te mettre une pression J'éteins des gens pour vivre, c'est ça que je fais comme profession</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>The Demon, The Demon J'rentre, j'guette qui a peur Qui a peur, celui qui test, il adhère Adhère Si la balle se loge dans ton corps To-toh, c'est que c'était toi l'destinataire Des-destinataire mais c'est pas Chronopost, on t'finit à terre, on fait fuir tous tes potes J'ai parlé, donc ne doutez pas Pas, j'aurais percé même dans une autre tout autre époque Oui J'attends pas l'début du mois pour constater mes finances augmenter J'suis en stress devant l'OPJ quand la pute guette c'qui se passe dans mon tél' Avenue Montaigne, elle a vu qu'j'ai vu qu'elle a vu mon teh Ils ont graille tous ceux qui ont voulu monter, on a volé ceux qu'on voulu montrer Voulu montrer Même si ça m'sé-cour, j'm'arrête pas J'm'arrête pas, j'me fais péter pour stup', j'sais pas c'que j'vais dire à mes rents-pa Grr, j'ressors, j'y retourne, pas de repos Non, non J'leur laisse pas de répits, Beendo, K.E.R, c'est pas des répliques J'les connais, ces hypocrites, j'les vois comme les serpents, comme les reptiles Guette, j'écris des textes depuis l'collège Collège, on fait des ro'-ro', on n'est pas leurs collègues Collègues Chelou pour toi si dans l'sac, y a des ces-tru et que mon frère est en colère Putain, massa, j'dois faire un collage Collage, ces p'tits suceurs font que d'nous coller Coller J'sais pas si elle est là pour mon buzz ou ma poche, dans tous les cas, j'vais pas cala Grr, grr, grr J'montre pas c'que j'ai, j'veux pas d'malchance, apprendre à courir avant d'marcher, c'est comme avaler avant d'mâcher, saka o mâché J'parie cent euros que Saka va marquer, j'vais m'acheter un ensemble et un sac de marque Dans la vie, tu rames mais t'es pas Marcus Non, non, j'm'arrêterai pas tant qu'j'ai pas l'Brabus Tant que j'ai pas l'Brabus You might also like Beendo, K.E.R K.E.R, extorsion, trafic de pe-stu, ça, on gère Ça, on gère J'peux plus m'déplacer, iPhone visser ma be-her Ma be-her, on récup' des affaires, donc on distribue les affaires C'est plus pareil, les délits, le sang versé Le sang versé, on était en bas mais la tendance s'est inversée S'est inversée Il pleut des balles comme dans une averse, il pleut des balles comme dans une averse Beendo K.E.R.C Mais Beendo Brr J'fais l'mec, j'ai mes raisons Grah J'peux pas m'arrêter, ça fait un an qu'j'suis là, j'achète une paire par semaine, la petite veut pas m'cher-lâ J'rentre dans la cité Grr, y a full-up de chaleur, il veut pas faire d'argents, ton petit, je les vois en che-lou J'voulais percer dans l'judo, tu connais, ligaments, je vole tout dans ta soirée avec des collègues à moi To-toh J'suis noir et la lumière, j'suis Kuroko et Kagami Brr, brr, j'vais sortir un pétard si jamais t'égalise Grah, grah, grah Kerchak, Beendo, vendeurs de bédo Bédo, ils veulent faire des sous, ils veulent pas s'lever tôt On fuck les keufs, au tieks, on met le veto, ils me traitent de singe, mon médecin n'est pas véto C'est carré C'est carré, mon poto n'est pas béton, c'est carré, au bled, ils commencent à mettre le béton C'est moi qui visser, c'est lui qui allume le pétou, c'est moi qui nique la fête quand j'agite le pétard Tu connais, la mort est un rappel Un rappel, donc j'peux pas mourir en tant qu'rappeur Non Envoie ton plav', on le fait en rapide, Tech', B22, tu connais la re-pai J'suis Glocké dans une forêt du Val d'Oise, je vise les oiseaux et les canettes Baw Trop vif pour faire tomber mon sursis Brr, brr, c'est que j'suis con si demain, on m'arrête Le-le rap vole pas haut, donc j'ai ramené ma plume, j'ai ramené d'la cons', j'ai pas ramené d'la pute Neuf-deux, neuf-cinq, connexion brutale, on fait des tales et on fait aussi l'actu' Le rap, c'est bien mais faut pas compter là-d'ssus Non, non, j'ai compté la somme car j'ai capté l'astuce L'OPJ m'demande où j'ai caché la stup', l'OPJ m'demande si c'est moi qu'envoie l'tit-pe</t>
+          <t>The Demon, The Demon J'rentre, j'guette qui a peur Qui a peur, celui qui test, il adhère Adhère Si la balle se loge dans ton corps To-toh, c'est que c'était toi l'destinataire Des-destinataire mais c'est pas Chronopost, on t'finit à terre, on fait fuir tous tes potes J'ai parlé, donc ne doutez pas Pas, j'aurais percé même dans une autre tout autre époque Oui J'attends pas l'début du mois pour constater mes finances augmenter J'suis en stress devant l'OPJ quand la pute guette c'qui se passe dans mon tél' Avenue Montaigne, elle a vu qu'j'ai vu qu'elle a vu mon teh Ils ont graille tous ceux qui ont voulu monter, on a volé ceux qu'on voulu montrer Voulu montrer Même si ça m'sé-cour, j'm'arrête pas J'm'arrête pas, j'me fais péter pour stup', j'sais pas c'que j'vais dire à mes rents-pa Grr, j'ressors, j'y retourne, pas de repos Non, non J'leur laisse pas de répits, Beendo, K.E.R, c'est pas des répliques J'les connais, ces hypocrites, j'les vois comme les serpents, comme les reptiles Guette, j'écris des textes depuis l'collège Collège, on fait des ro'-ro', on n'est pas leurs collègues Collègues Chelou pour toi si dans l'sac, y a des ces-tru et que mon frère est en colère Putain, massa, j'dois faire un collage Collage, ces p'tits suceurs font que d'nous coller Coller J'sais pas si elle est là pour mon buzz ou ma poche, dans tous les cas, j'vais pas cala Grr, grr, grr J'montre pas c'que j'ai, j'veux pas d'malchance, apprendre à courir avant d'marcher, c'est comme avaler avant d'mâcher, saka o mâché J'parie cent euros que Saka va marquer, j'vais m'acheter un ensemble et un sac de marque Dans la vie, tu rames mais t'es pas Marcus Non, non, j'm'arrêterai pas tant qu'j'ai pas l'Brabus Tant que j'ai pas l'Brabus Beendo, K.E.R K.E.R, extorsion, trafic de pe-stu, ça, on gère Ça, on gère J'peux plus m'déplacer, iPhone visser ma be-her Ma be-her, on récup' des affaires, donc on distribue les affaires C'est plus pareil, les délits, le sang versé Le sang versé, on était en bas mais la tendance s'est inversée S'est inversée Il pleut des balles comme dans une averse, il pleut des balles comme dans une averse Beendo K.E.R.C Mais Beendo Brr J'fais l'mec, j'ai mes raisons Grah J'peux pas m'arrêter, ça fait un an qu'j'suis là, j'achète une paire par semaine, la petite veut pas m'cher-lâ J'rentre dans la cité Grr, y a full-up de chaleur, il veut pas faire d'argents, ton petit, je les vois en che-lou J'voulais percer dans l'judo, tu connais, ligaments, je vole tout dans ta soirée avec des collègues à moi To-toh J'suis noir et la lumière, j'suis Kuroko et Kagami Brr, brr, j'vais sortir un pétard si jamais t'égalise Grah, grah, grah Kerchak, Beendo, vendeurs de bédo Bédo, ils veulent faire des sous, ils veulent pas s'lever tôt On fuck les keufs, au tieks, on met le veto, ils me traitent de singe, mon médecin n'est pas véto C'est carré C'est carré, mon poto n'est pas béton, c'est carré, au bled, ils commencent à mettre le béton C'est moi qui visser, c'est lui qui allume le pétou, c'est moi qui nique la fête quand j'agite le pétard Tu connais, la mort est un rappel Un rappel, donc j'peux pas mourir en tant qu'rappeur Non Envoie ton plav', on le fait en rapide, Tech', B22, tu connais la re-pai J'suis Glocké dans une forêt du Val d'Oise, je vise les oiseaux et les canettes Baw Trop vif pour faire tomber mon sursis Brr, brr, c'est que j'suis con si demain, on m'arrête Le-le rap vole pas haut, donc j'ai ramené ma plume, j'ai ramené d'la cons', j'ai pas ramené d'la pute Neuf-deux, neuf-cinq, connexion brutale, on fait des tales et on fait aussi l'actu' Le rap, c'est bien mais faut pas compter là-d'ssus Non, non, j'ai compté la somme car j'ai capté l'astuce L'OPJ m'demande où j'ai caché la stup', l'OPJ m'demande si c'est moi qu'envoie l'tit-pe</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Fulltrap Fulltrap Poh, poh, poh, poh J'suis un bâtard avec les raclis Hein, j'suis un bâtard avec les raclos qui payent pas T'es musclé mais tu fais peur à qui ? Les virements on DistroKid, ils arrivent par PayPal Pour faire des ronds, il faut des balles, pour détailler l'produit, il faut l'déballer Bouh Ta meuf se fait casser pendant qu't'es pas là Bouh et c'est pour elle que tu gaspilles tout est palos T'es encore prêt, non mais t'es pas loin, j'les visser, il paye avec l'argent d'ses parents Ouais Il fume pour oublir qu'ils sont séparés Ouais, ça m'fait d'la peine mais j'vais rien laissr paraître Paraître, paraître J'suis dans Paris treize, j'peux pas la marier si j'suis pas érythréens Comme on est noir, ils pensent qu'on mérite rien, quand j'ai bien fumé, là, je medite bien J'suis au quartier Hein ou j'suis chez moi, si une petite viens, j'signe avec Feuneu Elle m'dit Qu'est-ce tu deviens ?, j'vais la baiser, c'est sûr, pour ça, j'suis devin Ouais Est-ce que t'as remboursé tout c'que tu devais ? Pourquoi tes en boîte ? Tu t'envoies des verres Pourquoi t'es en boîte ? Tu t'envoies des verres, est-ce que t'as remboursé tout les sous qu'tu devais ? Shoo Offre Offre, demande Demande, clients Clients, ramasse Ramasse Coffre Coffre, dépense Dépense, Balenciaga 'ciaga Offre Offre, demande Demande, clients Clients, ramasse Tu visser un truc, tu t'fais khalass Khalass, tu visser deux trucs, tu t'fais khalass deux fois You might also like Si t'es en manque, moi, j'te trouve un bail, les douze grammes, j'te les fais à quatre-vingts balles Sale pute, t'es pas un Boomerang, donc si t'es partie, ne revient pas Bouge C'est pas qu'j't'aime pas mais ta tête me revient pas, au litron, la C-gué, ça revient cher Y a des photos à quatre-cent-cinquante balles Han mais j'donne pas l'taro pour faire monter les enchères Bouh Trafic de stup', on peut s'faire remonter, j'espère qu'c'est un ient-cli quand j'entends mon p' J'espère c'est un ient-cli quand j'entends mon pénave Brr, t'as pas fait l'Tour de France mais t'es une pédale Brr Pour faire des sous, on enfreint le code pénal, si j'tattrape, j'te mets un penalty Bouh J'ai plus d'temps à perdre avec les raclis, donc m'envoie pas ton cul, tu veux plaire à qui ? Hein M'envoie pas ta chatte, j'suis pas Marcelino, avoir le compte en banque à Neymar, c'est l'idée Ouais J'les entends rapper, j'les crois pas ces mythos, moi, j'suis vrai même si j'mets un masque everyday Ouais Ça monte à la tête parce que j'en ai mis trop, là, j'ai fumé l'instru', j'l'ai pas effrité Et les charos qui vont arracher dans l'métro, ils mettent la i plus vite qu'une bécane débridée Bouh Offre Offre, demande Demande, clients Clients, ramasse Ramasse Coffre Coffre, dépense Dépense, Balenciaga 'ciaga Offre Offre, demande Demande, clients Clients, ramasse Tu visser un truc, tu t'fais khalass Khalass, tu visser deux trucs, tu t'fais khalass deux fois Offre Offre, demande Demande, clients Clients, ramasse Ramasse Coffre Coffre, dépense Dépense, Balenciaga 'ciaga Offre Offre, demande Demande, clients Clients, ramasse Tu visser un truc, tu t'fais khalass Khalass, tu visser deux trucs, tu t'fais khalass deux fois</t>
+          <t>Fulltrap Fulltrap Poh, poh, poh, poh J'suis un bâtard avec les raclis Hein, j'suis un bâtard avec les raclos qui payent pas T'es musclé mais tu fais peur à qui ? Les virements on DistroKid, ils arrivent par PayPal Pour faire des ronds, il faut des balles, pour détailler l'produit, il faut l'déballer Bouh Ta meuf se fait casser pendant qu't'es pas là Bouh et c'est pour elle que tu gaspilles tout est palos T'es encore prêt, non mais t'es pas loin, j'les visser, il paye avec l'argent d'ses parents Ouais Il fume pour oublir qu'ils sont séparés Ouais, ça m'fait d'la peine mais j'vais rien laissr paraître Paraître, paraître J'suis dans Paris treize, j'peux pas la marier si j'suis pas érythréens Comme on est noir, ils pensent qu'on mérite rien, quand j'ai bien fumé, là, je medite bien J'suis au quartier Hein ou j'suis chez moi, si une petite viens, j'signe avec Feuneu Elle m'dit Qu'est-ce tu deviens ?, j'vais la baiser, c'est sûr, pour ça, j'suis devin Ouais Est-ce que t'as remboursé tout c'que tu devais ? Pourquoi tes en boîte ? Tu t'envoies des verres Pourquoi t'es en boîte ? Tu t'envoies des verres, est-ce que t'as remboursé tout les sous qu'tu devais ? Shoo Offre Offre, demande Demande, clients Clients, ramasse Ramasse Coffre Coffre, dépense Dépense, Balenciaga 'ciaga Offre Offre, demande Demande, clients Clients, ramasse Tu visser un truc, tu t'fais khalass Khalass, tu visser deux trucs, tu t'fais khalass deux fois Si t'es en manque, moi, j'te trouve un bail, les douze grammes, j'te les fais à quatre-vingts balles Sale pute, t'es pas un Boomerang, donc si t'es partie, ne revient pas Bouge C'est pas qu'j't'aime pas mais ta tête me revient pas, au litron, la C-gué, ça revient cher Y a des photos à quatre-cent-cinquante balles Han mais j'donne pas l'taro pour faire monter les enchères Bouh Trafic de stup', on peut s'faire remonter, j'espère qu'c'est un ient-cli quand j'entends mon p' J'espère c'est un ient-cli quand j'entends mon pénave Brr, t'as pas fait l'Tour de France mais t'es une pédale Brr Pour faire des sous, on enfreint le code pénal, si j'tattrape, j'te mets un penalty Bouh J'ai plus d'temps à perdre avec les raclis, donc m'envoie pas ton cul, tu veux plaire à qui ? Hein M'envoie pas ta chatte, j'suis pas Marcelino, avoir le compte en banque à Neymar, c'est l'idée Ouais J'les entends rapper, j'les crois pas ces mythos, moi, j'suis vrai même si j'mets un masque everyday Ouais Ça monte à la tête parce que j'en ai mis trop, là, j'ai fumé l'instru', j'l'ai pas effrité Et les charos qui vont arracher dans l'métro, ils mettent la i plus vite qu'une bécane débridée Bouh Offre Offre, demande Demande, clients Clients, ramasse Ramasse Coffre Coffre, dépense Dépense, Balenciaga 'ciaga Offre Offre, demande Demande, clients Clients, ramasse Tu visser un truc, tu t'fais khalass Khalass, tu visser deux trucs, tu t'fais khalass deux fois Offre Offre, demande Demande, clients Clients, ramasse Ramasse Coffre Coffre, dépense Dépense, Balenciaga 'ciaga Offre Offre, demande Demande, clients Clients, ramasse Tu visser un truc, tu t'fais khalass Khalass, tu visser deux trucs, tu t'fais khalass deux fois</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>J'crois en Dieu si y a une arme j'serai du bon côté gang J'monte sur un plan Tottenham a niqué mon côté gang J'suis exigeant donc je baise que des meufs côté sale pute Qui ont des K sur Insta parce que j'aime trop gouter Débrouillard jamais bandit Derrière moi y'a des mec qui pensent pas comme Gandhi la vie Mentalité dur sur l'homme c'est organisé c'est la voyoucratie paw J'suis posé et j'réfléchis j'me demande combiens j'ai fais rentrer ce mois-ci Grrrr 95,210,12,13 j'suis posé du côté Zarzis Z Si j'l fais c'est pour les ronds et put-être pour la vie d'artiste hein Peut être un jour ils verront et ce jour là ils vont m'sucer la bite Un fossé entre la parole et l'acte Mais y'a certaine parole qui font commettre des actes Pas la pour le ciné pas la pour le théâtre J'viens pour prendre mon cash et sans signer de pacte J'vais pas t'le répéter deux fois La j'traque un billet quand tu fais tes devoirs Dieu m'a donné la fois ca m'empêche pas d te planter le foie sale pute Regarde les méchants garçons J'cour vite le vigile a une élongation J'peux faire les 2 mi-temps et les prolongations J'saute sur un plavon quand j'en ai l'occasion la vie L'OPJ j'lui passe la pilule Faut que j'me tire y'a un mec chelou dans ma cellule J'ai la clé sa schneck c'est la serrure la vie Fais l'voyous la vie c'est pas une série la vie Fais pas l'voyous la rue c'est pas Netflix 15 15 tu t'fais courser par les flics Grosse liasse tu t'fais courser par les filles Le temps c'est d'l'argent obligé d'parler vite 95,2,1,0,95,double 1,0 On joue au raquettes mais pas comme Santoro J'suis en train d'te raquette la donne tes 100 euros C'est quand j'encaisse un billet que j'me sens heureux Elle parle dans mon dos mais j'lai d'jà pris en le-le En discrets j'me fais pas péter par les bleugueus J'peux t'rabattre si tu veux du shit ou d'la beugeu Parce que j'suis prêt à tout comme un migrant Quitte à m'faire courser par un dober Si y'a un noir qui saigne c'est l'AC Milan Un blanc c'est l'PSV Eindhoven Grrrrrra RER C j'monte sur paris J'me lève pas à midi parce que j'suis pas riche J'préfère niquer tout mes sous dans les paris Que d'me faire michtonner par une p'tite racli Elle serre elle m'a pris pour un Qatari Elle a ses règles ou elle a peur du gabarit J'ai bien serré la ceinture Dolce Gabbana Nous fais pas la rue on sait qu't'es un gars banal You might also like Y'a des gorilles qui vont t'arracher ta banane Ya Grégory qui vient chercher son 10 balle J'me fais toujours contrôler quand j'monte sur Paname Rapper sans faire d'aveux c'que j'fais j'le dis pas ×2</t>
+          <t>J'crois en Dieu si y a une arme j'serai du bon côté gang J'monte sur un plan Tottenham a niqué mon côté gang J'suis exigeant donc je baise que des meufs côté sale pute Qui ont des K sur Insta parce que j'aime trop gouter Débrouillard jamais bandit Derrière moi y'a des mec qui pensent pas comme Gandhi la vie Mentalité dur sur l'homme c'est organisé c'est la voyoucratie paw J'suis posé et j'réfléchis j'me demande combiens j'ai fais rentrer ce mois-ci Grrrr 95,210,12,13 j'suis posé du côté Zarzis Z Si j'l fais c'est pour les ronds et put-être pour la vie d'artiste hein Peut être un jour ils verront et ce jour là ils vont m'sucer la bite Un fossé entre la parole et l'acte Mais y'a certaine parole qui font commettre des actes Pas la pour le ciné pas la pour le théâtre J'viens pour prendre mon cash et sans signer de pacte J'vais pas t'le répéter deux fois La j'traque un billet quand tu fais tes devoirs Dieu m'a donné la fois ca m'empêche pas d te planter le foie sale pute Regarde les méchants garçons J'cour vite le vigile a une élongation J'peux faire les 2 mi-temps et les prolongations J'saute sur un plavon quand j'en ai l'occasion la vie L'OPJ j'lui passe la pilule Faut que j'me tire y'a un mec chelou dans ma cellule J'ai la clé sa schneck c'est la serrure la vie Fais l'voyous la vie c'est pas une série la vie Fais pas l'voyous la rue c'est pas Netflix 15 15 tu t'fais courser par les flics Grosse liasse tu t'fais courser par les filles Le temps c'est d'l'argent obligé d'parler vite 95,2,1,0,95,double 1,0 On joue au raquettes mais pas comme Santoro J'suis en train d'te raquette la donne tes 100 euros C'est quand j'encaisse un billet que j'me sens heureux Elle parle dans mon dos mais j'lai d'jà pris en le-le En discrets j'me fais pas péter par les bleugueus J'peux t'rabattre si tu veux du shit ou d'la beugeu Parce que j'suis prêt à tout comme un migrant Quitte à m'faire courser par un dober Si y'a un noir qui saigne c'est l'AC Milan Un blanc c'est l'PSV Eindhoven Grrrrrra RER C j'monte sur paris J'me lève pas à midi parce que j'suis pas riche J'préfère niquer tout mes sous dans les paris Que d'me faire michtonner par une p'tite racli Elle serre elle m'a pris pour un Qatari Elle a ses règles ou elle a peur du gabarit J'ai bien serré la ceinture Dolce Gabbana Nous fais pas la rue on sait qu't'es un gars banal Y'a des gorilles qui vont t'arracher ta banane Ya Grégory qui vient chercher son 10 balle J'me fais toujours contrôler quand j'monte sur Paname Rapper sans faire d'aveux c'que j'fais j'le dis pas ×2</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Le fric, ça fait partie d'mon univers, j'parle pas avec ceux qui parlent à Lucifer Eh Beendo Beendo, tu vas halluciner, j'vais t'casser la gueule et j'vais pas m'laisser faire Appelle sur la Lyca, pas la SFR Brr, do-donner un go, wAllah, elle sait faire Brr Tu fais l'fou, on te descend comme l'ASSE, on va plus t'retrouver comme l'ASSR Faut qu'j'sorte un gamos, il faut qu'j'sorte un gros fer, pour ça que d'l'argent, j'dois en faire, en refaire Pour faire des AR de Paris à Dubaï, faut d'abord faire l'AR de Paris à Rotter On n'a pas tous les mêmes buts dans la vie, eux, ils ont pas les mêmes bites dans la bouche Ah nan, quand y a l'feu au bateau, ils sautent du navire, vire Vivre de la musique, c'est mettre de l'autotune sur sa vie Sale, j'vais essayer de mettre la lumière sur la ville Quand j'vais en boîte, je fais pas la file, non, tu veux scammer ? J'ai des bons filons Ouais Sexy justu, y a plein d'filles nues, en île-de-France, y a pleins de phéno' Shoo, shoo J'allais visser à patte, à vélo Bah ouais, t'étais mon frère, j'avais le bas, t'avais le haut Non, j'suis pas d'humeur, tu fais des efforts pour eux, ils n'y mettent pas du leur Ils n'y mettent pas du leur Non, j'suis pas d'humeur, je sais qu'le temps, c'est d'l'argent, j'collectionne les pendules J'collectionne les pendules J'mets des lapins aux mecs que je carotte Grr, j'marche pas dans la ville avec une garot J'ai pris des balles et j'ai pris du galon, j'ai pris mes distances, elle a pris ses talons Eh J'ai eu d'l'argent car j'ai du talent Ouais, tu connaissais pas l'rap, j'ai dû t'apprendre Ouais J'ai pris son portable, j'aurais dû l'taper, si eux, ils sont prêts, moi, j'suis ultra-prêt Génération FSR ULTRAP, moi, j'voulais un gun fumé dans une Trap House Poh, poh Kicker sur une phase B qui tabasse Hein, faire un son, faire un Genkidama Si il met les sous, c'est lui qui daba Ouais mais il faut donner à celui qui n'a pas Non Le rap, je vais l'kidnapper, pour la rançon, j'demande une somme que t'as pas J'suis occupé, j'suis en pas déranger, si je garde tout en moi, ça va m'ronger À l'école, j'étais à la dernière rangée mais belek, j'peux finir avec un Range Ro' Mais belek, j'peux finir avec un Clio, j's'rais obligé de faire une puce de client J's'rais obligé d'aller rabattre à Clignancourt, ce texte, j'l'ai pas écrit en cours You might also like Non, j'suis pas d'humeur, tu fais des efforts pour eux, ils n'y mettent pas du leur Ils n'y mettent pas du leur Non, j'suis pas d'humeur, je sais qu'le temps, c'est d'l'argent, j'collectionne les pendules J'collectionne les pendules Non, j'suis pas d'humeur, tu fais des efforts pour eux, ils n'y mettent pas du leur Ils n'y mettent pas du leur Non, j'suis pas d'humeur, je sais qu'le temps, c'est d'l'argent, j'collectionne les pendules J'collectionne les pendules</t>
+          <t>Le fric, ça fait partie d'mon univers, j'parle pas avec ceux qui parlent à Lucifer Eh Beendo Beendo, tu vas halluciner, j'vais t'casser la gueule et j'vais pas m'laisser faire Appelle sur la Lyca, pas la SFR Brr, do-donner un go, wAllah, elle sait faire Brr Tu fais l'fou, on te descend comme l'ASSE, on va plus t'retrouver comme l'ASSR Faut qu'j'sorte un gamos, il faut qu'j'sorte un gros fer, pour ça que d'l'argent, j'dois en faire, en refaire Pour faire des AR de Paris à Dubaï, faut d'abord faire l'AR de Paris à Rotter On n'a pas tous les mêmes buts dans la vie, eux, ils ont pas les mêmes bites dans la bouche Ah nan, quand y a l'feu au bateau, ils sautent du navire, vire Vivre de la musique, c'est mettre de l'autotune sur sa vie Sale, j'vais essayer de mettre la lumière sur la ville Quand j'vais en boîte, je fais pas la file, non, tu veux scammer ? J'ai des bons filons Ouais Sexy justu, y a plein d'filles nues, en île-de-France, y a pleins de phéno' Shoo, shoo J'allais visser à patte, à vélo Bah ouais, t'étais mon frère, j'avais le bas, t'avais le haut Non, j'suis pas d'humeur, tu fais des efforts pour eux, ils n'y mettent pas du leur Ils n'y mettent pas du leur Non, j'suis pas d'humeur, je sais qu'le temps, c'est d'l'argent, j'collectionne les pendules J'collectionne les pendules J'mets des lapins aux mecs que je carotte Grr, j'marche pas dans la ville avec une garot J'ai pris des balles et j'ai pris du galon, j'ai pris mes distances, elle a pris ses talons Eh J'ai eu d'l'argent car j'ai du talent Ouais, tu connaissais pas l'rap, j'ai dû t'apprendre Ouais J'ai pris son portable, j'aurais dû l'taper, si eux, ils sont prêts, moi, j'suis ultra-prêt Génération FSR ULTRAP, moi, j'voulais un gun fumé dans une Trap House Poh, poh Kicker sur une phase B qui tabasse Hein, faire un son, faire un Genkidama Si il met les sous, c'est lui qui daba Ouais mais il faut donner à celui qui n'a pas Non Le rap, je vais l'kidnapper, pour la rançon, j'demande une somme que t'as pas J'suis occupé, j'suis en pas déranger, si je garde tout en moi, ça va m'ronger À l'école, j'étais à la dernière rangée mais belek, j'peux finir avec un Range Ro' Mais belek, j'peux finir avec un Clio, j's'rais obligé de faire une puce de client J's'rais obligé d'aller rabattre à Clignancourt, ce texte, j'l'ai pas écrit en cours Non, j'suis pas d'humeur, tu fais des efforts pour eux, ils n'y mettent pas du leur Ils n'y mettent pas du leur Non, j'suis pas d'humeur, je sais qu'le temps, c'est d'l'argent, j'collectionne les pendules J'collectionne les pendules Non, j'suis pas d'humeur, tu fais des efforts pour eux, ils n'y mettent pas du leur Ils n'y mettent pas du leur Non, j'suis pas d'humeur, je sais qu'le temps, c'est d'l'argent, j'collectionne les pendules J'collectionne les pendules</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Gang, gang, Mig moula Beendo, han, on est là pour ça, hein Mais Beendo, pour ça qu'on a signé, hein Gang, gang Ils arrêtent le rap, ils ont plus d'inspi-gui Ah, si j'arrête le rap, c'est qu'j'ai plus d'un milli' Milli' Des mecs comme moi, y en a des milliers Milliers, des mecs qui réussissent, y en n'a pas des milliers Milliers J'regrette, j'ai pas fait l'centre de formation Han, j'évite les femmes, les condés Les poulets Et les locaux d'francs-maçon Francs-maçon, j'suis instable, il faut qu'j'revoie mes fondations Brr J'ai-j'ai jamais été à la FAC, j'ai bi'-bi', donc j'ai pas fait les deux à la fois Ah J'rmercie ma tête t ma voix Ah, grâce à elle, j'ai des biens et des avoirs Pah Vente d'olives, vente de savons, c'est pas l'marché, c'est pas la cuisine des darons Ah nan Même quand on m'arranges, je négocie l'tarot, on donne le go et tu sais plus c'qui t'arrive J'aime quand ça parle en cash, en valises, ta meuf, c'est une pute, t'as pas fait la balise Y a pas d'armes chez toi, y a que des arbalètes, y a que des dix balles, y a pas d'palettes Brr La-la route est longue du dépôt au palais Mig, Beendo, c'est pour choquer ta mère J'écris sur l'retour du showcase de t'à lheure Faut le salaire d'Haaland, le salaire d'Haller Beendo Zarzis aka Beendo Z, connu pour extorsion et vol à main armée J'veux ma baraque à Miami, pas d'nouveaux amis et d'la maille à mort Brr Ils sont pas armés, ils sont en Under Armor Brr, ils ont pas charbonné quand il f'sait froid à mort Tous les, tous les jours, pour eux, c'est une fin d'mois, même si l'argent n'est pas une fin, en soi De-depuis qu'j'suis connu comme Claude François, au tel-hô, les raclis parlent trop français Bang, bang J'aurais fait un bon milieu offensif Bah ouais mais tu connais, mon coach, c'était trop une salope Eh Si j'te nique ta mère, j'le fais trop décemment Hein, j'le f'rai sous peu ou incessamment J'le f'rait J'le f'rai incessamment sous peu mais faut le bon timing pour arracher sa montre Arracher sa montre You might also like Cartier Gang, gang Grr Roh, Mig Moula, gang On connaît la gratte, on s'déplace pour le gain On connait la gratte, tout l'monde connaît mon gang Tout l'monde Y a pas l'choix, faut être méchant une fois qu't'as les gants Une fois qu'elle a donné le go C'est réel, faut pas perdre la tête pour un cavu Jamais, en garde-à-vue, racontes pas c'que t'as vu Gang, jamais Les yeux rougissent, ça fume sur la bavure La bavure, sorti du dépôt, j'ai dit Merci au baveux J'remercie On connaît tous la fin du film, elle est tragique Rah, où j'ai grandi Gang, rien d'magique Gang Artena, ça descend, le quartier qui s'agite Brr, des fois, les discussions, ça mène à R Rah Une bastos pour t'laisser en paix Pah, pah, boîte automatique, ça repart en D Ça revend le pilon, la beuh et la C brr, la rue, c'est nous, j't'assure que c'est pas eux C'est pas eux Mig Moula, parle-moi d'faire un couplet Parle-moi d'faire un couplet Nique sa mère un refrain Nique sa mère un refrain ou nique sa mère un faux re-frè Gang, un plan qui a ché-mar, c'est sûr qu'on va l'refaire T'es personne, t'as pas d'affaires, t'as même pas d'fer Brr, arrête de chanter sinon, ça va t'éteindre Y a ceux qui parlent et y a ceux qui le font Pah, ramène l'ABS, nique sa mère le fond J'fume le trois fois filtré, le vrai, pas le faux Le vrai, qui va m'relever si je touche le fond ? Qui va m'relever si je touche le fond ? Y a que pour les miens que j'ouvre le feu Pah, pah Opps blessé, ça nous donne le sourire, si j'dors en geôle, j'vais donner aucun nom Jamais T'es choqué, sur l'terrain, des fois, c'est la folie, y a des humains qui font parler les canons Gang, gang Nous fais pas l'ancien qui raconte l'histoire Gang, y a personne qui t'croit, vas-y, nique ta mère Gros, jamais d'la vie, j'ai perdu ma R Brr, elle est soit sur moi ou à côté d'moi Pah Y aura trop d'témoins si on t'fait tout d'suite Gang mais bon, nique sa mère, on va t'faire quand même Grr Y aura trop d'témoins si on t'fait tout d'suite Pah mais bon, nique sa mère, on va t'faire quand même Mig Moula Gang, gang Y aura trop d'témoins si on t'fait tout d'suite mais bon, nique sa mère, on va t'faire quand même Beendo Mais Beendo</t>
+          <t>Gang, gang, Mig moula Beendo, han, on est là pour ça, hein Mais Beendo, pour ça qu'on a signé, hein Gang, gang Ils arrêtent le rap, ils ont plus d'inspi-gui Ah, si j'arrête le rap, c'est qu'j'ai plus d'un milli' Milli' Des mecs comme moi, y en a des milliers Milliers, des mecs qui réussissent, y en n'a pas des milliers Milliers J'regrette, j'ai pas fait l'centre de formation Han, j'évite les femmes, les condés Les poulets Et les locaux d'francs-maçon Francs-maçon, j'suis instable, il faut qu'j'revoie mes fondations Brr J'ai-j'ai jamais été à la FAC, j'ai bi'-bi', donc j'ai pas fait les deux à la fois Ah J'rmercie ma tête t ma voix Ah, grâce à elle, j'ai des biens et des avoirs Pah Vente d'olives, vente de savons, c'est pas l'marché, c'est pas la cuisine des darons Ah nan Même quand on m'arranges, je négocie l'tarot, on donne le go et tu sais plus c'qui t'arrive J'aime quand ça parle en cash, en valises, ta meuf, c'est une pute, t'as pas fait la balise Y a pas d'armes chez toi, y a que des arbalètes, y a que des dix balles, y a pas d'palettes Brr La-la route est longue du dépôt au palais Mig, Beendo, c'est pour choquer ta mère J'écris sur l'retour du showcase de t'à lheure Faut le salaire d'Haaland, le salaire d'Haller Beendo Zarzis aka Beendo Z, connu pour extorsion et vol à main armée J'veux ma baraque à Miami, pas d'nouveaux amis et d'la maille à mort Brr Ils sont pas armés, ils sont en Under Armor Brr, ils ont pas charbonné quand il f'sait froid à mort Tous les, tous les jours, pour eux, c'est une fin d'mois, même si l'argent n'est pas une fin, en soi De-depuis qu'j'suis connu comme Claude François, au tel-hô, les raclis parlent trop français Bang, bang J'aurais fait un bon milieu offensif Bah ouais mais tu connais, mon coach, c'était trop une salope Eh Si j'te nique ta mère, j'le fais trop décemment Hein, j'le f'rai sous peu ou incessamment J'le f'rait J'le f'rai incessamment sous peu mais faut le bon timing pour arracher sa montre Arracher sa montre Cartier Gang, gang Grr Roh, Mig Moula, gang On connaît la gratte, on s'déplace pour le gain On connait la gratte, tout l'monde connaît mon gang Tout l'monde Y a pas l'choix, faut être méchant une fois qu't'as les gants Une fois qu'elle a donné le go C'est réel, faut pas perdre la tête pour un cavu Jamais, en garde-à-vue, racontes pas c'que t'as vu Gang, jamais Les yeux rougissent, ça fume sur la bavure La bavure, sorti du dépôt, j'ai dit Merci au baveux J'remercie On connaît tous la fin du film, elle est tragique Rah, où j'ai grandi Gang, rien d'magique Gang Artena, ça descend, le quartier qui s'agite Brr, des fois, les discussions, ça mène à R Rah Une bastos pour t'laisser en paix Pah, pah, boîte automatique, ça repart en D Ça revend le pilon, la beuh et la C brr, la rue, c'est nous, j't'assure que c'est pas eux C'est pas eux Mig Moula, parle-moi d'faire un couplet Parle-moi d'faire un couplet Nique sa mère un refrain Nique sa mère un refrain ou nique sa mère un faux re-frè Gang, un plan qui a ché-mar, c'est sûr qu'on va l'refaire T'es personne, t'as pas d'affaires, t'as même pas d'fer Brr, arrête de chanter sinon, ça va t'éteindre Y a ceux qui parlent et y a ceux qui le font Pah, ramène l'ABS, nique sa mère le fond J'fume le trois fois filtré, le vrai, pas le faux Le vrai, qui va m'relever si je touche le fond ? Qui va m'relever si je touche le fond ? Y a que pour les miens que j'ouvre le feu Pah, pah Opps blessé, ça nous donne le sourire, si j'dors en geôle, j'vais donner aucun nom Jamais T'es choqué, sur l'terrain, des fois, c'est la folie, y a des humains qui font parler les canons Gang, gang Nous fais pas l'ancien qui raconte l'histoire Gang, y a personne qui t'croit, vas-y, nique ta mère Gros, jamais d'la vie, j'ai perdu ma R Brr, elle est soit sur moi ou à côté d'moi Pah Y aura trop d'témoins si on t'fait tout d'suite Gang mais bon, nique sa mère, on va t'faire quand même Grr Y aura trop d'témoins si on t'fait tout d'suite Pah mais bon, nique sa mère, on va t'faire quand même Mig Moula Gang, gang Y aura trop d'témoins si on t'fait tout d'suite mais bon, nique sa mère, on va t'faire quand même Beendo Mais Beendo</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Ta-ta-ta-la-la-la, ta-ta-ta-la-la-la Ta-ta-ta-la-la-la Beendo Z On connaît le salaire du pêché et on va pêcher pour le salaire Réel, le salaire On connaît le salaire du tartin Hein, on connaît très bien sa mère Yes, yes Nous, on a la méthode pour pas sortir un blase, ils m'voient en haut, mais j'suis en bas En bas Ils parlent dans mon dos, mais j'm'en bats Pah, pah, On n'a plus l'âge de s'tape Poto, on va tirer dans l'tas Tah, tah, me parle pas de scam, poto, ça fait deux jours, t'es dans ça Yeah J'suis dans l'réel, j'suis dans l'sah Sah, j'fais pas exprès, j'suis comme ça Ça, ça Mais dit comme ça, j'écoute les autres, j'me demande, qui gobe ça ? On a trop-, on a trop- On a trop dépensé, mais on sait bien dépenser Mais on sait bien dépenser T'étais la mi-f', j'pensais pas qu'tu parlais mal dans tes pensées J'ai un plan A, pas un plan B, tu veux skier ? Y a toujours un plan C J'suis à des miles du rap français, j'ai toujours mon tél' mais j'suis dur à brancher On n'a plus l'âge de s'tape, poto, on va tirer dans l'tas Brr, me parle pas de scam, poto, ça fait deux jours, t'es dans ça Dans ça On n'a plus l'âge de s'tape, poto, on va tirer dans l'tas Tas, me parle pas de scam, poto, ça fait deux jours, t'es dans ça Dans ça, brr You might also like Et les p'tits m'voient comme Johnny Hallyday, mais ils savent pas que je marche calibré Que j'suis derrière une porte et que j'ai pas les clés, ils savent pas tout c'que j'peux pas écrire Mais j'suis dans les boutiques de luxes, les restau', là où la viande paraît si tendre Au tel-hô, avec une Paris Hilton, pendant qu'les frérots vont péter l'teum J'suis en mode, j'te rappelle si j'ai l'time, j'suis en mode, j'te visser si j'ai l'tamien J'ai même plus trop envie d'serrer ta main, tu peux m'vendre pour une sacoche en damier On v'-esqui l'placard, mais pas l'casier, connu pour vol à main armée, extorsion Quand on parle plata, tu peux pas parler ou bien t'es pas trop dans la conversation Carré VIP quand j'suis au Bridge, dans l'carré d'en haut, car le succès oblige J'suis solo dans l'Merco comme un vrai O.G, le tard-pé dans la sacoche, c'est un vrai, aussi Ça trafique à mort, ça veut influencer Ça veut influencer, j'arrive boosté comme dans l'A6, pleins phares, voie d'gauche sur la A6 On n'a plus l'âge de s'tape, poto, on va tirer dans l'tas Dans l'tas, me parle pas de scam, poto, ça fait deux jours, t'es dans ça T'es dans ça On n'a plus l'âge de s'tape, poto, on va tirer dans l'tas Dans l'tas, me parle pas de scam, poto, ça fait deux jours, t'es dans ça Dans ça On n'a plus l'âge de s'tape, poto, on va tirer dans l'tas Brr, me parle pas de scam, poto, ça fait deux jours, t'es dans ça T'es dans ça On n'a plus l'âge de s'tape, poto, on va tirer dans l'tas Dans l'tas, me parle pas de scam, poto, ça fait deux jours, t'es dans ça T'es ans ça Me parle pas de scam, poto, ouais, on n'a plus l'âge de s'tape, poto, ouais Poto, ouais, poto, ouais, poto, ouais, poto, ouais</t>
+          <t>Ta-ta-ta-la-la-la, ta-ta-ta-la-la-la Ta-ta-ta-la-la-la Beendo Z On connaît le salaire du pêché et on va pêcher pour le salaire Réel, le salaire On connaît le salaire du tartin Hein, on connaît très bien sa mère Yes, yes Nous, on a la méthode pour pas sortir un blase, ils m'voient en haut, mais j'suis en bas En bas Ils parlent dans mon dos, mais j'm'en bats Pah, pah, On n'a plus l'âge de s'tape Poto, on va tirer dans l'tas Tah, tah, me parle pas de scam, poto, ça fait deux jours, t'es dans ça Yeah J'suis dans l'réel, j'suis dans l'sah Sah, j'fais pas exprès, j'suis comme ça Ça, ça Mais dit comme ça, j'écoute les autres, j'me demande, qui gobe ça ? On a trop-, on a trop- On a trop dépensé, mais on sait bien dépenser Mais on sait bien dépenser T'étais la mi-f', j'pensais pas qu'tu parlais mal dans tes pensées J'ai un plan A, pas un plan B, tu veux skier ? Y a toujours un plan C J'suis à des miles du rap français, j'ai toujours mon tél' mais j'suis dur à brancher On n'a plus l'âge de s'tape, poto, on va tirer dans l'tas Brr, me parle pas de scam, poto, ça fait deux jours, t'es dans ça Dans ça On n'a plus l'âge de s'tape, poto, on va tirer dans l'tas Tas, me parle pas de scam, poto, ça fait deux jours, t'es dans ça Dans ça, brr Et les p'tits m'voient comme Johnny Hallyday, mais ils savent pas que je marche calibré Que j'suis derrière une porte et que j'ai pas les clés, ils savent pas tout c'que j'peux pas écrire Mais j'suis dans les boutiques de luxes, les restau', là où la viande paraît si tendre Au tel-hô, avec une Paris Hilton, pendant qu'les frérots vont péter l'teum J'suis en mode, j'te rappelle si j'ai l'time, j'suis en mode, j'te visser si j'ai l'tamien J'ai même plus trop envie d'serrer ta main, tu peux m'vendre pour une sacoche en damier On v'-esqui l'placard, mais pas l'casier, connu pour vol à main armée, extorsion Quand on parle plata, tu peux pas parler ou bien t'es pas trop dans la conversation Carré VIP quand j'suis au Bridge, dans l'carré d'en haut, car le succès oblige J'suis solo dans l'Merco comme un vrai O.G, le tard-pé dans la sacoche, c'est un vrai, aussi Ça trafique à mort, ça veut influencer Ça veut influencer, j'arrive boosté comme dans l'A6, pleins phares, voie d'gauche sur la A6 On n'a plus l'âge de s'tape, poto, on va tirer dans l'tas Dans l'tas, me parle pas de scam, poto, ça fait deux jours, t'es dans ça T'es dans ça On n'a plus l'âge de s'tape, poto, on va tirer dans l'tas Dans l'tas, me parle pas de scam, poto, ça fait deux jours, t'es dans ça Dans ça On n'a plus l'âge de s'tape, poto, on va tirer dans l'tas Brr, me parle pas de scam, poto, ça fait deux jours, t'es dans ça T'es dans ça On n'a plus l'âge de s'tape, poto, on va tirer dans l'tas Dans l'tas, me parle pas de scam, poto, ça fait deux jours, t'es dans ça T'es ans ça Me parle pas de scam, poto, ouais, on n'a plus l'âge de s'tape, poto, ouais Poto, ouais, poto, ouais, poto, ouais, poto, ouais</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Tire une taffe, tu vas décolle, j'ai pas d'taf, j'ai pas d'école Donc tu sais c'que j'fais pour une kichta, d'vant les keufs j'fais genre je pige pas J'm'endors avec des rêves, j'me lève avec des objectifs T'aimes pas c'que j'fais ou tu m'aimes pas négro ? Essaie d'être objectif L'ient-cli il rappelle, je sais qu'il a fly, car y a un faucon sur la 'quette, j'te jure sur ma tête Habitué aux coup d', j'ai essuyé avec des billets Je vends d'la verte enculé, pourtant j'suivais pas l'cours de bio' Y a des regards qui trompent pas, ta meuf m'a vu, elle t'a trompé Et m'fais pas l', j'vais t'caner et j'vais m'en vanter Et quand ils perdent la raison, les ients-cli apparaissent, donc à la maison y a trop d'couteaux qui disparaissent Parce que tu tailles dans l'escalier, l'argent c'est limite la paresse Si j'te vole ton tel', tu pourras jamais m'rendre la pareille C'est des suceurs de bites, quand tu dis un truc ils disent pareil Des 10 par ci, des 10 par là, casse un tour si on a pas khey J'mélange pas l'shit et la beuh, dans la sacoche c'est l'apartheid Grr à bout portant j'ai l'arsenal comme Thomas Partey C'est ta racli, ta meuf, ta femme, tu la connais par cur, c'est juste la pute d'un autre, tu savais pas qu'elle l'prenait par l'cul, heinYou might also like</t>
+          <t>Tire une taffe, tu vas décolle, j'ai pas d'taf, j'ai pas d'école Donc tu sais c'que j'fais pour une kichta, d'vant les keufs j'fais genre je pige pas J'm'endors avec des rêves, j'me lève avec des objectifs T'aimes pas c'que j'fais ou tu m'aimes pas négro ? Essaie d'être objectif L'ient-cli il rappelle, je sais qu'il a fly, car y a un faucon sur la 'quette, j'te jure sur ma tête Habitué aux coup d', j'ai essuyé avec des billets Je vends d'la verte enculé, pourtant j'suivais pas l'cours de bio' Y a des regards qui trompent pas, ta meuf m'a vu, elle t'a trompé Et m'fais pas l', j'vais t'caner et j'vais m'en vanter Et quand ils perdent la raison, les ients-cli apparaissent, donc à la maison y a trop d'couteaux qui disparaissent Parce que tu tailles dans l'escalier, l'argent c'est limite la paresse Si j'te vole ton tel', tu pourras jamais m'rendre la pareille C'est des suceurs de bites, quand tu dis un truc ils disent pareil Des 10 par ci, des 10 par là, casse un tour si on a pas khey J'mélange pas l'shit et la beuh, dans la sacoche c'est l'apartheid Grr à bout portant j'ai l'arsenal comme Thomas Partey C'est ta racli, ta meuf, ta femme, tu la connais par cur, c'est juste la pute d'un autre, tu savais pas qu'elle l'prenait par l'cul, hein</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Ay, J1, thats flames, my bro Pour l'amour du rap, je m'applique M'applique, pour l'amour des tales, je m'implique M'implique Ta future femme, c'est une aiguille dans une botte de foin, si tu la trouves, c'est qu'elle t'a piqué Quelle tapette, ce Gérard Piqué Oh J'fais pas d'origami, j'vais pas m'plier aux règles Nan, nan sauf à la religion, c'est un pilier Ouais On rec pour récupérer l'fric qu'ils ont pillé Ahou Aux mecs qui baisent leurs femmes pour les papiers Pah En fait, le p-ra, c'est pas très compliqué Ta-ta-tah, faut juste pas être con et faut pas piquer Nous, on fait pas d'prod' mais on va t'kicker, une cagoule et des gants pour assurer l'boulot Grr J'ai pas besoin d'miel pour assumer l'boulard À c'qui p', c'est des footeux, j'les vois comme Laure Boulleau, parce que, sur l'terrain, ils font pas leur boulot J'rentre au comico, j'ai pas d'boule au ventre Ils font des sacrifices, ils font des offrandes juste pour acheter des p'tites paires d'Off White Les cistes-ra, j'les vois comme des pédophiles Le compo' fait la prod', j'trouve ça intéressant, j'écris direct, j'vais pas faire un texte récent Nan, nan Faut choquer les humains, faut faire un d'ces récits qui rentre dans la tête et quand ça marche, tu l'récites Grr J'aime quand ça appelle, j'aime quand ça débite Brr, j'aime quand ça té-cla, j'aime quand ça crépite J'aime pas être gé-char, j'aime quand le sac est vide, avec moi, j'aurais fait un sacré feat J'aime quand ça appelle, j'aime quand ça débite Brr, j'aime quand ça té-cla, j'aime quand ça crépite J'aime pas être gé-char, j'aime quand le sac est vide, avec moi, j'aurais fait un sacré feat Beendo You might also like J'les vois et j'interprète les signes Faut qu'tu m'les ramènes vite si j't'ai prêté les sous bêtement Bêtement, tu peux t'retrouver en sous-vêtement J'ai juste besoin d'sortir c'qu'y a sous l'vêtement J'viens d'commencer, j'peux pas m'arrêter maintenant Nan, nan J'les calcule plus trop, j'suis pas fort en maths, nan Nan, nan La recharge arrive, le terrain est en maintenance, les clients arrivent, le gérant fait un pas d'danse Les meufs aiment le RR, les beaux Ranger Rover, les meufs aiment les RR, les renois robustes Je fais pas de roller, je cours pas après l'bus, j'vais pas en vacances avec ma meuf à Fréjus Il voulait un vingt, au final, il a prit plus, c'est devenu sérieux, on a vu qui a prit peur Ah Si tu touches la mif, y a plus d'rap, y a plus d'bipeur Ah J'aime pas les racistes donc j'écoute pas les Beatles J'aime quand ça appelle, j'aime quand ça débite Brr, j'aime quand ça té-cla, j'aime quand ça crépite J'aime pas être gé-char, j'aime quand le sac est vide, avec moi, j'aurais fait un sacré feat J'aime quand ça appelle, j'aime quand ça débite Brr, brr, j'aime quand ça té-cla, j'aime quand ça crépite J'aime pas être gé-char, j'aime quand le sac est vide, avec moi, j'aurais fait un sacré feat Beendo Double R, renoi robuste</t>
+          <t>Ay, J1, thats flames, my bro Pour l'amour du rap, je m'applique M'applique, pour l'amour des tales, je m'implique M'implique Ta future femme, c'est une aiguille dans une botte de foin, si tu la trouves, c'est qu'elle t'a piqué Quelle tapette, ce Gérard Piqué Oh J'fais pas d'origami, j'vais pas m'plier aux règles Nan, nan sauf à la religion, c'est un pilier Ouais On rec pour récupérer l'fric qu'ils ont pillé Ahou Aux mecs qui baisent leurs femmes pour les papiers Pah En fait, le p-ra, c'est pas très compliqué Ta-ta-tah, faut juste pas être con et faut pas piquer Nous, on fait pas d'prod' mais on va t'kicker, une cagoule et des gants pour assurer l'boulot Grr J'ai pas besoin d'miel pour assumer l'boulard À c'qui p', c'est des footeux, j'les vois comme Laure Boulleau, parce que, sur l'terrain, ils font pas leur boulot J'rentre au comico, j'ai pas d'boule au ventre Ils font des sacrifices, ils font des offrandes juste pour acheter des p'tites paires d'Off White Les cistes-ra, j'les vois comme des pédophiles Le compo' fait la prod', j'trouve ça intéressant, j'écris direct, j'vais pas faire un texte récent Nan, nan Faut choquer les humains, faut faire un d'ces récits qui rentre dans la tête et quand ça marche, tu l'récites Grr J'aime quand ça appelle, j'aime quand ça débite Brr, j'aime quand ça té-cla, j'aime quand ça crépite J'aime pas être gé-char, j'aime quand le sac est vide, avec moi, j'aurais fait un sacré feat J'aime quand ça appelle, j'aime quand ça débite Brr, j'aime quand ça té-cla, j'aime quand ça crépite J'aime pas être gé-char, j'aime quand le sac est vide, avec moi, j'aurais fait un sacré feat Beendo J'les vois et j'interprète les signes Faut qu'tu m'les ramènes vite si j't'ai prêté les sous bêtement Bêtement, tu peux t'retrouver en sous-vêtement J'ai juste besoin d'sortir c'qu'y a sous l'vêtement J'viens d'commencer, j'peux pas m'arrêter maintenant Nan, nan J'les calcule plus trop, j'suis pas fort en maths, nan Nan, nan La recharge arrive, le terrain est en maintenance, les clients arrivent, le gérant fait un pas d'danse Les meufs aiment le RR, les beaux Ranger Rover, les meufs aiment les RR, les renois robustes Je fais pas de roller, je cours pas après l'bus, j'vais pas en vacances avec ma meuf à Fréjus Il voulait un vingt, au final, il a prit plus, c'est devenu sérieux, on a vu qui a prit peur Ah Si tu touches la mif, y a plus d'rap, y a plus d'bipeur Ah J'aime pas les racistes donc j'écoute pas les Beatles J'aime quand ça appelle, j'aime quand ça débite Brr, j'aime quand ça té-cla, j'aime quand ça crépite J'aime pas être gé-char, j'aime quand le sac est vide, avec moi, j'aurais fait un sacré feat J'aime quand ça appelle, j'aime quand ça débite Brr, brr, j'aime quand ça té-cla, j'aime quand ça crépite J'aime pas être gé-char, j'aime quand le sac est vide, avec moi, j'aurais fait un sacré feat Beendo Double R, renoi robuste</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Grr, grr, brr, brr C'est pas mal, ça, c'est pas mal, c'est pas mal Tu rec là ? Vas-y Faut pas su-, faut pas sucer Nan, faut mériter sa place Eh, j'suis à l'affût, j'te dis si ça passe Ouais Y a les condés, là, ils sont six à pattes Eh-eh, j'peux t'offrir un mmes-g' parce que j'suis sympa Eh-eh Mais dis-toi qu'y avait pas d'cadeaux sous mon sapin Ah nan, c'est des ho, pas des Homo sapiens Ah Si Beendo est là, c'est pour gratter sa pièce, avant d'te faire, j'te demande Comment tu t'appelles ? Y a les bleus mais c'est pas Manchester City, y a des gens au sol, c'est parc que j'suis dans l'city Dans l'football J'ai un parcours en dents d'sci Dents d'scie et j'ai un pochtard dans l'slip Dans l'slip On peut s'organiser pour faire le désordre, j'te fais vriller de janvier à décembre J'peux t'assommer si tu dois des sommes, j'monte vite Ouais mais j'sais que j'peux descendre Peux descendre Faut-faut qu'je rentre dans l'jeu, avec la justice, je fais doucement Grr On s'est fait juger, le procureur veut nous mettre douze mois Douze mois On sort avec du sursis Shoo sans soucis, j'ai-j'ai fait tout ça sans sucer, si j'l'ai fait, tu peux l'faire aussi Grr Faut-faut qu'je rentre dans l'jeu, avec la justice, je fais doucement Grr On s'est fait juger, le procureur veut nous mettre douze mois Douze mois On sort avec du sursis Shoo sans soucis, j'ai-j'ai fait tout ça sans sucer, si j'l'ai fait, tu peux l'faire aussi Grr Beendo, c'est l'Isco d'deux-milles-dix-sept Beendo, la carrière de Eto'o, de 50 Cent Beendo, Beendo On fait rentrer des tickets Gang, j'traîne pas avec les mecs qui s'plaignent Nan, nan J'peux faire la paix avec un calibre Calibre, faire la paix avec un calumet Grr Dans tous les cas, va falloir allumer et p't-être qu'après ça, ça pourra aller mieux Binks J'tiens pas la porte, j'suis pas élégant Gang, j'suis bon qu'à sortir la cagoule et les gants J'ai pas inventé l'temps même si j'fais d'l'argent, balle dans la tête, ta grand-mère, tu vas la rejoindre Bâtard C'est le résultat d'une guerre de gang, donc la sécu' est calée sous l'siège conducteur Gang So le manageur et le producteur Bouh, j'suis à la hauteur pour vendre tout le produit qu't'as Binks You might also like Faut-faut qu'je rentre dans l'jeu avec la justice, je fais doucement Grr On s'est fait juger, le procureur veut nous mettre douze mois Douze mois On sort avec du sursis Shoo sans soucis, j'ai-j'ai fait tout ça sans sucer, si j'l'ai fait, tu peux l'faire aussi Grr Faut-faut qu'je rentre dans l'jeu avec la justice, je fais doucement Grr On s'est fait juger, le procureur veut nous mettre douze mois Douze mois On sort avec du sursis Shoo sans soucis, j'ai-j'ai fait tout ça sans sucer, si j'l'ai fait, tu peux l'faire aussi Grr Extorsion et vol à main armé À main armé, à main armé</t>
+          <t>Grr, grr, brr, brr C'est pas mal, ça, c'est pas mal, c'est pas mal Tu rec là ? Vas-y Faut pas su-, faut pas sucer Nan, faut mériter sa place Eh, j'suis à l'affût, j'te dis si ça passe Ouais Y a les condés, là, ils sont six à pattes Eh-eh, j'peux t'offrir un mmes-g' parce que j'suis sympa Eh-eh Mais dis-toi qu'y avait pas d'cadeaux sous mon sapin Ah nan, c'est des ho, pas des Homo sapiens Ah Si Beendo est là, c'est pour gratter sa pièce, avant d'te faire, j'te demande Comment tu t'appelles ? Y a les bleus mais c'est pas Manchester City, y a des gens au sol, c'est parc que j'suis dans l'city Dans l'football J'ai un parcours en dents d'sci Dents d'scie et j'ai un pochtard dans l'slip Dans l'slip On peut s'organiser pour faire le désordre, j'te fais vriller de janvier à décembre J'peux t'assommer si tu dois des sommes, j'monte vite Ouais mais j'sais que j'peux descendre Peux descendre Faut-faut qu'je rentre dans l'jeu, avec la justice, je fais doucement Grr On s'est fait juger, le procureur veut nous mettre douze mois Douze mois On sort avec du sursis Shoo sans soucis, j'ai-j'ai fait tout ça sans sucer, si j'l'ai fait, tu peux l'faire aussi Grr Faut-faut qu'je rentre dans l'jeu, avec la justice, je fais doucement Grr On s'est fait juger, le procureur veut nous mettre douze mois Douze mois On sort avec du sursis Shoo sans soucis, j'ai-j'ai fait tout ça sans sucer, si j'l'ai fait, tu peux l'faire aussi Grr Beendo, c'est l'Isco d'deux-milles-dix-sept Beendo, la carrière de Eto'o, de 50 Cent Beendo, Beendo On fait rentrer des tickets Gang, j'traîne pas avec les mecs qui s'plaignent Nan, nan J'peux faire la paix avec un calibre Calibre, faire la paix avec un calumet Grr Dans tous les cas, va falloir allumer et p't-être qu'après ça, ça pourra aller mieux Binks J'tiens pas la porte, j'suis pas élégant Gang, j'suis bon qu'à sortir la cagoule et les gants J'ai pas inventé l'temps même si j'fais d'l'argent, balle dans la tête, ta grand-mère, tu vas la rejoindre Bâtard C'est le résultat d'une guerre de gang, donc la sécu' est calée sous l'siège conducteur Gang So le manageur et le producteur Bouh, j'suis à la hauteur pour vendre tout le produit qu't'as Binks Faut-faut qu'je rentre dans l'jeu avec la justice, je fais doucement Grr On s'est fait juger, le procureur veut nous mettre douze mois Douze mois On sort avec du sursis Shoo sans soucis, j'ai-j'ai fait tout ça sans sucer, si j'l'ai fait, tu peux l'faire aussi Grr Faut-faut qu'je rentre dans l'jeu avec la justice, je fais doucement Grr On s'est fait juger, le procureur veut nous mettre douze mois Douze mois On sort avec du sursis Shoo sans soucis, j'ai-j'ai fait tout ça sans sucer, si j'l'ai fait, tu peux l'faire aussi Grr Extorsion et vol à main armé À main armé, à main armé</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>L'ange à ma gauche me dit qu'c'est bientôt la fin L'heure arrive où dans la ville, c'est les démons qui danseront Yeah Te'-te' dans la gorge, j'suis libre comme dans la grotte J'souris, j'attends la grêle, bolide, j'attends la brèche So descend pas d'la branche, So ne prend pas la blanche Folie des rois mais j'convoite ni la couronne, ni les catins Promets-moi d'jamais oublier J'ai des trous d'mémoire mais j'me souviens encor d'nous deux Faisons semblant encor une heure ou deux Beendo Z, Tsukilala, apocalypse tah Titanic Fuck, fuck les racistes, les croix gammées, j'ai coffré, j'ai fait une croix sur mon gamos Gamos, pah J'ai vendu trois fois filtré pour avoir les trois viandes dans mon tacos Shoo Je prie pour pas être un prolétaire Hein ?, faut qu'j'brille comme le gun de mon producteur Hein ? Le prix varie en fonction du produit qu't'as Ouais, pour qu'le ient-cli tire une taffe, il faut du taf J'suis ce-s et j'peux t'faire du gras Mmh, j'aime quand ça dure, j'crache pas, j'aime faire durer S'ils pensent qu'j'suis bête parce que j'fais du rap Hein ?, on dirait qu'j'suis agriculteur car j'fais du blé Ouais J'me prépare à la fin du monde Eh, le paradis s'vide, en enfer, y a grave du monde Eh Parce que à l'envers, monde c'est démon, une rafale dans ta maison, ça fait des morts Ouais You might also like Promets-moi d'jamais oublier J'ai des trous d'mémoire mais j'me souviens encore d'nous deux Faisons semblant encore une heure ou deux Beendo Z, Tsukilala, apocalypse tah Titanic C'est des kouffars Beendo, j'écris c'texte dans le Uber, confort Beendo On sait c'qu'on veut donc on sait c'qu'on vole Eh, on sait c'qu'on vit donc on sait c'qu'on veut Hey J'agis, j'ai pas l'temps d'faire une conv' Nan, nan, si ça roule pas, j'vais faire une gova Vroum Ici, ça rappe, ça fait pas d'cover, l'argent c'est une couette, toi tu peux pas t'couvrir T'as voulu donner un go quand t'as vu le tél' de ta go Bah ouais Ils sont accros au taga, découper des prods, moi j'suis accro Eh-eh T'as voulu donner un go quand t'as vu le tél' de ta gadji J'veux un Merco, toit ouvrant avec les sièges en cachemire Oh-oh-oh Si ça roule pas, j'fais une gova Si ça marche pas j'fais une gov Soixante soleils dans le convoi Avec Beendo Z Tant qu'j'ai le ciel et ma dose Le ciel et ma dose J'observerai la fin du monde dans la gov' Oh-oh-oh Promets-moi d'jamais oublier J'ai des trous d'mémoire mais j'me souviens encore d'nous deux Faisons semblant encore une heure ou deux Beendo Z, Tsukilala, apocalypse tah Titanic</t>
+          <t>L'ange à ma gauche me dit qu'c'est bientôt la fin L'heure arrive où dans la ville, c'est les démons qui danseront Yeah Te'-te' dans la gorge, j'suis libre comme dans la grotte J'souris, j'attends la grêle, bolide, j'attends la brèche So descend pas d'la branche, So ne prend pas la blanche Folie des rois mais j'convoite ni la couronne, ni les catins Promets-moi d'jamais oublier J'ai des trous d'mémoire mais j'me souviens encor d'nous deux Faisons semblant encor une heure ou deux Beendo Z, Tsukilala, apocalypse tah Titanic Fuck, fuck les racistes, les croix gammées, j'ai coffré, j'ai fait une croix sur mon gamos Gamos, pah J'ai vendu trois fois filtré pour avoir les trois viandes dans mon tacos Shoo Je prie pour pas être un prolétaire Hein ?, faut qu'j'brille comme le gun de mon producteur Hein ? Le prix varie en fonction du produit qu't'as Ouais, pour qu'le ient-cli tire une taffe, il faut du taf J'suis ce-s et j'peux t'faire du gras Mmh, j'aime quand ça dure, j'crache pas, j'aime faire durer S'ils pensent qu'j'suis bête parce que j'fais du rap Hein ?, on dirait qu'j'suis agriculteur car j'fais du blé Ouais J'me prépare à la fin du monde Eh, le paradis s'vide, en enfer, y a grave du monde Eh Parce que à l'envers, monde c'est démon, une rafale dans ta maison, ça fait des morts Ouais Promets-moi d'jamais oublier J'ai des trous d'mémoire mais j'me souviens encore d'nous deux Faisons semblant encore une heure ou deux Beendo Z, Tsukilala, apocalypse tah Titanic C'est des kouffars Beendo, j'écris c'texte dans le Uber, confort Beendo On sait c'qu'on veut donc on sait c'qu'on vole Eh, on sait c'qu'on vit donc on sait c'qu'on veut Hey J'agis, j'ai pas l'temps d'faire une conv' Nan, nan, si ça roule pas, j'vais faire une gova Vroum Ici, ça rappe, ça fait pas d'cover, l'argent c'est une couette, toi tu peux pas t'couvrir T'as voulu donner un go quand t'as vu le tél' de ta go Bah ouais Ils sont accros au taga, découper des prods, moi j'suis accro Eh-eh T'as voulu donner un go quand t'as vu le tél' de ta gadji J'veux un Merco, toit ouvrant avec les sièges en cachemire Oh-oh-oh Si ça roule pas, j'fais une gova Si ça marche pas j'fais une gov Soixante soleils dans le convoi Avec Beendo Z Tant qu'j'ai le ciel et ma dose Le ciel et ma dose J'observerai la fin du monde dans la gov' Oh-oh-oh Promets-moi d'jamais oublier J'ai des trous d'mémoire mais j'me souviens encore d'nous deux Faisons semblant encore une heure ou deux Beendo Z, Tsukilala, apocalypse tah Titanic</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Un noir armé, un mort en sursis Sursis, on apprend à gérer les soucis Apprend à gére les soucis Les sous sales, les soucis du sale son Sale son, la guitare fait pas l'bruit du saxo' Dieu m'a puni en m'donnant c'que j'voulais, on punit les gues-sh' en leur donnant c'qu'ils voulaient Parce que faut des sous pour pouvoir snapper l'volant, pour qu'une violente racli t'envoie un Snap violet J'suis vide à l'intérieur comme un sac volé, ça dit que ça t'connait juste parce que ça t'follow Moi, j'suis posé avec mon sin-c', mon frelon, ça parle de tout, ça parle de soulever tre-l'au Gang Ça parle de tout, ça parle de faire des boulots, ça dit qu'Paris a fait signer Dembélé J'sors un fer si on m'sort un mbeli, comme un négro des States, comme dans Belly Poh, poh La kichta, la kichta embellie, on va marquer l'coup, on va venir en pleine nuit Ouh, ouh On est sous l'coup d'une petite peine, oui, on va pas changer d'voix comme T-Pain Au commissariat, jamais j'avouerai même si y a des plaisirs que j'aimerais savourer Coffee, coffee, joint déjà roulé, kichta dans la poche à la fin d'la journée On a des, on a des bastos, belek si t'as pas l'gilet Brr, on a des bastos, belek si t'as pas l'gilet, j'vais péter le sin'-, bastos à JM, j'vais péter le sin'-, bastos à JM Il t'a bé-bar, pourquoi t'agis as-p Hein ? Faut monter sur l'coup, monter sur la girafe On court après les francs CFA, les dirhams, ils courent après les femmes, ils courent après l'SIDA Revendre les boulettes, monter les étages, attention, le jou'-jou' peut faire des tâches Ouh, ouh Ils sont faux, donc j'ai préféré m'détacher, la trahison rime avec le THC THC Autant d'shit, autant d'C, j'entends snif et j'les vois tous danser Pour ceux qui sont partis, j'ai mille pensées mais ça va, j'ai plus rien, là, j'ai mis l'pansement Sa mère You might also like La kichta, la kichta embellie, on va marquer l'coup, on va venir en pleine nuit Ouh, ouh On est sous l'coup d'une petite peine, oui, on va pas changer d'voix comme T-Pain Au commissariat, jamais j'avouerai même si y a des plaisirs que j'aimerais savourer Coffee, coffee, joint déjà roulé, kichta dans la poche à la fin d'la journée La kichta, la kichta embellie, on va marquer l'coup, on va venir en pleine nuit Ouh, ouh On est sous l'coup d'une petite peine, oui, on va pas changer d'voix comme T-Pain Au commissariat, jamais j'avouerai même si y a des plaisirs que j'aimerais savourer Coffee, coffee, joint déjà roulé, kichta dans la poche à la fin d'la journée Revendre les boulettes, monter les étages, tu peux faire des tâches THC, dans l'tieks Revendre les boulettes, monter les étages Beendo</t>
+          <t>Un noir armé, un mort en sursis Sursis, on apprend à gérer les soucis Apprend à gére les soucis Les sous sales, les soucis du sale son Sale son, la guitare fait pas l'bruit du saxo' Dieu m'a puni en m'donnant c'que j'voulais, on punit les gues-sh' en leur donnant c'qu'ils voulaient Parce que faut des sous pour pouvoir snapper l'volant, pour qu'une violente racli t'envoie un Snap violet J'suis vide à l'intérieur comme un sac volé, ça dit que ça t'connait juste parce que ça t'follow Moi, j'suis posé avec mon sin-c', mon frelon, ça parle de tout, ça parle de soulever tre-l'au Gang Ça parle de tout, ça parle de faire des boulots, ça dit qu'Paris a fait signer Dembélé J'sors un fer si on m'sort un mbeli, comme un négro des States, comme dans Belly Poh, poh La kichta, la kichta embellie, on va marquer l'coup, on va venir en pleine nuit Ouh, ouh On est sous l'coup d'une petite peine, oui, on va pas changer d'voix comme T-Pain Au commissariat, jamais j'avouerai même si y a des plaisirs que j'aimerais savourer Coffee, coffee, joint déjà roulé, kichta dans la poche à la fin d'la journée On a des, on a des bastos, belek si t'as pas l'gilet Brr, on a des bastos, belek si t'as pas l'gilet, j'vais péter le sin'-, bastos à JM, j'vais péter le sin'-, bastos à JM Il t'a bé-bar, pourquoi t'agis as-p Hein ? Faut monter sur l'coup, monter sur la girafe On court après les francs CFA, les dirhams, ils courent après les femmes, ils courent après l'SIDA Revendre les boulettes, monter les étages, attention, le jou'-jou' peut faire des tâches Ouh, ouh Ils sont faux, donc j'ai préféré m'détacher, la trahison rime avec le THC THC Autant d'shit, autant d'C, j'entends snif et j'les vois tous danser Pour ceux qui sont partis, j'ai mille pensées mais ça va, j'ai plus rien, là, j'ai mis l'pansement Sa mère La kichta, la kichta embellie, on va marquer l'coup, on va venir en pleine nuit Ouh, ouh On est sous l'coup d'une petite peine, oui, on va pas changer d'voix comme T-Pain Au commissariat, jamais j'avouerai même si y a des plaisirs que j'aimerais savourer Coffee, coffee, joint déjà roulé, kichta dans la poche à la fin d'la journée La kichta, la kichta embellie, on va marquer l'coup, on va venir en pleine nuit Ouh, ouh On est sous l'coup d'une petite peine, oui, on va pas changer d'voix comme T-Pain Au commissariat, jamais j'avouerai même si y a des plaisirs que j'aimerais savourer Coffee, coffee, joint déjà roulé, kichta dans la poche à la fin d'la journée Revendre les boulettes, monter les étages, tu peux faire des tâches THC, dans l'tieks Revendre les boulettes, monter les étages Beendo</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Ivoirien détér', du quatre-vingt ze-trei à Bouaké S.E, j'arrêterai d'faire du le-sa quand ces pétasses arrêteront de twerker Viens-viens pour rafaler, pour faire une sse-pa, si t'as la baraka, tu finis dans l'coma Une lame sur une quette-pla ou dans ton estomac, j'sors pas d'la ge-ca comme Donnaruma Hey, hey, hey J'suis dans le Range Rover, j'viens prendre la recette du bosseur Ouais Chaud comme si j'sortais d'un toaster, j'fais mouillr la cke-schne de vos sours Sale Ton fils se cache pour écouter mon opus Gang, comme son père pour aller aux putes C'est moi quand y a un V8 au dépose-minutes, passements d'jambes pour aller aux buts J'bosse avec tous ceux qui sont du bon côté d'mon canon, quand il pleut Je n'vois pas de blanc, je n'vois pas de noir, la seule couleur qu'j'vois, c'est le bleu des vingt-deux S.E J'fais qu'des tout droit S.E, comme le livreur, j'fais demi-tour pour récupérer l'tireur J'fais qu'des tout droit, comme le livreur, j'fais demi-tour pour récupérer l'tireur S.E On t'fait les poches pendant qu'tu montres tes dents, ce train t'ramène en enfer s'tu montes dedans C'est un traître, pour lui, je mets pas les gants, le monde est petit, donc ne joue pas les grands Je détaille, je détaille, je visser, je vends Ouais, fuck tous les flockos qui brassent que du vent S.E Je détaille, je détaille, je visser, je vends, fuck tous les flockos qui brassent que du vent Beendo, pour extorsion et vol à main armée On n'a pas élevé les cochons ensemble Les cochons emsemble, si on n'a pas v'-esqui les porcs ensemble Si c'est pour de l'argent, on peut ler-par ensemble, j'me suis formé dehors, moi, j'étais pas en centre Pas en centre J'ai connu l'banc d'foot et celui des accusés, on n'est pas en couple, dis aux gens qu't'es ma cousine Bah oui J'peux faire du sale, même sur un thème acoustique, j'mets la beuh dans l'grinder et ça croustille Grr, grr C'est nous, on a volé, c'est nous, on a dealé Grr, c'est nous qui étions toujours absents aux dîners Dîners Devant la Batman, j'disparais comme Houdini Grr, ces négros parlent mal que devant les gros tignés Nous, on parle bien, pourtant, on est outillés Brr, j'représente le neuf-cinq, j'représente les cités Les cités J'représente ceux qui savent très bien où tirer, même si tu casses ta puce, les keufs savent où tu es Brr J'entends mais j'écoute pas tes paroles, tes histoires Nan, nan, quand je mets les poings, c'est pas pour des vielles histoires Ouais Mes professeurs, c'était des gros cistes-ra, les grand-frères de mes potes, c'était des grossistes Hein Pour moi, la prod', c'est un repas consistant Hein, à la barre, je suis l'premier qu'on cite Grr J'prends mon sursis et j'me casse aussitôt, on vend du ne-jau, on cultive pas le citron You might also like On t'fait les poches pendant qu'tu montres tes dents, ce train t'ramène en enfer s'tu montes dedans C'est un traître, pour lui, je mets pas les gants, le monde est petit, donc ne joue pas les grands Je détaille, je détaille, je visser, je vends Ouais, fuck tous les flockos qui brassent que du vent S.E Je détaille, je détaille, je visser, je vends, fuck tous les flockos qui brassent que du vent On t'fait les poches pendant qu'tu montres tes dents, ce train t'ramène en enfer s'tu montes dedans C'est un traître, pour lui, je mets pas les gants, le monde est petit, donc ne joue pas les grands Je détaille, je détaille, je visser, je vends Ouais, fuck tous les flockos qui brassent que du vent S.E Je détaille, je détaille, je visser, je vends, fuck tous les flockos qui brassent que du vent S.E</t>
+          <t>Ivoirien détér', du quatre-vingt ze-trei à Bouaké S.E, j'arrêterai d'faire du le-sa quand ces pétasses arrêteront de twerker Viens-viens pour rafaler, pour faire une sse-pa, si t'as la baraka, tu finis dans l'coma Une lame sur une quette-pla ou dans ton estomac, j'sors pas d'la ge-ca comme Donnaruma Hey, hey, hey J'suis dans le Range Rover, j'viens prendre la recette du bosseur Ouais Chaud comme si j'sortais d'un toaster, j'fais mouillr la cke-schne de vos sours Sale Ton fils se cache pour écouter mon opus Gang, comme son père pour aller aux putes C'est moi quand y a un V8 au dépose-minutes, passements d'jambes pour aller aux buts J'bosse avec tous ceux qui sont du bon côté d'mon canon, quand il pleut Je n'vois pas de blanc, je n'vois pas de noir, la seule couleur qu'j'vois, c'est le bleu des vingt-deux S.E J'fais qu'des tout droit S.E, comme le livreur, j'fais demi-tour pour récupérer l'tireur J'fais qu'des tout droit, comme le livreur, j'fais demi-tour pour récupérer l'tireur S.E On t'fait les poches pendant qu'tu montres tes dents, ce train t'ramène en enfer s'tu montes dedans C'est un traître, pour lui, je mets pas les gants, le monde est petit, donc ne joue pas les grands Je détaille, je détaille, je visser, je vends Ouais, fuck tous les flockos qui brassent que du vent S.E Je détaille, je détaille, je visser, je vends, fuck tous les flockos qui brassent que du vent Beendo, pour extorsion et vol à main armée On n'a pas élevé les cochons ensemble Les cochons emsemble, si on n'a pas v'-esqui les porcs ensemble Si c'est pour de l'argent, on peut ler-par ensemble, j'me suis formé dehors, moi, j'étais pas en centre Pas en centre J'ai connu l'banc d'foot et celui des accusés, on n'est pas en couple, dis aux gens qu't'es ma cousine Bah oui J'peux faire du sale, même sur un thème acoustique, j'mets la beuh dans l'grinder et ça croustille Grr, grr C'est nous, on a volé, c'est nous, on a dealé Grr, c'est nous qui étions toujours absents aux dîners Dîners Devant la Batman, j'disparais comme Houdini Grr, ces négros parlent mal que devant les gros tignés Nous, on parle bien, pourtant, on est outillés Brr, j'représente le neuf-cinq, j'représente les cités Les cités J'représente ceux qui savent très bien où tirer, même si tu casses ta puce, les keufs savent où tu es Brr J'entends mais j'écoute pas tes paroles, tes histoires Nan, nan, quand je mets les poings, c'est pas pour des vielles histoires Ouais Mes professeurs, c'était des gros cistes-ra, les grand-frères de mes potes, c'était des grossistes Hein Pour moi, la prod', c'est un repas consistant Hein, à la barre, je suis l'premier qu'on cite Grr J'prends mon sursis et j'me casse aussitôt, on vend du ne-jau, on cultive pas le citron On t'fait les poches pendant qu'tu montres tes dents, ce train t'ramène en enfer s'tu montes dedans C'est un traître, pour lui, je mets pas les gants, le monde est petit, donc ne joue pas les grands Je détaille, je détaille, je visser, je vends Ouais, fuck tous les flockos qui brassent que du vent S.E Je détaille, je détaille, je visser, je vends, fuck tous les flockos qui brassent que du vent On t'fait les poches pendant qu'tu montres tes dents, ce train t'ramène en enfer s'tu montes dedans C'est un traître, pour lui, je mets pas les gants, le monde est petit, donc ne joue pas les grands Je détaille, je détaille, je visser, je vends Ouais, fuck tous les flockos qui brassent que du vent S.E Je détaille, je détaille, je visser, je vends, fuck tous les flockos qui brassent que du vent S.E</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Prince ! J'vais débarquer chez toi comme Chez toi Rapper comme moi, qui peut le f' ? Moi J'arrive comme le numéro dix du RMA RMA J'arrive comme le numéro dix du triple F J'en profite, j'leur ai pissé dessus pendant qu'il pleuvait On a provoqué la foudre, on a esquivé l'tonnerre Est-ce qu'il veut une vie d'taulard ou est-ce qu'il veut une balle, peut-être ? On sait qu'pour aller loin, faut pas faire du à-peu-près Faut sortir un pompe pour gérer un mal de Faut trouver un compte et décaisser la recette Celui qui a réussi, peut m'faire la morale, je sais Garder le sourire, garder le moral, j'essaie Merco, pas G7, on en fait pas des siennes Mentalité parisienne, on t'fait si t'es pas d'ici On t'fait si t'es pas d'ici J'ai jamais cru qu'y aurait pas dix sous Nan, nan, nan J'ai eu confiance en moi, j'me suis pas déçu Grr On va t'arroser, à ton enterrement y aura des fleurs Fleurs Y aura des sourires, y aura des pleurs Tou-tou-tou Les écoutes pas, c'est pas des tueurs J'les écoutes pas, c'est pas des tueurs On va t'arroser, à ton enterrement y aura des fleurs Grr Y aura des sourires, y aura des pleurs Tou-tou-tou Les écoutes pas, c'est pas des tueurs Les écoutes pas, c'est pas des tueurs You might also like Parano, j'confonds les sirènes d'la police et l'ambulance Par année, j'fais rentrer des k, j'taffe pas dans la finance J'chante pas pour les fillettes, une adresse, on t'filoche Nan Ils mettent les gants pour faire des photos, c'est du cinoche Tou-tou-tou Toujours plus, toujours plus, dans les poches j'en ai besoin Grraah On s'déplace, on vis-ser c'que tu mets dans tes joints Grraah BAC ou 31, on s'met sur notre trente-et-un Ils sont venus à quinze, j'aurais voulu en planter un Les envoyer au Panthéon, coup d'couteau dans l'pancréas Hein Pour eux j'vais pas ber-tom, y a du papier à palper là Des affaires à remonter donc on ves-qui pas l'péage J'ai trop parler mais c'est juste pour dire qu'on a passé l'âge On a passé l'âge Ils ont pas assez d'cash, j'donne pas mon temps à ces 'tasses Debout à sept heures pour partir sans laisser d'traces Ves-qui les inspecteurs, les piétons j'les laisse pas passer On m'aime pas dans l'secteur On m'aime pas dans l'secteur Les écoutes pas, c'est pas des tueurs, c'est des loques, c'est pas leur Vois, ils aiment trop mentir Vois, ils aiment trop mentir J'crois, j'crois qu'on va s'repentir, froids on a pas d'sentiments J'crois qu'il faut s'repentir On va t'arroser, à ton enterrement y aura des fleurs Fleurs Y aura des sourires, y aura des pleurs Pan, pan Les écoutes pas, c'est pas des tueurs Les écoutes pas Les écoutes pas, c'est pas des tueurs On va t'arroser, à ton enterrement y aura des fleurs Y aura des sourires, y aura des pleurs Les écoutes pas, c'est pas des tueurs J'les écoutes pas, c'est pas des tueurs On va t'arroser, à ton enterrement y aura des fleurs Y aura des sourires, y aura des pleurs Les écoutes pas, c'est pas des tueurs Les écoutes pas, c'est pas des tueurs</t>
+          <t>Prince ! J'vais débarquer chez toi comme Chez toi Rapper comme moi, qui peut le f' ? Moi J'arrive comme le numéro dix du RMA RMA J'arrive comme le numéro dix du triple F J'en profite, j'leur ai pissé dessus pendant qu'il pleuvait On a provoqué la foudre, on a esquivé l'tonnerre Est-ce qu'il veut une vie d'taulard ou est-ce qu'il veut une balle, peut-être ? On sait qu'pour aller loin, faut pas faire du à-peu-près Faut sortir un pompe pour gérer un mal de Faut trouver un compte et décaisser la recette Celui qui a réussi, peut m'faire la morale, je sais Garder le sourire, garder le moral, j'essaie Merco, pas G7, on en fait pas des siennes Mentalité parisienne, on t'fait si t'es pas d'ici On t'fait si t'es pas d'ici J'ai jamais cru qu'y aurait pas dix sous Nan, nan, nan J'ai eu confiance en moi, j'me suis pas déçu Grr On va t'arroser, à ton enterrement y aura des fleurs Fleurs Y aura des sourires, y aura des pleurs Tou-tou-tou Les écoutes pas, c'est pas des tueurs J'les écoutes pas, c'est pas des tueurs On va t'arroser, à ton enterrement y aura des fleurs Grr Y aura des sourires, y aura des pleurs Tou-tou-tou Les écoutes pas, c'est pas des tueurs Les écoutes pas, c'est pas des tueurs Parano, j'confonds les sirènes d'la police et l'ambulance Par année, j'fais rentrer des k, j'taffe pas dans la finance J'chante pas pour les fillettes, une adresse, on t'filoche Nan Ils mettent les gants pour faire des photos, c'est du cinoche Tou-tou-tou Toujours plus, toujours plus, dans les poches j'en ai besoin Grraah On s'déplace, on vis-ser c'que tu mets dans tes joints Grraah BAC ou 31, on s'met sur notre trente-et-un Ils sont venus à quinze, j'aurais voulu en planter un Les envoyer au Panthéon, coup d'couteau dans l'pancréas Hein Pour eux j'vais pas ber-tom, y a du papier à palper là Des affaires à remonter donc on ves-qui pas l'péage J'ai trop parler mais c'est juste pour dire qu'on a passé l'âge On a passé l'âge Ils ont pas assez d'cash, j'donne pas mon temps à ces 'tasses Debout à sept heures pour partir sans laisser d'traces Ves-qui les inspecteurs, les piétons j'les laisse pas passer On m'aime pas dans l'secteur On m'aime pas dans l'secteur Les écoutes pas, c'est pas des tueurs, c'est des loques, c'est pas leur Vois, ils aiment trop mentir Vois, ils aiment trop mentir J'crois, j'crois qu'on va s'repentir, froids on a pas d'sentiments J'crois qu'il faut s'repentir On va t'arroser, à ton enterrement y aura des fleurs Fleurs Y aura des sourires, y aura des pleurs Pan, pan Les écoutes pas, c'est pas des tueurs Les écoutes pas Les écoutes pas, c'est pas des tueurs On va t'arroser, à ton enterrement y aura des fleurs Y aura des sourires, y aura des pleurs Les écoutes pas, c'est pas des tueurs J'les écoutes pas, c'est pas des tueurs On va t'arroser, à ton enterrement y aura des fleurs Y aura des sourires, y aura des pleurs Les écoutes pas, c'est pas des tueurs Les écoutes pas, c'est pas des tueurs</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Les mecs d'à côté veulent nous ressembler C'qui est bien dans ma ville c'est qu'on est tous en bleu Si tu viens ici tu repars avec des bleus A l'école j'notais pas c'qui y'avait sur l'tableau Quand j'avais pas d'buzz des fois les gow me laissaient en plan une fois après avoir payé la bre J'ai préféré revendre le shit et la beuh le million sur YouTube J'fais des millions d'vues j'roule en Clio 3 J'ai des inspirations venues d'autre part La meuf est piquée mais j'ai pas de Audemart Si j'la baise c'est que j'lai fait rire comme Omar Sy J'abrège quand j'suis devant la victime J'ai cassé des têtes jamais cassé de vitrines Fuck le 17 mais pas Vitinha Je savais que j'étais fait pour le dehorsYou might also like</t>
+          <t>Les mecs d'à côté veulent nous ressembler C'qui est bien dans ma ville c'est qu'on est tous en bleu Si tu viens ici tu repars avec des bleus A l'école j'notais pas c'qui y'avait sur l'tableau Quand j'avais pas d'buzz des fois les gow me laissaient en plan une fois après avoir payé la bre J'ai préféré revendre le shit et la beuh le million sur YouTube J'fais des millions d'vues j'roule en Clio 3 J'ai des inspirations venues d'autre part La meuf est piquée mais j'ai pas de Audemart Si j'la baise c'est que j'lai fait rire comme Omar Sy J'abrège quand j'suis devant la victime J'ai cassé des têtes jamais cassé de vitrines Fuck le 17 mais pas Vitinha Je savais que j'étais fait pour le dehors</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Hum, hum, hum Fire Le single d'or est chez ma mère Chez ma mère, le platine, chez mon père, chez moi, y a R mais j'suis diamantaire mais bon, y a R Rah, y a R Les problèmes, on est les règles pas à deux, même si y a black, même si y a A2 Si y a la BAC, y a déjà l'baveux, même si y a la plaque, on passe pas aux aveux Un pouvoir implique des responsabilités, les petites attaques peuvent pas m'irriter Tout c'qui t'arrive, toi, tu mérites pas Pah, pah, tout c'qui m'arrive, moi, c'est mérité T'aimes la sonorité, donc tu mets replay, replay, la phase d'avant t'as fait méditer Tu peux pas v'-esqui la muerte et les impôts, quand tu payes, faut payer en liquide et tu l'sais Tu l'sais On les cala as-p, ils sont à pattes, ils sont bons qu'à admirer les jantes Vroum, vroum Y a-, y a l'Euro 2024 Rah, si tout s'passe bien, on ira casser sur les Champs J'ai appris qu'faut pas compter sur les gens et qu'même pour les plus gentils, le monde est méchant Le monde est méchant J'suis devenu un peu plus méfiant, j'peux sortir les crocs mais j'montre plus les dents J'ai pris un fer, j'ai pris du recul, j'ai pris mes distances, j'ai tiré sur la corde sensible Pah, pah Mais j'ai senti aucune résistance, INSPIRÉ D'FAITS RÉELS 7, c'est une science Science, science J'suis noir, j'ai du biff et je sais qu'c'est une chance, j'suis trop concentré pour inventer une danse Réel J'suis celui qui dit et celui qui fait Yes, pas celui qui regarde ni celui qui pense Mais Beendo, Beendo You might also like Grr Beendo Zarsis aka Beendo Z Grah, connu pour extorsion et vol à main armée Beendo, gang Chaud comme la fournaise, demain, j't'envoie un EP dans la foulée Brr Brr Tous les jours c'est l'début du mois, j'suis capable du plus et incapable du moins On t'fait des 4-4-2 à 4h du mat', c'est noir, y a qu'à voir la couleur du mal C'est noir Y a qu'à voir la couleur des Nike, elles étaient noires, maintenant, elles sont white, protégés pour faire du rap, la carrière de Michael Sur scène ou dans l'Merco 'co, c'est moi qui tiens le mic, j'fais pas d'photos avec les baqueux, j'ai toujours les réflexes des bad boy Travail, humilité, j'ai bossé dur, mon négro, j'ai pas d'bol, j'ai des reufs, j'ai pas d'potes, la plupart trahissent pour des talbins Rah Nous, on pardonne pas, dans mon verre, y a pas d'eau, y a un tas d'vin J'ai vendu, j'ai vendu un tas d'vingt pour pouvoir manger à ma faim À ma faim À la fin, j'me retrouve seul, comme au début, la carte bancaire, que elle débite et la misère que elle m'évite On veut s'ranger comme Keaton mais y a l'appel du fric mais y a l'bigo qui sonne, qui répond à l'appel du crime Crime On fait rentrer des sommes, on va pas s'contenter du SMIC Eh, on préfère marcher seul que d'marcher à côté d'une snitch On va montrer aux volontaires c'est quoi la véritable volonté, t'as vu le buzz, t'as vu les streams, t'as vu le fer et tu veux monter T'as pris une paye, j'ai pris une paye mais pas pareil, j'ai pas montré, t'as pris une 'teille, j'ai pris une 'teille, y a pas d'racli dans ton carré J'débite comme un Tokarev Tokarev, mon cauchemar, c'est d'rester bloqué dans un rêve Gang Les roses qui ont poussé dans la merde, c'est nous, on a bossé dans la verte C'est nous Le beau temps après l'averse, c'est pas nous, nous, on vient masquer dans la fête INSPIRÉ D'FAITS RÉELS, j'essaye juste de faire c'que personne n'a fait Gang, gang J'essaye juste de faire c'que personne n'a fait N'a fait, n'a fait Yeah Yeah Beendo Beendo INSPIRÉ D'FAITS RÉELS</t>
+          <t>Hum, hum, hum Fire Le single d'or est chez ma mère Chez ma mère, le platine, chez mon père, chez moi, y a R mais j'suis diamantaire mais bon, y a R Rah, y a R Les problèmes, on est les règles pas à deux, même si y a black, même si y a A2 Si y a la BAC, y a déjà l'baveux, même si y a la plaque, on passe pas aux aveux Un pouvoir implique des responsabilités, les petites attaques peuvent pas m'irriter Tout c'qui t'arrive, toi, tu mérites pas Pah, pah, tout c'qui m'arrive, moi, c'est mérité T'aimes la sonorité, donc tu mets replay, replay, la phase d'avant t'as fait méditer Tu peux pas v'-esqui la muerte et les impôts, quand tu payes, faut payer en liquide et tu l'sais Tu l'sais On les cala as-p, ils sont à pattes, ils sont bons qu'à admirer les jantes Vroum, vroum Y a-, y a l'Euro 2024 Rah, si tout s'passe bien, on ira casser sur les Champs J'ai appris qu'faut pas compter sur les gens et qu'même pour les plus gentils, le monde est méchant Le monde est méchant J'suis devenu un peu plus méfiant, j'peux sortir les crocs mais j'montre plus les dents J'ai pris un fer, j'ai pris du recul, j'ai pris mes distances, j'ai tiré sur la corde sensible Pah, pah Mais j'ai senti aucune résistance, INSPIRÉ D'FAITS RÉELS 7, c'est une science Science, science J'suis noir, j'ai du biff et je sais qu'c'est une chance, j'suis trop concentré pour inventer une danse Réel J'suis celui qui dit et celui qui fait Yes, pas celui qui regarde ni celui qui pense Mais Beendo, Beendo Grr Beendo Zarsis aka Beendo Z Grah, connu pour extorsion et vol à main armée Beendo, gang Chaud comme la fournaise, demain, j't'envoie un EP dans la foulée Brr Brr Tous les jours c'est l'début du mois, j'suis capable du plus et incapable du moins On t'fait des 4-4-2 à 4h du mat', c'est noir, y a qu'à voir la couleur du mal C'est noir Y a qu'à voir la couleur des Nike, elles étaient noires, maintenant, elles sont white, protégés pour faire du rap, la carrière de Michael Sur scène ou dans l'Merco 'co, c'est moi qui tiens le mic, j'fais pas d'photos avec les baqueux, j'ai toujours les réflexes des bad boy Travail, humilité, j'ai bossé dur, mon négro, j'ai pas d'bol, j'ai des reufs, j'ai pas d'potes, la plupart trahissent pour des talbins Rah Nous, on pardonne pas, dans mon verre, y a pas d'eau, y a un tas d'vin J'ai vendu, j'ai vendu un tas d'vingt pour pouvoir manger à ma faim À ma faim À la fin, j'me retrouve seul, comme au début, la carte bancaire, que elle débite et la misère que elle m'évite On veut s'ranger comme Keaton mais y a l'appel du fric mais y a l'bigo qui sonne, qui répond à l'appel du crime Crime On fait rentrer des sommes, on va pas s'contenter du SMIC Eh, on préfère marcher seul que d'marcher à côté d'une snitch On va montrer aux volontaires c'est quoi la véritable volonté, t'as vu le buzz, t'as vu les streams, t'as vu le fer et tu veux monter T'as pris une paye, j'ai pris une paye mais pas pareil, j'ai pas montré, t'as pris une 'teille, j'ai pris une 'teille, y a pas d'racli dans ton carré J'débite comme un Tokarev Tokarev, mon cauchemar, c'est d'rester bloqué dans un rêve Gang Les roses qui ont poussé dans la merde, c'est nous, on a bossé dans la verte C'est nous Le beau temps après l'averse, c'est pas nous, nous, on vient masquer dans la fête INSPIRÉ D'FAITS RÉELS, j'essaye juste de faire c'que personne n'a fait Gang, gang J'essaye juste de faire c'que personne n'a fait N'a fait, n'a fait Yeah Yeah Beendo Beendo INSPIRÉ D'FAITS RÉELS</t>
         </is>
       </c>
     </row>
